--- a/src/main/resources/Financial_Report_2021.xlsx
+++ b/src/main/resources/Financial_Report_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\projects\church-app\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A0303C-8C9A-4E74-9D1E-0B661779A495}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9565A56-628C-4EB3-A1CC-2B299F5CE44E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{7F8DEBD6-32E0-4BF8-87C4-D1C13E633F04}"/>
+    <workbookView xWindow="980" yWindow="0" windowWidth="13740" windowHeight="10800" xr2:uid="{7F8DEBD6-32E0-4BF8-87C4-D1C13E633F04}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="252">
   <si>
     <t>Alpha Korean United Church</t>
   </si>
@@ -1341,6 +1341,9 @@
     </xf>
     <xf numFmtId="4" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1443,33 +1446,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1791,7 +1791,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1811,88 +1811,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.5">
-      <c r="A1" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
+      <c r="A1" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
     </row>
     <row r="2" spans="1:11" ht="18.5">
-      <c r="A2" s="111" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="A2" s="112" t="s">
+        <v>239</v>
+      </c>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
     </row>
     <row r="3" spans="1:11" ht="18.5">
-      <c r="A3" s="114" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
+      <c r="A3" s="115">
+        <v>2021</v>
+      </c>
+      <c r="B3" s="115"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="120" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="122"/>
-      <c r="G4" s="106" t="s">
+      <c r="B4" s="121"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="123"/>
+      <c r="G4" s="107" t="s">
         <v>240</v>
       </c>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="108"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="108"/>
+      <c r="K4" s="109"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="124" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="124"/>
+      <c r="B5" s="125"/>
       <c r="C5" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="152" t="s">
+      <c r="D5" s="105" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="81" t="s">
         <v>198</v>
       </c>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="110" t="s">
         <v>241</v>
       </c>
-      <c r="H5" s="110"/>
+      <c r="H5" s="111"/>
       <c r="I5" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="152" t="s">
+      <c r="J5" s="105" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="81" t="s">
@@ -2290,11 +2290,11 @@
         <f>Offering!$G$17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="130"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="130"/>
+      <c r="K17" s="131"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="82"/>
@@ -2388,10 +2388,10 @@
       <c r="K21" s="95"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="115" t="s">
+      <c r="A22" s="116" t="s">
         <v>225</v>
       </c>
-      <c r="B22" s="116"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="19">
         <f t="shared" ref="C22:E22" si="2">SUBTOTAL(9,C6:C21)</f>
         <v>148000</v>
@@ -2422,11 +2422,11 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="125"/>
-      <c r="B23" s="126"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="127"/>
+      <c r="A23" s="126"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
       <c r="G23" s="99"/>
       <c r="H23" s="22" t="s">
         <v>245</v>
@@ -2572,10 +2572,10 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="115" t="s">
+      <c r="A28" s="116" t="s">
         <v>228</v>
       </c>
-      <c r="B28" s="116"/>
+      <c r="B28" s="117"/>
       <c r="C28" s="19">
         <f>SUBTOTAL(9,C24:C27)</f>
         <v>15000</v>
@@ -2606,16 +2606,16 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="125"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="127"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="130"/>
+      <c r="A29" s="126"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="128"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="131"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="88" t="s">
@@ -2678,10 +2678,10 @@
       <c r="K32" s="98"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="B33" s="118"/>
+      <c r="B33" s="119"/>
       <c r="C33" s="101">
         <f>SUBTOTAL(9,C6:C32)</f>
         <v>220490</v>
@@ -2694,10 +2694,10 @@
         <f>SUBTOTAL(9,E6:E32)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="132" t="s">
+      <c r="G33" s="133" t="s">
         <v>248</v>
       </c>
-      <c r="H33" s="133"/>
+      <c r="H33" s="134"/>
       <c r="I33" s="103">
         <f>SUBTOTAL(9,I6:I28)</f>
         <v>220490</v>
@@ -2712,19 +2712,19 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="105" t="s">
+      <c r="A35" s="106" t="s">
         <v>250</v>
       </c>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="106"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2768,15 +2768,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5">
-      <c r="A1" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="138"/>
+      <c r="A1" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -2791,15 +2791,15 @@
       <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="15.5">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="137" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="138"/>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -2814,15 +2814,15 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="15.5">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="140" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -2837,10 +2837,10 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="141" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="140"/>
+      <c r="B4" s="141"/>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
       <c r="E4" s="31"/>
@@ -2860,10 +2860,10 @@
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="142" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="141"/>
+      <c r="B5" s="142"/>
       <c r="C5" s="34" t="s">
         <v>209</v>
       </c>
@@ -3475,10 +3475,10 @@
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="B22" s="116"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="19">
         <f>SUBTOTAL(9,C6:C21)</f>
         <v>162850</v>
@@ -3513,25 +3513,25 @@
       <c r="S22" s="8"/>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="142"/>
-      <c r="B23" s="126"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="129"/>
-      <c r="O23" s="129"/>
-      <c r="P23" s="129"/>
-      <c r="Q23" s="129"/>
-      <c r="R23" s="129"/>
-      <c r="S23" s="129"/>
+      <c r="A23" s="143"/>
+      <c r="B23" s="127"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="135"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="130"/>
+      <c r="L23" s="130"/>
+      <c r="M23" s="130"/>
+      <c r="N23" s="130"/>
+      <c r="O23" s="130"/>
+      <c r="P23" s="130"/>
+      <c r="Q23" s="130"/>
+      <c r="R23" s="130"/>
+      <c r="S23" s="130"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="24"/>
@@ -3667,10 +3667,10 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="116" t="s">
+      <c r="A28" s="117" t="s">
         <v>228</v>
       </c>
-      <c r="B28" s="116"/>
+      <c r="B28" s="117"/>
       <c r="C28" s="19">
         <f>SUBTOTAL(9,C24:C27)</f>
         <v>15000</v>
@@ -3705,25 +3705,25 @@
       <c r="S28" s="8"/>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="142"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="134"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="129"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="129"/>
-      <c r="Q29" s="129"/>
-      <c r="R29" s="129"/>
-      <c r="S29" s="129"/>
+      <c r="A29" s="143"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="130"/>
+      <c r="L29" s="130"/>
+      <c r="M29" s="130"/>
+      <c r="N29" s="130"/>
+      <c r="O29" s="130"/>
+      <c r="P29" s="130"/>
+      <c r="Q29" s="130"/>
+      <c r="R29" s="130"/>
+      <c r="S29" s="130"/>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="27" t="s">
@@ -3829,10 +3829,10 @@
       <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="135" t="s">
+      <c r="A33" s="136" t="s">
         <v>232</v>
       </c>
-      <c r="B33" s="135"/>
+      <c r="B33" s="136"/>
       <c r="C33" s="38">
         <f>SUBTOTAL(9,C6:C32)</f>
         <v>216891</v>
@@ -3954,15 +3954,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5">
-      <c r="A1" s="148" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="138"/>
+      <c r="A1" s="144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="139"/>
       <c r="H1" s="39"/>
       <c r="I1" s="39"/>
       <c r="J1" s="39"/>
@@ -3977,15 +3977,15 @@
       <c r="S1" s="39"/>
     </row>
     <row r="2" spans="1:19" ht="15.5">
-      <c r="A2" s="150">
+      <c r="A2" s="146">
         <v>2021</v>
       </c>
-      <c r="B2" s="148"/>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="138"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="139"/>
       <c r="H2" s="39"/>
       <c r="I2" s="39"/>
       <c r="J2" s="39"/>
@@ -4000,15 +4000,15 @@
       <c r="S2" s="39"/>
     </row>
     <row r="3" spans="1:19" ht="15.5">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="147" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="138"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="139"/>
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
@@ -4082,48 +4082,48 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.5">
-      <c r="A5" s="145"/>
-      <c r="B5" s="146"/>
-      <c r="C5" s="146"/>
-      <c r="D5" s="146"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="129"/>
-      <c r="S5" s="129"/>
+      <c r="A5" s="148"/>
+      <c r="B5" s="149"/>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="130"/>
+      <c r="L5" s="130"/>
+      <c r="M5" s="130"/>
+      <c r="N5" s="130"/>
+      <c r="O5" s="130"/>
+      <c r="P5" s="130"/>
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="130"/>
     </row>
     <row r="6" spans="1:19" ht="14.5">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="146"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="129"/>
-      <c r="S6" s="129"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="130"/>
+      <c r="P6" s="130"/>
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
     </row>
     <row r="7" spans="1:19" ht="14.5">
       <c r="A7" s="45" t="s">
@@ -4999,25 +4999,25 @@
       <c r="S32" s="75"/>
     </row>
     <row r="33" spans="1:19" ht="14.5">
-      <c r="A33" s="145"/>
-      <c r="B33" s="126"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="129"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="129"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="129"/>
-      <c r="N33" s="129"/>
-      <c r="O33" s="129"/>
-      <c r="P33" s="129"/>
-      <c r="Q33" s="129"/>
-      <c r="R33" s="129"/>
-      <c r="S33" s="129"/>
+      <c r="A33" s="148"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="151"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="130"/>
+      <c r="K33" s="130"/>
+      <c r="L33" s="130"/>
+      <c r="M33" s="130"/>
+      <c r="N33" s="130"/>
+      <c r="O33" s="130"/>
+      <c r="P33" s="130"/>
+      <c r="Q33" s="130"/>
+      <c r="R33" s="130"/>
+      <c r="S33" s="130"/>
     </row>
     <row r="34" spans="1:19" ht="14.5">
       <c r="A34" s="54" t="s">
@@ -5553,25 +5553,25 @@
       <c r="S48" s="75"/>
     </row>
     <row r="49" spans="1:19" ht="14.5">
-      <c r="A49" s="145"/>
-      <c r="B49" s="129"/>
-      <c r="C49" s="129"/>
-      <c r="D49" s="129"/>
-      <c r="E49" s="129"/>
-      <c r="F49" s="129"/>
-      <c r="G49" s="129"/>
-      <c r="H49" s="143"/>
-      <c r="I49" s="129"/>
-      <c r="J49" s="129"/>
-      <c r="K49" s="129"/>
-      <c r="L49" s="129"/>
-      <c r="M49" s="129"/>
-      <c r="N49" s="129"/>
-      <c r="O49" s="129"/>
-      <c r="P49" s="129"/>
-      <c r="Q49" s="129"/>
-      <c r="R49" s="129"/>
-      <c r="S49" s="129"/>
+      <c r="A49" s="148"/>
+      <c r="B49" s="130"/>
+      <c r="C49" s="130"/>
+      <c r="D49" s="130"/>
+      <c r="E49" s="130"/>
+      <c r="F49" s="130"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="150"/>
+      <c r="I49" s="130"/>
+      <c r="J49" s="130"/>
+      <c r="K49" s="130"/>
+      <c r="L49" s="130"/>
+      <c r="M49" s="130"/>
+      <c r="N49" s="130"/>
+      <c r="O49" s="130"/>
+      <c r="P49" s="130"/>
+      <c r="Q49" s="130"/>
+      <c r="R49" s="130"/>
+      <c r="S49" s="130"/>
     </row>
     <row r="50" spans="1:19" ht="14.5">
       <c r="A50" s="45" t="s">
@@ -5891,25 +5891,25 @@
       <c r="S58" s="75"/>
     </row>
     <row r="59" spans="1:19" ht="14.5">
-      <c r="A59" s="145"/>
-      <c r="B59" s="129"/>
-      <c r="C59" s="129"/>
-      <c r="D59" s="129"/>
-      <c r="E59" s="129"/>
-      <c r="F59" s="129"/>
-      <c r="G59" s="129"/>
-      <c r="H59" s="143"/>
-      <c r="I59" s="129"/>
-      <c r="J59" s="129"/>
-      <c r="K59" s="129"/>
-      <c r="L59" s="129"/>
-      <c r="M59" s="129"/>
-      <c r="N59" s="129"/>
-      <c r="O59" s="129"/>
-      <c r="P59" s="129"/>
-      <c r="Q59" s="129"/>
-      <c r="R59" s="129"/>
-      <c r="S59" s="129"/>
+      <c r="A59" s="148"/>
+      <c r="B59" s="130"/>
+      <c r="C59" s="130"/>
+      <c r="D59" s="130"/>
+      <c r="E59" s="130"/>
+      <c r="F59" s="130"/>
+      <c r="G59" s="130"/>
+      <c r="H59" s="150"/>
+      <c r="I59" s="130"/>
+      <c r="J59" s="130"/>
+      <c r="K59" s="130"/>
+      <c r="L59" s="130"/>
+      <c r="M59" s="130"/>
+      <c r="N59" s="130"/>
+      <c r="O59" s="130"/>
+      <c r="P59" s="130"/>
+      <c r="Q59" s="130"/>
+      <c r="R59" s="130"/>
+      <c r="S59" s="130"/>
     </row>
     <row r="60" spans="1:19" ht="14.5">
       <c r="A60" s="54" t="s">
@@ -6120,25 +6120,25 @@
       <c r="S65" s="75"/>
     </row>
     <row r="66" spans="1:19" ht="14.5">
-      <c r="A66" s="145"/>
-      <c r="B66" s="129"/>
-      <c r="C66" s="129"/>
-      <c r="D66" s="129"/>
-      <c r="E66" s="129"/>
-      <c r="F66" s="129"/>
-      <c r="G66" s="129"/>
-      <c r="H66" s="143"/>
-      <c r="I66" s="129"/>
-      <c r="J66" s="129"/>
-      <c r="K66" s="129"/>
-      <c r="L66" s="129"/>
-      <c r="M66" s="129"/>
-      <c r="N66" s="129"/>
-      <c r="O66" s="129"/>
-      <c r="P66" s="129"/>
-      <c r="Q66" s="129"/>
-      <c r="R66" s="129"/>
-      <c r="S66" s="129"/>
+      <c r="A66" s="148"/>
+      <c r="B66" s="130"/>
+      <c r="C66" s="130"/>
+      <c r="D66" s="130"/>
+      <c r="E66" s="130"/>
+      <c r="F66" s="130"/>
+      <c r="G66" s="130"/>
+      <c r="H66" s="150"/>
+      <c r="I66" s="130"/>
+      <c r="J66" s="130"/>
+      <c r="K66" s="130"/>
+      <c r="L66" s="130"/>
+      <c r="M66" s="130"/>
+      <c r="N66" s="130"/>
+      <c r="O66" s="130"/>
+      <c r="P66" s="130"/>
+      <c r="Q66" s="130"/>
+      <c r="R66" s="130"/>
+      <c r="S66" s="130"/>
     </row>
     <row r="67" spans="1:19" ht="14.5">
       <c r="A67" s="45" t="s">
@@ -6348,25 +6348,25 @@
       <c r="S72" s="75"/>
     </row>
     <row r="73" spans="1:19" ht="14.5">
-      <c r="A73" s="145"/>
-      <c r="B73" s="129"/>
-      <c r="C73" s="129"/>
-      <c r="D73" s="129"/>
-      <c r="E73" s="129"/>
-      <c r="F73" s="129"/>
-      <c r="G73" s="129"/>
-      <c r="H73" s="143"/>
-      <c r="I73" s="129"/>
-      <c r="J73" s="129"/>
-      <c r="K73" s="129"/>
-      <c r="L73" s="129"/>
-      <c r="M73" s="129"/>
-      <c r="N73" s="129"/>
-      <c r="O73" s="129"/>
-      <c r="P73" s="129"/>
-      <c r="Q73" s="129"/>
-      <c r="R73" s="129"/>
-      <c r="S73" s="129"/>
+      <c r="A73" s="148"/>
+      <c r="B73" s="130"/>
+      <c r="C73" s="130"/>
+      <c r="D73" s="130"/>
+      <c r="E73" s="130"/>
+      <c r="F73" s="130"/>
+      <c r="G73" s="130"/>
+      <c r="H73" s="150"/>
+      <c r="I73" s="130"/>
+      <c r="J73" s="130"/>
+      <c r="K73" s="130"/>
+      <c r="L73" s="130"/>
+      <c r="M73" s="130"/>
+      <c r="N73" s="130"/>
+      <c r="O73" s="130"/>
+      <c r="P73" s="130"/>
+      <c r="Q73" s="130"/>
+      <c r="R73" s="130"/>
+      <c r="S73" s="130"/>
     </row>
     <row r="74" spans="1:19" ht="14.5">
       <c r="A74" s="54" t="s">
@@ -6615,25 +6615,25 @@
       <c r="S80" s="75"/>
     </row>
     <row r="81" spans="1:19" ht="14.5">
-      <c r="A81" s="145"/>
-      <c r="B81" s="126"/>
-      <c r="C81" s="126"/>
-      <c r="D81" s="126"/>
-      <c r="E81" s="126"/>
-      <c r="F81" s="126"/>
-      <c r="G81" s="126"/>
-      <c r="H81" s="147"/>
-      <c r="I81" s="129"/>
-      <c r="J81" s="129"/>
-      <c r="K81" s="129"/>
-      <c r="L81" s="129"/>
-      <c r="M81" s="129"/>
-      <c r="N81" s="129"/>
-      <c r="O81" s="129"/>
-      <c r="P81" s="129"/>
-      <c r="Q81" s="129"/>
-      <c r="R81" s="129"/>
-      <c r="S81" s="129"/>
+      <c r="A81" s="148"/>
+      <c r="B81" s="127"/>
+      <c r="C81" s="127"/>
+      <c r="D81" s="127"/>
+      <c r="E81" s="127"/>
+      <c r="F81" s="127"/>
+      <c r="G81" s="127"/>
+      <c r="H81" s="151"/>
+      <c r="I81" s="130"/>
+      <c r="J81" s="130"/>
+      <c r="K81" s="130"/>
+      <c r="L81" s="130"/>
+      <c r="M81" s="130"/>
+      <c r="N81" s="130"/>
+      <c r="O81" s="130"/>
+      <c r="P81" s="130"/>
+      <c r="Q81" s="130"/>
+      <c r="R81" s="130"/>
+      <c r="S81" s="130"/>
     </row>
     <row r="82" spans="1:19" ht="14.5">
       <c r="A82" s="45" t="s">
@@ -7101,25 +7101,25 @@
       <c r="S94" s="75"/>
     </row>
     <row r="95" spans="1:19" ht="14.5">
-      <c r="A95" s="145"/>
-      <c r="B95" s="126"/>
-      <c r="C95" s="126"/>
-      <c r="D95" s="126"/>
-      <c r="E95" s="126"/>
-      <c r="F95" s="126"/>
-      <c r="G95" s="126"/>
-      <c r="H95" s="143"/>
-      <c r="I95" s="129"/>
-      <c r="J95" s="129"/>
-      <c r="K95" s="129"/>
-      <c r="L95" s="129"/>
-      <c r="M95" s="129"/>
-      <c r="N95" s="129"/>
-      <c r="O95" s="129"/>
-      <c r="P95" s="129"/>
-      <c r="Q95" s="129"/>
-      <c r="R95" s="129"/>
-      <c r="S95" s="129"/>
+      <c r="A95" s="148"/>
+      <c r="B95" s="127"/>
+      <c r="C95" s="127"/>
+      <c r="D95" s="127"/>
+      <c r="E95" s="127"/>
+      <c r="F95" s="127"/>
+      <c r="G95" s="127"/>
+      <c r="H95" s="150"/>
+      <c r="I95" s="130"/>
+      <c r="J95" s="130"/>
+      <c r="K95" s="130"/>
+      <c r="L95" s="130"/>
+      <c r="M95" s="130"/>
+      <c r="N95" s="130"/>
+      <c r="O95" s="130"/>
+      <c r="P95" s="130"/>
+      <c r="Q95" s="130"/>
+      <c r="R95" s="130"/>
+      <c r="S95" s="130"/>
     </row>
     <row r="96" spans="1:19" ht="14.5">
       <c r="A96" s="54" t="s">
@@ -7372,25 +7372,25 @@
       <c r="S102" s="75"/>
     </row>
     <row r="103" spans="1:19" ht="14.5">
-      <c r="A103" s="144"/>
-      <c r="B103" s="126"/>
-      <c r="C103" s="126"/>
-      <c r="D103" s="126"/>
-      <c r="E103" s="126"/>
-      <c r="F103" s="126"/>
-      <c r="G103" s="126"/>
-      <c r="H103" s="143"/>
-      <c r="I103" s="129"/>
-      <c r="J103" s="129"/>
-      <c r="K103" s="129"/>
-      <c r="L103" s="129"/>
-      <c r="M103" s="129"/>
-      <c r="N103" s="129"/>
-      <c r="O103" s="129"/>
-      <c r="P103" s="129"/>
-      <c r="Q103" s="129"/>
-      <c r="R103" s="129"/>
-      <c r="S103" s="129"/>
+      <c r="A103" s="152"/>
+      <c r="B103" s="127"/>
+      <c r="C103" s="127"/>
+      <c r="D103" s="127"/>
+      <c r="E103" s="127"/>
+      <c r="F103" s="127"/>
+      <c r="G103" s="127"/>
+      <c r="H103" s="150"/>
+      <c r="I103" s="130"/>
+      <c r="J103" s="130"/>
+      <c r="K103" s="130"/>
+      <c r="L103" s="130"/>
+      <c r="M103" s="130"/>
+      <c r="N103" s="130"/>
+      <c r="O103" s="130"/>
+      <c r="P103" s="130"/>
+      <c r="Q103" s="130"/>
+      <c r="R103" s="130"/>
+      <c r="S103" s="130"/>
     </row>
     <row r="104" spans="1:19" ht="14.5">
       <c r="A104" s="45" t="s">
@@ -7493,25 +7493,25 @@
       <c r="S106" s="75"/>
     </row>
     <row r="107" spans="1:19" ht="14.5">
-      <c r="A107" s="145"/>
-      <c r="B107" s="126"/>
-      <c r="C107" s="126"/>
-      <c r="D107" s="126"/>
-      <c r="E107" s="126"/>
-      <c r="F107" s="126"/>
-      <c r="G107" s="126"/>
-      <c r="H107" s="143"/>
-      <c r="I107" s="129"/>
-      <c r="J107" s="129"/>
-      <c r="K107" s="129"/>
-      <c r="L107" s="129"/>
-      <c r="M107" s="129"/>
-      <c r="N107" s="129"/>
-      <c r="O107" s="129"/>
-      <c r="P107" s="129"/>
-      <c r="Q107" s="129"/>
-      <c r="R107" s="129"/>
-      <c r="S107" s="129"/>
+      <c r="A107" s="148"/>
+      <c r="B107" s="127"/>
+      <c r="C107" s="127"/>
+      <c r="D107" s="127"/>
+      <c r="E107" s="127"/>
+      <c r="F107" s="127"/>
+      <c r="G107" s="127"/>
+      <c r="H107" s="150"/>
+      <c r="I107" s="130"/>
+      <c r="J107" s="130"/>
+      <c r="K107" s="130"/>
+      <c r="L107" s="130"/>
+      <c r="M107" s="130"/>
+      <c r="N107" s="130"/>
+      <c r="O107" s="130"/>
+      <c r="P107" s="130"/>
+      <c r="Q107" s="130"/>
+      <c r="R107" s="130"/>
+      <c r="S107" s="130"/>
     </row>
     <row r="108" spans="1:19" ht="14.5">
       <c r="A108" s="54" t="s">
@@ -7614,13 +7614,13 @@
       <c r="S110" s="75"/>
     </row>
     <row r="111" spans="1:19" ht="14.5">
-      <c r="A111" s="144"/>
-      <c r="B111" s="126"/>
-      <c r="C111" s="126"/>
-      <c r="D111" s="126"/>
-      <c r="E111" s="126"/>
-      <c r="F111" s="126"/>
-      <c r="G111" s="126"/>
+      <c r="A111" s="152"/>
+      <c r="B111" s="127"/>
+      <c r="C111" s="127"/>
+      <c r="D111" s="127"/>
+      <c r="E111" s="127"/>
+      <c r="F111" s="127"/>
+      <c r="G111" s="127"/>
       <c r="H111" s="75"/>
       <c r="I111" s="75"/>
       <c r="J111" s="75"/>
@@ -7673,36 +7673,36 @@
       <c r="S112" s="75"/>
     </row>
     <row r="113" spans="1:19" ht="14.5">
-      <c r="A113" s="145"/>
-      <c r="B113" s="126"/>
-      <c r="C113" s="126"/>
-      <c r="D113" s="126"/>
-      <c r="E113" s="126"/>
-      <c r="F113" s="126"/>
-      <c r="G113" s="126"/>
-      <c r="H113" s="143"/>
-      <c r="I113" s="129"/>
-      <c r="J113" s="129"/>
-      <c r="K113" s="129"/>
-      <c r="L113" s="129"/>
-      <c r="M113" s="129"/>
-      <c r="N113" s="129"/>
-      <c r="O113" s="129"/>
-      <c r="P113" s="129"/>
-      <c r="Q113" s="129"/>
-      <c r="R113" s="129"/>
-      <c r="S113" s="129"/>
+      <c r="A113" s="148"/>
+      <c r="B113" s="127"/>
+      <c r="C113" s="127"/>
+      <c r="D113" s="127"/>
+      <c r="E113" s="127"/>
+      <c r="F113" s="127"/>
+      <c r="G113" s="127"/>
+      <c r="H113" s="150"/>
+      <c r="I113" s="130"/>
+      <c r="J113" s="130"/>
+      <c r="K113" s="130"/>
+      <c r="L113" s="130"/>
+      <c r="M113" s="130"/>
+      <c r="N113" s="130"/>
+      <c r="O113" s="130"/>
+      <c r="P113" s="130"/>
+      <c r="Q113" s="130"/>
+      <c r="R113" s="130"/>
+      <c r="S113" s="130"/>
     </row>
     <row r="114" spans="1:19" ht="14.5">
-      <c r="A114" s="145" t="s">
+      <c r="A114" s="148" t="s">
         <v>163</v>
       </c>
-      <c r="B114" s="146"/>
-      <c r="C114" s="146"/>
-      <c r="D114" s="146"/>
-      <c r="E114" s="146"/>
-      <c r="F114" s="146"/>
-      <c r="G114" s="146"/>
+      <c r="B114" s="149"/>
+      <c r="C114" s="149"/>
+      <c r="D114" s="149"/>
+      <c r="E114" s="149"/>
+      <c r="F114" s="149"/>
+      <c r="G114" s="149"/>
       <c r="H114" s="75"/>
       <c r="I114" s="75"/>
       <c r="J114" s="75"/>
@@ -7964,25 +7964,25 @@
       <c r="S121" s="75"/>
     </row>
     <row r="122" spans="1:19" ht="14.5">
-      <c r="A122" s="144"/>
-      <c r="B122" s="126"/>
-      <c r="C122" s="126"/>
-      <c r="D122" s="126"/>
-      <c r="E122" s="126"/>
-      <c r="F122" s="126"/>
-      <c r="G122" s="126"/>
-      <c r="H122" s="143"/>
-      <c r="I122" s="129"/>
-      <c r="J122" s="129"/>
-      <c r="K122" s="129"/>
-      <c r="L122" s="129"/>
-      <c r="M122" s="129"/>
-      <c r="N122" s="129"/>
-      <c r="O122" s="129"/>
-      <c r="P122" s="129"/>
-      <c r="Q122" s="129"/>
-      <c r="R122" s="129"/>
-      <c r="S122" s="129"/>
+      <c r="A122" s="152"/>
+      <c r="B122" s="127"/>
+      <c r="C122" s="127"/>
+      <c r="D122" s="127"/>
+      <c r="E122" s="127"/>
+      <c r="F122" s="127"/>
+      <c r="G122" s="127"/>
+      <c r="H122" s="150"/>
+      <c r="I122" s="130"/>
+      <c r="J122" s="130"/>
+      <c r="K122" s="130"/>
+      <c r="L122" s="130"/>
+      <c r="M122" s="130"/>
+      <c r="N122" s="130"/>
+      <c r="O122" s="130"/>
+      <c r="P122" s="130"/>
+      <c r="Q122" s="130"/>
+      <c r="R122" s="130"/>
+      <c r="S122" s="130"/>
     </row>
     <row r="123" spans="1:19" ht="14.5">
       <c r="A123" s="69"/>
@@ -8023,25 +8023,25 @@
       <c r="S123" s="75"/>
     </row>
     <row r="124" spans="1:19" ht="14.5">
-      <c r="A124" s="145"/>
-      <c r="B124" s="126"/>
-      <c r="C124" s="126"/>
-      <c r="D124" s="126"/>
-      <c r="E124" s="126"/>
-      <c r="F124" s="126"/>
-      <c r="G124" s="126"/>
-      <c r="H124" s="143"/>
-      <c r="I124" s="129"/>
-      <c r="J124" s="129"/>
-      <c r="K124" s="129"/>
-      <c r="L124" s="129"/>
-      <c r="M124" s="129"/>
-      <c r="N124" s="129"/>
-      <c r="O124" s="129"/>
-      <c r="P124" s="129"/>
-      <c r="Q124" s="129"/>
-      <c r="R124" s="129"/>
-      <c r="S124" s="129"/>
+      <c r="A124" s="148"/>
+      <c r="B124" s="127"/>
+      <c r="C124" s="127"/>
+      <c r="D124" s="127"/>
+      <c r="E124" s="127"/>
+      <c r="F124" s="127"/>
+      <c r="G124" s="127"/>
+      <c r="H124" s="150"/>
+      <c r="I124" s="130"/>
+      <c r="J124" s="130"/>
+      <c r="K124" s="130"/>
+      <c r="L124" s="130"/>
+      <c r="M124" s="130"/>
+      <c r="N124" s="130"/>
+      <c r="O124" s="130"/>
+      <c r="P124" s="130"/>
+      <c r="Q124" s="130"/>
+      <c r="R124" s="130"/>
+      <c r="S124" s="130"/>
     </row>
     <row r="125" spans="1:19" ht="14.5">
       <c r="A125" s="72"/>
@@ -8234,29 +8234,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H5:S5"/>
-    <mergeCell ref="H6:S6"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:S33"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="H49:S49"/>
-    <mergeCell ref="H59:S59"/>
-    <mergeCell ref="A66:G66"/>
-    <mergeCell ref="H66:S66"/>
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="H73:S73"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="H81:S81"/>
-    <mergeCell ref="A95:G95"/>
-    <mergeCell ref="H95:S95"/>
-    <mergeCell ref="A103:G103"/>
-    <mergeCell ref="H103:S103"/>
-    <mergeCell ref="A81:G81"/>
     <mergeCell ref="H107:S107"/>
     <mergeCell ref="A122:G122"/>
     <mergeCell ref="A124:G124"/>
@@ -8267,6 +8244,29 @@
     <mergeCell ref="A107:G107"/>
     <mergeCell ref="A111:G111"/>
     <mergeCell ref="A113:G113"/>
+    <mergeCell ref="H81:S81"/>
+    <mergeCell ref="A95:G95"/>
+    <mergeCell ref="H95:S95"/>
+    <mergeCell ref="A103:G103"/>
+    <mergeCell ref="H103:S103"/>
+    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="H59:S59"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="H66:S66"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="H73:S73"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="H5:S5"/>
+    <mergeCell ref="H6:S6"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:S33"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="H49:S49"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/Financial_Report_2021.xlsx
+++ b/src/main/resources/Financial_Report_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\projects\church-app\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9565A56-628C-4EB3-A1CC-2B299F5CE44E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3822999A-01E5-42F1-B676-849D9E2AA883}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="0" windowWidth="13740" windowHeight="10800" xr2:uid="{7F8DEBD6-32E0-4BF8-87C4-D1C13E633F04}"/>
+    <workbookView xWindow="870" yWindow="-110" windowWidth="18440" windowHeight="11020" xr2:uid="{7F8DEBD6-32E0-4BF8-87C4-D1C13E633F04}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -1067,7 +1067,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1141,7 +1141,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1414,7 +1413,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1446,6 +1444,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1457,19 +1468,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1791,7 +1789,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1811,96 +1809,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.5">
-      <c r="A1" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
+      <c r="A1" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
     </row>
     <row r="2" spans="1:11" ht="18.5">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="111" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
     </row>
     <row r="3" spans="1:11" ht="18.5">
-      <c r="A3" s="115">
+      <c r="A3" s="114">
         <v>2021</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="119" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="123"/>
-      <c r="G4" s="107" t="s">
+      <c r="B4" s="120"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="122"/>
+      <c r="G4" s="106" t="s">
         <v>240</v>
       </c>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="109"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="108"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="80" t="s">
+      <c r="B5" s="124"/>
+      <c r="C5" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="105" t="s">
+      <c r="D5" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="G5" s="110" t="s">
+      <c r="G5" s="109" t="s">
         <v>241</v>
       </c>
-      <c r="H5" s="111"/>
-      <c r="I5" s="80" t="s">
+      <c r="H5" s="110"/>
+      <c r="I5" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="105" t="s">
+      <c r="J5" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="81" t="s">
+      <c r="K5" s="80" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="82"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="13" t="s">
         <v>210</v>
       </c>
@@ -1912,11 +1910,11 @@
         <f>E6/C6*100</f>
         <v>0</v>
       </c>
-      <c r="E6" s="83">
+      <c r="E6" s="82">
         <f>Offering!$G$6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="90"/>
+      <c r="G6" s="89"/>
       <c r="H6" s="15" t="s">
         <v>199</v>
       </c>
@@ -1928,13 +1926,13 @@
         <f t="shared" ref="J6:J16" si="0">K6/I6*100</f>
         <v>0</v>
       </c>
-      <c r="K6" s="91">
+      <c r="K6" s="90">
         <f>Expenditure!$G$32</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="82"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="13" t="s">
         <v>211</v>
       </c>
@@ -1946,11 +1944,11 @@
         <f t="shared" ref="D7:D20" si="1">E7/C7*100</f>
         <v>0</v>
       </c>
-      <c r="E7" s="83">
+      <c r="E7" s="82">
         <f>Offering!$G$7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="90"/>
+      <c r="G7" s="89"/>
       <c r="H7" s="15" t="s">
         <v>200</v>
       </c>
@@ -1962,13 +1960,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="91">
+      <c r="K7" s="90">
         <f>Expenditure!$G$48</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="82"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="13" t="s">
         <v>212</v>
       </c>
@@ -1980,11 +1978,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8" s="83">
+      <c r="E8" s="82">
         <f>Offering!$G$8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="90"/>
+      <c r="G8" s="89"/>
       <c r="H8" s="15" t="s">
         <v>201</v>
       </c>
@@ -1996,13 +1994,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="91">
+      <c r="K8" s="90">
         <f>Expenditure!$G$58</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="82"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="13" t="s">
         <v>213</v>
       </c>
@@ -2014,11 +2012,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="83">
+      <c r="E9" s="82">
         <f>Offering!$G$9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="90"/>
+      <c r="G9" s="89"/>
       <c r="H9" s="15" t="s">
         <v>202</v>
       </c>
@@ -2030,13 +2028,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="91">
+      <c r="K9" s="90">
         <f>Expenditure!$G$65</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="82"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="13" t="s">
         <v>214</v>
       </c>
@@ -2048,11 +2046,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="83">
+      <c r="E10" s="82">
         <f>Offering!$G$10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="90"/>
+      <c r="G10" s="89"/>
       <c r="H10" s="15" t="s">
         <v>203</v>
       </c>
@@ -2064,13 +2062,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="91">
+      <c r="K10" s="90">
         <f>Expenditure!$G$72</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="82"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="13" t="s">
         <v>215</v>
       </c>
@@ -2082,11 +2080,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="83">
+      <c r="E11" s="82">
         <f>Offering!$G$11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="90"/>
+      <c r="G11" s="89"/>
       <c r="H11" s="15" t="s">
         <v>204</v>
       </c>
@@ -2098,13 +2096,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="91">
+      <c r="K11" s="90">
         <f>Expenditure!$G$80</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="82"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="13" t="s">
         <v>216</v>
       </c>
@@ -2116,11 +2114,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="83">
+      <c r="E12" s="82">
         <f>Offering!$G$12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="90"/>
+      <c r="G12" s="89"/>
       <c r="H12" s="15" t="s">
         <v>205</v>
       </c>
@@ -2132,13 +2130,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="91">
+      <c r="K12" s="90">
         <f>Expenditure!$G$94</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="82"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="13" t="s">
         <v>217</v>
       </c>
@@ -2150,11 +2148,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13" s="83">
+      <c r="E13" s="82">
         <f>Offering!$G$13</f>
         <v>0</v>
       </c>
-      <c r="G13" s="90"/>
+      <c r="G13" s="89"/>
       <c r="H13" s="15" t="s">
         <v>150</v>
       </c>
@@ -2166,13 +2164,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="91">
+      <c r="K13" s="90">
         <f>Expenditure!$G$102</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="82"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="13" t="s">
         <v>218</v>
       </c>
@@ -2184,11 +2182,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E14" s="83">
+      <c r="E14" s="82">
         <f>Offering!$G$14</f>
         <v>0</v>
       </c>
-      <c r="G14" s="90"/>
+      <c r="G14" s="89"/>
       <c r="H14" s="15" t="s">
         <v>206</v>
       </c>
@@ -2200,13 +2198,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="91">
+      <c r="K14" s="90">
         <f>Expenditure!$G$106</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="82"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="13" t="s">
         <v>219</v>
       </c>
@@ -2218,11 +2216,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="83">
+      <c r="E15" s="82">
         <f>Offering!$G$15</f>
         <v>0</v>
       </c>
-      <c r="G15" s="90"/>
+      <c r="G15" s="89"/>
       <c r="H15" s="15" t="s">
         <v>207</v>
       </c>
@@ -2234,13 +2232,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="91">
+      <c r="K15" s="90">
         <f>Expenditure!$G$110</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="82"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="13" t="s">
         <v>220</v>
       </c>
@@ -2252,11 +2250,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="83">
+      <c r="E16" s="82">
         <f>Offering!$G$16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="92" t="s">
+      <c r="G16" s="91" t="s">
         <v>242</v>
       </c>
       <c r="H16" s="17"/>
@@ -2268,13 +2266,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="93">
+      <c r="K16" s="92">
         <f>SUBTOTAL(9,K6:K15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="82"/>
+      <c r="A17" s="81"/>
       <c r="B17" s="13" t="s">
         <v>221</v>
       </c>
@@ -2286,18 +2284,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="83">
+      <c r="E17" s="82">
         <f>Offering!$G$17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="129"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
-      <c r="K17" s="131"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="129"/>
+      <c r="K17" s="130"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="82"/>
+      <c r="A18" s="81"/>
       <c r="B18" s="13" t="s">
         <v>222</v>
       </c>
@@ -2309,18 +2307,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18" s="83">
+      <c r="E18" s="82">
         <f>Offering!$G$18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="96"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="98"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="97"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="82"/>
+      <c r="A19" s="81"/>
       <c r="B19" s="13" t="s">
         <v>150</v>
       </c>
@@ -2332,18 +2330,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E19" s="83">
+      <c r="E19" s="82">
         <f>Offering!$G$19</f>
         <v>0</v>
       </c>
-      <c r="G19" s="96"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="98"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="97"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="82"/>
+      <c r="A20" s="81"/>
       <c r="B20" s="13" t="s">
         <v>223</v>
       </c>
@@ -2355,18 +2353,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E20" s="83">
+      <c r="E20" s="82">
         <f>Offering!$G$20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="96"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="98"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="97"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="82"/>
+      <c r="A21" s="81"/>
       <c r="B21" s="13" t="s">
         <v>224</v>
       </c>
@@ -2375,23 +2373,18 @@
         <v>0</v>
       </c>
       <c r="D21" s="14"/>
-      <c r="E21" s="83">
+      <c r="E21" s="82">
         <f>Offering!$G$21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="94" t="s">
-        <v>243</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="K21" s="97"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="115" t="s">
         <v>225</v>
       </c>
-      <c r="B22" s="117"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="19">
         <f t="shared" ref="C22:E22" si="2">SUBTOTAL(9,C6:C21)</f>
         <v>148000</v>
@@ -2400,52 +2393,29 @@
         <f>E22/C22*100</f>
         <v>0</v>
       </c>
-      <c r="E22" s="84">
+      <c r="E22" s="83">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G22" s="99"/>
-      <c r="H22" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="I22" s="20">
-        <f>Expenditure!$F$115</f>
-        <v>5000</v>
-      </c>
-      <c r="J22" s="23">
-        <f>K22/I22*100</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="95">
-        <f>Expenditure!$G$115</f>
-        <v>0</v>
-      </c>
+      <c r="G22" s="95"/>
+      <c r="K22" s="97"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="126"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="128"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="I23" s="20">
-        <f>Expenditure!$F$116</f>
-        <v>3000</v>
-      </c>
-      <c r="J23" s="23">
-        <f>K23/I23*100</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="95">
-        <f>Expenditure!$G$116</f>
-        <v>0</v>
-      </c>
+      <c r="A23" s="125"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="127"/>
+      <c r="G23" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="94"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="85"/>
+      <c r="A24" s="84"/>
       <c r="B24" s="24" t="s">
         <v>233</v>
       </c>
@@ -2457,29 +2427,29 @@
         <f t="shared" ref="D24:D27" si="3">E24/C24*100</f>
         <v>0</v>
       </c>
-      <c r="E24" s="86">
+      <c r="E24" s="85">
         <f>Offering!$G$24</f>
         <v>0</v>
       </c>
-      <c r="G24" s="99"/>
+      <c r="G24" s="98"/>
       <c r="H24" s="22" t="s">
-        <v>169</v>
+        <v>244</v>
       </c>
       <c r="I24" s="20">
-        <f>Expenditure!$F$117</f>
-        <v>4000</v>
+        <f>Expenditure!$F$115</f>
+        <v>5000</v>
       </c>
       <c r="J24" s="23">
         <f>K24/I24*100</f>
         <v>0</v>
       </c>
-      <c r="K24" s="95">
-        <f>Expenditure!$G$117</f>
+      <c r="K24" s="94">
+        <f>Expenditure!$G$115</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="87"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="24" t="s">
         <v>226</v>
       </c>
@@ -2491,26 +2461,29 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E25" s="86">
+      <c r="E25" s="85">
         <f>Offering!$G$25</f>
         <v>0</v>
       </c>
-      <c r="G25" s="99"/>
+      <c r="G25" s="98"/>
       <c r="H25" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I25" s="20">
-        <f>Expenditure!$F$118</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="95">
-        <f>Expenditure!$G$118</f>
+        <f>Expenditure!$F$116</f>
+        <v>3000</v>
+      </c>
+      <c r="J25" s="23">
+        <f>K25/I25*100</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="94">
+        <f>Expenditure!$G$116</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="87"/>
+      <c r="A26" s="86"/>
       <c r="B26" s="24" t="s">
         <v>234</v>
       </c>
@@ -2519,26 +2492,29 @@
         <v>0</v>
       </c>
       <c r="D26" s="23"/>
-      <c r="E26" s="86">
+      <c r="E26" s="85">
         <f>Offering!$G$26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="99"/>
+      <c r="G26" s="98"/>
       <c r="H26" s="22" t="s">
-        <v>249</v>
+        <v>169</v>
       </c>
       <c r="I26" s="20">
-        <f>Expenditure!$F$119</f>
-        <v>0</v>
-      </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="95">
-        <f>Expenditure!$G$119</f>
+        <f>Expenditure!$F$117</f>
+        <v>4000</v>
+      </c>
+      <c r="J26" s="23">
+        <f>K26/I26*100</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="94">
+        <f>Expenditure!$G$117</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="87"/>
+      <c r="A27" s="86"/>
       <c r="B27" s="24" t="s">
         <v>227</v>
       </c>
@@ -2550,32 +2526,29 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E27" s="86">
+      <c r="E27" s="85">
         <f>Offering!$G$27</f>
         <v>0</v>
       </c>
-      <c r="G27" s="99"/>
-      <c r="H27" s="24" t="s">
-        <v>227</v>
+      <c r="G27" s="98"/>
+      <c r="H27" s="22" t="s">
+        <v>246</v>
       </c>
       <c r="I27" s="20">
-        <f>Expenditure!$F$120</f>
-        <v>10000</v>
-      </c>
-      <c r="J27" s="23">
-        <f>K27/I27*100</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="95">
-        <f>Expenditure!$G$120</f>
+        <f>Expenditure!$F$118</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="23"/>
+      <c r="K27" s="94">
+        <f>Expenditure!$G$118</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="116" t="s">
+      <c r="A28" s="115" t="s">
         <v>228</v>
       </c>
-      <c r="B28" s="117"/>
+      <c r="B28" s="116"/>
       <c r="C28" s="19">
         <f>SUBTOTAL(9,C24:C27)</f>
         <v>15000</v>
@@ -2584,41 +2557,49 @@
         <f>E28/C28*100</f>
         <v>0</v>
       </c>
-      <c r="E28" s="84">
+      <c r="E28" s="83">
         <f>SUBTOTAL(9,E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="100" t="s">
-        <v>247</v>
-      </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="18">
-        <f>SUBTOTAL(9,I22:I27)</f>
-        <v>22000</v>
-      </c>
-      <c r="J28" s="19">
-        <f>K28/I28*100</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="93">
-        <f>SUBTOTAL(9,K22:K27)</f>
+      <c r="G28" s="98"/>
+      <c r="H28" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="I28" s="20">
+        <f>Expenditure!$F$119</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="23"/>
+      <c r="K28" s="94">
+        <f>Expenditure!$G$119</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="126"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="128"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="130"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="131"/>
+      <c r="A29" s="125"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="127"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="I29" s="20">
+        <f>Expenditure!$F$120</f>
+        <v>10000</v>
+      </c>
+      <c r="J29" s="23">
+        <f>K29/I29*100</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="94">
+        <f>Expenditure!$G$120</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="87" t="s">
         <v>229</v>
       </c>
       <c r="B30" s="27"/>
@@ -2630,18 +2611,29 @@
         <f>E30/C30*100</f>
         <v>0</v>
       </c>
-      <c r="E30" s="84">
+      <c r="E30" s="83">
         <f>SUBTOTAL(9,E6:E28)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="96"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="98"/>
+      <c r="G30" s="99" t="s">
+        <v>247</v>
+      </c>
+      <c r="H30" s="26"/>
+      <c r="I30" s="18">
+        <f>SUBTOTAL(9,I24:I29)</f>
+        <v>22000</v>
+      </c>
+      <c r="J30" s="19">
+        <f>K30/I30*100</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="92">
+        <f>SUBTOTAL(9,K24:K29)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="89"/>
+      <c r="A31" s="88"/>
       <c r="B31" s="13" t="s">
         <v>230</v>
       </c>
@@ -2650,15 +2642,15 @@
         <v>57490</v>
       </c>
       <c r="D31" s="14"/>
-      <c r="E31" s="83"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="98"/>
+      <c r="E31" s="82"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="97"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="82"/>
+      <c r="A32" s="81"/>
       <c r="B32" s="13" t="s">
         <v>231</v>
       </c>
@@ -2667,67 +2659,67 @@
         <v>0</v>
       </c>
       <c r="D32" s="14"/>
-      <c r="E32" s="83">
+      <c r="E32" s="82">
         <f>Offering!$G$32</f>
         <v>0</v>
       </c>
-      <c r="G32" s="96"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="98"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="97"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="118" t="s">
+      <c r="A33" s="117" t="s">
         <v>232</v>
       </c>
-      <c r="B33" s="119"/>
-      <c r="C33" s="101">
+      <c r="B33" s="118"/>
+      <c r="C33" s="100">
         <f>SUBTOTAL(9,C6:C32)</f>
         <v>220490</v>
       </c>
-      <c r="D33" s="101">
+      <c r="D33" s="100">
         <f>E33/C33*100</f>
         <v>0</v>
       </c>
-      <c r="E33" s="102">
+      <c r="E33" s="101">
         <f>SUBTOTAL(9,E6:E32)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="133" t="s">
+      <c r="G33" s="131" t="s">
         <v>248</v>
       </c>
-      <c r="H33" s="134"/>
-      <c r="I33" s="103">
-        <f>SUBTOTAL(9,I6:I28)</f>
+      <c r="H33" s="132"/>
+      <c r="I33" s="102">
+        <f>SUBTOTAL(9,I6:I30)</f>
         <v>220490</v>
       </c>
-      <c r="J33" s="101">
+      <c r="J33" s="100">
         <f t="shared" ref="J33" si="4">K33/I33*100</f>
         <v>0</v>
       </c>
-      <c r="K33" s="104">
-        <f>SUBTOTAL(9,K6:K28)</f>
+      <c r="K33" s="103">
+        <f>SUBTOTAL(9,K6:K30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="106" t="s">
+      <c r="A35" s="105" t="s">
         <v>250</v>
       </c>
-      <c r="B35" s="106"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="15">
     <mergeCell ref="A35:K35"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="G5:H5"/>
@@ -2742,7 +2734,6 @@
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G29:K29"/>
     <mergeCell ref="G33:H33"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2768,15 +2759,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5">
-      <c r="A1" s="137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
+      <c r="A1" s="135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="135"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="137"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -2791,15 +2782,15 @@
       <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="15.5">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="135" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="139"/>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -2814,15 +2805,15 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="15.5">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="138" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="140"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -2837,15 +2828,15 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="139" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="141"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
@@ -2860,17 +2851,17 @@
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="140" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="142"/>
-      <c r="C5" s="34" t="s">
+      <c r="B5" s="140"/>
+      <c r="C5" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="34" t="s">
         <v>197</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -2934,7 +2925,7 @@
       <c r="F6" s="14">
         <v>105000</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="35">
         <f>SUM(H6:S6)</f>
         <v>0</v>
       </c>
@@ -2969,7 +2960,7 @@
       <c r="F7" s="14">
         <v>3000</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="35">
         <f t="shared" ref="G7:G21" si="1">SUM(H7:S7)</f>
         <v>0</v>
       </c>
@@ -3004,7 +2995,7 @@
       <c r="F8" s="14">
         <v>200</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3039,7 +3030,7 @@
       <c r="F9" s="14">
         <v>5000</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3074,7 +3065,7 @@
       <c r="F10" s="14">
         <v>4500</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3109,7 +3100,7 @@
       <c r="F11" s="14">
         <v>2500</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3144,7 +3135,7 @@
       <c r="F12" s="14">
         <v>1500</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3179,7 +3170,7 @@
       <c r="F13" s="14">
         <v>3500</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3214,7 +3205,7 @@
       <c r="F14" s="14">
         <v>4000</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3249,7 +3240,7 @@
       <c r="F15" s="14">
         <v>6000</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3284,7 +3275,7 @@
       <c r="F16" s="14">
         <v>300</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3319,7 +3310,7 @@
       <c r="F17" s="14">
         <v>5000</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3354,7 +3345,7 @@
       <c r="F18" s="14">
         <v>1000</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3389,7 +3380,7 @@
       <c r="F19" s="14">
         <v>6000</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3424,7 +3415,7 @@
       <c r="F20" s="14">
         <v>500</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3457,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="14"/>
-      <c r="G21" s="36">
+      <c r="G21" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3475,10 +3466,10 @@
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="117" t="s">
+      <c r="A22" s="116" t="s">
         <v>225</v>
       </c>
-      <c r="B22" s="117"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="19">
         <f>SUBTOTAL(9,C6:C21)</f>
         <v>162850</v>
@@ -3488,7 +3479,7 @@
         <v>98.051968068774954</v>
       </c>
       <c r="E22" s="19">
-        <f t="shared" ref="E22:G22" si="2">SUBTOTAL(9,E6:E21)</f>
+        <f t="shared" ref="E22:S22" si="2">SUBTOTAL(9,E6:E21)</f>
         <v>159677.63</v>
       </c>
       <c r="F22" s="19">
@@ -3499,39 +3490,75 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="8"/>
+      <c r="H22" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="143"/>
-      <c r="B23" s="127"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="135"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="130"/>
-      <c r="K23" s="130"/>
-      <c r="L23" s="130"/>
-      <c r="M23" s="130"/>
-      <c r="N23" s="130"/>
-      <c r="O23" s="130"/>
-      <c r="P23" s="130"/>
-      <c r="Q23" s="130"/>
-      <c r="R23" s="130"/>
-      <c r="S23" s="130"/>
+      <c r="A23" s="141"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="129"/>
+      <c r="K23" s="129"/>
+      <c r="L23" s="129"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="129"/>
+      <c r="P23" s="129"/>
+      <c r="Q23" s="129"/>
+      <c r="R23" s="129"/>
+      <c r="S23" s="129"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="24"/>
@@ -3551,7 +3578,7 @@
       <c r="F24" s="23">
         <v>8000</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="36">
         <f t="shared" ref="G24:G27" si="4">SUM(H24:S24)</f>
         <v>0</v>
       </c>
@@ -3586,7 +3613,7 @@
       <c r="F25" s="23">
         <v>4000</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3614,7 +3641,7 @@
         <v>7000</v>
       </c>
       <c r="F26" s="23"/>
-      <c r="G26" s="37">
+      <c r="G26" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3649,7 +3676,7 @@
       <c r="F27" s="23">
         <v>3000</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="36">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -3667,10 +3694,10 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="117" t="s">
+      <c r="A28" s="116" t="s">
         <v>228</v>
       </c>
-      <c r="B28" s="117"/>
+      <c r="B28" s="116"/>
       <c r="C28" s="19">
         <f>SUBTOTAL(9,C24:C27)</f>
         <v>15000</v>
@@ -3691,39 +3718,75 @@
         <f>SUBTOTAL(9,G24:G27)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
+      <c r="H28" s="19">
+        <f t="shared" ref="H28:S28" si="5">SUBTOTAL(9,H24:H27)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O28" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="143"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="130"/>
-      <c r="L29" s="130"/>
-      <c r="M29" s="130"/>
-      <c r="N29" s="130"/>
-      <c r="O29" s="130"/>
-      <c r="P29" s="130"/>
-      <c r="Q29" s="130"/>
-      <c r="R29" s="130"/>
-      <c r="S29" s="130"/>
+      <c r="A29" s="141"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
+      <c r="D29" s="126"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="129"/>
+      <c r="Q29" s="129"/>
+      <c r="R29" s="129"/>
+      <c r="S29" s="129"/>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="27" t="s">
@@ -3735,7 +3798,7 @@
         <v>177850</v>
       </c>
       <c r="D30" s="19">
-        <f t="shared" ref="D30:D33" si="5">E30/C30*100</f>
+        <f t="shared" ref="D30:D33" si="6">E30/C30*100</f>
         <v>102.37527691875175</v>
       </c>
       <c r="E30" s="19">
@@ -3750,18 +3813,54 @@
         <f>SUBTOTAL(9,G6:G28)</f>
         <v>0</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
+      <c r="H30" s="19">
+        <f t="shared" ref="H30:S30" si="7">SUBTOTAL(9,H6:H28)</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="13"/>
@@ -3772,7 +3871,7 @@
         <v>9041</v>
       </c>
       <c r="D31" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.999446963831446</v>
       </c>
       <c r="E31" s="14">
@@ -3781,7 +3880,7 @@
       <c r="F31" s="14">
         <v>57490</v>
       </c>
-      <c r="G31" s="36"/>
+      <c r="G31" s="35"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -3804,14 +3903,14 @@
         <v>30000</v>
       </c>
       <c r="D32" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>166.66666666666669</v>
       </c>
       <c r="E32" s="14">
         <v>50000</v>
       </c>
       <c r="F32" s="14"/>
-      <c r="G32" s="36">
+      <c r="G32" s="35">
         <f>SUM(H32:S32)</f>
         <v>0</v>
       </c>
@@ -3829,76 +3928,76 @@
       <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="136" t="s">
+      <c r="A33" s="134" t="s">
         <v>232</v>
       </c>
-      <c r="B33" s="136"/>
-      <c r="C33" s="38">
+      <c r="B33" s="134"/>
+      <c r="C33" s="37">
         <f>SUBTOTAL(9,C6:C32)</f>
         <v>216891</v>
       </c>
-      <c r="D33" s="38">
-        <f t="shared" si="5"/>
+      <c r="D33" s="37">
+        <f t="shared" si="6"/>
         <v>111.1689189500717</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="37">
         <f>SUBTOTAL(9,E6:E32)</f>
         <v>241115.38</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="37">
         <f>SUBTOTAL(9,F6:F32)</f>
         <v>220490</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="37">
         <f>SUBTOTAL(9,G6:G32)</f>
         <v>0</v>
       </c>
-      <c r="H33" s="29">
-        <f>SUM(H6:H32)</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="29">
-        <f t="shared" ref="I33:S33" si="6">SUM(I6:I32)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="29">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S33" s="29">
-        <f t="shared" si="6"/>
+      <c r="H33" s="37">
+        <f t="shared" ref="H33:S33" si="8">SUBTOTAL(9,H6:H32)</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="37">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="37">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3954,4166 +4053,4634 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5">
-      <c r="A1" s="144" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
+      <c r="A1" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
+      <c r="E1" s="148"/>
+      <c r="F1" s="148"/>
+      <c r="G1" s="137"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
     </row>
     <row r="2" spans="1:19" ht="15.5">
-      <c r="A2" s="146">
+      <c r="A2" s="149">
         <v>2021</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
     </row>
     <row r="3" spans="1:19" ht="15.5">
-      <c r="A3" s="147" t="s">
+      <c r="A3" s="150" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
+      <c r="B3" s="150"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
     </row>
     <row r="4" spans="1:19" ht="14.5">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="41" t="s">
         <v>197</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="H4" s="31" t="s">
+      <c r="H4" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="R4" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="S4" s="31" t="s">
+      <c r="S4" s="30" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.5">
-      <c r="A5" s="148"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="130"/>
-      <c r="K5" s="130"/>
-      <c r="L5" s="130"/>
-      <c r="M5" s="130"/>
-      <c r="N5" s="130"/>
-      <c r="O5" s="130"/>
-      <c r="P5" s="130"/>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="130"/>
-      <c r="S5" s="130"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="142"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
+      <c r="O5" s="129"/>
+      <c r="P5" s="129"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
     </row>
     <row r="6" spans="1:19" ht="14.5">
-      <c r="A6" s="148" t="s">
+      <c r="A6" s="144" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="149"/>
-      <c r="C6" s="149"/>
-      <c r="D6" s="149"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="130"/>
-      <c r="P6" s="130"/>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="S6" s="130"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="129"/>
+      <c r="R6" s="129"/>
+      <c r="S6" s="129"/>
     </row>
     <row r="7" spans="1:19" ht="14.5">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="75"/>
-      <c r="S7" s="75"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
     </row>
     <row r="8" spans="1:19" ht="14.5">
-      <c r="A8" s="45"/>
-      <c r="B8" s="45" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-      <c r="S8" s="75"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
     </row>
     <row r="9" spans="1:19" ht="14.5">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="47">
+      <c r="C9" s="46">
         <v>43920</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="48">
         <f t="shared" ref="D9:D16" si="0">E9/C9*100</f>
         <v>101.34316939890711</v>
       </c>
-      <c r="E9" s="47">
+      <c r="E9" s="46">
         <v>44509.920000000006</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="46">
         <v>45500</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="47">
         <f>SUM(H9:S9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="75"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
     </row>
     <row r="10" spans="1:19" ht="14.5">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="47">
+      <c r="C10" s="46">
         <v>20820</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="48">
         <f t="shared" si="0"/>
         <v>101.48876080691642</v>
       </c>
-      <c r="E10" s="47">
+      <c r="E10" s="46">
         <v>21129.96</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="46">
         <v>21600</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="47">
         <f t="shared" ref="G10:G16" si="1">SUM(H10:S10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
     </row>
     <row r="11" spans="1:19" ht="14.5">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="46">
         <v>3720</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="48">
         <f t="shared" si="0"/>
         <v>103.26182795698926</v>
       </c>
-      <c r="E11" s="47">
+      <c r="E11" s="46">
         <v>3841.34</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="46">
         <v>3925</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="75"/>
-      <c r="S11" s="75"/>
+      <c r="H11" s="74"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="74"/>
+      <c r="L11" s="74"/>
+      <c r="M11" s="74"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
     </row>
     <row r="12" spans="1:19" ht="14.5">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="46">
         <v>2640</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="48">
         <f t="shared" si="0"/>
         <v>92.263636363636365</v>
       </c>
-      <c r="E12" s="47">
+      <c r="E12" s="46">
         <v>2435.7600000000002</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="46">
         <v>2800</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="74"/>
+      <c r="L12" s="74"/>
+      <c r="M12" s="74"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
     </row>
     <row r="13" spans="1:19" ht="14.5">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="47">
+      <c r="C13" s="46">
         <v>1440</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="48">
         <f t="shared" si="0"/>
         <v>59.469444444444441</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="46">
         <v>856.36</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="46">
         <v>1500</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="75"/>
-      <c r="S13" s="75"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
     </row>
     <row r="14" spans="1:19" ht="14.5">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="47">
+      <c r="C14" s="46">
         <v>3360</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47">
+      <c r="E14" s="46"/>
+      <c r="F14" s="46">
         <v>4000</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="M14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="75"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
     </row>
     <row r="15" spans="1:19" ht="14.5">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="46">
         <v>2760</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47">
+      <c r="E15" s="46"/>
+      <c r="F15" s="46">
         <v>3000</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="75"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
     </row>
     <row r="16" spans="1:19" ht="14.5">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="47">
+      <c r="C16" s="46">
         <v>1440</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="48">
         <f t="shared" si="0"/>
         <v>25.385416666666664</v>
       </c>
-      <c r="E16" s="47">
+      <c r="E16" s="46">
         <v>365.55</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="46">
         <v>500</v>
       </c>
-      <c r="G16" s="48">
+      <c r="G16" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="75"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
     </row>
     <row r="17" spans="1:19" ht="14.5">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="75"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="74"/>
     </row>
     <row r="18" spans="1:19" ht="14.5">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="47">
+      <c r="C18" s="46">
         <v>20040</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="48">
         <f t="shared" ref="D18:D20" si="2">E18/C18*100</f>
         <v>101.69491017964071</v>
       </c>
-      <c r="E18" s="47">
+      <c r="E18" s="46">
         <v>20379.66</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="46">
         <v>5205</v>
       </c>
-      <c r="G18" s="48">
+      <c r="G18" s="47">
         <f t="shared" ref="G18:G20" si="3">SUM(H18:S18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
     </row>
     <row r="19" spans="1:19" ht="14.5">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="46">
         <v>900</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="48">
         <f t="shared" si="2"/>
         <v>98.346666666666664</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="46">
         <v>885.12</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="46">
         <v>250</v>
       </c>
-      <c r="G19" s="48">
+      <c r="G19" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="75"/>
-      <c r="S19" s="75"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
     </row>
     <row r="20" spans="1:19" ht="14.5">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="46">
         <v>550</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="48">
         <f t="shared" si="2"/>
         <v>58.498181818181813</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="46">
         <v>321.74</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="46">
         <v>100</v>
       </c>
-      <c r="G20" s="48">
+      <c r="G20" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
     </row>
     <row r="21" spans="1:19" ht="14.5">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46" t="s">
+      <c r="A21" s="45"/>
+      <c r="B21" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="47">
-        <v>0</v>
-      </c>
-      <c r="F21" s="47"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="75"/>
-      <c r="S21" s="75"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="46">
+        <v>0</v>
+      </c>
+      <c r="F21" s="46"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
+      <c r="M21" s="74"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="74"/>
     </row>
     <row r="22" spans="1:19" ht="14.5">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="47">
+      <c r="C22" s="46">
         <v>9840</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="48">
         <f t="shared" ref="D22:D24" si="4">E22/C22*100</f>
         <v>0</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47">
+      <c r="E22" s="46"/>
+      <c r="F22" s="46">
         <v>9000</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="47">
         <f t="shared" ref="G22:G24" si="5">SUM(H22:S22)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="75"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
+      <c r="M22" s="74"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="74"/>
     </row>
     <row r="23" spans="1:19" ht="14.5">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="47">
+      <c r="C23" s="46">
         <v>350</v>
       </c>
-      <c r="D23" s="49">
+      <c r="D23" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47">
+      <c r="E23" s="46"/>
+      <c r="F23" s="46">
         <v>350</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="47">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="75"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
     </row>
     <row r="24" spans="1:19" ht="14.5">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="47">
+      <c r="C24" s="46">
         <v>230</v>
       </c>
-      <c r="D24" s="49">
+      <c r="D24" s="48">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47">
+      <c r="E24" s="46"/>
+      <c r="F24" s="46">
         <v>250</v>
       </c>
-      <c r="G24" s="48">
+      <c r="G24" s="47">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="75"/>
-      <c r="S24" s="75"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="74"/>
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
     </row>
     <row r="25" spans="1:19" ht="14.5">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46" t="s">
+      <c r="A25" s="45"/>
+      <c r="B25" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="47">
-        <v>0</v>
-      </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="75"/>
-      <c r="S25" s="75"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="46">
+        <v>0</v>
+      </c>
+      <c r="F25" s="46"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
+      <c r="M25" s="74"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="74"/>
     </row>
     <row r="26" spans="1:19" ht="14.5">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="47">
+      <c r="C26" s="46">
         <v>9840</v>
       </c>
-      <c r="D26" s="49">
+      <c r="D26" s="48">
         <f t="shared" ref="D26:D29" si="6">E26/C26*100</f>
         <v>99.414634146341456</v>
       </c>
-      <c r="E26" s="47">
+      <c r="E26" s="46">
         <v>9782.4</v>
       </c>
-      <c r="F26" s="47">
+      <c r="F26" s="46">
         <v>10000</v>
       </c>
-      <c r="G26" s="48">
+      <c r="G26" s="47">
         <f t="shared" ref="G26:G28" si="7">SUM(H26:S26)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="75"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="74"/>
     </row>
     <row r="27" spans="1:19" ht="14.5">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="47">
+      <c r="C27" s="46">
         <v>350</v>
       </c>
-      <c r="D27" s="49">
+      <c r="D27" s="48">
         <f t="shared" si="6"/>
         <v>94.248571428571424</v>
       </c>
-      <c r="E27" s="47">
+      <c r="E27" s="46">
         <v>329.87</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="46">
         <v>330</v>
       </c>
-      <c r="G27" s="48">
+      <c r="G27" s="47">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="75"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="74"/>
     </row>
     <row r="28" spans="1:19" ht="14.5">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="47">
+      <c r="C28" s="46">
         <v>230</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="48">
         <f t="shared" si="6"/>
         <v>67.2</v>
       </c>
-      <c r="E28" s="47">
+      <c r="E28" s="46">
         <v>154.56</v>
       </c>
-      <c r="F28" s="47">
+      <c r="F28" s="46">
         <v>250</v>
       </c>
-      <c r="G28" s="48">
+      <c r="G28" s="47">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="75"/>
-      <c r="S28" s="75"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="74"/>
     </row>
     <row r="29" spans="1:19" ht="14.5">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="47">
+      <c r="C29" s="46">
         <v>100</v>
       </c>
-      <c r="D29" s="49">
+      <c r="D29" s="48">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E29" s="47">
-        <v>0</v>
-      </c>
-      <c r="F29" s="47"/>
-      <c r="G29" s="48">
+      <c r="E29" s="46">
+        <v>0</v>
+      </c>
+      <c r="F29" s="46"/>
+      <c r="G29" s="47">
         <f>SUM(H29:S29)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="75"/>
-      <c r="I29" s="75"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="75"/>
-      <c r="O29" s="75"/>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="75"/>
-      <c r="S29" s="75"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="74"/>
+      <c r="S29" s="74"/>
     </row>
     <row r="30" spans="1:19" ht="14.5">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="75"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="75"/>
-      <c r="M30" s="75"/>
-      <c r="N30" s="75"/>
-      <c r="O30" s="75"/>
-      <c r="P30" s="75"/>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="75"/>
-      <c r="S30" s="75"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="74"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="74"/>
+      <c r="S30" s="74"/>
     </row>
     <row r="31" spans="1:19" ht="14.5">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="47">
+      <c r="C31" s="46">
         <v>350</v>
       </c>
-      <c r="D31" s="49">
+      <c r="D31" s="48">
         <f>E31/C31*100</f>
         <v>94.205714285714279</v>
       </c>
-      <c r="E31" s="47">
+      <c r="E31" s="46">
         <v>329.71999999999997</v>
       </c>
-      <c r="F31" s="47">
+      <c r="F31" s="46">
         <v>400</v>
       </c>
-      <c r="G31" s="48">
+      <c r="G31" s="47">
         <f>SUM(H31:S31)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="75"/>
-      <c r="R31" s="75"/>
-      <c r="S31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="74"/>
     </row>
     <row r="32" spans="1:19" ht="14.5">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="47">
+      <c r="C32" s="46">
         <f>SUBTOTAL(9,C9:C31)</f>
         <v>122880</v>
       </c>
-      <c r="D32" s="49">
+      <c r="D32" s="48">
         <f>E32/C32*100</f>
         <v>85.711230468749989</v>
       </c>
-      <c r="E32" s="47">
+      <c r="E32" s="46">
         <f>SUBTOTAL(9,E9:E31)</f>
         <v>105321.95999999999</v>
       </c>
-      <c r="F32" s="47">
+      <c r="F32" s="46">
         <f>SUBTOTAL(9,F9:F31)</f>
         <v>108960</v>
       </c>
-      <c r="G32" s="47">
+      <c r="G32" s="46">
         <f>SUBTOTAL(9,G9:G31)</f>
         <v>0</v>
       </c>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="75"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
-      <c r="N32" s="75"/>
-      <c r="O32" s="75"/>
-      <c r="P32" s="75"/>
-      <c r="Q32" s="75"/>
-      <c r="R32" s="75"/>
-      <c r="S32" s="75"/>
+      <c r="H32" s="46">
+        <f t="shared" ref="H32:S32" si="8">SUBTOTAL(9,H9:H31)</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="46">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:19" ht="14.5">
-      <c r="A33" s="148"/>
-      <c r="B33" s="127"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="130"/>
-      <c r="K33" s="130"/>
-      <c r="L33" s="130"/>
-      <c r="M33" s="130"/>
-      <c r="N33" s="130"/>
-      <c r="O33" s="130"/>
-      <c r="P33" s="130"/>
-      <c r="Q33" s="130"/>
-      <c r="R33" s="130"/>
-      <c r="S33" s="130"/>
+      <c r="A33" s="144"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="126"/>
+      <c r="D33" s="126"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="129"/>
+      <c r="O33" s="129"/>
+      <c r="P33" s="129"/>
+      <c r="Q33" s="129"/>
+      <c r="R33" s="129"/>
+      <c r="S33" s="129"/>
     </row>
     <row r="34" spans="1:19" ht="14.5">
-      <c r="A34" s="54" t="s">
+      <c r="A34" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="B34" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="75"/>
-      <c r="S34" s="75"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="56"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="74"/>
+      <c r="R34" s="74"/>
+      <c r="S34" s="74"/>
     </row>
     <row r="35" spans="1:19" ht="14.5">
-      <c r="A35" s="58" t="s">
+      <c r="A35" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="57">
+      <c r="C35" s="56">
         <v>1500</v>
       </c>
-      <c r="D35" s="59">
-        <f t="shared" ref="D35:D37" si="8">E35/C35*100</f>
+      <c r="D35" s="58">
+        <f t="shared" ref="D35:D37" si="9">E35/C35*100</f>
         <v>84.405333333333331</v>
       </c>
-      <c r="E35" s="57">
+      <c r="E35" s="56">
         <v>1266.08</v>
       </c>
-      <c r="F35" s="57">
+      <c r="F35" s="56">
         <v>1200</v>
       </c>
-      <c r="G35" s="55">
-        <f t="shared" ref="G35:G47" si="9">SUM(H35:S35)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="75"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="75"/>
-      <c r="M35" s="75"/>
-      <c r="N35" s="75"/>
-      <c r="O35" s="75"/>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="75"/>
-      <c r="R35" s="75"/>
-      <c r="S35" s="75"/>
+      <c r="G35" s="54">
+        <f t="shared" ref="G35:G47" si="10">SUM(H35:S35)</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="74"/>
+      <c r="S35" s="74"/>
     </row>
     <row r="36" spans="1:19" ht="14.5">
-      <c r="A36" s="58" t="s">
+      <c r="A36" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="57">
+      <c r="C36" s="56">
         <v>500</v>
       </c>
-      <c r="D36" s="59">
-        <f t="shared" si="8"/>
+      <c r="D36" s="58">
+        <f t="shared" si="9"/>
         <v>322.642</v>
       </c>
-      <c r="E36" s="57">
+      <c r="E36" s="56">
         <v>1613.21</v>
       </c>
-      <c r="F36" s="57">
+      <c r="F36" s="56">
         <v>1500</v>
       </c>
-      <c r="G36" s="55">
+      <c r="G36" s="54">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="76"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="74"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="74"/>
+      <c r="R36" s="74"/>
+      <c r="S36" s="74"/>
+    </row>
+    <row r="37" spans="1:19" ht="14.5">
+      <c r="A37" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="56">
+        <v>800</v>
+      </c>
+      <c r="D37" s="58">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="77"/>
-      <c r="I36" s="78"/>
-      <c r="J36" s="75"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="75"/>
-      <c r="N36" s="75"/>
-      <c r="O36" s="75"/>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="75"/>
-      <c r="R36" s="75"/>
-      <c r="S36" s="75"/>
-    </row>
-    <row r="37" spans="1:19" ht="14.5">
-      <c r="A37" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="57">
+        <v>102.51374999999999</v>
+      </c>
+      <c r="E37" s="56">
+        <v>820.1099999999999</v>
+      </c>
+      <c r="F37" s="56">
+        <v>1000</v>
+      </c>
+      <c r="G37" s="54">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
+    </row>
+    <row r="38" spans="1:19" ht="14.5">
+      <c r="A38" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="56"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="54">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="74"/>
+      <c r="R38" s="74"/>
+      <c r="S38" s="74"/>
+    </row>
+    <row r="39" spans="1:19" ht="14.5">
+      <c r="A39" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="56">
+        <v>400</v>
+      </c>
+      <c r="D39" s="58">
+        <f t="shared" ref="D39:D48" si="11">E39/C39*100</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="54">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="74"/>
+      <c r="K39" s="74"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="74"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="74"/>
+      <c r="R39" s="74"/>
+      <c r="S39" s="74"/>
+    </row>
+    <row r="40" spans="1:19" ht="14.5">
+      <c r="A40" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="56">
+        <v>5000</v>
+      </c>
+      <c r="D40" s="58">
+        <f t="shared" si="11"/>
+        <v>98.72</v>
+      </c>
+      <c r="E40" s="56">
+        <v>4936</v>
+      </c>
+      <c r="F40" s="56">
+        <v>5000</v>
+      </c>
+      <c r="G40" s="54">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="74"/>
+      <c r="R40" s="74"/>
+      <c r="S40" s="74"/>
+    </row>
+    <row r="41" spans="1:19" ht="14.5">
+      <c r="A41" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="56">
+        <v>300</v>
+      </c>
+      <c r="D41" s="58">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="56">
+        <v>0</v>
+      </c>
+      <c r="F41" s="56">
+        <v>300</v>
+      </c>
+      <c r="G41" s="54">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="74"/>
+      <c r="R41" s="74"/>
+      <c r="S41" s="74"/>
+    </row>
+    <row r="42" spans="1:19" ht="14.5">
+      <c r="A42" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="56">
+        <v>300</v>
+      </c>
+      <c r="D42" s="58">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="56">
+        <v>0</v>
+      </c>
+      <c r="F42" s="56">
+        <v>300</v>
+      </c>
+      <c r="G42" s="54">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="74"/>
+      <c r="L42" s="74"/>
+      <c r="M42" s="74"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="74"/>
+      <c r="S42" s="74"/>
+    </row>
+    <row r="43" spans="1:19" ht="14.5">
+      <c r="A43" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="56">
+        <v>400</v>
+      </c>
+      <c r="D43" s="58">
+        <f t="shared" si="11"/>
+        <v>90.4</v>
+      </c>
+      <c r="E43" s="56">
+        <v>361.6</v>
+      </c>
+      <c r="F43" s="56">
+        <v>400</v>
+      </c>
+      <c r="G43" s="54">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
+      <c r="J43" s="74"/>
+      <c r="K43" s="74"/>
+      <c r="L43" s="74"/>
+      <c r="M43" s="74"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="74"/>
+      <c r="S43" s="74"/>
+    </row>
+    <row r="44" spans="1:19" ht="14.5">
+      <c r="A44" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="56">
+        <v>40800</v>
+      </c>
+      <c r="D44" s="58">
+        <f t="shared" si="11"/>
+        <v>95.833333333333343</v>
+      </c>
+      <c r="E44" s="56">
+        <v>39100</v>
+      </c>
+      <c r="F44" s="56">
+        <v>36000</v>
+      </c>
+      <c r="G44" s="54">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="74"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="74"/>
+      <c r="R44" s="74"/>
+      <c r="S44" s="74"/>
+    </row>
+    <row r="45" spans="1:19" ht="14.5">
+      <c r="A45" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="56">
+        <v>1200</v>
+      </c>
+      <c r="D45" s="58">
+        <f t="shared" si="11"/>
+        <v>123.29999999999998</v>
+      </c>
+      <c r="E45" s="56">
+        <v>1479.6</v>
+      </c>
+      <c r="F45" s="56">
+        <v>1500</v>
+      </c>
+      <c r="G45" s="54">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="74"/>
+      <c r="I45" s="74"/>
+      <c r="J45" s="74"/>
+      <c r="K45" s="74"/>
+      <c r="L45" s="74"/>
+      <c r="M45" s="74"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="74"/>
+      <c r="P45" s="74"/>
+      <c r="Q45" s="74"/>
+      <c r="R45" s="74"/>
+      <c r="S45" s="74"/>
+    </row>
+    <row r="46" spans="1:19" ht="14.5">
+      <c r="A46" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="56">
+        <v>2000</v>
+      </c>
+      <c r="D46" s="58">
+        <f t="shared" si="11"/>
+        <v>52.310999999999993</v>
+      </c>
+      <c r="E46" s="56">
+        <v>1046.22</v>
+      </c>
+      <c r="F46" s="56">
+        <v>1500</v>
+      </c>
+      <c r="G46" s="54">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="74"/>
+      <c r="I46" s="74"/>
+      <c r="J46" s="74"/>
+      <c r="K46" s="74"/>
+      <c r="L46" s="74"/>
+      <c r="M46" s="74"/>
+      <c r="N46" s="74"/>
+      <c r="O46" s="74"/>
+      <c r="P46" s="74"/>
+      <c r="Q46" s="74"/>
+      <c r="R46" s="74"/>
+      <c r="S46" s="74"/>
+    </row>
+    <row r="47" spans="1:19" ht="14.5">
+      <c r="A47" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="56">
         <v>800</v>
       </c>
-      <c r="D37" s="59">
-        <f t="shared" si="8"/>
-        <v>102.51374999999999</v>
-      </c>
-      <c r="E37" s="57">
-        <v>820.1099999999999</v>
-      </c>
-      <c r="F37" s="57">
-        <v>1000</v>
-      </c>
-      <c r="G37" s="55">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="75"/>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="75"/>
-      <c r="R37" s="75"/>
-      <c r="S37" s="75"/>
-    </row>
-    <row r="38" spans="1:19" ht="14.5">
-      <c r="A38" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="57"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="55">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="75"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="75"/>
-      <c r="P38" s="75"/>
-      <c r="Q38" s="75"/>
-      <c r="R38" s="75"/>
-      <c r="S38" s="75"/>
-    </row>
-    <row r="39" spans="1:19" ht="14.5">
-      <c r="A39" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="57">
+      <c r="D47" s="58">
+        <f t="shared" si="11"/>
+        <v>45.037500000000001</v>
+      </c>
+      <c r="E47" s="56">
+        <v>360.3</v>
+      </c>
+      <c r="F47" s="56">
         <v>400</v>
       </c>
-      <c r="D39" s="59">
-        <f t="shared" ref="D39:D48" si="10">E39/C39*100</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="55">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="75"/>
-      <c r="R39" s="75"/>
-      <c r="S39" s="75"/>
-    </row>
-    <row r="40" spans="1:19" ht="14.5">
-      <c r="A40" s="58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="57">
-        <v>5000</v>
-      </c>
-      <c r="D40" s="59">
+      <c r="G47" s="54">
         <f t="shared" si="10"/>
-        <v>98.72</v>
-      </c>
-      <c r="E40" s="57">
-        <v>4936</v>
-      </c>
-      <c r="F40" s="57">
-        <v>5000</v>
-      </c>
-      <c r="G40" s="55">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="75"/>
-      <c r="Q40" s="75"/>
-      <c r="R40" s="75"/>
-      <c r="S40" s="75"/>
-    </row>
-    <row r="41" spans="1:19" ht="14.5">
-      <c r="A41" s="58" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="57">
-        <v>300</v>
-      </c>
-      <c r="D41" s="59">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="57">
-        <v>0</v>
-      </c>
-      <c r="F41" s="57">
-        <v>300</v>
-      </c>
-      <c r="G41" s="55">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="75"/>
-      <c r="R41" s="75"/>
-      <c r="S41" s="75"/>
-    </row>
-    <row r="42" spans="1:19" ht="14.5">
-      <c r="A42" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="57">
-        <v>300</v>
-      </c>
-      <c r="D42" s="59">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="57">
-        <v>0</v>
-      </c>
-      <c r="F42" s="57">
-        <v>300</v>
-      </c>
-      <c r="G42" s="55">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="75"/>
-      <c r="Q42" s="75"/>
-      <c r="R42" s="75"/>
-      <c r="S42" s="75"/>
-    </row>
-    <row r="43" spans="1:19" ht="14.5">
-      <c r="A43" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="57">
-        <v>400</v>
-      </c>
-      <c r="D43" s="59">
-        <f t="shared" si="10"/>
-        <v>90.4</v>
-      </c>
-      <c r="E43" s="57">
-        <v>361.6</v>
-      </c>
-      <c r="F43" s="57">
-        <v>400</v>
-      </c>
-      <c r="G43" s="55">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="75"/>
-      <c r="O43" s="75"/>
-      <c r="P43" s="75"/>
-      <c r="Q43" s="75"/>
-      <c r="R43" s="75"/>
-      <c r="S43" s="75"/>
-    </row>
-    <row r="44" spans="1:19" ht="14.5">
-      <c r="A44" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="57">
-        <v>40800</v>
-      </c>
-      <c r="D44" s="59">
-        <f t="shared" si="10"/>
-        <v>95.833333333333343</v>
-      </c>
-      <c r="E44" s="57">
-        <v>39100</v>
-      </c>
-      <c r="F44" s="57">
-        <v>36000</v>
-      </c>
-      <c r="G44" s="55">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="75"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="75"/>
-      <c r="P44" s="75"/>
-      <c r="Q44" s="75"/>
-      <c r="R44" s="75"/>
-      <c r="S44" s="75"/>
-    </row>
-    <row r="45" spans="1:19" ht="14.5">
-      <c r="A45" s="58" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="57">
-        <v>1200</v>
-      </c>
-      <c r="D45" s="59">
-        <f t="shared" si="10"/>
-        <v>123.29999999999998</v>
-      </c>
-      <c r="E45" s="57">
-        <v>1479.6</v>
-      </c>
-      <c r="F45" s="57">
-        <v>1500</v>
-      </c>
-      <c r="G45" s="55">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="75"/>
-      <c r="I45" s="75"/>
-      <c r="J45" s="75"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="75"/>
-      <c r="M45" s="75"/>
-      <c r="N45" s="75"/>
-      <c r="O45" s="75"/>
-      <c r="P45" s="75"/>
-      <c r="Q45" s="75"/>
-      <c r="R45" s="75"/>
-      <c r="S45" s="75"/>
-    </row>
-    <row r="46" spans="1:19" ht="14.5">
-      <c r="A46" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="B46" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="57">
-        <v>2000</v>
-      </c>
-      <c r="D46" s="59">
-        <f t="shared" si="10"/>
-        <v>52.310999999999993</v>
-      </c>
-      <c r="E46" s="57">
-        <v>1046.22</v>
-      </c>
-      <c r="F46" s="57">
-        <v>1500</v>
-      </c>
-      <c r="G46" s="55">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="75"/>
-      <c r="N46" s="75"/>
-      <c r="O46" s="75"/>
-      <c r="P46" s="75"/>
-      <c r="Q46" s="75"/>
-      <c r="R46" s="75"/>
-      <c r="S46" s="75"/>
-    </row>
-    <row r="47" spans="1:19" ht="14.5">
-      <c r="A47" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="57">
-        <v>800</v>
-      </c>
-      <c r="D47" s="59">
-        <f t="shared" si="10"/>
-        <v>45.037500000000001</v>
-      </c>
-      <c r="E47" s="57">
-        <v>360.3</v>
-      </c>
-      <c r="F47" s="57">
-        <v>400</v>
-      </c>
-      <c r="G47" s="55">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="75"/>
-      <c r="I47" s="75"/>
-      <c r="J47" s="75"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
-      <c r="N47" s="75"/>
-      <c r="O47" s="75"/>
-      <c r="P47" s="75"/>
-      <c r="Q47" s="75"/>
-      <c r="R47" s="75"/>
-      <c r="S47" s="75"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="74"/>
+      <c r="I47" s="74"/>
+      <c r="J47" s="74"/>
+      <c r="K47" s="74"/>
+      <c r="L47" s="74"/>
+      <c r="M47" s="74"/>
+      <c r="N47" s="74"/>
+      <c r="O47" s="74"/>
+      <c r="P47" s="74"/>
+      <c r="Q47" s="74"/>
+      <c r="R47" s="74"/>
+      <c r="S47" s="74"/>
     </row>
     <row r="48" spans="1:19" ht="14.5">
-      <c r="A48" s="44" t="s">
+      <c r="A48" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="57">
+      <c r="C48" s="56">
         <f>SUBTOTAL(9,C35:C47)</f>
         <v>54000</v>
       </c>
-      <c r="D48" s="59">
-        <f t="shared" si="10"/>
+      <c r="D48" s="58">
+        <f t="shared" si="11"/>
         <v>94.413185185185185</v>
       </c>
-      <c r="E48" s="57">
-        <f t="shared" ref="E48:G48" si="11">SUBTOTAL(9,E35:E47)</f>
+      <c r="E48" s="56">
+        <f t="shared" ref="E48:S48" si="12">SUBTOTAL(9,E35:E47)</f>
         <v>50983.12</v>
       </c>
-      <c r="F48" s="57">
-        <f t="shared" si="11"/>
+      <c r="F48" s="56">
+        <f t="shared" si="12"/>
         <v>49100</v>
       </c>
-      <c r="G48" s="57">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="75"/>
-      <c r="I48" s="75"/>
-      <c r="J48" s="75"/>
-      <c r="K48" s="75"/>
-      <c r="L48" s="75"/>
-      <c r="M48" s="75"/>
-      <c r="N48" s="75"/>
-      <c r="O48" s="75"/>
-      <c r="P48" s="75"/>
-      <c r="Q48" s="75"/>
-      <c r="R48" s="75"/>
-      <c r="S48" s="75"/>
+      <c r="G48" s="56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="56">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:19" ht="14.5">
-      <c r="A49" s="148"/>
-      <c r="B49" s="130"/>
-      <c r="C49" s="130"/>
-      <c r="D49" s="130"/>
-      <c r="E49" s="130"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="150"/>
-      <c r="I49" s="130"/>
-      <c r="J49" s="130"/>
-      <c r="K49" s="130"/>
-      <c r="L49" s="130"/>
-      <c r="M49" s="130"/>
-      <c r="N49" s="130"/>
-      <c r="O49" s="130"/>
-      <c r="P49" s="130"/>
-      <c r="Q49" s="130"/>
-      <c r="R49" s="130"/>
-      <c r="S49" s="130"/>
+      <c r="A49" s="144"/>
+      <c r="B49" s="129"/>
+      <c r="C49" s="129"/>
+      <c r="D49" s="129"/>
+      <c r="E49" s="129"/>
+      <c r="F49" s="129"/>
+      <c r="G49" s="129"/>
+      <c r="H49" s="142"/>
+      <c r="I49" s="129"/>
+      <c r="J49" s="129"/>
+      <c r="K49" s="129"/>
+      <c r="L49" s="129"/>
+      <c r="M49" s="129"/>
+      <c r="N49" s="129"/>
+      <c r="O49" s="129"/>
+      <c r="P49" s="129"/>
+      <c r="Q49" s="129"/>
+      <c r="R49" s="129"/>
+      <c r="S49" s="129"/>
     </row>
     <row r="50" spans="1:19" ht="14.5">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="B50" s="46" t="s">
+      <c r="B50" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="75"/>
-      <c r="J50" s="75"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="75"/>
-      <c r="M50" s="75"/>
-      <c r="N50" s="75"/>
-      <c r="O50" s="75"/>
-      <c r="P50" s="75"/>
-      <c r="Q50" s="75"/>
-      <c r="R50" s="75"/>
-      <c r="S50" s="75"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="74"/>
+      <c r="P50" s="74"/>
+      <c r="Q50" s="74"/>
+      <c r="R50" s="74"/>
+      <c r="S50" s="74"/>
     </row>
     <row r="51" spans="1:19" ht="14.5">
-      <c r="A51" s="61" t="s">
+      <c r="A51" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="46" t="s">
+      <c r="B51" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="48">
+      <c r="C51" s="47">
         <v>1200</v>
       </c>
-      <c r="D51" s="49">
-        <f t="shared" ref="D51:D53" si="12">E51/C51*100</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="48">
-        <v>0</v>
-      </c>
-      <c r="F51" s="47">
+      <c r="D51" s="48">
+        <f t="shared" ref="D51:D53" si="13">E51/C51*100</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="47">
+        <v>0</v>
+      </c>
+      <c r="F51" s="46">
         <v>1200</v>
       </c>
-      <c r="G51" s="48">
-        <f t="shared" ref="G51:G57" si="13">SUM(H51:S51)</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="75"/>
-      <c r="N51" s="75"/>
-      <c r="O51" s="75"/>
-      <c r="P51" s="75"/>
-      <c r="Q51" s="75"/>
-      <c r="R51" s="75"/>
-      <c r="S51" s="75"/>
+      <c r="G51" s="47">
+        <f t="shared" ref="G51:G57" si="14">SUM(H51:S51)</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="74"/>
+      <c r="I51" s="74"/>
+      <c r="J51" s="74"/>
+      <c r="K51" s="74"/>
+      <c r="L51" s="74"/>
+      <c r="M51" s="74"/>
+      <c r="N51" s="74"/>
+      <c r="O51" s="74"/>
+      <c r="P51" s="74"/>
+      <c r="Q51" s="74"/>
+      <c r="R51" s="74"/>
+      <c r="S51" s="74"/>
     </row>
     <row r="52" spans="1:19" ht="14.5">
-      <c r="A52" s="61" t="s">
+      <c r="A52" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="B52" s="46" t="s">
+      <c r="B52" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="48">
+      <c r="C52" s="47">
         <v>200</v>
       </c>
-      <c r="D52" s="49">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E52" s="48">
-        <v>0</v>
-      </c>
-      <c r="F52" s="47">
+      <c r="D52" s="48">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="47">
+        <v>0</v>
+      </c>
+      <c r="F52" s="46">
         <v>200</v>
       </c>
-      <c r="G52" s="48">
+      <c r="G52" s="47">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="74"/>
+      <c r="I52" s="74"/>
+      <c r="J52" s="74"/>
+      <c r="K52" s="74"/>
+      <c r="L52" s="74"/>
+      <c r="M52" s="74"/>
+      <c r="N52" s="74"/>
+      <c r="O52" s="74"/>
+      <c r="P52" s="74"/>
+      <c r="Q52" s="74"/>
+      <c r="R52" s="74"/>
+      <c r="S52" s="74"/>
+    </row>
+    <row r="53" spans="1:19" ht="14.5">
+      <c r="A53" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53" s="47">
+        <v>100</v>
+      </c>
+      <c r="D53" s="48">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H52" s="75"/>
-      <c r="I52" s="75"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="75"/>
-      <c r="M52" s="75"/>
-      <c r="N52" s="75"/>
-      <c r="O52" s="75"/>
-      <c r="P52" s="75"/>
-      <c r="Q52" s="75"/>
-      <c r="R52" s="75"/>
-      <c r="S52" s="75"/>
-    </row>
-    <row r="53" spans="1:19" ht="14.5">
-      <c r="A53" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="48">
+      <c r="E53" s="47">
+        <v>0</v>
+      </c>
+      <c r="F53" s="46">
+        <v>200</v>
+      </c>
+      <c r="G53" s="47">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="74"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
+      <c r="K53" s="74"/>
+      <c r="L53" s="74"/>
+      <c r="M53" s="74"/>
+      <c r="N53" s="74"/>
+      <c r="O53" s="74"/>
+      <c r="P53" s="74"/>
+      <c r="Q53" s="74"/>
+      <c r="R53" s="74"/>
+      <c r="S53" s="74"/>
+    </row>
+    <row r="54" spans="1:19" ht="14.5">
+      <c r="A54" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="46">
         <v>100</v>
       </c>
-      <c r="D53" s="49">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E53" s="48">
-        <v>0</v>
-      </c>
-      <c r="F53" s="47">
+      <c r="G54" s="47">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="74"/>
+      <c r="I54" s="74"/>
+      <c r="J54" s="74"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="74"/>
+      <c r="N54" s="74"/>
+      <c r="O54" s="74"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="74"/>
+      <c r="R54" s="74"/>
+      <c r="S54" s="74"/>
+    </row>
+    <row r="55" spans="1:19" ht="14.5">
+      <c r="A55" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="47">
+        <v>300</v>
+      </c>
+      <c r="D55" s="48">
+        <f t="shared" ref="D55:D58" si="15">E55/C55*100</f>
+        <v>24.423333333333332</v>
+      </c>
+      <c r="E55" s="47">
+        <v>73.27</v>
+      </c>
+      <c r="F55" s="46">
+        <v>400</v>
+      </c>
+      <c r="G55" s="47">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="74"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="74"/>
+      <c r="O55" s="74"/>
+      <c r="P55" s="74"/>
+      <c r="Q55" s="74"/>
+      <c r="R55" s="74"/>
+      <c r="S55" s="74"/>
+    </row>
+    <row r="56" spans="1:19" ht="14.5">
+      <c r="A56" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="C56" s="47">
         <v>200</v>
       </c>
-      <c r="G53" s="48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="75"/>
-      <c r="I53" s="75"/>
-      <c r="J53" s="75"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="75"/>
-      <c r="M53" s="75"/>
-      <c r="N53" s="75"/>
-      <c r="O53" s="75"/>
-      <c r="P53" s="75"/>
-      <c r="Q53" s="75"/>
-      <c r="R53" s="75"/>
-      <c r="S53" s="75"/>
-    </row>
-    <row r="54" spans="1:19" ht="14.5">
-      <c r="A54" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="47">
+      <c r="D56" s="48">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="47">
+        <v>0</v>
+      </c>
+      <c r="F56" s="46">
         <v>100</v>
       </c>
-      <c r="G54" s="48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="75"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="75"/>
-      <c r="L54" s="75"/>
-      <c r="M54" s="75"/>
-      <c r="N54" s="75"/>
-      <c r="O54" s="75"/>
-      <c r="P54" s="75"/>
-      <c r="Q54" s="75"/>
-      <c r="R54" s="75"/>
-      <c r="S54" s="75"/>
-    </row>
-    <row r="55" spans="1:19" ht="14.5">
-      <c r="A55" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" s="48">
-        <v>300</v>
-      </c>
-      <c r="D55" s="49">
-        <f t="shared" ref="D55:D58" si="14">E55/C55*100</f>
-        <v>24.423333333333332</v>
-      </c>
-      <c r="E55" s="48">
-        <v>73.27</v>
-      </c>
-      <c r="F55" s="47">
-        <v>400</v>
-      </c>
-      <c r="G55" s="48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="75"/>
-      <c r="I55" s="75"/>
-      <c r="J55" s="75"/>
-      <c r="K55" s="75"/>
-      <c r="L55" s="75"/>
-      <c r="M55" s="75"/>
-      <c r="N55" s="75"/>
-      <c r="O55" s="75"/>
-      <c r="P55" s="75"/>
-      <c r="Q55" s="75"/>
-      <c r="R55" s="75"/>
-      <c r="S55" s="75"/>
-    </row>
-    <row r="56" spans="1:19" ht="14.5">
-      <c r="A56" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" s="46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C56" s="48">
-        <v>200</v>
-      </c>
-      <c r="D56" s="49">
+      <c r="G56" s="47">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E56" s="48">
-        <v>0</v>
-      </c>
-      <c r="F56" s="47">
+      <c r="H56" s="74"/>
+      <c r="I56" s="74"/>
+      <c r="J56" s="74"/>
+      <c r="K56" s="74"/>
+      <c r="L56" s="74"/>
+      <c r="M56" s="74"/>
+      <c r="N56" s="74"/>
+      <c r="O56" s="74"/>
+      <c r="P56" s="74"/>
+      <c r="Q56" s="74"/>
+      <c r="R56" s="74"/>
+      <c r="S56" s="74"/>
+    </row>
+    <row r="57" spans="1:19" ht="14.5">
+      <c r="A57" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57" s="47">
         <v>100</v>
       </c>
-      <c r="G56" s="48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="75"/>
-      <c r="I56" s="75"/>
-      <c r="J56" s="75"/>
-      <c r="K56" s="75"/>
-      <c r="L56" s="75"/>
-      <c r="M56" s="75"/>
-      <c r="N56" s="75"/>
-      <c r="O56" s="75"/>
-      <c r="P56" s="75"/>
-      <c r="Q56" s="75"/>
-      <c r="R56" s="75"/>
-      <c r="S56" s="75"/>
-    </row>
-    <row r="57" spans="1:19" ht="14.5">
-      <c r="A57" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57" s="46" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" s="48">
+      <c r="D57" s="48">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="47">
+        <v>0</v>
+      </c>
+      <c r="F57" s="46">
         <v>100</v>
       </c>
-      <c r="D57" s="49">
+      <c r="G57" s="47">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E57" s="48">
-        <v>0</v>
-      </c>
-      <c r="F57" s="47">
-        <v>100</v>
-      </c>
-      <c r="G57" s="48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="75"/>
-      <c r="I57" s="75"/>
-      <c r="J57" s="75"/>
-      <c r="K57" s="75"/>
-      <c r="L57" s="75"/>
-      <c r="M57" s="75"/>
-      <c r="N57" s="75"/>
-      <c r="O57" s="75"/>
-      <c r="P57" s="75"/>
-      <c r="Q57" s="75"/>
-      <c r="R57" s="75"/>
-      <c r="S57" s="75"/>
+      <c r="H57" s="74"/>
+      <c r="I57" s="74"/>
+      <c r="J57" s="74"/>
+      <c r="K57" s="74"/>
+      <c r="L57" s="74"/>
+      <c r="M57" s="74"/>
+      <c r="N57" s="74"/>
+      <c r="O57" s="74"/>
+      <c r="P57" s="74"/>
+      <c r="Q57" s="74"/>
+      <c r="R57" s="74"/>
+      <c r="S57" s="74"/>
     </row>
     <row r="58" spans="1:19" ht="14.5">
-      <c r="A58" s="53" t="s">
+      <c r="A58" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B58" s="46" t="s">
+      <c r="B58" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="47">
+      <c r="C58" s="46">
         <f>SUBTOTAL(9,C51:C57)</f>
         <v>2100</v>
       </c>
-      <c r="D58" s="49">
-        <f t="shared" si="14"/>
+      <c r="D58" s="48">
+        <f t="shared" si="15"/>
         <v>3.4890476190476187</v>
       </c>
-      <c r="E58" s="47">
-        <f t="shared" ref="E58:G58" si="15">SUBTOTAL(9,E51:E57)</f>
+      <c r="E58" s="46">
+        <f t="shared" ref="E58:S58" si="16">SUBTOTAL(9,E51:E57)</f>
         <v>73.27</v>
       </c>
-      <c r="F58" s="47">
-        <f t="shared" si="15"/>
+      <c r="F58" s="46">
+        <f t="shared" si="16"/>
         <v>2300</v>
       </c>
-      <c r="G58" s="47">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="75"/>
-      <c r="I58" s="75"/>
-      <c r="J58" s="75"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="75"/>
-      <c r="M58" s="75"/>
-      <c r="N58" s="75"/>
-      <c r="O58" s="75"/>
-      <c r="P58" s="75"/>
-      <c r="Q58" s="75"/>
-      <c r="R58" s="75"/>
-      <c r="S58" s="75"/>
+      <c r="G58" s="46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="46">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:19" ht="14.5">
-      <c r="A59" s="148"/>
-      <c r="B59" s="130"/>
-      <c r="C59" s="130"/>
-      <c r="D59" s="130"/>
-      <c r="E59" s="130"/>
-      <c r="F59" s="130"/>
-      <c r="G59" s="130"/>
-      <c r="H59" s="150"/>
-      <c r="I59" s="130"/>
-      <c r="J59" s="130"/>
-      <c r="K59" s="130"/>
-      <c r="L59" s="130"/>
-      <c r="M59" s="130"/>
-      <c r="N59" s="130"/>
-      <c r="O59" s="130"/>
-      <c r="P59" s="130"/>
-      <c r="Q59" s="130"/>
-      <c r="R59" s="130"/>
-      <c r="S59" s="130"/>
+      <c r="A59" s="144"/>
+      <c r="B59" s="129"/>
+      <c r="C59" s="129"/>
+      <c r="D59" s="129"/>
+      <c r="E59" s="129"/>
+      <c r="F59" s="129"/>
+      <c r="G59" s="129"/>
+      <c r="H59" s="142"/>
+      <c r="I59" s="129"/>
+      <c r="J59" s="129"/>
+      <c r="K59" s="129"/>
+      <c r="L59" s="129"/>
+      <c r="M59" s="129"/>
+      <c r="N59" s="129"/>
+      <c r="O59" s="129"/>
+      <c r="P59" s="129"/>
+      <c r="Q59" s="129"/>
+      <c r="R59" s="129"/>
+      <c r="S59" s="129"/>
     </row>
     <row r="60" spans="1:19" ht="14.5">
-      <c r="A60" s="54" t="s">
+      <c r="A60" s="53" t="s">
         <v>91</v>
       </c>
-      <c r="B60" s="56" t="s">
+      <c r="B60" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="55"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="75"/>
-      <c r="I60" s="75"/>
-      <c r="J60" s="75"/>
-      <c r="K60" s="75"/>
-      <c r="L60" s="75"/>
-      <c r="M60" s="75"/>
-      <c r="N60" s="75"/>
-      <c r="O60" s="75"/>
-      <c r="P60" s="75"/>
-      <c r="Q60" s="75"/>
-      <c r="R60" s="75"/>
-      <c r="S60" s="75"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="56"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="74"/>
+      <c r="I60" s="74"/>
+      <c r="J60" s="74"/>
+      <c r="K60" s="74"/>
+      <c r="L60" s="74"/>
+      <c r="M60" s="74"/>
+      <c r="N60" s="74"/>
+      <c r="O60" s="74"/>
+      <c r="P60" s="74"/>
+      <c r="Q60" s="74"/>
+      <c r="R60" s="74"/>
+      <c r="S60" s="74"/>
     </row>
     <row r="61" spans="1:19" ht="14.5">
-      <c r="A61" s="58" t="s">
+      <c r="A61" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="56" t="s">
+      <c r="B61" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C61" s="55">
+      <c r="C61" s="54">
         <v>700</v>
       </c>
-      <c r="D61" s="59">
-        <f t="shared" ref="D61:D63" si="16">E61/C61*100</f>
+      <c r="D61" s="58">
+        <f t="shared" ref="D61:D63" si="17">E61/C61*100</f>
         <v>71.428571428571431</v>
       </c>
-      <c r="E61" s="57">
+      <c r="E61" s="56">
         <v>500</v>
       </c>
-      <c r="F61" s="57">
+      <c r="F61" s="56">
         <v>400</v>
       </c>
-      <c r="G61" s="55">
-        <f t="shared" ref="G61:G64" si="17">SUM(H61:S61)</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="75"/>
-      <c r="I61" s="75"/>
-      <c r="J61" s="75"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="75"/>
-      <c r="M61" s="75"/>
-      <c r="N61" s="75"/>
-      <c r="O61" s="75"/>
-      <c r="P61" s="75"/>
-      <c r="Q61" s="75"/>
-      <c r="R61" s="75"/>
-      <c r="S61" s="75"/>
+      <c r="G61" s="54">
+        <f t="shared" ref="G61:G64" si="18">SUM(H61:S61)</f>
+        <v>0</v>
+      </c>
+      <c r="H61" s="74"/>
+      <c r="I61" s="74"/>
+      <c r="J61" s="74"/>
+      <c r="K61" s="74"/>
+      <c r="L61" s="74"/>
+      <c r="M61" s="74"/>
+      <c r="N61" s="74"/>
+      <c r="O61" s="74"/>
+      <c r="P61" s="74"/>
+      <c r="Q61" s="74"/>
+      <c r="R61" s="74"/>
+      <c r="S61" s="74"/>
     </row>
     <row r="62" spans="1:19" ht="14.5">
-      <c r="A62" s="58" t="s">
+      <c r="A62" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="56" t="s">
+      <c r="B62" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="55">
+      <c r="C62" s="54">
         <v>200</v>
       </c>
-      <c r="D62" s="59">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E62" s="57">
-        <v>0</v>
-      </c>
-      <c r="F62" s="57">
+      <c r="D62" s="58">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="56">
+        <v>0</v>
+      </c>
+      <c r="F62" s="56">
         <v>200</v>
       </c>
-      <c r="G62" s="55">
+      <c r="G62" s="54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="74"/>
+      <c r="I62" s="74"/>
+      <c r="J62" s="74"/>
+      <c r="K62" s="74"/>
+      <c r="L62" s="74"/>
+      <c r="M62" s="74"/>
+      <c r="N62" s="74"/>
+      <c r="O62" s="74"/>
+      <c r="P62" s="74"/>
+      <c r="Q62" s="74"/>
+      <c r="R62" s="74"/>
+      <c r="S62" s="74"/>
+    </row>
+    <row r="63" spans="1:19" ht="14.5">
+      <c r="A63" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="54">
+        <v>450</v>
+      </c>
+      <c r="D63" s="58">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="H62" s="75"/>
-      <c r="I62" s="75"/>
-      <c r="J62" s="75"/>
-      <c r="K62" s="75"/>
-      <c r="L62" s="75"/>
-      <c r="M62" s="75"/>
-      <c r="N62" s="75"/>
-      <c r="O62" s="75"/>
-      <c r="P62" s="75"/>
-      <c r="Q62" s="75"/>
-      <c r="R62" s="75"/>
-      <c r="S62" s="75"/>
-    </row>
-    <row r="63" spans="1:19" ht="14.5">
-      <c r="A63" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="B63" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C63" s="55">
-        <v>450</v>
-      </c>
-      <c r="D63" s="59">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="57">
-        <v>0</v>
-      </c>
-      <c r="F63" s="57">
+      <c r="E63" s="56">
+        <v>0</v>
+      </c>
+      <c r="F63" s="56">
         <v>400</v>
       </c>
-      <c r="G63" s="55">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="75"/>
-      <c r="I63" s="75"/>
-      <c r="J63" s="75"/>
-      <c r="K63" s="75"/>
-      <c r="L63" s="75"/>
-      <c r="M63" s="75"/>
-      <c r="N63" s="75"/>
-      <c r="O63" s="75"/>
-      <c r="P63" s="75"/>
-      <c r="Q63" s="75"/>
-      <c r="R63" s="75"/>
-      <c r="S63" s="75"/>
+      <c r="G63" s="54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="74"/>
+      <c r="I63" s="74"/>
+      <c r="J63" s="74"/>
+      <c r="K63" s="74"/>
+      <c r="L63" s="74"/>
+      <c r="M63" s="74"/>
+      <c r="N63" s="74"/>
+      <c r="O63" s="74"/>
+      <c r="P63" s="74"/>
+      <c r="Q63" s="74"/>
+      <c r="R63" s="74"/>
+      <c r="S63" s="74"/>
     </row>
     <row r="64" spans="1:19" ht="14.5">
-      <c r="A64" s="58" t="s">
+      <c r="A64" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="56" t="s">
+      <c r="B64" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C64" s="55"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="57">
-        <v>0</v>
-      </c>
-      <c r="F64" s="57">
+      <c r="C64" s="54"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="56">
+        <v>0</v>
+      </c>
+      <c r="F64" s="56">
         <v>1300</v>
       </c>
-      <c r="G64" s="55">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="75"/>
-      <c r="I64" s="75"/>
-      <c r="J64" s="75"/>
-      <c r="K64" s="75"/>
-      <c r="L64" s="75"/>
-      <c r="M64" s="75"/>
-      <c r="N64" s="75"/>
-      <c r="O64" s="75"/>
-      <c r="P64" s="75"/>
-      <c r="Q64" s="75"/>
-      <c r="R64" s="75"/>
-      <c r="S64" s="75"/>
+      <c r="G64" s="54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="74"/>
+      <c r="I64" s="74"/>
+      <c r="J64" s="74"/>
+      <c r="K64" s="74"/>
+      <c r="L64" s="74"/>
+      <c r="M64" s="74"/>
+      <c r="N64" s="74"/>
+      <c r="O64" s="74"/>
+      <c r="P64" s="74"/>
+      <c r="Q64" s="74"/>
+      <c r="R64" s="74"/>
+      <c r="S64" s="74"/>
     </row>
     <row r="65" spans="1:19" ht="14.5">
-      <c r="A65" s="44" t="s">
+      <c r="A65" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="56" t="s">
+      <c r="B65" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="C65" s="57">
+      <c r="C65" s="56">
         <f>SUBTOTAL(9,C61:C64)</f>
         <v>1350</v>
       </c>
-      <c r="D65" s="59">
+      <c r="D65" s="58">
         <f>E65/C65*100</f>
         <v>37.037037037037038</v>
       </c>
-      <c r="E65" s="57">
-        <f t="shared" ref="E65:G65" si="18">SUBTOTAL(9,E61:E64)</f>
+      <c r="E65" s="56">
+        <f t="shared" ref="E65:S65" si="19">SUBTOTAL(9,E61:E64)</f>
         <v>500</v>
       </c>
-      <c r="F65" s="57">
-        <f t="shared" si="18"/>
+      <c r="F65" s="56">
+        <f t="shared" si="19"/>
         <v>2300</v>
       </c>
-      <c r="G65" s="57">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="75"/>
-      <c r="I65" s="75"/>
-      <c r="J65" s="75"/>
-      <c r="K65" s="75"/>
-      <c r="L65" s="75"/>
-      <c r="M65" s="75"/>
-      <c r="N65" s="75"/>
-      <c r="O65" s="75"/>
-      <c r="P65" s="75"/>
-      <c r="Q65" s="75"/>
-      <c r="R65" s="75"/>
-      <c r="S65" s="75"/>
+      <c r="G65" s="56">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="56">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="56">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="56">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K65" s="56">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="56">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="56">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="56">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="56">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="56">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="56">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R65" s="56">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="56">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:19" ht="14.5">
-      <c r="A66" s="148"/>
-      <c r="B66" s="130"/>
-      <c r="C66" s="130"/>
-      <c r="D66" s="130"/>
-      <c r="E66" s="130"/>
-      <c r="F66" s="130"/>
-      <c r="G66" s="130"/>
-      <c r="H66" s="150"/>
-      <c r="I66" s="130"/>
-      <c r="J66" s="130"/>
-      <c r="K66" s="130"/>
-      <c r="L66" s="130"/>
-      <c r="M66" s="130"/>
-      <c r="N66" s="130"/>
-      <c r="O66" s="130"/>
-      <c r="P66" s="130"/>
-      <c r="Q66" s="130"/>
-      <c r="R66" s="130"/>
-      <c r="S66" s="130"/>
+      <c r="A66" s="144"/>
+      <c r="B66" s="129"/>
+      <c r="C66" s="129"/>
+      <c r="D66" s="129"/>
+      <c r="E66" s="129"/>
+      <c r="F66" s="129"/>
+      <c r="G66" s="129"/>
+      <c r="H66" s="142"/>
+      <c r="I66" s="129"/>
+      <c r="J66" s="129"/>
+      <c r="K66" s="129"/>
+      <c r="L66" s="129"/>
+      <c r="M66" s="129"/>
+      <c r="N66" s="129"/>
+      <c r="O66" s="129"/>
+      <c r="P66" s="129"/>
+      <c r="Q66" s="129"/>
+      <c r="R66" s="129"/>
+      <c r="S66" s="129"/>
     </row>
     <row r="67" spans="1:19" ht="14.5">
-      <c r="A67" s="45" t="s">
+      <c r="A67" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="B67" s="46" t="s">
+      <c r="B67" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="C67" s="48"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="75"/>
-      <c r="I67" s="75"/>
-      <c r="J67" s="75"/>
-      <c r="K67" s="75"/>
-      <c r="L67" s="75"/>
-      <c r="M67" s="75"/>
-      <c r="N67" s="75"/>
-      <c r="O67" s="75"/>
-      <c r="P67" s="75"/>
-      <c r="Q67" s="75"/>
-      <c r="R67" s="75"/>
-      <c r="S67" s="75"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="74"/>
+      <c r="J67" s="74"/>
+      <c r="K67" s="74"/>
+      <c r="L67" s="74"/>
+      <c r="M67" s="74"/>
+      <c r="N67" s="74"/>
+      <c r="O67" s="74"/>
+      <c r="P67" s="74"/>
+      <c r="Q67" s="74"/>
+      <c r="R67" s="74"/>
+      <c r="S67" s="74"/>
     </row>
     <row r="68" spans="1:19" ht="14.5">
-      <c r="A68" s="61" t="s">
+      <c r="A68" s="60" t="s">
         <v>103</v>
       </c>
-      <c r="B68" s="46" t="s">
+      <c r="B68" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="C68" s="47">
+      <c r="C68" s="46">
         <v>200</v>
       </c>
-      <c r="D68" s="49">
-        <f t="shared" ref="D68:D72" si="19">E68/C68*100</f>
-        <v>0</v>
-      </c>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47">
+      <c r="D68" s="48">
+        <f t="shared" ref="D68:D72" si="20">E68/C68*100</f>
+        <v>0</v>
+      </c>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46">
         <v>200</v>
       </c>
-      <c r="G68" s="48">
-        <f t="shared" ref="G68:G71" si="20">SUM(H68:S68)</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="75"/>
-      <c r="I68" s="75"/>
-      <c r="J68" s="75"/>
-      <c r="K68" s="75"/>
-      <c r="L68" s="75"/>
-      <c r="M68" s="75"/>
-      <c r="N68" s="75"/>
-      <c r="O68" s="75"/>
-      <c r="P68" s="75"/>
-      <c r="Q68" s="75"/>
-      <c r="R68" s="75"/>
-      <c r="S68" s="75"/>
+      <c r="G68" s="47">
+        <f t="shared" ref="G68:G71" si="21">SUM(H68:S68)</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="74"/>
+      <c r="I68" s="74"/>
+      <c r="J68" s="74"/>
+      <c r="K68" s="74"/>
+      <c r="L68" s="74"/>
+      <c r="M68" s="74"/>
+      <c r="N68" s="74"/>
+      <c r="O68" s="74"/>
+      <c r="P68" s="74"/>
+      <c r="Q68" s="74"/>
+      <c r="R68" s="74"/>
+      <c r="S68" s="74"/>
     </row>
     <row r="69" spans="1:19" ht="14.5">
-      <c r="A69" s="61" t="s">
+      <c r="A69" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="B69" s="46" t="s">
+      <c r="B69" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="47">
+      <c r="C69" s="46">
         <v>300</v>
       </c>
-      <c r="D69" s="49">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E69" s="47"/>
-      <c r="F69" s="47">
+      <c r="D69" s="48">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46">
         <v>300</v>
       </c>
-      <c r="G69" s="48">
+      <c r="G69" s="47">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="74"/>
+      <c r="I69" s="74"/>
+      <c r="J69" s="74"/>
+      <c r="K69" s="74"/>
+      <c r="L69" s="74"/>
+      <c r="M69" s="74"/>
+      <c r="N69" s="74"/>
+      <c r="O69" s="74"/>
+      <c r="P69" s="74"/>
+      <c r="Q69" s="74"/>
+      <c r="R69" s="74"/>
+      <c r="S69" s="74"/>
+    </row>
+    <row r="70" spans="1:19" ht="14.5">
+      <c r="A70" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="46">
+        <v>100</v>
+      </c>
+      <c r="D70" s="48">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="75"/>
-      <c r="I69" s="75"/>
-      <c r="J69" s="75"/>
-      <c r="K69" s="75"/>
-      <c r="L69" s="75"/>
-      <c r="M69" s="75"/>
-      <c r="N69" s="75"/>
-      <c r="O69" s="75"/>
-      <c r="P69" s="75"/>
-      <c r="Q69" s="75"/>
-      <c r="R69" s="75"/>
-      <c r="S69" s="75"/>
-    </row>
-    <row r="70" spans="1:19" ht="14.5">
-      <c r="A70" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="B70" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="C70" s="47">
-        <v>100</v>
-      </c>
-      <c r="D70" s="49">
-        <f t="shared" si="19"/>
         <v>130</v>
       </c>
-      <c r="E70" s="47">
+      <c r="E70" s="46">
         <v>130</v>
       </c>
-      <c r="F70" s="47">
+      <c r="F70" s="46">
         <v>130</v>
       </c>
-      <c r="G70" s="48">
+      <c r="G70" s="47">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="74"/>
+      <c r="I70" s="74"/>
+      <c r="J70" s="74"/>
+      <c r="K70" s="74"/>
+      <c r="L70" s="74"/>
+      <c r="M70" s="74"/>
+      <c r="N70" s="74"/>
+      <c r="O70" s="74"/>
+      <c r="P70" s="74"/>
+      <c r="Q70" s="74"/>
+      <c r="R70" s="74"/>
+      <c r="S70" s="74"/>
+    </row>
+    <row r="71" spans="1:19" ht="14.5">
+      <c r="A71" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="B71" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" s="47">
+        <v>1000</v>
+      </c>
+      <c r="D71" s="48">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H70" s="75"/>
-      <c r="I70" s="75"/>
-      <c r="J70" s="75"/>
-      <c r="K70" s="75"/>
-      <c r="L70" s="75"/>
-      <c r="M70" s="75"/>
-      <c r="N70" s="75"/>
-      <c r="O70" s="75"/>
-      <c r="P70" s="75"/>
-      <c r="Q70" s="75"/>
-      <c r="R70" s="75"/>
-      <c r="S70" s="75"/>
-    </row>
-    <row r="71" spans="1:19" ht="14.5">
-      <c r="A71" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="B71" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="C71" s="48">
-        <v>1000</v>
-      </c>
-      <c r="D71" s="49">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="47"/>
-      <c r="F71" s="47">
+      <c r="E71" s="46"/>
+      <c r="F71" s="46">
         <v>2000</v>
       </c>
-      <c r="G71" s="48">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="75"/>
-      <c r="I71" s="75"/>
-      <c r="J71" s="75"/>
-      <c r="K71" s="75"/>
-      <c r="L71" s="75"/>
-      <c r="M71" s="75"/>
-      <c r="N71" s="75"/>
-      <c r="O71" s="75"/>
-      <c r="P71" s="75"/>
-      <c r="Q71" s="75"/>
-      <c r="R71" s="75"/>
-      <c r="S71" s="75"/>
+      <c r="G71" s="47">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="74"/>
+      <c r="I71" s="74"/>
+      <c r="J71" s="74"/>
+      <c r="K71" s="74"/>
+      <c r="L71" s="74"/>
+      <c r="M71" s="74"/>
+      <c r="N71" s="74"/>
+      <c r="O71" s="74"/>
+      <c r="P71" s="74"/>
+      <c r="Q71" s="74"/>
+      <c r="R71" s="74"/>
+      <c r="S71" s="74"/>
     </row>
     <row r="72" spans="1:19" ht="14.5">
-      <c r="A72" s="53" t="s">
+      <c r="A72" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B72" s="46" t="s">
+      <c r="B72" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="C72" s="47">
+      <c r="C72" s="46">
         <f>SUBTOTAL(9,C68:C71)</f>
         <v>1600</v>
       </c>
-      <c r="D72" s="49">
-        <f t="shared" si="19"/>
+      <c r="D72" s="48">
+        <f t="shared" si="20"/>
         <v>8.125</v>
       </c>
-      <c r="E72" s="47">
-        <f t="shared" ref="E72:G72" si="21">SUBTOTAL(9,E68:E71)</f>
+      <c r="E72" s="46">
+        <f t="shared" ref="E72:S72" si="22">SUBTOTAL(9,E68:E71)</f>
         <v>130</v>
       </c>
-      <c r="F72" s="47">
-        <f t="shared" si="21"/>
+      <c r="F72" s="46">
+        <f t="shared" si="22"/>
         <v>2630</v>
       </c>
-      <c r="G72" s="47">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="75"/>
-      <c r="I72" s="75"/>
-      <c r="J72" s="75"/>
-      <c r="K72" s="75"/>
-      <c r="L72" s="75"/>
-      <c r="M72" s="75"/>
-      <c r="N72" s="75"/>
-      <c r="O72" s="75"/>
-      <c r="P72" s="75"/>
-      <c r="Q72" s="75"/>
-      <c r="R72" s="75"/>
-      <c r="S72" s="75"/>
+      <c r="G72" s="46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R72" s="46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="46">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:19" ht="14.5">
-      <c r="A73" s="148"/>
-      <c r="B73" s="130"/>
-      <c r="C73" s="130"/>
-      <c r="D73" s="130"/>
-      <c r="E73" s="130"/>
-      <c r="F73" s="130"/>
-      <c r="G73" s="130"/>
-      <c r="H73" s="150"/>
-      <c r="I73" s="130"/>
-      <c r="J73" s="130"/>
-      <c r="K73" s="130"/>
-      <c r="L73" s="130"/>
-      <c r="M73" s="130"/>
-      <c r="N73" s="130"/>
-      <c r="O73" s="130"/>
-      <c r="P73" s="130"/>
-      <c r="Q73" s="130"/>
-      <c r="R73" s="130"/>
-      <c r="S73" s="130"/>
+      <c r="A73" s="144"/>
+      <c r="B73" s="129"/>
+      <c r="C73" s="129"/>
+      <c r="D73" s="129"/>
+      <c r="E73" s="129"/>
+      <c r="F73" s="129"/>
+      <c r="G73" s="129"/>
+      <c r="H73" s="142"/>
+      <c r="I73" s="129"/>
+      <c r="J73" s="129"/>
+      <c r="K73" s="129"/>
+      <c r="L73" s="129"/>
+      <c r="M73" s="129"/>
+      <c r="N73" s="129"/>
+      <c r="O73" s="129"/>
+      <c r="P73" s="129"/>
+      <c r="Q73" s="129"/>
+      <c r="R73" s="129"/>
+      <c r="S73" s="129"/>
     </row>
     <row r="74" spans="1:19" ht="14.5">
-      <c r="A74" s="54" t="s">
+      <c r="A74" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="B74" s="56" t="s">
+      <c r="B74" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C74" s="55"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="62"/>
-      <c r="H74" s="75"/>
-      <c r="I74" s="75"/>
-      <c r="J74" s="75"/>
-      <c r="K74" s="75"/>
-      <c r="L74" s="75"/>
-      <c r="M74" s="75"/>
-      <c r="N74" s="75"/>
-      <c r="O74" s="75"/>
-      <c r="P74" s="75"/>
-      <c r="Q74" s="75"/>
-      <c r="R74" s="75"/>
-      <c r="S74" s="75"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="61"/>
+      <c r="H74" s="74"/>
+      <c r="I74" s="74"/>
+      <c r="J74" s="74"/>
+      <c r="K74" s="74"/>
+      <c r="L74" s="74"/>
+      <c r="M74" s="74"/>
+      <c r="N74" s="74"/>
+      <c r="O74" s="74"/>
+      <c r="P74" s="74"/>
+      <c r="Q74" s="74"/>
+      <c r="R74" s="74"/>
+      <c r="S74" s="74"/>
     </row>
     <row r="75" spans="1:19" ht="14.5">
-      <c r="A75" s="58" t="s">
+      <c r="A75" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="B75" s="56" t="s">
+      <c r="B75" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="C75" s="57">
+      <c r="C75" s="56">
         <v>500</v>
       </c>
-      <c r="D75" s="59">
-        <f t="shared" ref="D75:D80" si="22">E75/C75*100</f>
+      <c r="D75" s="58">
+        <f t="shared" ref="D75:D80" si="23">E75/C75*100</f>
         <v>22.6</v>
       </c>
-      <c r="E75" s="55">
+      <c r="E75" s="54">
         <v>113</v>
       </c>
-      <c r="F75" s="55">
+      <c r="F75" s="54">
         <v>300</v>
       </c>
-      <c r="G75" s="55">
-        <f t="shared" ref="G75:G79" si="23">SUM(H75:S75)</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="75"/>
-      <c r="I75" s="75"/>
-      <c r="J75" s="75"/>
-      <c r="K75" s="75"/>
-      <c r="L75" s="75"/>
-      <c r="M75" s="75"/>
-      <c r="N75" s="75"/>
-      <c r="O75" s="75"/>
-      <c r="P75" s="75"/>
-      <c r="Q75" s="75"/>
-      <c r="R75" s="75"/>
-      <c r="S75" s="75"/>
+      <c r="G75" s="54">
+        <f t="shared" ref="G75:G79" si="24">SUM(H75:S75)</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="74"/>
+      <c r="I75" s="74"/>
+      <c r="J75" s="74"/>
+      <c r="K75" s="74"/>
+      <c r="L75" s="74"/>
+      <c r="M75" s="74"/>
+      <c r="N75" s="74"/>
+      <c r="O75" s="74"/>
+      <c r="P75" s="74"/>
+      <c r="Q75" s="74"/>
+      <c r="R75" s="74"/>
+      <c r="S75" s="74"/>
     </row>
     <row r="76" spans="1:19" ht="14.5">
-      <c r="A76" s="58" t="s">
+      <c r="A76" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="B76" s="56" t="s">
+      <c r="B76" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C76" s="57">
+      <c r="C76" s="56">
         <v>100</v>
       </c>
-      <c r="D76" s="59">
-        <f t="shared" si="22"/>
+      <c r="D76" s="58">
+        <f t="shared" si="23"/>
         <v>283</v>
       </c>
-      <c r="E76" s="55">
+      <c r="E76" s="54">
         <v>283</v>
       </c>
-      <c r="F76" s="55">
+      <c r="F76" s="54">
         <v>300</v>
       </c>
-      <c r="G76" s="55">
+      <c r="G76" s="54">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="75"/>
+      <c r="I76" s="75"/>
+      <c r="J76" s="74"/>
+      <c r="K76" s="74"/>
+      <c r="L76" s="74"/>
+      <c r="M76" s="74"/>
+      <c r="N76" s="74"/>
+      <c r="O76" s="74"/>
+      <c r="P76" s="74"/>
+      <c r="Q76" s="74"/>
+      <c r="R76" s="74"/>
+      <c r="S76" s="74"/>
+    </row>
+    <row r="77" spans="1:19" ht="14.5">
+      <c r="A77" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" s="56">
+        <v>300</v>
+      </c>
+      <c r="D77" s="58">
         <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H76" s="76"/>
-      <c r="I76" s="76"/>
-      <c r="J76" s="75"/>
-      <c r="K76" s="75"/>
-      <c r="L76" s="75"/>
-      <c r="M76" s="75"/>
-      <c r="N76" s="75"/>
-      <c r="O76" s="75"/>
-      <c r="P76" s="75"/>
-      <c r="Q76" s="75"/>
-      <c r="R76" s="75"/>
-      <c r="S76" s="75"/>
-    </row>
-    <row r="77" spans="1:19" ht="14.5">
-      <c r="A77" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="B77" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="C77" s="57">
+        <v>101.80333333333334</v>
+      </c>
+      <c r="E77" s="54">
+        <v>305.41000000000003</v>
+      </c>
+      <c r="F77" s="54">
         <v>300</v>
       </c>
-      <c r="D77" s="59">
-        <f t="shared" si="22"/>
-        <v>101.80333333333334</v>
-      </c>
-      <c r="E77" s="55">
-        <v>305.41000000000003</v>
-      </c>
-      <c r="F77" s="55">
-        <v>300</v>
-      </c>
-      <c r="G77" s="55">
+      <c r="G77" s="54">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="75"/>
+      <c r="I77" s="75"/>
+      <c r="J77" s="74"/>
+      <c r="K77" s="74"/>
+      <c r="L77" s="74"/>
+      <c r="M77" s="74"/>
+      <c r="N77" s="74"/>
+      <c r="O77" s="74"/>
+      <c r="P77" s="74"/>
+      <c r="Q77" s="74"/>
+      <c r="R77" s="74"/>
+      <c r="S77" s="74"/>
+    </row>
+    <row r="78" spans="1:19" ht="14.5">
+      <c r="A78" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="56">
+        <v>500</v>
+      </c>
+      <c r="D78" s="58">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H77" s="76"/>
-      <c r="I77" s="76"/>
-      <c r="J77" s="75"/>
-      <c r="K77" s="75"/>
-      <c r="L77" s="75"/>
-      <c r="M77" s="75"/>
-      <c r="N77" s="75"/>
-      <c r="O77" s="75"/>
-      <c r="P77" s="75"/>
-      <c r="Q77" s="75"/>
-      <c r="R77" s="75"/>
-      <c r="S77" s="75"/>
-    </row>
-    <row r="78" spans="1:19" ht="14.5">
-      <c r="A78" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="B78" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C78" s="57">
+      <c r="E78" s="54"/>
+      <c r="F78" s="54">
         <v>500</v>
       </c>
-      <c r="D78" s="59">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="55"/>
-      <c r="F78" s="55">
+      <c r="G78" s="54">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="75"/>
+      <c r="I78" s="75"/>
+      <c r="J78" s="74"/>
+      <c r="K78" s="74"/>
+      <c r="L78" s="74"/>
+      <c r="M78" s="74"/>
+      <c r="N78" s="74"/>
+      <c r="O78" s="74"/>
+      <c r="P78" s="74"/>
+      <c r="Q78" s="74"/>
+      <c r="R78" s="74"/>
+      <c r="S78" s="74"/>
+    </row>
+    <row r="79" spans="1:19" ht="14.5">
+      <c r="A79" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="63">
         <v>500</v>
       </c>
-      <c r="G78" s="55">
+      <c r="D79" s="58">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="H78" s="76"/>
-      <c r="I78" s="76"/>
-      <c r="J78" s="75"/>
-      <c r="K78" s="75"/>
-      <c r="L78" s="75"/>
-      <c r="M78" s="75"/>
-      <c r="N78" s="75"/>
-      <c r="O78" s="75"/>
-      <c r="P78" s="75"/>
-      <c r="Q78" s="75"/>
-      <c r="R78" s="75"/>
-      <c r="S78" s="75"/>
-    </row>
-    <row r="79" spans="1:19" ht="14.5">
-      <c r="A79" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="B79" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="C79" s="64">
+      <c r="E79" s="54"/>
+      <c r="F79" s="54">
         <v>500</v>
       </c>
-      <c r="D79" s="59">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="55"/>
-      <c r="F79" s="55">
-        <v>500</v>
-      </c>
-      <c r="G79" s="55">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="H79" s="76"/>
-      <c r="I79" s="76"/>
-      <c r="J79" s="75"/>
-      <c r="K79" s="75"/>
-      <c r="L79" s="75"/>
-      <c r="M79" s="75"/>
-      <c r="N79" s="75"/>
-      <c r="O79" s="75"/>
-      <c r="P79" s="75"/>
-      <c r="Q79" s="75"/>
-      <c r="R79" s="75"/>
-      <c r="S79" s="75"/>
+      <c r="G79" s="54">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="75"/>
+      <c r="I79" s="75"/>
+      <c r="J79" s="74"/>
+      <c r="K79" s="74"/>
+      <c r="L79" s="74"/>
+      <c r="M79" s="74"/>
+      <c r="N79" s="74"/>
+      <c r="O79" s="74"/>
+      <c r="P79" s="74"/>
+      <c r="Q79" s="74"/>
+      <c r="R79" s="74"/>
+      <c r="S79" s="74"/>
     </row>
     <row r="80" spans="1:19" ht="14.5">
-      <c r="A80" s="44" t="s">
+      <c r="A80" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B80" s="56" t="s">
+      <c r="B80" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C80" s="57">
+      <c r="C80" s="56">
         <f>SUBTOTAL(9,C75:C79)</f>
         <v>1900</v>
       </c>
-      <c r="D80" s="59">
-        <f t="shared" si="22"/>
+      <c r="D80" s="58">
+        <f t="shared" si="23"/>
         <v>36.916315789473686</v>
       </c>
-      <c r="E80" s="57">
-        <f t="shared" ref="E80:G80" si="24">SUBTOTAL(9,E75:E79)</f>
+      <c r="E80" s="56">
+        <f t="shared" ref="E80:S80" si="25">SUBTOTAL(9,E75:E79)</f>
         <v>701.41000000000008</v>
       </c>
-      <c r="F80" s="57">
-        <f t="shared" si="24"/>
+      <c r="F80" s="56">
+        <f t="shared" si="25"/>
         <v>1900</v>
       </c>
-      <c r="G80" s="57">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="H80" s="76"/>
-      <c r="I80" s="76"/>
-      <c r="J80" s="75"/>
-      <c r="K80" s="75"/>
-      <c r="L80" s="75"/>
-      <c r="M80" s="75"/>
-      <c r="N80" s="75"/>
-      <c r="O80" s="75"/>
-      <c r="P80" s="75"/>
-      <c r="Q80" s="75"/>
-      <c r="R80" s="75"/>
-      <c r="S80" s="75"/>
+      <c r="G80" s="56">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="56">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="56">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="56">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="56">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="56">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="56">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N80" s="56">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O80" s="56">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P80" s="56">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="Q80" s="56">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R80" s="56">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="S80" s="56">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:19" ht="14.5">
-      <c r="A81" s="148"/>
-      <c r="B81" s="127"/>
-      <c r="C81" s="127"/>
-      <c r="D81" s="127"/>
-      <c r="E81" s="127"/>
-      <c r="F81" s="127"/>
-      <c r="G81" s="127"/>
-      <c r="H81" s="151"/>
-      <c r="I81" s="130"/>
-      <c r="J81" s="130"/>
-      <c r="K81" s="130"/>
-      <c r="L81" s="130"/>
-      <c r="M81" s="130"/>
-      <c r="N81" s="130"/>
-      <c r="O81" s="130"/>
-      <c r="P81" s="130"/>
-      <c r="Q81" s="130"/>
-      <c r="R81" s="130"/>
-      <c r="S81" s="130"/>
+      <c r="A81" s="144"/>
+      <c r="B81" s="126"/>
+      <c r="C81" s="126"/>
+      <c r="D81" s="126"/>
+      <c r="E81" s="126"/>
+      <c r="F81" s="126"/>
+      <c r="G81" s="126"/>
+      <c r="H81" s="146"/>
+      <c r="I81" s="129"/>
+      <c r="J81" s="129"/>
+      <c r="K81" s="129"/>
+      <c r="L81" s="129"/>
+      <c r="M81" s="129"/>
+      <c r="N81" s="129"/>
+      <c r="O81" s="129"/>
+      <c r="P81" s="129"/>
+      <c r="Q81" s="129"/>
+      <c r="R81" s="129"/>
+      <c r="S81" s="129"/>
     </row>
     <row r="82" spans="1:19" ht="14.5">
-      <c r="A82" s="45" t="s">
+      <c r="A82" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B82" s="46" t="s">
+      <c r="B82" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="C82" s="48"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="48"/>
-      <c r="G82" s="48"/>
-      <c r="H82" s="76"/>
-      <c r="I82" s="76"/>
-      <c r="J82" s="75"/>
-      <c r="K82" s="75"/>
-      <c r="L82" s="75"/>
-      <c r="M82" s="75"/>
-      <c r="N82" s="75"/>
-      <c r="O82" s="75"/>
-      <c r="P82" s="75"/>
-      <c r="Q82" s="75"/>
-      <c r="R82" s="75"/>
-      <c r="S82" s="75"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="75"/>
+      <c r="I82" s="75"/>
+      <c r="J82" s="74"/>
+      <c r="K82" s="74"/>
+      <c r="L82" s="74"/>
+      <c r="M82" s="74"/>
+      <c r="N82" s="74"/>
+      <c r="O82" s="74"/>
+      <c r="P82" s="74"/>
+      <c r="Q82" s="74"/>
+      <c r="R82" s="74"/>
+      <c r="S82" s="74"/>
     </row>
     <row r="83" spans="1:19" ht="14.5">
-      <c r="A83" s="61" t="s">
+      <c r="A83" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="B83" s="46" t="s">
+      <c r="B83" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="C83" s="47">
+      <c r="C83" s="46">
         <v>1500</v>
       </c>
-      <c r="D83" s="49">
-        <f t="shared" ref="D83:D84" si="25">E83/C83*100</f>
-        <v>0</v>
-      </c>
-      <c r="E83" s="48">
-        <v>0</v>
-      </c>
-      <c r="F83" s="47">
+      <c r="D83" s="48">
+        <f t="shared" ref="D83:D84" si="26">E83/C83*100</f>
+        <v>0</v>
+      </c>
+      <c r="E83" s="47">
+        <v>0</v>
+      </c>
+      <c r="F83" s="46">
         <v>1500</v>
       </c>
-      <c r="G83" s="48">
-        <f t="shared" ref="G83:G93" si="26">SUM(H83:S83)</f>
-        <v>0</v>
-      </c>
-      <c r="H83" s="76"/>
-      <c r="I83" s="76"/>
-      <c r="J83" s="75"/>
-      <c r="K83" s="75"/>
-      <c r="L83" s="75"/>
-      <c r="M83" s="75"/>
-      <c r="N83" s="75"/>
-      <c r="O83" s="75"/>
-      <c r="P83" s="75"/>
-      <c r="Q83" s="75"/>
-      <c r="R83" s="75"/>
-      <c r="S83" s="75"/>
+      <c r="G83" s="47">
+        <f t="shared" ref="G83:G93" si="27">SUM(H83:S83)</f>
+        <v>0</v>
+      </c>
+      <c r="H83" s="75"/>
+      <c r="I83" s="75"/>
+      <c r="J83" s="74"/>
+      <c r="K83" s="74"/>
+      <c r="L83" s="74"/>
+      <c r="M83" s="74"/>
+      <c r="N83" s="74"/>
+      <c r="O83" s="74"/>
+      <c r="P83" s="74"/>
+      <c r="Q83" s="74"/>
+      <c r="R83" s="74"/>
+      <c r="S83" s="74"/>
     </row>
     <row r="84" spans="1:19" ht="14.5">
-      <c r="A84" s="61" t="s">
+      <c r="A84" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="B84" s="46" t="s">
+      <c r="B84" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="C84" s="47">
+      <c r="C84" s="46">
         <v>6400</v>
       </c>
-      <c r="D84" s="49">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="48">
-        <v>0</v>
-      </c>
-      <c r="F84" s="47">
+      <c r="D84" s="48">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="47">
+        <v>0</v>
+      </c>
+      <c r="F84" s="46">
         <v>6400</v>
       </c>
-      <c r="G84" s="48">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H84" s="76"/>
-      <c r="I84" s="76"/>
-      <c r="J84" s="75"/>
-      <c r="K84" s="75"/>
-      <c r="L84" s="75"/>
-      <c r="M84" s="75"/>
-      <c r="N84" s="75"/>
-      <c r="O84" s="75"/>
-      <c r="P84" s="75"/>
-      <c r="Q84" s="75"/>
-      <c r="R84" s="75"/>
-      <c r="S84" s="75"/>
+      <c r="G84" s="47">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="75"/>
+      <c r="I84" s="75"/>
+      <c r="J84" s="74"/>
+      <c r="K84" s="74"/>
+      <c r="L84" s="74"/>
+      <c r="M84" s="74"/>
+      <c r="N84" s="74"/>
+      <c r="O84" s="74"/>
+      <c r="P84" s="74"/>
+      <c r="Q84" s="74"/>
+      <c r="R84" s="74"/>
+      <c r="S84" s="74"/>
     </row>
     <row r="85" spans="1:19" ht="14.5">
-      <c r="A85" s="61" t="s">
+      <c r="A85" s="60" t="s">
         <v>128</v>
       </c>
-      <c r="B85" s="46" t="s">
+      <c r="B85" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="C85" s="47"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="48">
-        <v>0</v>
-      </c>
-      <c r="F85" s="47"/>
-      <c r="G85" s="48">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H85" s="76"/>
-      <c r="I85" s="76"/>
-      <c r="J85" s="75"/>
-      <c r="K85" s="75"/>
-      <c r="L85" s="75"/>
-      <c r="M85" s="75"/>
-      <c r="N85" s="75"/>
-      <c r="O85" s="75"/>
-      <c r="P85" s="75"/>
-      <c r="Q85" s="75"/>
-      <c r="R85" s="75"/>
-      <c r="S85" s="75"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="47"/>
+      <c r="E85" s="47">
+        <v>0</v>
+      </c>
+      <c r="F85" s="46"/>
+      <c r="G85" s="47">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="75"/>
+      <c r="I85" s="75"/>
+      <c r="J85" s="74"/>
+      <c r="K85" s="74"/>
+      <c r="L85" s="74"/>
+      <c r="M85" s="74"/>
+      <c r="N85" s="74"/>
+      <c r="O85" s="74"/>
+      <c r="P85" s="74"/>
+      <c r="Q85" s="74"/>
+      <c r="R85" s="74"/>
+      <c r="S85" s="74"/>
     </row>
     <row r="86" spans="1:19" ht="14.5">
-      <c r="A86" s="61" t="s">
+      <c r="A86" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="B86" s="46" t="s">
+      <c r="B86" s="45" t="s">
         <v>130</v>
       </c>
-      <c r="C86" s="47">
+      <c r="C86" s="46">
         <v>1500</v>
       </c>
-      <c r="D86" s="49">
-        <f t="shared" ref="D86:D94" si="27">E86/C86*100</f>
+      <c r="D86" s="48">
+        <f t="shared" ref="D86:D94" si="28">E86/C86*100</f>
         <v>68.968666666666664</v>
       </c>
-      <c r="E86" s="48">
+      <c r="E86" s="47">
         <v>1034.53</v>
       </c>
-      <c r="F86" s="47">
+      <c r="F86" s="46">
         <v>7500</v>
       </c>
-      <c r="G86" s="48">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H86" s="76"/>
-      <c r="I86" s="79"/>
-      <c r="J86" s="75"/>
-      <c r="K86" s="75"/>
-      <c r="L86" s="75"/>
-      <c r="M86" s="75"/>
-      <c r="N86" s="75"/>
-      <c r="O86" s="75"/>
-      <c r="P86" s="75"/>
-      <c r="Q86" s="75"/>
-      <c r="R86" s="75"/>
-      <c r="S86" s="75"/>
+      <c r="G86" s="47">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="H86" s="75"/>
+      <c r="I86" s="78"/>
+      <c r="J86" s="74"/>
+      <c r="K86" s="74"/>
+      <c r="L86" s="74"/>
+      <c r="M86" s="74"/>
+      <c r="N86" s="74"/>
+      <c r="O86" s="74"/>
+      <c r="P86" s="74"/>
+      <c r="Q86" s="74"/>
+      <c r="R86" s="74"/>
+      <c r="S86" s="74"/>
     </row>
     <row r="87" spans="1:19" ht="14.5">
-      <c r="A87" s="46" t="s">
+      <c r="A87" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="B87" s="61" t="s">
+      <c r="B87" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="C87" s="47">
+      <c r="C87" s="46">
         <v>1000</v>
       </c>
-      <c r="D87" s="49">
+      <c r="D87" s="48">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="47">
+        <v>0</v>
+      </c>
+      <c r="F87" s="46">
+        <v>1000</v>
+      </c>
+      <c r="G87" s="47">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="E87" s="48">
-        <v>0</v>
-      </c>
-      <c r="F87" s="47">
-        <v>1000</v>
-      </c>
-      <c r="G87" s="48">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H87" s="76"/>
-      <c r="I87" s="76"/>
-      <c r="J87" s="75"/>
-      <c r="K87" s="75"/>
-      <c r="L87" s="75"/>
-      <c r="M87" s="75"/>
-      <c r="N87" s="75"/>
-      <c r="O87" s="75"/>
-      <c r="P87" s="75"/>
-      <c r="Q87" s="75"/>
-      <c r="R87" s="75"/>
-      <c r="S87" s="75"/>
+      <c r="H87" s="75"/>
+      <c r="I87" s="75"/>
+      <c r="J87" s="74"/>
+      <c r="K87" s="74"/>
+      <c r="L87" s="74"/>
+      <c r="M87" s="74"/>
+      <c r="N87" s="74"/>
+      <c r="O87" s="74"/>
+      <c r="P87" s="74"/>
+      <c r="Q87" s="74"/>
+      <c r="R87" s="74"/>
+      <c r="S87" s="74"/>
     </row>
     <row r="88" spans="1:19" ht="14.5">
-      <c r="A88" s="46" t="s">
+      <c r="A88" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="B88" s="46" t="s">
+      <c r="B88" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="C88" s="47">
+      <c r="C88" s="46">
         <v>200</v>
       </c>
-      <c r="D88" s="49">
+      <c r="D88" s="48">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="47">
+        <v>0</v>
+      </c>
+      <c r="F88" s="46">
+        <v>200</v>
+      </c>
+      <c r="G88" s="47">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="E88" s="48">
-        <v>0</v>
-      </c>
-      <c r="F88" s="47">
-        <v>200</v>
-      </c>
-      <c r="G88" s="48">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H88" s="76"/>
-      <c r="I88" s="76"/>
-      <c r="J88" s="75"/>
-      <c r="K88" s="75"/>
-      <c r="L88" s="75"/>
-      <c r="M88" s="75"/>
-      <c r="N88" s="75"/>
-      <c r="O88" s="75"/>
-      <c r="P88" s="75"/>
-      <c r="Q88" s="75"/>
-      <c r="R88" s="75"/>
-      <c r="S88" s="75"/>
+      <c r="H88" s="75"/>
+      <c r="I88" s="75"/>
+      <c r="J88" s="74"/>
+      <c r="K88" s="74"/>
+      <c r="L88" s="74"/>
+      <c r="M88" s="74"/>
+      <c r="N88" s="74"/>
+      <c r="O88" s="74"/>
+      <c r="P88" s="74"/>
+      <c r="Q88" s="74"/>
+      <c r="R88" s="74"/>
+      <c r="S88" s="74"/>
     </row>
     <row r="89" spans="1:19" ht="14.5">
-      <c r="A89" s="46" t="s">
+      <c r="A89" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="B89" s="46" t="s">
+      <c r="B89" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="C89" s="47">
+      <c r="C89" s="46">
         <v>800</v>
       </c>
-      <c r="D89" s="49">
+      <c r="D89" s="48">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="47">
+        <v>0</v>
+      </c>
+      <c r="F89" s="46">
+        <v>800</v>
+      </c>
+      <c r="G89" s="47">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="E89" s="48">
-        <v>0</v>
-      </c>
-      <c r="F89" s="47">
-        <v>800</v>
-      </c>
-      <c r="G89" s="48">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H89" s="76"/>
-      <c r="I89" s="76"/>
-      <c r="J89" s="75"/>
-      <c r="K89" s="75"/>
-      <c r="L89" s="75"/>
-      <c r="M89" s="75"/>
-      <c r="N89" s="75"/>
-      <c r="O89" s="75"/>
-      <c r="P89" s="75"/>
-      <c r="Q89" s="75"/>
-      <c r="R89" s="75"/>
-      <c r="S89" s="75"/>
+      <c r="H89" s="75"/>
+      <c r="I89" s="75"/>
+      <c r="J89" s="74"/>
+      <c r="K89" s="74"/>
+      <c r="L89" s="74"/>
+      <c r="M89" s="74"/>
+      <c r="N89" s="74"/>
+      <c r="O89" s="74"/>
+      <c r="P89" s="74"/>
+      <c r="Q89" s="74"/>
+      <c r="R89" s="74"/>
+      <c r="S89" s="74"/>
     </row>
     <row r="90" spans="1:19" ht="14.5">
-      <c r="A90" s="46" t="s">
+      <c r="A90" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="B90" s="46" t="s">
+      <c r="B90" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="C90" s="47">
+      <c r="C90" s="46">
         <v>300</v>
       </c>
-      <c r="D90" s="49">
+      <c r="D90" s="48">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="47">
+        <v>0</v>
+      </c>
+      <c r="F90" s="46">
+        <v>300</v>
+      </c>
+      <c r="G90" s="47">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="E90" s="48">
-        <v>0</v>
-      </c>
-      <c r="F90" s="47">
-        <v>300</v>
-      </c>
-      <c r="G90" s="48">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H90" s="76"/>
-      <c r="I90" s="76"/>
-      <c r="J90" s="75"/>
-      <c r="K90" s="75"/>
-      <c r="L90" s="75"/>
-      <c r="M90" s="75"/>
-      <c r="N90" s="75"/>
-      <c r="O90" s="75"/>
-      <c r="P90" s="75"/>
-      <c r="Q90" s="75"/>
-      <c r="R90" s="75"/>
-      <c r="S90" s="75"/>
+      <c r="H90" s="75"/>
+      <c r="I90" s="75"/>
+      <c r="J90" s="74"/>
+      <c r="K90" s="74"/>
+      <c r="L90" s="74"/>
+      <c r="M90" s="74"/>
+      <c r="N90" s="74"/>
+      <c r="O90" s="74"/>
+      <c r="P90" s="74"/>
+      <c r="Q90" s="74"/>
+      <c r="R90" s="74"/>
+      <c r="S90" s="74"/>
     </row>
     <row r="91" spans="1:19" ht="14.5">
-      <c r="A91" s="46" t="s">
+      <c r="A91" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="B91" s="46" t="s">
+      <c r="B91" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="C91" s="47">
+      <c r="C91" s="46">
         <v>500</v>
       </c>
-      <c r="D91" s="49">
+      <c r="D91" s="48">
+        <f t="shared" si="28"/>
+        <v>5.4160000000000004</v>
+      </c>
+      <c r="E91" s="47">
+        <v>27.08</v>
+      </c>
+      <c r="F91" s="46">
+        <v>500</v>
+      </c>
+      <c r="G91" s="47">
         <f t="shared" si="27"/>
-        <v>5.4160000000000004</v>
-      </c>
-      <c r="E91" s="48">
-        <v>27.08</v>
-      </c>
-      <c r="F91" s="47">
-        <v>500</v>
-      </c>
-      <c r="G91" s="48">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H91" s="76"/>
-      <c r="I91" s="76"/>
-      <c r="J91" s="75"/>
-      <c r="K91" s="75"/>
-      <c r="L91" s="75"/>
-      <c r="M91" s="75"/>
-      <c r="N91" s="75"/>
-      <c r="O91" s="75"/>
-      <c r="P91" s="75"/>
-      <c r="Q91" s="75"/>
-      <c r="R91" s="75"/>
-      <c r="S91" s="75"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="75"/>
+      <c r="I91" s="75"/>
+      <c r="J91" s="74"/>
+      <c r="K91" s="74"/>
+      <c r="L91" s="74"/>
+      <c r="M91" s="74"/>
+      <c r="N91" s="74"/>
+      <c r="O91" s="74"/>
+      <c r="P91" s="74"/>
+      <c r="Q91" s="74"/>
+      <c r="R91" s="74"/>
+      <c r="S91" s="74"/>
     </row>
     <row r="92" spans="1:19" ht="14.5">
-      <c r="A92" s="46" t="s">
+      <c r="A92" s="45" t="s">
         <v>140</v>
       </c>
-      <c r="B92" s="46" t="s">
+      <c r="B92" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="C92" s="47">
+      <c r="C92" s="46">
         <v>1200</v>
       </c>
-      <c r="D92" s="49">
+      <c r="D92" s="48">
+        <f t="shared" si="28"/>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="E92" s="47">
+        <v>100</v>
+      </c>
+      <c r="F92" s="46">
+        <v>1200</v>
+      </c>
+      <c r="G92" s="47">
         <f t="shared" si="27"/>
-        <v>8.3333333333333321</v>
-      </c>
-      <c r="E92" s="48">
-        <v>100</v>
-      </c>
-      <c r="F92" s="47">
+        <v>0</v>
+      </c>
+      <c r="H92" s="74"/>
+      <c r="I92" s="74"/>
+      <c r="J92" s="74"/>
+      <c r="K92" s="74"/>
+      <c r="L92" s="74"/>
+      <c r="M92" s="74"/>
+      <c r="N92" s="74"/>
+      <c r="O92" s="74"/>
+      <c r="P92" s="74"/>
+      <c r="Q92" s="74"/>
+      <c r="R92" s="74"/>
+      <c r="S92" s="74"/>
+    </row>
+    <row r="93" spans="1:19" ht="14.5">
+      <c r="A93" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B93" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93" s="46">
         <v>1200</v>
       </c>
-      <c r="G92" s="48">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H92" s="75"/>
-      <c r="I92" s="75"/>
-      <c r="J92" s="75"/>
-      <c r="K92" s="75"/>
-      <c r="L92" s="75"/>
-      <c r="M92" s="75"/>
-      <c r="N92" s="75"/>
-      <c r="O92" s="75"/>
-      <c r="P92" s="75"/>
-      <c r="Q92" s="75"/>
-      <c r="R92" s="75"/>
-      <c r="S92" s="75"/>
-    </row>
-    <row r="93" spans="1:19" ht="14.5">
-      <c r="A93" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="B93" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="C93" s="47">
+      <c r="D93" s="48">
+        <f t="shared" si="28"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="E93" s="47">
+        <v>400</v>
+      </c>
+      <c r="F93" s="46">
         <v>1200</v>
       </c>
-      <c r="D93" s="49">
+      <c r="G93" s="47">
         <f t="shared" si="27"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="E93" s="48">
-        <v>400</v>
-      </c>
-      <c r="F93" s="47">
-        <v>1200</v>
-      </c>
-      <c r="G93" s="48">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="H93" s="75"/>
-      <c r="I93" s="75"/>
-      <c r="J93" s="75"/>
-      <c r="K93" s="75"/>
-      <c r="L93" s="75"/>
-      <c r="M93" s="75"/>
-      <c r="N93" s="75"/>
-      <c r="O93" s="75"/>
-      <c r="P93" s="75"/>
-      <c r="Q93" s="75"/>
-      <c r="R93" s="75"/>
-      <c r="S93" s="75"/>
+        <v>0</v>
+      </c>
+      <c r="H93" s="74"/>
+      <c r="I93" s="74"/>
+      <c r="J93" s="74"/>
+      <c r="K93" s="74"/>
+      <c r="L93" s="74"/>
+      <c r="M93" s="74"/>
+      <c r="N93" s="74"/>
+      <c r="O93" s="74"/>
+      <c r="P93" s="74"/>
+      <c r="Q93" s="74"/>
+      <c r="R93" s="74"/>
+      <c r="S93" s="74"/>
     </row>
     <row r="94" spans="1:19" ht="14.5">
-      <c r="A94" s="53" t="s">
+      <c r="A94" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B94" s="46" t="s">
+      <c r="B94" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="C94" s="47">
+      <c r="C94" s="46">
         <f>SUBTOTAL(9,C83:C93)</f>
         <v>14600</v>
       </c>
-      <c r="D94" s="49">
-        <f t="shared" si="27"/>
+      <c r="D94" s="48">
+        <f t="shared" si="28"/>
         <v>10.695958904109588</v>
       </c>
-      <c r="E94" s="47">
-        <f t="shared" ref="E94:G94" si="28">SUBTOTAL(9,E83:E93)</f>
+      <c r="E94" s="46">
+        <f t="shared" ref="E94:S94" si="29">SUBTOTAL(9,E83:E93)</f>
         <v>1561.61</v>
       </c>
-      <c r="F94" s="47">
-        <f t="shared" si="28"/>
+      <c r="F94" s="46">
+        <f t="shared" si="29"/>
         <v>20600</v>
       </c>
-      <c r="G94" s="47">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="H94" s="75"/>
-      <c r="I94" s="75"/>
-      <c r="J94" s="75"/>
-      <c r="K94" s="75"/>
-      <c r="L94" s="75"/>
-      <c r="M94" s="75"/>
-      <c r="N94" s="75"/>
-      <c r="O94" s="75"/>
-      <c r="P94" s="75"/>
-      <c r="Q94" s="75"/>
-      <c r="R94" s="75"/>
-      <c r="S94" s="75"/>
+      <c r="G94" s="46">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="46">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="46">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="46">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K94" s="46">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L94" s="46">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="46">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="46">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O94" s="46">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="P94" s="46">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Q94" s="46">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R94" s="46">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S94" s="46">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:19" ht="14.5">
-      <c r="A95" s="148"/>
-      <c r="B95" s="127"/>
-      <c r="C95" s="127"/>
-      <c r="D95" s="127"/>
-      <c r="E95" s="127"/>
-      <c r="F95" s="127"/>
-      <c r="G95" s="127"/>
-      <c r="H95" s="150"/>
-      <c r="I95" s="130"/>
-      <c r="J95" s="130"/>
-      <c r="K95" s="130"/>
-      <c r="L95" s="130"/>
-      <c r="M95" s="130"/>
-      <c r="N95" s="130"/>
-      <c r="O95" s="130"/>
-      <c r="P95" s="130"/>
-      <c r="Q95" s="130"/>
-      <c r="R95" s="130"/>
-      <c r="S95" s="130"/>
+      <c r="A95" s="144"/>
+      <c r="B95" s="126"/>
+      <c r="C95" s="126"/>
+      <c r="D95" s="126"/>
+      <c r="E95" s="126"/>
+      <c r="F95" s="126"/>
+      <c r="G95" s="126"/>
+      <c r="H95" s="142"/>
+      <c r="I95" s="129"/>
+      <c r="J95" s="129"/>
+      <c r="K95" s="129"/>
+      <c r="L95" s="129"/>
+      <c r="M95" s="129"/>
+      <c r="N95" s="129"/>
+      <c r="O95" s="129"/>
+      <c r="P95" s="129"/>
+      <c r="Q95" s="129"/>
+      <c r="R95" s="129"/>
+      <c r="S95" s="129"/>
     </row>
     <row r="96" spans="1:19" ht="14.5">
-      <c r="A96" s="54" t="s">
+      <c r="A96" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="B96" s="56" t="s">
+      <c r="B96" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="55"/>
-      <c r="D96" s="63"/>
-      <c r="E96" s="57"/>
-      <c r="F96" s="55"/>
-      <c r="G96" s="55"/>
-      <c r="H96" s="75"/>
-      <c r="I96" s="75"/>
-      <c r="J96" s="75"/>
-      <c r="K96" s="75"/>
-      <c r="L96" s="75"/>
-      <c r="M96" s="75"/>
-      <c r="N96" s="75"/>
-      <c r="O96" s="75"/>
-      <c r="P96" s="75"/>
-      <c r="Q96" s="75"/>
-      <c r="R96" s="75"/>
-      <c r="S96" s="75"/>
+      <c r="C96" s="54"/>
+      <c r="D96" s="62"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="54"/>
+      <c r="G96" s="54"/>
+      <c r="H96" s="74"/>
+      <c r="I96" s="74"/>
+      <c r="J96" s="74"/>
+      <c r="K96" s="74"/>
+      <c r="L96" s="74"/>
+      <c r="M96" s="74"/>
+      <c r="N96" s="74"/>
+      <c r="O96" s="74"/>
+      <c r="P96" s="74"/>
+      <c r="Q96" s="74"/>
+      <c r="R96" s="74"/>
+      <c r="S96" s="74"/>
     </row>
     <row r="97" spans="1:19" ht="14.5">
-      <c r="A97" s="58" t="s">
+      <c r="A97" s="57" t="s">
         <v>145</v>
       </c>
-      <c r="B97" s="56" t="s">
+      <c r="B97" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="C97" s="57">
+      <c r="C97" s="56">
         <v>600</v>
       </c>
-      <c r="D97" s="59">
-        <f t="shared" ref="D97:D102" si="29">E97/C97*100</f>
-        <v>0</v>
-      </c>
-      <c r="E97" s="55">
-        <v>0</v>
-      </c>
-      <c r="F97" s="57">
+      <c r="D97" s="58">
+        <f t="shared" ref="D97:D102" si="30">E97/C97*100</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="54">
+        <v>0</v>
+      </c>
+      <c r="F97" s="56">
         <v>600</v>
       </c>
-      <c r="G97" s="55">
-        <f t="shared" ref="G97:G101" si="30">SUM(H97:S97)</f>
-        <v>0</v>
-      </c>
-      <c r="H97" s="75"/>
-      <c r="I97" s="75"/>
-      <c r="J97" s="75"/>
-      <c r="K97" s="75"/>
-      <c r="L97" s="75"/>
-      <c r="M97" s="75"/>
-      <c r="N97" s="75"/>
-      <c r="O97" s="75"/>
-      <c r="P97" s="75"/>
-      <c r="Q97" s="75"/>
-      <c r="R97" s="75"/>
-      <c r="S97" s="75"/>
+      <c r="G97" s="54">
+        <f t="shared" ref="G97:G101" si="31">SUM(H97:S97)</f>
+        <v>0</v>
+      </c>
+      <c r="H97" s="74"/>
+      <c r="I97" s="74"/>
+      <c r="J97" s="74"/>
+      <c r="K97" s="74"/>
+      <c r="L97" s="74"/>
+      <c r="M97" s="74"/>
+      <c r="N97" s="74"/>
+      <c r="O97" s="74"/>
+      <c r="P97" s="74"/>
+      <c r="Q97" s="74"/>
+      <c r="R97" s="74"/>
+      <c r="S97" s="74"/>
     </row>
     <row r="98" spans="1:19" ht="14.5">
-      <c r="A98" s="58" t="s">
+      <c r="A98" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="B98" s="56" t="s">
+      <c r="B98" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="C98" s="57">
+      <c r="C98" s="56">
         <v>500</v>
       </c>
-      <c r="D98" s="59">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="E98" s="55">
-        <v>0</v>
-      </c>
-      <c r="F98" s="57">
+      <c r="D98" s="58">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="54">
+        <v>0</v>
+      </c>
+      <c r="F98" s="56">
         <v>500</v>
       </c>
-      <c r="G98" s="55">
+      <c r="G98" s="54">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H98" s="74"/>
+      <c r="I98" s="74"/>
+      <c r="J98" s="74"/>
+      <c r="K98" s="74"/>
+      <c r="L98" s="74"/>
+      <c r="M98" s="74"/>
+      <c r="N98" s="74"/>
+      <c r="O98" s="74"/>
+      <c r="P98" s="74"/>
+      <c r="Q98" s="74"/>
+      <c r="R98" s="74"/>
+      <c r="S98" s="74"/>
+    </row>
+    <row r="99" spans="1:19" ht="14.5">
+      <c r="A99" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="B99" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C99" s="56">
+        <v>2000</v>
+      </c>
+      <c r="D99" s="58">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="H98" s="75"/>
-      <c r="I98" s="75"/>
-      <c r="J98" s="75"/>
-      <c r="K98" s="75"/>
-      <c r="L98" s="75"/>
-      <c r="M98" s="75"/>
-      <c r="N98" s="75"/>
-      <c r="O98" s="75"/>
-      <c r="P98" s="75"/>
-      <c r="Q98" s="75"/>
-      <c r="R98" s="75"/>
-      <c r="S98" s="75"/>
-    </row>
-    <row r="99" spans="1:19" ht="14.5">
-      <c r="A99" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="B99" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="C99" s="57">
-        <v>2000</v>
-      </c>
-      <c r="D99" s="59">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="E99" s="55">
-        <v>0</v>
-      </c>
-      <c r="F99" s="57">
+      <c r="E99" s="54">
+        <v>0</v>
+      </c>
+      <c r="F99" s="56">
         <v>5000</v>
       </c>
-      <c r="G99" s="55">
+      <c r="G99" s="54">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H99" s="74"/>
+      <c r="I99" s="74"/>
+      <c r="J99" s="74"/>
+      <c r="K99" s="74"/>
+      <c r="L99" s="74"/>
+      <c r="M99" s="74"/>
+      <c r="N99" s="74"/>
+      <c r="O99" s="74"/>
+      <c r="P99" s="74"/>
+      <c r="Q99" s="74"/>
+      <c r="R99" s="74"/>
+      <c r="S99" s="74"/>
+    </row>
+    <row r="100" spans="1:19" ht="14.5">
+      <c r="A100" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="B100" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="C100" s="56">
+        <v>200</v>
+      </c>
+      <c r="D100" s="58">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="H99" s="75"/>
-      <c r="I99" s="75"/>
-      <c r="J99" s="75"/>
-      <c r="K99" s="75"/>
-      <c r="L99" s="75"/>
-      <c r="M99" s="75"/>
-      <c r="N99" s="75"/>
-      <c r="O99" s="75"/>
-      <c r="P99" s="75"/>
-      <c r="Q99" s="75"/>
-      <c r="R99" s="75"/>
-      <c r="S99" s="75"/>
-    </row>
-    <row r="100" spans="1:19" ht="14.5">
-      <c r="A100" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="B100" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="C100" s="57">
+      <c r="E100" s="54">
+        <v>0</v>
+      </c>
+      <c r="F100" s="56">
         <v>200</v>
       </c>
-      <c r="D100" s="59">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="E100" s="55">
-        <v>0</v>
-      </c>
-      <c r="F100" s="57">
+      <c r="G100" s="54">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H100" s="74"/>
+      <c r="I100" s="74"/>
+      <c r="J100" s="74"/>
+      <c r="K100" s="74"/>
+      <c r="L100" s="74"/>
+      <c r="M100" s="74"/>
+      <c r="N100" s="74"/>
+      <c r="O100" s="74"/>
+      <c r="P100" s="74"/>
+      <c r="Q100" s="74"/>
+      <c r="R100" s="74"/>
+      <c r="S100" s="74"/>
+    </row>
+    <row r="101" spans="1:19" ht="14.5">
+      <c r="A101" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="C101" s="56">
         <v>200</v>
       </c>
-      <c r="G100" s="55">
+      <c r="D101" s="58">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="H100" s="75"/>
-      <c r="I100" s="75"/>
-      <c r="J100" s="75"/>
-      <c r="K100" s="75"/>
-      <c r="L100" s="75"/>
-      <c r="M100" s="75"/>
-      <c r="N100" s="75"/>
-      <c r="O100" s="75"/>
-      <c r="P100" s="75"/>
-      <c r="Q100" s="75"/>
-      <c r="R100" s="75"/>
-      <c r="S100" s="75"/>
-    </row>
-    <row r="101" spans="1:19" ht="14.5">
-      <c r="A101" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="B101" s="56" t="s">
-        <v>154</v>
-      </c>
-      <c r="C101" s="57">
+      <c r="E101" s="54">
+        <v>0</v>
+      </c>
+      <c r="F101" s="56">
         <v>200</v>
       </c>
-      <c r="D101" s="59">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="E101" s="55">
-        <v>0</v>
-      </c>
-      <c r="F101" s="57">
-        <v>200</v>
-      </c>
-      <c r="G101" s="55">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="H101" s="75"/>
-      <c r="I101" s="75"/>
-      <c r="J101" s="75"/>
-      <c r="K101" s="75"/>
-      <c r="L101" s="75"/>
-      <c r="M101" s="75"/>
-      <c r="N101" s="75"/>
-      <c r="O101" s="75"/>
-      <c r="P101" s="75"/>
-      <c r="Q101" s="75"/>
-      <c r="R101" s="75"/>
-      <c r="S101" s="75"/>
+      <c r="G101" s="54">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H101" s="74"/>
+      <c r="I101" s="74"/>
+      <c r="J101" s="74"/>
+      <c r="K101" s="74"/>
+      <c r="L101" s="74"/>
+      <c r="M101" s="74"/>
+      <c r="N101" s="74"/>
+      <c r="O101" s="74"/>
+      <c r="P101" s="74"/>
+      <c r="Q101" s="74"/>
+      <c r="R101" s="74"/>
+      <c r="S101" s="74"/>
     </row>
     <row r="102" spans="1:19" ht="14.5">
-      <c r="A102" s="44" t="s">
+      <c r="A102" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B102" s="56" t="s">
+      <c r="B102" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="C102" s="57">
+      <c r="C102" s="56">
         <f>SUBTOTAL(9,C97:C101)</f>
         <v>3500</v>
       </c>
-      <c r="D102" s="59">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="E102" s="57">
-        <f t="shared" ref="E102:G102" si="31">SUBTOTAL(9,E97:E101)</f>
-        <v>0</v>
-      </c>
-      <c r="F102" s="57">
-        <f t="shared" si="31"/>
+      <c r="D102" s="58">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E102" s="56">
+        <f t="shared" ref="E102:S102" si="32">SUBTOTAL(9,E97:E101)</f>
+        <v>0</v>
+      </c>
+      <c r="F102" s="56">
+        <f t="shared" si="32"/>
         <v>6500</v>
       </c>
-      <c r="G102" s="57">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="H102" s="75"/>
-      <c r="I102" s="75"/>
-      <c r="J102" s="75"/>
-      <c r="K102" s="75"/>
-      <c r="L102" s="75"/>
-      <c r="M102" s="75"/>
-      <c r="N102" s="75"/>
-      <c r="O102" s="75"/>
-      <c r="P102" s="75"/>
-      <c r="Q102" s="75"/>
-      <c r="R102" s="75"/>
-      <c r="S102" s="75"/>
+      <c r="G102" s="56">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="H102" s="56">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I102" s="56">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="56">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="K102" s="56">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="L102" s="56">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="56">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N102" s="56">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="O102" s="56">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="P102" s="56">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q102" s="56">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="R102" s="56">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="S102" s="56">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:19" ht="14.5">
-      <c r="A103" s="152"/>
-      <c r="B103" s="127"/>
-      <c r="C103" s="127"/>
-      <c r="D103" s="127"/>
-      <c r="E103" s="127"/>
-      <c r="F103" s="127"/>
-      <c r="G103" s="127"/>
-      <c r="H103" s="150"/>
-      <c r="I103" s="130"/>
-      <c r="J103" s="130"/>
-      <c r="K103" s="130"/>
-      <c r="L103" s="130"/>
-      <c r="M103" s="130"/>
-      <c r="N103" s="130"/>
-      <c r="O103" s="130"/>
-      <c r="P103" s="130"/>
-      <c r="Q103" s="130"/>
-      <c r="R103" s="130"/>
-      <c r="S103" s="130"/>
+      <c r="A103" s="143"/>
+      <c r="B103" s="126"/>
+      <c r="C103" s="126"/>
+      <c r="D103" s="126"/>
+      <c r="E103" s="126"/>
+      <c r="F103" s="126"/>
+      <c r="G103" s="126"/>
+      <c r="H103" s="142"/>
+      <c r="I103" s="129"/>
+      <c r="J103" s="129"/>
+      <c r="K103" s="129"/>
+      <c r="L103" s="129"/>
+      <c r="M103" s="129"/>
+      <c r="N103" s="129"/>
+      <c r="O103" s="129"/>
+      <c r="P103" s="129"/>
+      <c r="Q103" s="129"/>
+      <c r="R103" s="129"/>
+      <c r="S103" s="129"/>
     </row>
     <row r="104" spans="1:19" ht="14.5">
-      <c r="A104" s="45" t="s">
+      <c r="A104" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="B104" s="46" t="s">
+      <c r="B104" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="C104" s="48"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="48"/>
-      <c r="G104" s="48"/>
-      <c r="H104" s="75"/>
-      <c r="I104" s="75"/>
-      <c r="J104" s="75"/>
-      <c r="K104" s="75"/>
-      <c r="L104" s="75"/>
-      <c r="M104" s="75"/>
-      <c r="N104" s="75"/>
-      <c r="O104" s="75"/>
-      <c r="P104" s="75"/>
-      <c r="Q104" s="75"/>
-      <c r="R104" s="75"/>
-      <c r="S104" s="75"/>
+      <c r="C104" s="47"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="47"/>
+      <c r="G104" s="47"/>
+      <c r="H104" s="74"/>
+      <c r="I104" s="74"/>
+      <c r="J104" s="74"/>
+      <c r="K104" s="74"/>
+      <c r="L104" s="74"/>
+      <c r="M104" s="74"/>
+      <c r="N104" s="74"/>
+      <c r="O104" s="74"/>
+      <c r="P104" s="74"/>
+      <c r="Q104" s="74"/>
+      <c r="R104" s="74"/>
+      <c r="S104" s="74"/>
     </row>
     <row r="105" spans="1:19" ht="14.5">
-      <c r="A105" s="61" t="s">
+      <c r="A105" s="60" t="s">
         <v>157</v>
       </c>
-      <c r="B105" s="46" t="s">
+      <c r="B105" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="C105" s="48">
+      <c r="C105" s="47">
         <v>1000</v>
       </c>
-      <c r="D105" s="49">
-        <f t="shared" ref="D105:D106" si="32">E105/C105*100</f>
-        <v>0</v>
-      </c>
-      <c r="E105" s="48"/>
-      <c r="F105" s="48">
+      <c r="D105" s="48">
+        <f t="shared" ref="D105:D106" si="33">E105/C105*100</f>
+        <v>0</v>
+      </c>
+      <c r="E105" s="47"/>
+      <c r="F105" s="47">
         <v>1000</v>
       </c>
-      <c r="G105" s="48">
-        <f t="shared" ref="G105" si="33">SUM(H105:S105)</f>
-        <v>0</v>
-      </c>
-      <c r="H105" s="75"/>
-      <c r="I105" s="75"/>
-      <c r="J105" s="75"/>
-      <c r="K105" s="75"/>
-      <c r="L105" s="75"/>
-      <c r="M105" s="75"/>
-      <c r="N105" s="75"/>
-      <c r="O105" s="75"/>
-      <c r="P105" s="75"/>
-      <c r="Q105" s="75"/>
-      <c r="R105" s="75"/>
-      <c r="S105" s="75"/>
+      <c r="G105" s="47">
+        <f t="shared" ref="G105" si="34">SUM(H105:S105)</f>
+        <v>0</v>
+      </c>
+      <c r="H105" s="74"/>
+      <c r="I105" s="74"/>
+      <c r="J105" s="74"/>
+      <c r="K105" s="74"/>
+      <c r="L105" s="74"/>
+      <c r="M105" s="74"/>
+      <c r="N105" s="74"/>
+      <c r="O105" s="74"/>
+      <c r="P105" s="74"/>
+      <c r="Q105" s="74"/>
+      <c r="R105" s="74"/>
+      <c r="S105" s="74"/>
     </row>
     <row r="106" spans="1:19" ht="14.5">
-      <c r="A106" s="53" t="s">
+      <c r="A106" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B106" s="46" t="s">
+      <c r="B106" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="C106" s="47">
+      <c r="C106" s="46">
         <f>SUBTOTAL(9,C105)</f>
         <v>1000</v>
       </c>
-      <c r="D106" s="49">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="E106" s="47">
-        <f t="shared" ref="E106:G106" si="34">SUBTOTAL(9,E105)</f>
-        <v>0</v>
-      </c>
-      <c r="F106" s="47">
-        <f t="shared" si="34"/>
+      <c r="D106" s="48">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="E106" s="46">
+        <f t="shared" ref="E106:S106" si="35">SUBTOTAL(9,E105)</f>
+        <v>0</v>
+      </c>
+      <c r="F106" s="46">
+        <f t="shared" si="35"/>
         <v>1000</v>
       </c>
-      <c r="G106" s="47">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="H106" s="75"/>
-      <c r="I106" s="75"/>
-      <c r="J106" s="75"/>
-      <c r="K106" s="75"/>
-      <c r="L106" s="75"/>
-      <c r="M106" s="75"/>
-      <c r="N106" s="75"/>
-      <c r="O106" s="75"/>
-      <c r="P106" s="75"/>
-      <c r="Q106" s="75"/>
-      <c r="R106" s="75"/>
-      <c r="S106" s="75"/>
+      <c r="G106" s="46">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="H106" s="46">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="I106" s="46">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="46">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="K106" s="46">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="L106" s="46">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="M106" s="46">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="N106" s="46">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="O106" s="46">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="P106" s="46">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Q106" s="46">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="R106" s="46">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="S106" s="46">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:19" ht="14.5">
-      <c r="A107" s="148"/>
-      <c r="B107" s="127"/>
-      <c r="C107" s="127"/>
-      <c r="D107" s="127"/>
-      <c r="E107" s="127"/>
-      <c r="F107" s="127"/>
-      <c r="G107" s="127"/>
-      <c r="H107" s="150"/>
-      <c r="I107" s="130"/>
-      <c r="J107" s="130"/>
-      <c r="K107" s="130"/>
-      <c r="L107" s="130"/>
-      <c r="M107" s="130"/>
-      <c r="N107" s="130"/>
-      <c r="O107" s="130"/>
-      <c r="P107" s="130"/>
-      <c r="Q107" s="130"/>
-      <c r="R107" s="130"/>
-      <c r="S107" s="130"/>
+      <c r="A107" s="144"/>
+      <c r="B107" s="126"/>
+      <c r="C107" s="126"/>
+      <c r="D107" s="126"/>
+      <c r="E107" s="126"/>
+      <c r="F107" s="126"/>
+      <c r="G107" s="126"/>
+      <c r="H107" s="142"/>
+      <c r="I107" s="129"/>
+      <c r="J107" s="129"/>
+      <c r="K107" s="129"/>
+      <c r="L107" s="129"/>
+      <c r="M107" s="129"/>
+      <c r="N107" s="129"/>
+      <c r="O107" s="129"/>
+      <c r="P107" s="129"/>
+      <c r="Q107" s="129"/>
+      <c r="R107" s="129"/>
+      <c r="S107" s="129"/>
     </row>
     <row r="108" spans="1:19" ht="14.5">
-      <c r="A108" s="54" t="s">
+      <c r="A108" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="B108" s="56" t="s">
+      <c r="B108" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="C108" s="55"/>
-      <c r="D108" s="63"/>
-      <c r="E108" s="55"/>
-      <c r="F108" s="55"/>
-      <c r="G108" s="59"/>
-      <c r="H108" s="75"/>
-      <c r="I108" s="75"/>
-      <c r="J108" s="75"/>
-      <c r="K108" s="75"/>
-      <c r="L108" s="75"/>
-      <c r="M108" s="75"/>
-      <c r="N108" s="75"/>
-      <c r="O108" s="75"/>
-      <c r="P108" s="75"/>
-      <c r="Q108" s="75"/>
-      <c r="R108" s="75"/>
-      <c r="S108" s="75"/>
+      <c r="C108" s="54"/>
+      <c r="D108" s="62"/>
+      <c r="E108" s="54"/>
+      <c r="F108" s="54"/>
+      <c r="G108" s="58"/>
+      <c r="H108" s="74"/>
+      <c r="I108" s="74"/>
+      <c r="J108" s="74"/>
+      <c r="K108" s="74"/>
+      <c r="L108" s="74"/>
+      <c r="M108" s="74"/>
+      <c r="N108" s="74"/>
+      <c r="O108" s="74"/>
+      <c r="P108" s="74"/>
+      <c r="Q108" s="74"/>
+      <c r="R108" s="74"/>
+      <c r="S108" s="74"/>
     </row>
     <row r="109" spans="1:19" ht="14.5">
-      <c r="A109" s="56" t="s">
+      <c r="A109" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="B109" s="56" t="s">
+      <c r="B109" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="C109" s="68">
+      <c r="C109" s="67">
         <v>1960.94</v>
       </c>
-      <c r="D109" s="59">
-        <f t="shared" ref="D109:D110" si="35">E109/C109*100</f>
-        <v>0</v>
-      </c>
-      <c r="E109" s="55"/>
-      <c r="F109" s="68">
+      <c r="D109" s="58">
+        <f t="shared" ref="D109:D110" si="36">E109/C109*100</f>
+        <v>0</v>
+      </c>
+      <c r="E109" s="54"/>
+      <c r="F109" s="67">
         <v>3200</v>
       </c>
-      <c r="G109" s="55">
-        <f t="shared" ref="G109" si="36">SUM(H109:S109)</f>
-        <v>0</v>
-      </c>
-      <c r="H109" s="75"/>
-      <c r="I109" s="75"/>
-      <c r="J109" s="75"/>
-      <c r="K109" s="75"/>
-      <c r="L109" s="75"/>
-      <c r="M109" s="75"/>
-      <c r="N109" s="75"/>
-      <c r="O109" s="75"/>
-      <c r="P109" s="75"/>
-      <c r="Q109" s="75"/>
-      <c r="R109" s="75"/>
-      <c r="S109" s="75"/>
+      <c r="G109" s="54">
+        <f t="shared" ref="G109" si="37">SUM(H109:S109)</f>
+        <v>0</v>
+      </c>
+      <c r="H109" s="74"/>
+      <c r="I109" s="74"/>
+      <c r="J109" s="74"/>
+      <c r="K109" s="74"/>
+      <c r="L109" s="74"/>
+      <c r="M109" s="74"/>
+      <c r="N109" s="74"/>
+      <c r="O109" s="74"/>
+      <c r="P109" s="74"/>
+      <c r="Q109" s="74"/>
+      <c r="R109" s="74"/>
+      <c r="S109" s="74"/>
     </row>
     <row r="110" spans="1:19" ht="14.5">
-      <c r="A110" s="44" t="s">
+      <c r="A110" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B110" s="56" t="s">
+      <c r="B110" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="C110" s="57">
+      <c r="C110" s="56">
         <f>SUBTOTAL(9,C109)</f>
         <v>1960.94</v>
       </c>
-      <c r="D110" s="59">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="E110" s="57">
-        <f t="shared" ref="E110:G110" si="37">SUBTOTAL(9,E109)</f>
-        <v>0</v>
-      </c>
-      <c r="F110" s="57">
-        <f t="shared" si="37"/>
+      <c r="D110" s="58">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E110" s="56">
+        <f t="shared" ref="E110:S110" si="38">SUBTOTAL(9,E109)</f>
+        <v>0</v>
+      </c>
+      <c r="F110" s="56">
+        <f t="shared" si="38"/>
         <v>3200</v>
       </c>
-      <c r="G110" s="57">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="H110" s="75"/>
-      <c r="I110" s="75"/>
-      <c r="J110" s="75"/>
-      <c r="K110" s="75"/>
-      <c r="L110" s="75"/>
-      <c r="M110" s="75"/>
-      <c r="N110" s="75"/>
-      <c r="O110" s="75"/>
-      <c r="P110" s="75"/>
-      <c r="Q110" s="75"/>
-      <c r="R110" s="75"/>
-      <c r="S110" s="75"/>
+      <c r="G110" s="56">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="H110" s="56">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="I110" s="56">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="56">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="K110" s="56">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="L110" s="56">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="M110" s="56">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="N110" s="56">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="O110" s="56">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="P110" s="56">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="Q110" s="56">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="R110" s="56">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="S110" s="56">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:19" ht="14.5">
-      <c r="A111" s="152"/>
-      <c r="B111" s="127"/>
-      <c r="C111" s="127"/>
-      <c r="D111" s="127"/>
-      <c r="E111" s="127"/>
-      <c r="F111" s="127"/>
-      <c r="G111" s="127"/>
-      <c r="H111" s="75"/>
-      <c r="I111" s="75"/>
-      <c r="J111" s="75"/>
-      <c r="K111" s="75"/>
-      <c r="L111" s="75"/>
-      <c r="M111" s="75"/>
-      <c r="N111" s="75"/>
-      <c r="O111" s="75"/>
-      <c r="P111" s="75"/>
-      <c r="Q111" s="75"/>
-      <c r="R111" s="75"/>
-      <c r="S111" s="75"/>
+      <c r="A111" s="143"/>
+      <c r="B111" s="126"/>
+      <c r="C111" s="126"/>
+      <c r="D111" s="126"/>
+      <c r="E111" s="126"/>
+      <c r="F111" s="126"/>
+      <c r="G111" s="126"/>
+      <c r="H111" s="74"/>
+      <c r="I111" s="74"/>
+      <c r="J111" s="74"/>
+      <c r="K111" s="74"/>
+      <c r="L111" s="74"/>
+      <c r="M111" s="74"/>
+      <c r="N111" s="74"/>
+      <c r="O111" s="74"/>
+      <c r="P111" s="74"/>
+      <c r="Q111" s="74"/>
+      <c r="R111" s="74"/>
+      <c r="S111" s="74"/>
     </row>
     <row r="112" spans="1:19" ht="14.5">
-      <c r="A112" s="69"/>
-      <c r="B112" s="69" t="s">
+      <c r="A112" s="68"/>
+      <c r="B112" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="C112" s="70">
+      <c r="C112" s="69">
         <f>SUBTOTAL(9,C9:C110)</f>
         <v>204890.94</v>
       </c>
-      <c r="D112" s="71">
+      <c r="D112" s="70">
         <f>E112/C112*100</f>
         <v>77.734706083148424</v>
       </c>
-      <c r="E112" s="70">
-        <f t="shared" ref="E112:G112" si="38">SUBTOTAL(9,E9:E110)</f>
+      <c r="E112" s="69">
+        <f t="shared" ref="E112:S112" si="39">SUBTOTAL(9,E9:E110)</f>
         <v>159271.37</v>
       </c>
-      <c r="F112" s="70">
-        <f t="shared" si="38"/>
+      <c r="F112" s="69">
+        <f t="shared" si="39"/>
         <v>198490</v>
       </c>
-      <c r="G112" s="70">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="H112" s="75"/>
-      <c r="I112" s="75"/>
-      <c r="J112" s="75"/>
-      <c r="K112" s="75"/>
-      <c r="L112" s="75"/>
-      <c r="M112" s="75"/>
-      <c r="N112" s="75"/>
-      <c r="O112" s="75"/>
-      <c r="P112" s="75"/>
-      <c r="Q112" s="75"/>
-      <c r="R112" s="75"/>
-      <c r="S112" s="75"/>
+      <c r="G112" s="69">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="H112" s="69">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="I112" s="69">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="69">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K112" s="69">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L112" s="69">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="M112" s="69">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N112" s="69">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="O112" s="69">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="P112" s="69">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="Q112" s="69">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="R112" s="69">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="S112" s="69">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:19" ht="14.5">
-      <c r="A113" s="148"/>
-      <c r="B113" s="127"/>
-      <c r="C113" s="127"/>
-      <c r="D113" s="127"/>
-      <c r="E113" s="127"/>
-      <c r="F113" s="127"/>
-      <c r="G113" s="127"/>
-      <c r="H113" s="150"/>
-      <c r="I113" s="130"/>
-      <c r="J113" s="130"/>
-      <c r="K113" s="130"/>
-      <c r="L113" s="130"/>
-      <c r="M113" s="130"/>
-      <c r="N113" s="130"/>
-      <c r="O113" s="130"/>
-      <c r="P113" s="130"/>
-      <c r="Q113" s="130"/>
-      <c r="R113" s="130"/>
-      <c r="S113" s="130"/>
+      <c r="A113" s="144"/>
+      <c r="B113" s="126"/>
+      <c r="C113" s="126"/>
+      <c r="D113" s="126"/>
+      <c r="E113" s="126"/>
+      <c r="F113" s="126"/>
+      <c r="G113" s="126"/>
+      <c r="H113" s="142"/>
+      <c r="I113" s="129"/>
+      <c r="J113" s="129"/>
+      <c r="K113" s="129"/>
+      <c r="L113" s="129"/>
+      <c r="M113" s="129"/>
+      <c r="N113" s="129"/>
+      <c r="O113" s="129"/>
+      <c r="P113" s="129"/>
+      <c r="Q113" s="129"/>
+      <c r="R113" s="129"/>
+      <c r="S113" s="129"/>
     </row>
     <row r="114" spans="1:19" ht="14.5">
-      <c r="A114" s="148" t="s">
+      <c r="A114" s="144" t="s">
         <v>163</v>
       </c>
-      <c r="B114" s="149"/>
-      <c r="C114" s="149"/>
-      <c r="D114" s="149"/>
-      <c r="E114" s="149"/>
-      <c r="F114" s="149"/>
-      <c r="G114" s="149"/>
-      <c r="H114" s="75"/>
-      <c r="I114" s="75"/>
-      <c r="J114" s="75"/>
-      <c r="K114" s="75"/>
-      <c r="L114" s="75"/>
-      <c r="M114" s="75"/>
-      <c r="N114" s="75"/>
-      <c r="O114" s="75"/>
-      <c r="P114" s="75"/>
-      <c r="Q114" s="75"/>
-      <c r="R114" s="75"/>
-      <c r="S114" s="75"/>
+      <c r="B114" s="145"/>
+      <c r="C114" s="145"/>
+      <c r="D114" s="145"/>
+      <c r="E114" s="145"/>
+      <c r="F114" s="145"/>
+      <c r="G114" s="145"/>
+      <c r="H114" s="74"/>
+      <c r="I114" s="74"/>
+      <c r="J114" s="74"/>
+      <c r="K114" s="74"/>
+      <c r="L114" s="74"/>
+      <c r="M114" s="74"/>
+      <c r="N114" s="74"/>
+      <c r="O114" s="74"/>
+      <c r="P114" s="74"/>
+      <c r="Q114" s="74"/>
+      <c r="R114" s="74"/>
+      <c r="S114" s="74"/>
     </row>
     <row r="115" spans="1:19" ht="14.5">
-      <c r="A115" s="61" t="s">
+      <c r="A115" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="B115" s="46" t="s">
+      <c r="B115" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="C115" s="48">
+      <c r="C115" s="47">
         <v>5000</v>
       </c>
-      <c r="D115" s="49">
-        <f t="shared" ref="D115:D117" si="39">E115/C115*100</f>
+      <c r="D115" s="48">
+        <f t="shared" ref="D115:D117" si="40">E115/C115*100</f>
         <v>107</v>
       </c>
-      <c r="E115" s="47">
+      <c r="E115" s="46">
         <v>5350</v>
       </c>
-      <c r="F115" s="47">
+      <c r="F115" s="46">
         <v>5000</v>
       </c>
-      <c r="G115" s="48">
-        <f t="shared" ref="G115:G120" si="40">SUM(H115:S115)</f>
-        <v>0</v>
-      </c>
-      <c r="H115" s="75"/>
-      <c r="I115" s="75"/>
-      <c r="J115" s="75"/>
-      <c r="K115" s="75"/>
-      <c r="L115" s="75"/>
-      <c r="M115" s="75"/>
-      <c r="N115" s="75"/>
-      <c r="O115" s="75"/>
-      <c r="P115" s="75"/>
-      <c r="Q115" s="75"/>
-      <c r="R115" s="75"/>
-      <c r="S115" s="75"/>
+      <c r="G115" s="47">
+        <f t="shared" ref="G115:G120" si="41">SUM(H115:S115)</f>
+        <v>0</v>
+      </c>
+      <c r="H115" s="74"/>
+      <c r="I115" s="74"/>
+      <c r="J115" s="74"/>
+      <c r="K115" s="74"/>
+      <c r="L115" s="74"/>
+      <c r="M115" s="74"/>
+      <c r="N115" s="74"/>
+      <c r="O115" s="74"/>
+      <c r="P115" s="74"/>
+      <c r="Q115" s="74"/>
+      <c r="R115" s="74"/>
+      <c r="S115" s="74"/>
     </row>
     <row r="116" spans="1:19" ht="14.5">
-      <c r="A116" s="61" t="s">
+      <c r="A116" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="B116" s="46" t="s">
+      <c r="B116" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="C116" s="48">
+      <c r="C116" s="47">
         <v>3000</v>
       </c>
-      <c r="D116" s="49">
-        <f t="shared" si="39"/>
+      <c r="D116" s="48">
+        <f t="shared" si="40"/>
         <v>100</v>
       </c>
-      <c r="E116" s="47">
+      <c r="E116" s="46">
         <v>3000</v>
       </c>
-      <c r="F116" s="47">
+      <c r="F116" s="46">
         <v>3000</v>
       </c>
-      <c r="G116" s="48">
+      <c r="G116" s="47">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="H116" s="74"/>
+      <c r="I116" s="74"/>
+      <c r="J116" s="74"/>
+      <c r="K116" s="74"/>
+      <c r="L116" s="74"/>
+      <c r="M116" s="74"/>
+      <c r="N116" s="74"/>
+      <c r="O116" s="74"/>
+      <c r="P116" s="74"/>
+      <c r="Q116" s="74"/>
+      <c r="R116" s="74"/>
+      <c r="S116" s="74"/>
+    </row>
+    <row r="117" spans="1:19" ht="14.5">
+      <c r="A117" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="B117" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="C117" s="47">
+        <v>4000</v>
+      </c>
+      <c r="D117" s="48">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="H116" s="75"/>
-      <c r="I116" s="75"/>
-      <c r="J116" s="75"/>
-      <c r="K116" s="75"/>
-      <c r="L116" s="75"/>
-      <c r="M116" s="75"/>
-      <c r="N116" s="75"/>
-      <c r="O116" s="75"/>
-      <c r="P116" s="75"/>
-      <c r="Q116" s="75"/>
-      <c r="R116" s="75"/>
-      <c r="S116" s="75"/>
-    </row>
-    <row r="117" spans="1:19" ht="14.5">
-      <c r="A117" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="B117" s="46" t="s">
-        <v>169</v>
-      </c>
-      <c r="C117" s="48">
+        <v>100</v>
+      </c>
+      <c r="E117" s="46">
         <v>4000</v>
       </c>
-      <c r="D117" s="49">
-        <f t="shared" si="39"/>
-        <v>100</v>
-      </c>
-      <c r="E117" s="47">
+      <c r="F117" s="46">
         <v>4000</v>
       </c>
-      <c r="F117" s="47">
-        <v>4000</v>
-      </c>
-      <c r="G117" s="48">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="H117" s="75"/>
-      <c r="I117" s="75"/>
-      <c r="J117" s="75"/>
-      <c r="K117" s="75"/>
-      <c r="L117" s="75"/>
-      <c r="M117" s="75"/>
-      <c r="N117" s="75"/>
-      <c r="O117" s="75"/>
-      <c r="P117" s="75"/>
-      <c r="Q117" s="75"/>
-      <c r="R117" s="75"/>
-      <c r="S117" s="75"/>
+      <c r="G117" s="47">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="H117" s="74"/>
+      <c r="I117" s="74"/>
+      <c r="J117" s="74"/>
+      <c r="K117" s="74"/>
+      <c r="L117" s="74"/>
+      <c r="M117" s="74"/>
+      <c r="N117" s="74"/>
+      <c r="O117" s="74"/>
+      <c r="P117" s="74"/>
+      <c r="Q117" s="74"/>
+      <c r="R117" s="74"/>
+      <c r="S117" s="74"/>
     </row>
     <row r="118" spans="1:19" ht="14.5">
-      <c r="A118" s="46" t="s">
+      <c r="A118" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="B118" s="46" t="s">
+      <c r="B118" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="C118" s="48">
-        <v>0</v>
-      </c>
-      <c r="D118" s="49"/>
-      <c r="E118" s="47">
-        <v>0</v>
-      </c>
-      <c r="F118" s="47"/>
-      <c r="G118" s="48">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="H118" s="75"/>
-      <c r="I118" s="75"/>
-      <c r="J118" s="75"/>
-      <c r="K118" s="75"/>
-      <c r="L118" s="75"/>
-      <c r="M118" s="75"/>
-      <c r="N118" s="75"/>
-      <c r="O118" s="75"/>
-      <c r="P118" s="75"/>
-      <c r="Q118" s="75"/>
-      <c r="R118" s="75"/>
-      <c r="S118" s="75"/>
+      <c r="C118" s="47">
+        <v>0</v>
+      </c>
+      <c r="D118" s="48"/>
+      <c r="E118" s="46">
+        <v>0</v>
+      </c>
+      <c r="F118" s="46"/>
+      <c r="G118" s="47">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="H118" s="74"/>
+      <c r="I118" s="74"/>
+      <c r="J118" s="74"/>
+      <c r="K118" s="74"/>
+      <c r="L118" s="74"/>
+      <c r="M118" s="74"/>
+      <c r="N118" s="74"/>
+      <c r="O118" s="74"/>
+      <c r="P118" s="74"/>
+      <c r="Q118" s="74"/>
+      <c r="R118" s="74"/>
+      <c r="S118" s="74"/>
     </row>
     <row r="119" spans="1:19" ht="14.5">
-      <c r="A119" s="61" t="s">
+      <c r="A119" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="B119" s="46" t="s">
+      <c r="B119" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="C119" s="48">
-        <v>0</v>
-      </c>
-      <c r="D119" s="49"/>
-      <c r="E119" s="47">
-        <v>0</v>
-      </c>
-      <c r="F119" s="47"/>
-      <c r="G119" s="48">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="H119" s="75"/>
-      <c r="I119" s="75"/>
-      <c r="J119" s="75"/>
-      <c r="K119" s="75"/>
-      <c r="L119" s="75"/>
-      <c r="M119" s="75"/>
-      <c r="N119" s="75"/>
-      <c r="O119" s="75"/>
-      <c r="P119" s="75"/>
-      <c r="Q119" s="75"/>
-      <c r="R119" s="75"/>
-      <c r="S119" s="75"/>
+      <c r="C119" s="47">
+        <v>0</v>
+      </c>
+      <c r="D119" s="48"/>
+      <c r="E119" s="46">
+        <v>0</v>
+      </c>
+      <c r="F119" s="46"/>
+      <c r="G119" s="47">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="H119" s="74"/>
+      <c r="I119" s="74"/>
+      <c r="J119" s="74"/>
+      <c r="K119" s="74"/>
+      <c r="L119" s="74"/>
+      <c r="M119" s="74"/>
+      <c r="N119" s="74"/>
+      <c r="O119" s="74"/>
+      <c r="P119" s="74"/>
+      <c r="Q119" s="74"/>
+      <c r="R119" s="74"/>
+      <c r="S119" s="74"/>
     </row>
     <row r="120" spans="1:19" ht="14.5">
-      <c r="A120" s="61" t="s">
+      <c r="A120" s="60" t="s">
         <v>182</v>
       </c>
-      <c r="B120" s="46" t="s">
+      <c r="B120" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="C120" s="48"/>
-      <c r="D120" s="48"/>
-      <c r="E120" s="47">
+      <c r="C120" s="47"/>
+      <c r="D120" s="47"/>
+      <c r="E120" s="46">
         <v>1688</v>
       </c>
-      <c r="F120" s="47">
+      <c r="F120" s="46">
         <v>10000</v>
       </c>
-      <c r="G120" s="48">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="H120" s="75"/>
-      <c r="I120" s="75"/>
-      <c r="J120" s="75"/>
-      <c r="K120" s="75"/>
-      <c r="L120" s="75"/>
-      <c r="M120" s="75"/>
-      <c r="N120" s="75"/>
-      <c r="O120" s="75"/>
-      <c r="P120" s="75"/>
-      <c r="Q120" s="75"/>
-      <c r="R120" s="75"/>
-      <c r="S120" s="75"/>
+      <c r="G120" s="47">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="H120" s="74"/>
+      <c r="I120" s="74"/>
+      <c r="J120" s="74"/>
+      <c r="K120" s="74"/>
+      <c r="L120" s="74"/>
+      <c r="M120" s="74"/>
+      <c r="N120" s="74"/>
+      <c r="O120" s="74"/>
+      <c r="P120" s="74"/>
+      <c r="Q120" s="74"/>
+      <c r="R120" s="74"/>
+      <c r="S120" s="74"/>
     </row>
     <row r="121" spans="1:19" ht="14.5">
-      <c r="A121" s="53" t="s">
+      <c r="A121" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B121" s="46" t="s">
+      <c r="B121" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="C121" s="47">
+      <c r="C121" s="46">
         <f>SUBTOTAL(9,C115:C120)</f>
         <v>12000</v>
       </c>
-      <c r="D121" s="49">
-        <f t="shared" ref="D121" si="41">E121/C121*100</f>
+      <c r="D121" s="48">
+        <f t="shared" ref="D121" si="42">E121/C121*100</f>
         <v>116.98333333333333</v>
       </c>
-      <c r="E121" s="47">
+      <c r="E121" s="46">
         <f>SUBTOTAL(9,E115:E120)</f>
         <v>14038</v>
       </c>
-      <c r="F121" s="47">
+      <c r="F121" s="46">
         <f>SUBTOTAL(9,F115:F120)</f>
         <v>22000</v>
       </c>
-      <c r="G121" s="47">
+      <c r="G121" s="46">
         <f>SUBTOTAL(9,G115:G120)</f>
         <v>0</v>
       </c>
-      <c r="H121" s="75"/>
-      <c r="I121" s="75"/>
-      <c r="J121" s="75"/>
-      <c r="K121" s="75"/>
-      <c r="L121" s="75"/>
-      <c r="M121" s="75"/>
-      <c r="N121" s="75"/>
-      <c r="O121" s="75"/>
-      <c r="P121" s="75"/>
-      <c r="Q121" s="75"/>
-      <c r="R121" s="75"/>
-      <c r="S121" s="75"/>
+      <c r="H121" s="46">
+        <f t="shared" ref="H121:S121" si="43">SUBTOTAL(9,H115:H120)</f>
+        <v>0</v>
+      </c>
+      <c r="I121" s="46">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="46">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="K121" s="46">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="L121" s="46">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="M121" s="46">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="N121" s="46">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O121" s="46">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="P121" s="46">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="Q121" s="46">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="R121" s="46">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="S121" s="46">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:19" ht="14.5">
-      <c r="A122" s="152"/>
-      <c r="B122" s="127"/>
-      <c r="C122" s="127"/>
-      <c r="D122" s="127"/>
-      <c r="E122" s="127"/>
-      <c r="F122" s="127"/>
-      <c r="G122" s="127"/>
-      <c r="H122" s="150"/>
-      <c r="I122" s="130"/>
-      <c r="J122" s="130"/>
-      <c r="K122" s="130"/>
-      <c r="L122" s="130"/>
-      <c r="M122" s="130"/>
-      <c r="N122" s="130"/>
-      <c r="O122" s="130"/>
-      <c r="P122" s="130"/>
-      <c r="Q122" s="130"/>
-      <c r="R122" s="130"/>
-      <c r="S122" s="130"/>
+      <c r="A122" s="143"/>
+      <c r="B122" s="126"/>
+      <c r="C122" s="126"/>
+      <c r="D122" s="126"/>
+      <c r="E122" s="126"/>
+      <c r="F122" s="126"/>
+      <c r="G122" s="126"/>
+      <c r="H122" s="142"/>
+      <c r="I122" s="129"/>
+      <c r="J122" s="129"/>
+      <c r="K122" s="129"/>
+      <c r="L122" s="129"/>
+      <c r="M122" s="129"/>
+      <c r="N122" s="129"/>
+      <c r="O122" s="129"/>
+      <c r="P122" s="129"/>
+      <c r="Q122" s="129"/>
+      <c r="R122" s="129"/>
+      <c r="S122" s="129"/>
     </row>
     <row r="123" spans="1:19" ht="14.5">
-      <c r="A123" s="69"/>
-      <c r="B123" s="69" t="s">
+      <c r="A123" s="68"/>
+      <c r="B123" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="C123" s="70">
+      <c r="C123" s="69">
         <f>SUBTOTAL(9,C115:C121)</f>
         <v>12000</v>
       </c>
-      <c r="D123" s="71">
-        <f t="shared" ref="D123" si="42">E123/C123*100</f>
+      <c r="D123" s="70">
+        <f t="shared" ref="D123" si="44">E123/C123*100</f>
         <v>116.98333333333333</v>
       </c>
-      <c r="E123" s="70">
+      <c r="E123" s="69">
         <f>SUBTOTAL(9,E115:E121)</f>
         <v>14038</v>
       </c>
-      <c r="F123" s="70">
+      <c r="F123" s="69">
         <f>SUBTOTAL(9,F115:F121)</f>
         <v>22000</v>
       </c>
-      <c r="G123" s="70">
+      <c r="G123" s="69">
         <f>SUBTOTAL(9,G115:G121)</f>
         <v>0</v>
       </c>
-      <c r="H123" s="75"/>
-      <c r="I123" s="75"/>
-      <c r="J123" s="75"/>
-      <c r="K123" s="75"/>
-      <c r="L123" s="75"/>
-      <c r="M123" s="75"/>
-      <c r="N123" s="75"/>
-      <c r="O123" s="75"/>
-      <c r="P123" s="75"/>
-      <c r="Q123" s="75"/>
-      <c r="R123" s="75"/>
-      <c r="S123" s="75"/>
+      <c r="H123" s="69">
+        <f t="shared" ref="H123:S123" si="45">SUBTOTAL(9,H115:H121)</f>
+        <v>0</v>
+      </c>
+      <c r="I123" s="69">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="69">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="K123" s="69">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="L123" s="69">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M123" s="69">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="N123" s="69">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="O123" s="69">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="P123" s="69">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Q123" s="69">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R123" s="69">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="S123" s="69">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:19" ht="14.5">
-      <c r="A124" s="148"/>
-      <c r="B124" s="127"/>
-      <c r="C124" s="127"/>
-      <c r="D124" s="127"/>
-      <c r="E124" s="127"/>
-      <c r="F124" s="127"/>
-      <c r="G124" s="127"/>
-      <c r="H124" s="150"/>
-      <c r="I124" s="130"/>
-      <c r="J124" s="130"/>
-      <c r="K124" s="130"/>
-      <c r="L124" s="130"/>
-      <c r="M124" s="130"/>
-      <c r="N124" s="130"/>
-      <c r="O124" s="130"/>
-      <c r="P124" s="130"/>
-      <c r="Q124" s="130"/>
-      <c r="R124" s="130"/>
-      <c r="S124" s="130"/>
+      <c r="A124" s="144"/>
+      <c r="B124" s="126"/>
+      <c r="C124" s="126"/>
+      <c r="D124" s="126"/>
+      <c r="E124" s="126"/>
+      <c r="F124" s="126"/>
+      <c r="G124" s="126"/>
+      <c r="H124" s="142"/>
+      <c r="I124" s="129"/>
+      <c r="J124" s="129"/>
+      <c r="K124" s="129"/>
+      <c r="L124" s="129"/>
+      <c r="M124" s="129"/>
+      <c r="N124" s="129"/>
+      <c r="O124" s="129"/>
+      <c r="P124" s="129"/>
+      <c r="Q124" s="129"/>
+      <c r="R124" s="129"/>
+      <c r="S124" s="129"/>
     </row>
     <row r="125" spans="1:19" ht="14.5">
-      <c r="A125" s="72"/>
-      <c r="B125" s="72" t="s">
+      <c r="A125" s="71"/>
+      <c r="B125" s="71" t="s">
         <v>176</v>
       </c>
-      <c r="C125" s="73">
+      <c r="C125" s="72">
         <f>SUBTOTAL(9,C9:C123)</f>
         <v>216890.94</v>
       </c>
-      <c r="D125" s="74">
-        <f t="shared" ref="D125" si="43">E125/C125*100</f>
+      <c r="D125" s="73">
+        <f t="shared" ref="D125" si="46">E125/C125*100</f>
         <v>79.9062284482699</v>
       </c>
-      <c r="E125" s="73">
+      <c r="E125" s="72">
         <f>SUBTOTAL(9,E9:E123)</f>
         <v>173309.37</v>
       </c>
-      <c r="F125" s="73">
+      <c r="F125" s="72">
         <f>SUBTOTAL(9,F9:F123)</f>
         <v>220490</v>
       </c>
-      <c r="G125" s="73">
+      <c r="G125" s="72">
         <f>SUBTOTAL(9,G9:G123)</f>
         <v>0</v>
       </c>
-      <c r="H125" s="62">
-        <f>SUM(H5:H123)</f>
-        <v>0</v>
-      </c>
-      <c r="I125" s="62">
-        <f t="shared" ref="I125:S125" si="44">SUM(I5:I123)</f>
-        <v>0</v>
-      </c>
-      <c r="J125" s="62">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="K125" s="62">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="L125" s="62">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="M125" s="62">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="N125" s="62">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="O125" s="62">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="P125" s="62">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="Q125" s="62">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="R125" s="62">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="S125" s="62">
-        <f t="shared" si="44"/>
+      <c r="H125" s="72">
+        <f t="shared" ref="H125:S125" si="47">SUBTOTAL(9,H9:H123)</f>
+        <v>0</v>
+      </c>
+      <c r="I125" s="72">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="72">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="K125" s="72">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="L125" s="72">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="M125" s="72">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="N125" s="72">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="O125" s="72">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="P125" s="72">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="Q125" s="72">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="R125" s="72">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="S125" s="72">
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
@@ -8234,6 +8801,29 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H5:S5"/>
+    <mergeCell ref="H6:S6"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:S33"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="H49:S49"/>
+    <mergeCell ref="H59:S59"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="H66:S66"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="H73:S73"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="H81:S81"/>
+    <mergeCell ref="A95:G95"/>
+    <mergeCell ref="H95:S95"/>
+    <mergeCell ref="A103:G103"/>
+    <mergeCell ref="H103:S103"/>
+    <mergeCell ref="A81:G81"/>
     <mergeCell ref="H107:S107"/>
     <mergeCell ref="A122:G122"/>
     <mergeCell ref="A124:G124"/>
@@ -8244,29 +8834,6 @@
     <mergeCell ref="A107:G107"/>
     <mergeCell ref="A111:G111"/>
     <mergeCell ref="A113:G113"/>
-    <mergeCell ref="H81:S81"/>
-    <mergeCell ref="A95:G95"/>
-    <mergeCell ref="H95:S95"/>
-    <mergeCell ref="A103:G103"/>
-    <mergeCell ref="H103:S103"/>
-    <mergeCell ref="A81:G81"/>
-    <mergeCell ref="H59:S59"/>
-    <mergeCell ref="A66:G66"/>
-    <mergeCell ref="H66:S66"/>
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="H73:S73"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="H5:S5"/>
-    <mergeCell ref="H6:S6"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:S33"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="H49:S49"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/Financial_Report_2021.xlsx
+++ b/src/main/resources/Financial_Report_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\projects\church-app\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3822999A-01E5-42F1-B676-849D9E2AA883}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF6337E-FD0A-43B7-B9FF-F08CBB347C28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="-110" windowWidth="18440" windowHeight="11020" xr2:uid="{7F8DEBD6-32E0-4BF8-87C4-D1C13E633F04}"/>
+    <workbookView xWindow="840" yWindow="-110" windowWidth="18470" windowHeight="11020" xr2:uid="{7F8DEBD6-32E0-4BF8-87C4-D1C13E633F04}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -792,11 +792,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="#,##0.000;[Red]#,##0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -1067,7 +1068,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1202,9 +1203,6 @@
     <xf numFmtId="4" fontId="14" fillId="2" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="14" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1232,18 +1230,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="11" fillId="2" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1256,16 +1245,10 @@
     <xf numFmtId="4" fontId="11" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1444,30 +1427,60 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1789,7 +1802,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K2"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1809,452 +1822,452 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.5">
-      <c r="A1" s="111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
+      <c r="A1" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="105"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
     </row>
     <row r="2" spans="1:11" ht="18.5">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="105" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
     </row>
     <row r="3" spans="1:11" ht="18.5">
-      <c r="A3" s="114">
+      <c r="A3" s="108">
         <v>2021</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="113" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="120"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="122"/>
-      <c r="G4" s="106" t="s">
+      <c r="B4" s="114"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="116"/>
+      <c r="G4" s="100" t="s">
         <v>240</v>
       </c>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="108"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="102"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="117" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="124"/>
-      <c r="C5" s="79" t="s">
+      <c r="B5" s="118"/>
+      <c r="C5" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="104" t="s">
+      <c r="D5" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="74" t="s">
         <v>198</v>
       </c>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="103" t="s">
         <v>241</v>
       </c>
-      <c r="H5" s="110"/>
-      <c r="I5" s="79" t="s">
+      <c r="H5" s="104"/>
+      <c r="I5" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="104" t="s">
+      <c r="J5" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="80" t="s">
+      <c r="K5" s="74" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="81"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="13" t="s">
         <v>210</v>
       </c>
       <c r="C6" s="14">
-        <f>Offering!$F$6</f>
+        <f>Offering!$E$6</f>
         <v>105000</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="145">
         <f>E6/C6*100</f>
         <v>0</v>
       </c>
-      <c r="E6" s="82">
+      <c r="E6" s="76">
         <f>Offering!$G$6</f>
         <v>0</v>
       </c>
-      <c r="G6" s="89"/>
+      <c r="G6" s="83"/>
       <c r="H6" s="15" t="s">
         <v>199</v>
       </c>
       <c r="I6" s="16">
-        <f>Expenditure!$F$32</f>
+        <f>Expenditure!$E$32</f>
         <v>108960</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="145">
         <f t="shared" ref="J6:J16" si="0">K6/I6*100</f>
         <v>0</v>
       </c>
-      <c r="K6" s="90">
+      <c r="K6" s="84">
         <f>Expenditure!$G$32</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="81"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="13" t="s">
         <v>211</v>
       </c>
       <c r="C7" s="14">
-        <f>Offering!$F$7</f>
+        <f>Offering!$E$7</f>
         <v>3000</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="145">
         <f t="shared" ref="D7:D20" si="1">E7/C7*100</f>
         <v>0</v>
       </c>
-      <c r="E7" s="82">
+      <c r="E7" s="76">
         <f>Offering!$G$7</f>
         <v>0</v>
       </c>
-      <c r="G7" s="89"/>
+      <c r="G7" s="83"/>
       <c r="H7" s="15" t="s">
         <v>200</v>
       </c>
       <c r="I7" s="16">
-        <f>Expenditure!$F$48</f>
+        <f>Expenditure!$E$48</f>
         <v>49100</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="145">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K7" s="90">
+      <c r="K7" s="84">
         <f>Expenditure!$G$48</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="81"/>
+      <c r="A8" s="75"/>
       <c r="B8" s="13" t="s">
         <v>212</v>
       </c>
       <c r="C8" s="14">
-        <f>Offering!$F$8</f>
+        <f>Offering!$E$8</f>
         <v>200</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="76">
         <f>Offering!$G$8</f>
         <v>0</v>
       </c>
-      <c r="G8" s="89"/>
+      <c r="G8" s="83"/>
       <c r="H8" s="15" t="s">
         <v>201</v>
       </c>
       <c r="I8" s="16">
-        <f>Expenditure!$F$58</f>
+        <f>Expenditure!$E$58</f>
         <v>2300</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="145">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K8" s="90">
+      <c r="K8" s="84">
         <f>Expenditure!$G$58</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="81"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="13" t="s">
         <v>213</v>
       </c>
       <c r="C9" s="14">
-        <f>Offering!$F$9</f>
+        <f>Offering!$E$9</f>
         <v>5000</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E9" s="82">
+      <c r="E9" s="76">
         <f>Offering!$G$9</f>
         <v>0</v>
       </c>
-      <c r="G9" s="89"/>
+      <c r="G9" s="83"/>
       <c r="H9" s="15" t="s">
         <v>202</v>
       </c>
       <c r="I9" s="16">
-        <f>Expenditure!$F$65</f>
+        <f>Expenditure!$E$65</f>
         <v>2300</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="145">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="90">
+      <c r="K9" s="84">
         <f>Expenditure!$G$65</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="81"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="13" t="s">
         <v>214</v>
       </c>
       <c r="C10" s="14">
-        <f>Offering!$F$10</f>
+        <f>Offering!$E$10</f>
         <v>4500</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E10" s="82">
+      <c r="E10" s="76">
         <f>Offering!$G$10</f>
         <v>0</v>
       </c>
-      <c r="G10" s="89"/>
+      <c r="G10" s="83"/>
       <c r="H10" s="15" t="s">
         <v>203</v>
       </c>
       <c r="I10" s="16">
-        <f>Expenditure!$F$72</f>
+        <f>Expenditure!$E$72</f>
         <v>2630</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="145">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="90">
+      <c r="K10" s="84">
         <f>Expenditure!$G$72</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="81"/>
+      <c r="A11" s="75"/>
       <c r="B11" s="13" t="s">
         <v>215</v>
       </c>
       <c r="C11" s="14">
-        <f>Offering!$F$11</f>
+        <f>Offering!$E$11</f>
         <v>2500</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E11" s="82">
+      <c r="E11" s="76">
         <f>Offering!$G$11</f>
         <v>0</v>
       </c>
-      <c r="G11" s="89"/>
+      <c r="G11" s="83"/>
       <c r="H11" s="15" t="s">
         <v>204</v>
       </c>
       <c r="I11" s="16">
-        <f>Expenditure!$F$80</f>
+        <f>Expenditure!$E$80</f>
         <v>1900</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="145">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="90">
+      <c r="K11" s="84">
         <f>Expenditure!$G$80</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="81"/>
+      <c r="A12" s="75"/>
       <c r="B12" s="13" t="s">
         <v>216</v>
       </c>
       <c r="C12" s="14">
-        <f>Offering!$F$12</f>
+        <f>Offering!$E$12</f>
         <v>1500</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E12" s="82">
+      <c r="E12" s="76">
         <f>Offering!$G$12</f>
         <v>0</v>
       </c>
-      <c r="G12" s="89"/>
+      <c r="G12" s="83"/>
       <c r="H12" s="15" t="s">
         <v>205</v>
       </c>
       <c r="I12" s="16">
-        <f>Expenditure!$F$94</f>
+        <f>Expenditure!$E$94</f>
         <v>20600</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="145">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="90">
+      <c r="K12" s="84">
         <f>Expenditure!$G$94</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="81"/>
+      <c r="A13" s="75"/>
       <c r="B13" s="13" t="s">
         <v>217</v>
       </c>
       <c r="C13" s="14">
-        <f>Offering!$F$13</f>
+        <f>Offering!$E$13</f>
         <v>3500</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="76">
         <f>Offering!$G$13</f>
         <v>0</v>
       </c>
-      <c r="G13" s="89"/>
+      <c r="G13" s="83"/>
       <c r="H13" s="15" t="s">
         <v>150</v>
       </c>
       <c r="I13" s="16">
-        <f>Expenditure!$F$102</f>
+        <f>Expenditure!$E$102</f>
         <v>6500</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="145">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="90">
+      <c r="K13" s="84">
         <f>Expenditure!$G$102</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="81"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="13" t="s">
         <v>218</v>
       </c>
       <c r="C14" s="14">
-        <f>Offering!$F$14</f>
+        <f>Offering!$E$14</f>
         <v>4000</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E14" s="82">
+      <c r="E14" s="76">
         <f>Offering!$G$14</f>
         <v>0</v>
       </c>
-      <c r="G14" s="89"/>
+      <c r="G14" s="83"/>
       <c r="H14" s="15" t="s">
         <v>206</v>
       </c>
       <c r="I14" s="16">
-        <f>Expenditure!$F$106</f>
+        <f>Expenditure!$E$106</f>
         <v>1000</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="145">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="90">
+      <c r="K14" s="84">
         <f>Expenditure!$G$106</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="81"/>
+      <c r="A15" s="75"/>
       <c r="B15" s="13" t="s">
         <v>219</v>
       </c>
       <c r="C15" s="14">
-        <f>Offering!$F$15</f>
+        <f>Offering!$E$15</f>
         <v>6000</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E15" s="82">
+      <c r="E15" s="76">
         <f>Offering!$G$15</f>
         <v>0</v>
       </c>
-      <c r="G15" s="89"/>
+      <c r="G15" s="83"/>
       <c r="H15" s="15" t="s">
         <v>207</v>
       </c>
       <c r="I15" s="16">
-        <f>Expenditure!$F$110</f>
+        <f>Expenditure!$E$110</f>
         <v>3200</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="145">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="90">
+      <c r="K15" s="84">
         <f>Expenditure!$G$110</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="81"/>
+      <c r="A16" s="75"/>
       <c r="B16" s="13" t="s">
         <v>220</v>
       </c>
       <c r="C16" s="14">
-        <f>Offering!$F$16</f>
+        <f>Offering!$E$16</f>
         <v>300</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="82">
+      <c r="E16" s="76">
         <f>Offering!$G$16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="91" t="s">
+      <c r="G16" s="85" t="s">
         <v>242</v>
       </c>
       <c r="H16" s="17"/>
@@ -2262,344 +2275,344 @@
         <f>SUBTOTAL(9,I6:I15)</f>
         <v>198490</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="146">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="92">
+      <c r="K16" s="86">
         <f>SUBTOTAL(9,K6:K15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="81"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="13" t="s">
         <v>221</v>
       </c>
       <c r="C17" s="14">
-        <f>Offering!$F$17</f>
+        <f>Offering!$E$17</f>
         <v>5000</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="82">
+      <c r="E17" s="76">
         <f>Offering!$G$17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="130"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="124"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="81"/>
+      <c r="A18" s="75"/>
       <c r="B18" s="13" t="s">
         <v>222</v>
       </c>
       <c r="C18" s="14">
-        <f>Offering!$F$18</f>
+        <f>Offering!$E$18</f>
         <v>1000</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18" s="82">
+      <c r="E18" s="76">
         <f>Offering!$G$18</f>
         <v>0</v>
       </c>
-      <c r="G18" s="95"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="96"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="97"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="91"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="81"/>
+      <c r="A19" s="75"/>
       <c r="B19" s="13" t="s">
         <v>150</v>
       </c>
       <c r="C19" s="14">
-        <f>Offering!$F$19</f>
+        <f>Offering!$E$19</f>
         <v>6000</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E19" s="82">
+      <c r="E19" s="76">
         <f>Offering!$G$19</f>
         <v>0</v>
       </c>
-      <c r="G19" s="95"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="97"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="91"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="81"/>
+      <c r="A20" s="75"/>
       <c r="B20" s="13" t="s">
         <v>223</v>
       </c>
       <c r="C20" s="14">
-        <f>Offering!$F$20</f>
+        <f>Offering!$E$20</f>
         <v>500</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E20" s="82">
+      <c r="E20" s="76">
         <f>Offering!$G$20</f>
         <v>0</v>
       </c>
-      <c r="G20" s="95"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="97"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="91"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="81"/>
+      <c r="A21" s="75"/>
       <c r="B21" s="13" t="s">
         <v>224</v>
       </c>
       <c r="C21" s="14">
-        <f>Offering!$F$21</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="82">
+        <f>Offering!$E$21</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="145"/>
+      <c r="E21" s="76">
         <f>Offering!$G$21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="95"/>
-      <c r="K21" s="97"/>
+      <c r="G21" s="89"/>
+      <c r="K21" s="91"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="115" t="s">
+      <c r="A22" s="109" t="s">
         <v>225</v>
       </c>
-      <c r="B22" s="116"/>
+      <c r="B22" s="110"/>
       <c r="C22" s="19">
         <f t="shared" ref="C22:E22" si="2">SUBTOTAL(9,C6:C21)</f>
         <v>148000</v>
       </c>
-      <c r="D22" s="19">
+      <c r="D22" s="146">
         <f>E22/C22*100</f>
         <v>0</v>
       </c>
-      <c r="E22" s="83">
+      <c r="E22" s="77">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G22" s="95"/>
-      <c r="K22" s="97"/>
+      <c r="G22" s="89"/>
+      <c r="K22" s="91"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="125"/>
-      <c r="B23" s="126"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="127"/>
-      <c r="G23" s="93" t="s">
+      <c r="A23" s="119"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="121"/>
+      <c r="G23" s="87" t="s">
         <v>243</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="20"/>
       <c r="J23" s="20"/>
-      <c r="K23" s="94"/>
+      <c r="K23" s="88"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="84"/>
+      <c r="A24" s="78"/>
       <c r="B24" s="24" t="s">
         <v>233</v>
       </c>
       <c r="C24" s="23">
-        <f>Offering!$F$24</f>
+        <f>Offering!$E$24</f>
         <v>8000</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="153">
         <f t="shared" ref="D24:D27" si="3">E24/C24*100</f>
         <v>0</v>
       </c>
-      <c r="E24" s="85">
+      <c r="E24" s="79">
         <f>Offering!$G$24</f>
         <v>0</v>
       </c>
-      <c r="G24" s="98"/>
+      <c r="G24" s="92"/>
       <c r="H24" s="22" t="s">
         <v>244</v>
       </c>
       <c r="I24" s="20">
-        <f>Expenditure!$F$115</f>
+        <f>Expenditure!$E$115</f>
         <v>5000</v>
       </c>
-      <c r="J24" s="23">
+      <c r="J24" s="153">
         <f>K24/I24*100</f>
         <v>0</v>
       </c>
-      <c r="K24" s="94">
+      <c r="K24" s="88">
         <f>Expenditure!$G$115</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="86"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="24" t="s">
         <v>226</v>
       </c>
       <c r="C25" s="23">
-        <f>Offering!$F$25</f>
+        <f>Offering!$E$25</f>
         <v>4000</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="153">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E25" s="85">
+      <c r="E25" s="79">
         <f>Offering!$G$25</f>
         <v>0</v>
       </c>
-      <c r="G25" s="98"/>
+      <c r="G25" s="92"/>
       <c r="H25" s="22" t="s">
         <v>245</v>
       </c>
       <c r="I25" s="20">
-        <f>Expenditure!$F$116</f>
+        <f>Expenditure!$E$116</f>
         <v>3000</v>
       </c>
-      <c r="J25" s="23">
+      <c r="J25" s="153">
         <f>K25/I25*100</f>
         <v>0</v>
       </c>
-      <c r="K25" s="94">
+      <c r="K25" s="88">
         <f>Expenditure!$G$116</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="86"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="24" t="s">
         <v>234</v>
       </c>
       <c r="C26" s="23">
-        <f>Offering!$F$26</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="85">
+        <f>Offering!$E$26</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="153"/>
+      <c r="E26" s="79">
         <f>Offering!$G$26</f>
         <v>0</v>
       </c>
-      <c r="G26" s="98"/>
+      <c r="G26" s="92"/>
       <c r="H26" s="22" t="s">
         <v>169</v>
       </c>
       <c r="I26" s="20">
-        <f>Expenditure!$F$117</f>
+        <f>Expenditure!$E$117</f>
         <v>4000</v>
       </c>
-      <c r="J26" s="23">
+      <c r="J26" s="153">
         <f>K26/I26*100</f>
         <v>0</v>
       </c>
-      <c r="K26" s="94">
+      <c r="K26" s="88">
         <f>Expenditure!$G$117</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="86"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="24" t="s">
         <v>227</v>
       </c>
       <c r="C27" s="23">
-        <f>Offering!$F$27</f>
+        <f>Offering!$E$27</f>
         <v>3000</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="153">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E27" s="85">
+      <c r="E27" s="79">
         <f>Offering!$G$27</f>
         <v>0</v>
       </c>
-      <c r="G27" s="98"/>
+      <c r="G27" s="92"/>
       <c r="H27" s="22" t="s">
         <v>246</v>
       </c>
       <c r="I27" s="20">
-        <f>Expenditure!$F$118</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="94">
+        <f>Expenditure!$E$118</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="153"/>
+      <c r="K27" s="88">
         <f>Expenditure!$G$118</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="115" t="s">
+      <c r="A28" s="109" t="s">
         <v>228</v>
       </c>
-      <c r="B28" s="116"/>
+      <c r="B28" s="110"/>
       <c r="C28" s="19">
         <f>SUBTOTAL(9,C24:C27)</f>
         <v>15000</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="146">
         <f>E28/C28*100</f>
         <v>0</v>
       </c>
-      <c r="E28" s="83">
+      <c r="E28" s="77">
         <f>SUBTOTAL(9,E24:E27)</f>
         <v>0</v>
       </c>
-      <c r="G28" s="98"/>
+      <c r="G28" s="92"/>
       <c r="H28" s="22" t="s">
         <v>249</v>
       </c>
       <c r="I28" s="20">
-        <f>Expenditure!$F$119</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="23"/>
-      <c r="K28" s="94">
+        <f>Expenditure!$E$119</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="153"/>
+      <c r="K28" s="88">
         <f>Expenditure!$G$119</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="125"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="127"/>
-      <c r="G29" s="98"/>
+      <c r="A29" s="119"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="121"/>
+      <c r="G29" s="92"/>
       <c r="H29" s="24" t="s">
         <v>227</v>
       </c>
       <c r="I29" s="20">
-        <f>Expenditure!$F$120</f>
+        <f>Expenditure!$E$120</f>
         <v>10000</v>
       </c>
-      <c r="J29" s="23">
+      <c r="J29" s="153">
         <f>K29/I29*100</f>
         <v>0</v>
       </c>
-      <c r="K29" s="94">
+      <c r="K29" s="88">
         <f>Expenditure!$G$120</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="81" t="s">
         <v>229</v>
       </c>
       <c r="B30" s="27"/>
@@ -2607,15 +2620,15 @@
         <f>SUBTOTAL(9,C6:C28)</f>
         <v>163000</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="146">
         <f>E30/C30*100</f>
         <v>0</v>
       </c>
-      <c r="E30" s="83">
+      <c r="E30" s="77">
         <f>SUBTOTAL(9,E6:E28)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="99" t="s">
+      <c r="G30" s="93" t="s">
         <v>247</v>
       </c>
       <c r="H30" s="26"/>
@@ -2623,100 +2636,100 @@
         <f>SUBTOTAL(9,I24:I29)</f>
         <v>22000</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="146">
         <f>K30/I30*100</f>
         <v>0</v>
       </c>
-      <c r="K30" s="92">
+      <c r="K30" s="86">
         <f>SUBTOTAL(9,K24:K29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="88"/>
+      <c r="A31" s="82"/>
       <c r="B31" s="13" t="s">
         <v>230</v>
       </c>
       <c r="C31" s="14">
-        <f>Offering!$F$31</f>
+        <f>Offering!$E$31</f>
         <v>57490</v>
       </c>
       <c r="D31" s="14"/>
-      <c r="E31" s="82"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="97"/>
+      <c r="E31" s="76"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="91"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="81"/>
+      <c r="A32" s="75"/>
       <c r="B32" s="13" t="s">
         <v>231</v>
       </c>
       <c r="C32" s="14">
-        <f>Offering!$F$32</f>
+        <f>Offering!$E$32</f>
         <v>0</v>
       </c>
       <c r="D32" s="14"/>
-      <c r="E32" s="82">
+      <c r="E32" s="76">
         <f>Offering!$G$32</f>
         <v>0</v>
       </c>
-      <c r="G32" s="95"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="97"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="91"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="111" t="s">
         <v>232</v>
       </c>
-      <c r="B33" s="118"/>
-      <c r="C33" s="100">
+      <c r="B33" s="112"/>
+      <c r="C33" s="94">
         <f>SUBTOTAL(9,C6:C32)</f>
         <v>220490</v>
       </c>
-      <c r="D33" s="100">
+      <c r="D33" s="154">
         <f>E33/C33*100</f>
         <v>0</v>
       </c>
-      <c r="E33" s="101">
+      <c r="E33" s="95">
         <f>SUBTOTAL(9,E6:E32)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="131" t="s">
+      <c r="G33" s="125" t="s">
         <v>248</v>
       </c>
-      <c r="H33" s="132"/>
-      <c r="I33" s="102">
+      <c r="H33" s="126"/>
+      <c r="I33" s="96">
         <f>SUBTOTAL(9,I6:I30)</f>
         <v>220490</v>
       </c>
-      <c r="J33" s="100">
+      <c r="J33" s="154">
         <f t="shared" ref="J33" si="4">K33/I33*100</f>
         <v>0</v>
       </c>
-      <c r="K33" s="103">
+      <c r="K33" s="97">
         <f>SUBTOTAL(9,K6:K30)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="105" t="s">
+      <c r="A35" s="99" t="s">
         <v>250</v>
       </c>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99"/>
+      <c r="E35" s="99"/>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2746,28 +2759,28 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" customWidth="1"/>
-    <col min="4" max="4" width="7.6328125" customWidth="1"/>
-    <col min="5" max="7" width="11.6328125" customWidth="1"/>
+    <col min="3" max="5" width="11.6328125" customWidth="1"/>
+    <col min="6" max="6" width="6.6328125" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" customWidth="1"/>
     <col min="8" max="8" width="9.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5">
-      <c r="A1" s="135" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
+      <c r="A1" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -2782,15 +2795,15 @@
       <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="15.5">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="129" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -2805,15 +2818,15 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="15.5">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="132" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="138"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -2828,13 +2841,13 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="133" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="139"/>
+      <c r="B4" s="133"/>
       <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="31"/>
       <c r="G4" s="32"/>
       <c r="H4" s="8"/>
@@ -2851,21 +2864,21 @@
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="140" t="s">
+      <c r="A5" s="134" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="140"/>
+      <c r="B5" s="134"/>
       <c r="C5" s="33" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="148" t="s">
         <v>5</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>1</v>
       </c>
       <c r="G5" s="11" t="s">
         <v>198</v>
@@ -2916,14 +2929,14 @@
         <v>110000</v>
       </c>
       <c r="D6" s="14">
-        <f>E6/C6*100</f>
-        <v>97.410163636363635</v>
+        <v>107151.18</v>
       </c>
       <c r="E6" s="14">
-        <v>107151.18</v>
-      </c>
-      <c r="F6" s="14">
         <v>105000</v>
+      </c>
+      <c r="F6" s="145">
+        <f>G6/E6*100</f>
+        <v>0</v>
       </c>
       <c r="G6" s="35">
         <f>SUM(H6:S6)</f>
@@ -2951,17 +2964,17 @@
         <v>3000</v>
       </c>
       <c r="D7" s="14">
-        <f t="shared" ref="D7:D22" si="0">E7/C7*100</f>
-        <v>62</v>
+        <v>1860</v>
       </c>
       <c r="E7" s="14">
-        <v>1860</v>
-      </c>
-      <c r="F7" s="14">
         <v>3000</v>
       </c>
+      <c r="F7" s="145">
+        <f>G7/E7*100</f>
+        <v>0</v>
+      </c>
       <c r="G7" s="35">
-        <f t="shared" ref="G7:G21" si="1">SUM(H7:S7)</f>
+        <f t="shared" ref="G7:G21" si="0">SUM(H7:S7)</f>
         <v>0</v>
       </c>
       <c r="H7" s="8"/>
@@ -2986,17 +2999,17 @@
         <v>500</v>
       </c>
       <c r="D8" s="14">
+        <v>5</v>
+      </c>
+      <c r="E8" s="14">
+        <v>200</v>
+      </c>
+      <c r="F8" s="145">
+        <f t="shared" ref="F8:F20" si="1">G8/E8*100</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="35">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E8" s="14">
-        <v>5</v>
-      </c>
-      <c r="F8" s="14">
-        <v>200</v>
-      </c>
-      <c r="G8" s="35">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8" s="8"/>
@@ -3021,17 +3034,17 @@
         <v>5000</v>
       </c>
       <c r="D9" s="14">
+        <v>6580</v>
+      </c>
+      <c r="E9" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F9" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="35">
         <f t="shared" si="0"/>
-        <v>131.6</v>
-      </c>
-      <c r="E9" s="14">
-        <v>6580</v>
-      </c>
-      <c r="F9" s="14">
-        <v>5000</v>
-      </c>
-      <c r="G9" s="35">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H9" s="8"/>
@@ -3056,17 +3069,17 @@
         <v>4500</v>
       </c>
       <c r="D10" s="14">
+        <v>4300</v>
+      </c>
+      <c r="E10" s="14">
+        <v>4500</v>
+      </c>
+      <c r="F10" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="35">
         <f t="shared" si="0"/>
-        <v>95.555555555555557</v>
-      </c>
-      <c r="E10" s="14">
-        <v>4300</v>
-      </c>
-      <c r="F10" s="14">
-        <v>4500</v>
-      </c>
-      <c r="G10" s="35">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H10" s="8"/>
@@ -3091,17 +3104,17 @@
         <v>4500</v>
       </c>
       <c r="D11" s="14">
+        <v>2820</v>
+      </c>
+      <c r="E11" s="14">
+        <v>2500</v>
+      </c>
+      <c r="F11" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="35">
         <f t="shared" si="0"/>
-        <v>62.666666666666671</v>
-      </c>
-      <c r="E11" s="14">
-        <v>2820</v>
-      </c>
-      <c r="F11" s="14">
-        <v>2500</v>
-      </c>
-      <c r="G11" s="35">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11" s="8"/>
@@ -3126,17 +3139,17 @@
         <v>2500</v>
       </c>
       <c r="D12" s="14">
+        <v>1460</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1500</v>
+      </c>
+      <c r="F12" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="35">
         <f t="shared" si="0"/>
-        <v>58.4</v>
-      </c>
-      <c r="E12" s="14">
-        <v>1460</v>
-      </c>
-      <c r="F12" s="14">
-        <v>1500</v>
-      </c>
-      <c r="G12" s="35">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="8"/>
@@ -3161,17 +3174,17 @@
         <v>4000</v>
       </c>
       <c r="D13" s="14">
+        <v>3505</v>
+      </c>
+      <c r="E13" s="14">
+        <v>3500</v>
+      </c>
+      <c r="F13" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="35">
         <f t="shared" si="0"/>
-        <v>87.625</v>
-      </c>
-      <c r="E13" s="14">
-        <v>3505</v>
-      </c>
-      <c r="F13" s="14">
-        <v>3500</v>
-      </c>
-      <c r="G13" s="35">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H13" s="8"/>
@@ -3196,17 +3209,17 @@
         <v>4500</v>
       </c>
       <c r="D14" s="14">
+        <v>2940</v>
+      </c>
+      <c r="E14" s="14">
+        <v>4000</v>
+      </c>
+      <c r="F14" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="35">
         <f t="shared" si="0"/>
-        <v>65.333333333333329</v>
-      </c>
-      <c r="E14" s="14">
-        <v>2940</v>
-      </c>
-      <c r="F14" s="14">
-        <v>4000</v>
-      </c>
-      <c r="G14" s="35">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H14" s="8"/>
@@ -3231,17 +3244,17 @@
         <v>7500</v>
       </c>
       <c r="D15" s="14">
+        <v>6080</v>
+      </c>
+      <c r="E15" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F15" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="35">
         <f t="shared" si="0"/>
-        <v>81.066666666666663</v>
-      </c>
-      <c r="E15" s="14">
-        <v>6080</v>
-      </c>
-      <c r="F15" s="14">
-        <v>6000</v>
-      </c>
-      <c r="G15" s="35">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H15" s="8"/>
@@ -3266,17 +3279,17 @@
         <v>550</v>
       </c>
       <c r="D16" s="14">
+        <v>615</v>
+      </c>
+      <c r="E16" s="14">
+        <v>300</v>
+      </c>
+      <c r="F16" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="35">
         <f t="shared" si="0"/>
-        <v>111.81818181818181</v>
-      </c>
-      <c r="E16" s="14">
-        <v>615</v>
-      </c>
-      <c r="F16" s="14">
-        <v>300</v>
-      </c>
-      <c r="G16" s="35">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H16" s="8"/>
@@ -3301,17 +3314,17 @@
         <v>9000</v>
       </c>
       <c r="D17" s="14">
+        <v>7170</v>
+      </c>
+      <c r="E17" s="14">
+        <v>5000</v>
+      </c>
+      <c r="F17" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="35">
         <f t="shared" si="0"/>
-        <v>79.666666666666657</v>
-      </c>
-      <c r="E17" s="14">
-        <v>7170</v>
-      </c>
-      <c r="F17" s="14">
-        <v>5000</v>
-      </c>
-      <c r="G17" s="35">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H17" s="8"/>
@@ -3336,17 +3349,17 @@
         <v>2000</v>
       </c>
       <c r="D18" s="14">
+        <v>12721.45</v>
+      </c>
+      <c r="E18" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="35">
         <f t="shared" si="0"/>
-        <v>636.07249999999999</v>
-      </c>
-      <c r="E18" s="14">
-        <v>12721.45</v>
-      </c>
-      <c r="F18" s="14">
-        <v>1000</v>
-      </c>
-      <c r="G18" s="35">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="8"/>
@@ -3371,17 +3384,17 @@
         <v>2000</v>
       </c>
       <c r="D19" s="14">
+        <v>700</v>
+      </c>
+      <c r="E19" s="14">
+        <v>6000</v>
+      </c>
+      <c r="F19" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="35">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E19" s="14">
-        <v>700</v>
-      </c>
-      <c r="F19" s="14">
-        <v>6000</v>
-      </c>
-      <c r="G19" s="35">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H19" s="8"/>
@@ -3406,17 +3419,17 @@
         <v>800</v>
       </c>
       <c r="D20" s="14">
+        <v>1770</v>
+      </c>
+      <c r="E20" s="14">
+        <v>500</v>
+      </c>
+      <c r="F20" s="145">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="35">
         <f t="shared" si="0"/>
-        <v>221.25</v>
-      </c>
-      <c r="E20" s="14">
-        <v>1770</v>
-      </c>
-      <c r="F20" s="14">
-        <v>500</v>
-      </c>
-      <c r="G20" s="35">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H20" s="8"/>
@@ -3441,15 +3454,12 @@
         <v>2500</v>
       </c>
       <c r="D21" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="14">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="8"/>
@@ -3466,26 +3476,26 @@
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="110" t="s">
         <v>225</v>
       </c>
-      <c r="B22" s="116"/>
+      <c r="B22" s="110"/>
       <c r="C22" s="19">
         <f>SUBTOTAL(9,C6:C21)</f>
         <v>162850</v>
       </c>
       <c r="D22" s="19">
-        <f t="shared" si="0"/>
-        <v>98.051968068774954</v>
+        <f t="shared" ref="D22:S22" si="2">SUBTOTAL(9,D6:D21)</f>
+        <v>159677.63</v>
       </c>
       <c r="E22" s="19">
-        <f t="shared" ref="E22:S22" si="2">SUBTOTAL(9,E6:E21)</f>
-        <v>159677.63</v>
-      </c>
-      <c r="F22" s="19">
         <f t="shared" si="2"/>
         <v>148000</v>
       </c>
+      <c r="F22" s="146">
+        <f>G22/E22*100</f>
+        <v>0</v>
+      </c>
       <c r="G22" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -3540,25 +3550,25 @@
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="141"/>
-      <c r="B23" s="126"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="129"/>
-      <c r="O23" s="129"/>
-      <c r="P23" s="129"/>
-      <c r="Q23" s="129"/>
-      <c r="R23" s="129"/>
-      <c r="S23" s="129"/>
+      <c r="A23" s="135"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="123"/>
+      <c r="M23" s="123"/>
+      <c r="N23" s="123"/>
+      <c r="O23" s="123"/>
+      <c r="P23" s="123"/>
+      <c r="Q23" s="123"/>
+      <c r="R23" s="123"/>
+      <c r="S23" s="123"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="24"/>
@@ -3569,17 +3579,17 @@
         <v>8000</v>
       </c>
       <c r="D24" s="23">
-        <f t="shared" ref="D24:D28" si="3">E24/C24*100</f>
-        <v>100.83500000000001</v>
+        <v>8066.8</v>
       </c>
       <c r="E24" s="23">
-        <v>8066.8</v>
-      </c>
-      <c r="F24" s="23">
         <v>8000</v>
       </c>
+      <c r="F24" s="145">
+        <f>G24/E24*100</f>
+        <v>0</v>
+      </c>
       <c r="G24" s="36">
-        <f t="shared" ref="G24:G27" si="4">SUM(H24:S24)</f>
+        <f t="shared" ref="G24:G27" si="3">SUM(H24:S24)</f>
         <v>0</v>
       </c>
       <c r="H24" s="8"/>
@@ -3604,17 +3614,17 @@
         <v>4000</v>
       </c>
       <c r="D25" s="23">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <v>4000</v>
       </c>
       <c r="E25" s="23">
         <v>4000</v>
       </c>
-      <c r="F25" s="23">
-        <v>4000</v>
+      <c r="F25" s="145">
+        <f>G25/E25*100</f>
+        <v>0</v>
       </c>
       <c r="G25" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H25" s="8"/>
@@ -3636,13 +3646,13 @@
         <v>234</v>
       </c>
       <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23">
+      <c r="D26" s="23">
         <v>7000</v>
       </c>
+      <c r="E26" s="23"/>
       <c r="F26" s="23"/>
       <c r="G26" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H26" s="8"/>
@@ -3667,17 +3677,17 @@
         <v>3000</v>
       </c>
       <c r="D27" s="23">
+        <v>3330</v>
+      </c>
+      <c r="E27" s="23">
+        <v>3000</v>
+      </c>
+      <c r="F27" s="145">
+        <f>G27/E27*100</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="36">
         <f t="shared" si="3"/>
-        <v>111.00000000000001</v>
-      </c>
-      <c r="E27" s="23">
-        <v>3330</v>
-      </c>
-      <c r="F27" s="23">
-        <v>3000</v>
-      </c>
-      <c r="G27" s="36">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H27" s="8"/>
@@ -3694,99 +3704,99 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="116" t="s">
+      <c r="A28" s="110" t="s">
         <v>228</v>
       </c>
-      <c r="B28" s="116"/>
+      <c r="B28" s="110"/>
       <c r="C28" s="19">
         <f>SUBTOTAL(9,C24:C27)</f>
         <v>15000</v>
       </c>
       <c r="D28" s="19">
-        <f t="shared" si="3"/>
-        <v>149.31200000000001</v>
+        <f>SUBTOTAL(9,D24:D27)</f>
+        <v>22396.799999999999</v>
       </c>
       <c r="E28" s="19">
         <f>SUBTOTAL(9,E24:E27)</f>
-        <v>22396.799999999999</v>
-      </c>
-      <c r="F28" s="19">
-        <f>SUBTOTAL(9,F24:F27)</f>
         <v>15000</v>
+      </c>
+      <c r="F28" s="146">
+        <f>G28/E28*100</f>
+        <v>0</v>
       </c>
       <c r="G28" s="19">
         <f>SUBTOTAL(9,G24:G27)</f>
         <v>0</v>
       </c>
       <c r="H28" s="19">
-        <f t="shared" ref="H28:S28" si="5">SUBTOTAL(9,H24:H27)</f>
+        <f t="shared" ref="H28:S28" si="4">SUBTOTAL(9,H24:H27)</f>
         <v>0</v>
       </c>
       <c r="I28" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J28" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K28" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L28" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M28" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N28" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O28" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P28" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q28" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R28" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S28" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="141"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="129"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="129"/>
-      <c r="Q29" s="129"/>
-      <c r="R29" s="129"/>
-      <c r="S29" s="129"/>
+      <c r="A29" s="135"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="123"/>
+      <c r="N29" s="123"/>
+      <c r="O29" s="123"/>
+      <c r="P29" s="123"/>
+      <c r="Q29" s="123"/>
+      <c r="R29" s="123"/>
+      <c r="S29" s="123"/>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="27" t="s">
@@ -3798,67 +3808,67 @@
         <v>177850</v>
       </c>
       <c r="D30" s="19">
-        <f t="shared" ref="D30:D33" si="6">E30/C30*100</f>
-        <v>102.37527691875175</v>
+        <f>SUBTOTAL(9,D6:D28)</f>
+        <v>182074.43</v>
       </c>
       <c r="E30" s="19">
         <f>SUBTOTAL(9,E6:E28)</f>
-        <v>182074.43</v>
-      </c>
-      <c r="F30" s="19">
-        <f>SUBTOTAL(9,F6:F28)</f>
         <v>163000</v>
+      </c>
+      <c r="F30" s="146">
+        <f>G30/E30*100</f>
+        <v>0</v>
       </c>
       <c r="G30" s="19">
         <f>SUBTOTAL(9,G6:G28)</f>
         <v>0</v>
       </c>
       <c r="H30" s="19">
-        <f t="shared" ref="H30:S30" si="7">SUBTOTAL(9,H6:H28)</f>
+        <f t="shared" ref="H30:S30" si="5">SUBTOTAL(9,H6:H28)</f>
         <v>0</v>
       </c>
       <c r="I30" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J30" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K30" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L30" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M30" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N30" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O30" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P30" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q30" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R30" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S30" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -3871,15 +3881,12 @@
         <v>9041</v>
       </c>
       <c r="D31" s="14">
-        <f t="shared" si="6"/>
-        <v>99.999446963831446</v>
+        <v>9040.9500000000007</v>
       </c>
       <c r="E31" s="14">
-        <v>9040.9500000000007</v>
-      </c>
-      <c r="F31" s="14">
         <v>57490</v>
       </c>
+      <c r="F31" s="14"/>
       <c r="G31" s="35"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -3903,12 +3910,9 @@
         <v>30000</v>
       </c>
       <c r="D32" s="14">
-        <f t="shared" si="6"/>
-        <v>166.66666666666669</v>
-      </c>
-      <c r="E32" s="14">
         <v>50000</v>
       </c>
+      <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="35">
         <f>SUM(H32:S32)</f>
@@ -3928,76 +3932,76 @@
       <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="134" t="s">
+      <c r="A33" s="128" t="s">
         <v>232</v>
       </c>
-      <c r="B33" s="134"/>
+      <c r="B33" s="128"/>
       <c r="C33" s="37">
         <f>SUBTOTAL(9,C6:C32)</f>
         <v>216891</v>
       </c>
       <c r="D33" s="37">
-        <f t="shared" si="6"/>
-        <v>111.1689189500717</v>
+        <f>SUBTOTAL(9,D6:D32)</f>
+        <v>241115.38</v>
       </c>
       <c r="E33" s="37">
         <f>SUBTOTAL(9,E6:E32)</f>
-        <v>241115.38</v>
-      </c>
-      <c r="F33" s="37">
-        <f>SUBTOTAL(9,F6:F32)</f>
         <v>220490</v>
+      </c>
+      <c r="F33" s="147">
+        <f>G33/E33*100</f>
+        <v>0</v>
       </c>
       <c r="G33" s="37">
         <f>SUBTOTAL(9,G6:G32)</f>
         <v>0</v>
       </c>
       <c r="H33" s="37">
-        <f t="shared" ref="H33:S33" si="8">SUBTOTAL(9,H6:H32)</f>
+        <f t="shared" ref="H33:S33" si="6">SUBTOTAL(9,H6:H32)</f>
         <v>0</v>
       </c>
       <c r="I33" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J33" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K33" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L33" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M33" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N33" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O33" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P33" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q33" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R33" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S33" s="37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4007,13 +4011,13 @@
       </c>
     </row>
     <row r="36" spans="1:19">
-      <c r="E36" s="5"/>
+      <c r="D36" s="5"/>
     </row>
     <row r="37" spans="1:19">
-      <c r="E37" s="5"/>
+      <c r="D37" s="5"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="E38" s="6"/>
+      <c r="D38" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4031,6 +4035,7 @@
     <mergeCell ref="A29:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4039,29 +4044,29 @@
   <dimension ref="A1:S157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="16.6328125" style="4" customWidth="1"/>
     <col min="2" max="2" width="29.7265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.6328125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="7.36328125" style="4" customWidth="1"/>
-    <col min="5" max="7" width="11.6328125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="11.6328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6.6328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" style="4" customWidth="1"/>
     <col min="8" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5">
-      <c r="A1" s="147" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="137"/>
+      <c r="A1" s="136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="137"/>
+      <c r="C1" s="137"/>
+      <c r="D1" s="137"/>
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="131"/>
       <c r="H1" s="38"/>
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
@@ -4076,15 +4081,15 @@
       <c r="S1" s="38"/>
     </row>
     <row r="2" spans="1:19" ht="15.5">
-      <c r="A2" s="149">
+      <c r="A2" s="138">
         <v>2021</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="148"/>
-      <c r="G2" s="137"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="131"/>
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
@@ -4099,15 +4104,15 @@
       <c r="S2" s="38"/>
     </row>
     <row r="3" spans="1:19" ht="15.5">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="139" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="137"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="131"/>
       <c r="H3" s="38"/>
       <c r="I3" s="38"/>
       <c r="J3" s="38"/>
@@ -4131,14 +4136,14 @@
       <c r="C4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="42" t="s">
         <v>5</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>1</v>
       </c>
       <c r="G4" s="43" t="s">
         <v>198</v>
@@ -4181,48 +4186,48 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.5">
-      <c r="A5" s="144"/>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
+      <c r="A5" s="140"/>
+      <c r="B5" s="141"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
       <c r="H5" s="142"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="129"/>
-      <c r="R5" s="129"/>
-      <c r="S5" s="129"/>
+      <c r="I5" s="123"/>
+      <c r="J5" s="123"/>
+      <c r="K5" s="123"/>
+      <c r="L5" s="123"/>
+      <c r="M5" s="123"/>
+      <c r="N5" s="123"/>
+      <c r="O5" s="123"/>
+      <c r="P5" s="123"/>
+      <c r="Q5" s="123"/>
+      <c r="R5" s="123"/>
+      <c r="S5" s="123"/>
     </row>
     <row r="6" spans="1:19" ht="14.5">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
+      <c r="B6" s="141"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
       <c r="H6" s="142"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="129"/>
-      <c r="S6" s="129"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="123"/>
+      <c r="P6" s="123"/>
+      <c r="Q6" s="123"/>
+      <c r="R6" s="123"/>
+      <c r="S6" s="123"/>
     </row>
     <row r="7" spans="1:19" ht="14.5">
       <c r="A7" s="44" t="s">
@@ -4232,22 +4237,22 @@
         <v>8</v>
       </c>
       <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="47"/>
       <c r="G7" s="48"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="74"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="74"/>
-      <c r="R7" s="74"/>
-      <c r="S7" s="74"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
     </row>
     <row r="8" spans="1:19" ht="14.5">
       <c r="A8" s="44"/>
@@ -4255,22 +4260,22 @@
         <v>9</v>
       </c>
       <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="47"/>
       <c r="G8" s="48"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="74"/>
-      <c r="R8" s="74"/>
-      <c r="S8" s="74"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
     </row>
     <row r="9" spans="1:19" ht="14.5">
       <c r="A9" s="45" t="s">
@@ -4282,32 +4287,32 @@
       <c r="C9" s="46">
         <v>43920</v>
       </c>
-      <c r="D9" s="48">
-        <f t="shared" ref="D9:D16" si="0">E9/C9*100</f>
-        <v>101.34316939890711</v>
+      <c r="D9" s="46">
+        <v>44509.920000000006</v>
       </c>
       <c r="E9" s="46">
-        <v>44509.920000000006</v>
-      </c>
-      <c r="F9" s="46">
         <v>45500</v>
+      </c>
+      <c r="F9" s="149">
+        <f>G9/E9*100</f>
+        <v>0</v>
       </c>
       <c r="G9" s="47">
         <f>SUM(H9:S9)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
-      <c r="O9" s="74"/>
-      <c r="P9" s="74"/>
-      <c r="Q9" s="74"/>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68"/>
     </row>
     <row r="10" spans="1:19" ht="14.5">
       <c r="A10" s="45" t="s">
@@ -4319,32 +4324,32 @@
       <c r="C10" s="46">
         <v>20820</v>
       </c>
-      <c r="D10" s="48">
-        <f t="shared" si="0"/>
-        <v>101.48876080691642</v>
+      <c r="D10" s="46">
+        <v>21129.96</v>
       </c>
       <c r="E10" s="46">
-        <v>21129.96</v>
-      </c>
-      <c r="F10" s="46">
         <v>21600</v>
+      </c>
+      <c r="F10" s="149">
+        <f t="shared" ref="F10:F16" si="0">G10/E10*100</f>
+        <v>0</v>
       </c>
       <c r="G10" s="47">
         <f t="shared" ref="G10:G16" si="1">SUM(H10:S10)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="74"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="74"/>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
     </row>
     <row r="11" spans="1:19" ht="14.5">
       <c r="A11" s="45" t="s">
@@ -4356,32 +4361,32 @@
       <c r="C11" s="46">
         <v>3720</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="46">
+        <v>3841.34</v>
+      </c>
+      <c r="E11" s="46">
+        <v>3925</v>
+      </c>
+      <c r="F11" s="149">
         <f t="shared" si="0"/>
-        <v>103.26182795698926</v>
-      </c>
-      <c r="E11" s="46">
-        <v>3841.34</v>
-      </c>
-      <c r="F11" s="46">
-        <v>3925</v>
+        <v>0</v>
       </c>
       <c r="G11" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="74"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
     </row>
     <row r="12" spans="1:19" ht="14.5">
       <c r="A12" s="45" t="s">
@@ -4393,32 +4398,32 @@
       <c r="C12" s="46">
         <v>2640</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="46">
+        <v>2435.7600000000002</v>
+      </c>
+      <c r="E12" s="46">
+        <v>2800</v>
+      </c>
+      <c r="F12" s="149">
         <f t="shared" si="0"/>
-        <v>92.263636363636365</v>
-      </c>
-      <c r="E12" s="46">
-        <v>2435.7600000000002</v>
-      </c>
-      <c r="F12" s="46">
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="G12" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="74"/>
-      <c r="L12" s="74"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
     </row>
     <row r="13" spans="1:19" ht="14.5">
       <c r="A13" s="45" t="s">
@@ -4430,32 +4435,32 @@
       <c r="C13" s="46">
         <v>1440</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="46">
+        <v>856.36</v>
+      </c>
+      <c r="E13" s="46">
+        <v>1500</v>
+      </c>
+      <c r="F13" s="149">
         <f t="shared" si="0"/>
-        <v>59.469444444444441</v>
-      </c>
-      <c r="E13" s="46">
-        <v>856.36</v>
-      </c>
-      <c r="F13" s="46">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="G13" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
     </row>
     <row r="14" spans="1:19" ht="14.5">
       <c r="A14" s="45" t="s">
@@ -4467,30 +4472,30 @@
       <c r="C14" s="46">
         <v>3360</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="46"/>
+      <c r="E14" s="46">
+        <v>4000</v>
+      </c>
+      <c r="F14" s="149">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46">
-        <v>4000</v>
       </c>
       <c r="G14" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
     </row>
     <row r="15" spans="1:19" ht="14.5">
       <c r="A15" s="45" t="s">
@@ -4502,30 +4507,30 @@
       <c r="C15" s="46">
         <v>2760</v>
       </c>
-      <c r="D15" s="48">
+      <c r="D15" s="46"/>
+      <c r="E15" s="46">
+        <v>3000</v>
+      </c>
+      <c r="F15" s="149">
         <f t="shared" si="0"/>
         <v>0</v>
-      </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46">
-        <v>3000</v>
       </c>
       <c r="G15" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="74"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
     </row>
     <row r="16" spans="1:19" ht="14.5">
       <c r="A16" s="45" t="s">
@@ -4537,32 +4542,32 @@
       <c r="C16" s="46">
         <v>1440</v>
       </c>
-      <c r="D16" s="48">
+      <c r="D16" s="46">
+        <v>365.55</v>
+      </c>
+      <c r="E16" s="46">
+        <v>500</v>
+      </c>
+      <c r="F16" s="149">
         <f t="shared" si="0"/>
-        <v>25.385416666666664</v>
-      </c>
-      <c r="E16" s="46">
-        <v>365.55</v>
-      </c>
-      <c r="F16" s="46">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G16" s="47">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
     </row>
     <row r="17" spans="1:19" ht="14.5">
       <c r="A17" s="44"/>
@@ -4570,22 +4575,22 @@
         <v>26</v>
       </c>
       <c r="C17" s="46"/>
-      <c r="D17" s="47"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="46"/>
       <c r="F17" s="46"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74"/>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
     </row>
     <row r="18" spans="1:19" ht="14.5">
       <c r="A18" s="45" t="s">
@@ -4597,32 +4602,32 @@
       <c r="C18" s="46">
         <v>20040</v>
       </c>
-      <c r="D18" s="48">
-        <f t="shared" ref="D18:D20" si="2">E18/C18*100</f>
-        <v>101.69491017964071</v>
+      <c r="D18" s="46">
+        <v>20379.66</v>
       </c>
       <c r="E18" s="46">
-        <v>20379.66</v>
-      </c>
-      <c r="F18" s="46">
         <v>5205</v>
+      </c>
+      <c r="F18" s="149">
+        <f t="shared" ref="F18:F20" si="2">G18/E18*100</f>
+        <v>0</v>
       </c>
       <c r="G18" s="47">
         <f t="shared" ref="G18:G20" si="3">SUM(H18:S18)</f>
         <v>0</v>
       </c>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="74"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
     </row>
     <row r="19" spans="1:19" ht="14.5">
       <c r="A19" s="45" t="s">
@@ -4634,32 +4639,32 @@
       <c r="C19" s="46">
         <v>900</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="46">
+        <v>885.12</v>
+      </c>
+      <c r="E19" s="46">
+        <v>250</v>
+      </c>
+      <c r="F19" s="149">
         <f t="shared" si="2"/>
-        <v>98.346666666666664</v>
-      </c>
-      <c r="E19" s="46">
-        <v>885.12</v>
-      </c>
-      <c r="F19" s="46">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G19" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H19" s="74"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="74"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
-      <c r="S19" s="74"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="68"/>
+      <c r="S19" s="68"/>
     </row>
     <row r="20" spans="1:19" ht="14.5">
       <c r="A20" s="45" t="s">
@@ -4671,32 +4676,32 @@
       <c r="C20" s="46">
         <v>550</v>
       </c>
-      <c r="D20" s="48">
+      <c r="D20" s="46">
+        <v>321.74</v>
+      </c>
+      <c r="E20" s="46">
+        <v>100</v>
+      </c>
+      <c r="F20" s="149">
         <f t="shared" si="2"/>
-        <v>58.498181818181813</v>
-      </c>
-      <c r="E20" s="46">
-        <v>321.74</v>
-      </c>
-      <c r="F20" s="46">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="47">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H20" s="74"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
-      <c r="S20" s="74"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
     </row>
     <row r="21" spans="1:19" ht="14.5">
       <c r="A21" s="45"/>
@@ -4704,24 +4709,24 @@
         <v>33</v>
       </c>
       <c r="C21" s="46"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="46">
-        <v>0</v>
-      </c>
+      <c r="D21" s="46">
+        <v>0</v>
+      </c>
+      <c r="E21" s="46"/>
       <c r="F21" s="46"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
-      <c r="S21" s="74"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
     </row>
     <row r="22" spans="1:19" ht="14.5">
       <c r="A22" s="45" t="s">
@@ -4733,30 +4738,30 @@
       <c r="C22" s="46">
         <v>9840</v>
       </c>
-      <c r="D22" s="48">
-        <f t="shared" ref="D22:D24" si="4">E22/C22*100</f>
-        <v>0</v>
-      </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46">
+      <c r="D22" s="46"/>
+      <c r="E22" s="46">
         <v>9000</v>
+      </c>
+      <c r="F22" s="149">
+        <f t="shared" ref="F22:F24" si="4">G22/E22*100</f>
+        <v>0</v>
       </c>
       <c r="G22" s="47">
         <f t="shared" ref="G22:G24" si="5">SUM(H22:S22)</f>
         <v>0</v>
       </c>
-      <c r="H22" s="74"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
-      <c r="S22" s="74"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="68"/>
     </row>
     <row r="23" spans="1:19" ht="14.5">
       <c r="A23" s="45" t="s">
@@ -4768,30 +4773,30 @@
       <c r="C23" s="46">
         <v>350</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="46"/>
+      <c r="E23" s="46">
+        <v>350</v>
+      </c>
+      <c r="F23" s="149">
         <f t="shared" si="4"/>
         <v>0</v>
-      </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46">
-        <v>350</v>
       </c>
       <c r="G23" s="47">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H23" s="74"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74"/>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="74"/>
-      <c r="S23" s="74"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="68"/>
     </row>
     <row r="24" spans="1:19" ht="14.5">
       <c r="A24" s="45" t="s">
@@ -4803,30 +4808,30 @@
       <c r="C24" s="46">
         <v>230</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="46"/>
+      <c r="E24" s="46">
+        <v>250</v>
+      </c>
+      <c r="F24" s="149">
         <f t="shared" si="4"/>
         <v>0</v>
-      </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46">
-        <v>250</v>
       </c>
       <c r="G24" s="47">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="74"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="74"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+      <c r="M24" s="68"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
     </row>
     <row r="25" spans="1:19" ht="14.5">
       <c r="A25" s="45"/>
@@ -4834,24 +4839,24 @@
         <v>38</v>
       </c>
       <c r="C25" s="46"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="46">
-        <v>0</v>
-      </c>
+      <c r="D25" s="46">
+        <v>0</v>
+      </c>
+      <c r="E25" s="46"/>
       <c r="F25" s="46"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="74"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+      <c r="R25" s="68"/>
+      <c r="S25" s="68"/>
     </row>
     <row r="26" spans="1:19" ht="14.5">
       <c r="A26" s="45" t="s">
@@ -4863,32 +4868,32 @@
       <c r="C26" s="46">
         <v>9840</v>
       </c>
-      <c r="D26" s="48">
-        <f t="shared" ref="D26:D29" si="6">E26/C26*100</f>
-        <v>99.414634146341456</v>
+      <c r="D26" s="46">
+        <v>9782.4</v>
       </c>
       <c r="E26" s="46">
-        <v>9782.4</v>
-      </c>
-      <c r="F26" s="46">
         <v>10000</v>
+      </c>
+      <c r="F26" s="149">
+        <f t="shared" ref="F26:F28" si="6">G26/E26*100</f>
+        <v>0</v>
       </c>
       <c r="G26" s="47">
         <f t="shared" ref="G26:G28" si="7">SUM(H26:S26)</f>
         <v>0</v>
       </c>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="74"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
     </row>
     <row r="27" spans="1:19" ht="14.5">
       <c r="A27" s="45" t="s">
@@ -4900,32 +4905,32 @@
       <c r="C27" s="46">
         <v>350</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="46">
+        <v>329.87</v>
+      </c>
+      <c r="E27" s="46">
+        <v>330</v>
+      </c>
+      <c r="F27" s="149">
         <f t="shared" si="6"/>
-        <v>94.248571428571424</v>
-      </c>
-      <c r="E27" s="46">
-        <v>329.87</v>
-      </c>
-      <c r="F27" s="46">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="G27" s="47">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="74"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="M27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
+      <c r="Q27" s="68"/>
+      <c r="R27" s="68"/>
+      <c r="S27" s="68"/>
     </row>
     <row r="28" spans="1:19" ht="14.5">
       <c r="A28" s="45" t="s">
@@ -4937,32 +4942,32 @@
       <c r="C28" s="46">
         <v>230</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="46">
+        <v>154.56</v>
+      </c>
+      <c r="E28" s="46">
+        <v>250</v>
+      </c>
+      <c r="F28" s="149">
         <f t="shared" si="6"/>
-        <v>67.2</v>
-      </c>
-      <c r="E28" s="46">
-        <v>154.56</v>
-      </c>
-      <c r="F28" s="46">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G28" s="47">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="74"/>
-      <c r="S28" s="74"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="68"/>
     </row>
     <row r="29" spans="1:19" ht="14.5">
       <c r="A29" s="45" t="s">
@@ -4974,51 +4979,48 @@
       <c r="C29" s="46">
         <v>100</v>
       </c>
-      <c r="D29" s="48">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="46">
-        <v>0</v>
-      </c>
+      <c r="D29" s="46">
+        <v>0</v>
+      </c>
+      <c r="E29" s="46"/>
       <c r="F29" s="46"/>
       <c r="G29" s="47">
         <f>SUM(H29:S29)</f>
         <v>0</v>
       </c>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="74"/>
-      <c r="S29" s="74"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="68"/>
     </row>
     <row r="30" spans="1:19" ht="14.5">
       <c r="A30" s="45"/>
       <c r="B30" s="45"/>
       <c r="C30" s="46"/>
-      <c r="D30" s="47"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="46"/>
       <c r="F30" s="46"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="74"/>
-      <c r="S30" s="74"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
+      <c r="P30" s="68"/>
+      <c r="Q30" s="68"/>
+      <c r="R30" s="68"/>
+      <c r="S30" s="68"/>
     </row>
     <row r="31" spans="1:19" ht="14.5">
       <c r="A31" s="45" t="s">
@@ -5030,35 +5032,35 @@
       <c r="C31" s="46">
         <v>350</v>
       </c>
-      <c r="D31" s="48">
-        <f>E31/C31*100</f>
-        <v>94.205714285714279</v>
+      <c r="D31" s="46">
+        <v>329.71999999999997</v>
       </c>
       <c r="E31" s="46">
-        <v>329.71999999999997</v>
-      </c>
-      <c r="F31" s="46">
         <v>400</v>
+      </c>
+      <c r="F31" s="149">
+        <f t="shared" ref="F31:F32" si="8">G31/E31*100</f>
+        <v>0</v>
       </c>
       <c r="G31" s="47">
         <f>SUM(H31:S31)</f>
         <v>0</v>
       </c>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="74"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="68"/>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="68"/>
+      <c r="R31" s="68"/>
+      <c r="S31" s="68"/>
     </row>
     <row r="32" spans="1:19" ht="14.5">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="51" t="s">
         <v>45</v>
       </c>
       <c r="B32" s="45" t="s">
@@ -5068,681 +5070,678 @@
         <f>SUBTOTAL(9,C9:C31)</f>
         <v>122880</v>
       </c>
-      <c r="D32" s="48">
-        <f>E32/C32*100</f>
-        <v>85.711230468749989</v>
+      <c r="D32" s="46">
+        <f>SUBTOTAL(9,D9:D31)</f>
+        <v>105321.95999999999</v>
       </c>
       <c r="E32" s="46">
         <f>SUBTOTAL(9,E9:E31)</f>
-        <v>105321.95999999999</v>
-      </c>
-      <c r="F32" s="46">
-        <f>SUBTOTAL(9,F9:F31)</f>
         <v>108960</v>
+      </c>
+      <c r="F32" s="149">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="G32" s="46">
         <f>SUBTOTAL(9,G9:G31)</f>
         <v>0</v>
       </c>
       <c r="H32" s="46">
-        <f t="shared" ref="H32:S32" si="8">SUBTOTAL(9,H9:H31)</f>
+        <f t="shared" ref="H32:S32" si="9">SUBTOTAL(9,H9:H31)</f>
         <v>0</v>
       </c>
       <c r="I32" s="46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J32" s="46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K32" s="46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L32" s="46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M32" s="46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N32" s="46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O32" s="46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P32" s="46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q32" s="46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R32" s="46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S32" s="46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="14.5">
-      <c r="A33" s="144"/>
-      <c r="B33" s="126"/>
-      <c r="C33" s="126"/>
-      <c r="D33" s="126"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="126"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="129"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="129"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="129"/>
-      <c r="N33" s="129"/>
-      <c r="O33" s="129"/>
-      <c r="P33" s="129"/>
-      <c r="Q33" s="129"/>
-      <c r="R33" s="129"/>
-      <c r="S33" s="129"/>
+      <c r="A33" s="140"/>
+      <c r="B33" s="120"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="120"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="123"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="123"/>
+      <c r="P33" s="123"/>
+      <c r="Q33" s="123"/>
+      <c r="R33" s="123"/>
+      <c r="S33" s="123"/>
     </row>
     <row r="34" spans="1:19" ht="14.5">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="74"/>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="74"/>
-      <c r="R34" s="74"/>
-      <c r="S34" s="74"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="68"/>
     </row>
     <row r="35" spans="1:19" ht="14.5">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="56">
+      <c r="C35" s="55">
         <v>1500</v>
       </c>
-      <c r="D35" s="58">
-        <f t="shared" ref="D35:D37" si="9">E35/C35*100</f>
-        <v>84.405333333333331</v>
-      </c>
-      <c r="E35" s="56">
+      <c r="D35" s="55">
         <v>1266.08</v>
       </c>
-      <c r="F35" s="56">
+      <c r="E35" s="55">
         <v>1200</v>
       </c>
-      <c r="G35" s="54">
+      <c r="F35" s="152">
+        <f>G35/E35*100</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="53">
         <f t="shared" ref="G35:G47" si="10">SUM(H35:S35)</f>
         <v>0</v>
       </c>
-      <c r="H35" s="75"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="74"/>
-      <c r="K35" s="74"/>
-      <c r="L35" s="74"/>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
-      <c r="S35" s="74"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
+      <c r="P35" s="68"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="68"/>
+      <c r="S35" s="68"/>
     </row>
     <row r="36" spans="1:19" ht="14.5">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="56">
+      <c r="C36" s="55">
         <v>500</v>
       </c>
-      <c r="D36" s="58">
-        <f t="shared" si="9"/>
-        <v>322.642</v>
-      </c>
-      <c r="E36" s="56">
+      <c r="D36" s="55">
         <v>1613.21</v>
       </c>
-      <c r="F36" s="56">
+      <c r="E36" s="55">
         <v>1500</v>
       </c>
-      <c r="G36" s="54">
+      <c r="F36" s="152">
+        <f t="shared" ref="F36:F37" si="11">G36/E36*100</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="53">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H36" s="76"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="74"/>
-      <c r="K36" s="74"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="74"/>
-      <c r="S36" s="74"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="68"/>
+      <c r="S36" s="68"/>
     </row>
     <row r="37" spans="1:19" ht="14.5">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="56">
+      <c r="C37" s="55">
         <v>800</v>
       </c>
-      <c r="D37" s="58">
-        <f t="shared" si="9"/>
-        <v>102.51374999999999</v>
-      </c>
-      <c r="E37" s="56">
+      <c r="D37" s="55">
         <v>820.1099999999999</v>
       </c>
-      <c r="F37" s="56">
+      <c r="E37" s="55">
         <v>1000</v>
       </c>
-      <c r="G37" s="54">
+      <c r="F37" s="152">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="53">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="74"/>
-      <c r="K37" s="74"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68"/>
+      <c r="S37" s="68"/>
     </row>
     <row r="38" spans="1:19" ht="14.5">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="54">
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="53">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="74"/>
-      <c r="K38" s="74"/>
-      <c r="L38" s="74"/>
-      <c r="M38" s="74"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="74"/>
-      <c r="P38" s="74"/>
-      <c r="Q38" s="74"/>
-      <c r="R38" s="74"/>
-      <c r="S38" s="74"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="68"/>
+      <c r="S38" s="68"/>
     </row>
     <row r="39" spans="1:19" ht="14.5">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="56">
+      <c r="C39" s="55">
         <v>400</v>
       </c>
-      <c r="D39" s="58">
-        <f t="shared" ref="D39:D48" si="11">E39/C39*100</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="54">
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="53">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="74"/>
-      <c r="L39" s="74"/>
-      <c r="M39" s="74"/>
-      <c r="N39" s="74"/>
-      <c r="O39" s="74"/>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="74"/>
-      <c r="R39" s="74"/>
-      <c r="S39" s="74"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="68"/>
+      <c r="R39" s="68"/>
+      <c r="S39" s="68"/>
     </row>
     <row r="40" spans="1:19" ht="14.5">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="56">
+      <c r="C40" s="55">
         <v>5000</v>
       </c>
-      <c r="D40" s="58">
-        <f t="shared" si="11"/>
-        <v>98.72</v>
-      </c>
-      <c r="E40" s="56">
+      <c r="D40" s="55">
         <v>4936</v>
       </c>
-      <c r="F40" s="56">
+      <c r="E40" s="55">
         <v>5000</v>
       </c>
-      <c r="G40" s="54">
+      <c r="F40" s="152">
+        <f t="shared" ref="F40:F48" si="12">G40/E40*100</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="53">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="74"/>
-      <c r="L40" s="74"/>
-      <c r="M40" s="74"/>
-      <c r="N40" s="74"/>
-      <c r="O40" s="74"/>
-      <c r="P40" s="74"/>
-      <c r="Q40" s="74"/>
-      <c r="R40" s="74"/>
-      <c r="S40" s="74"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="68"/>
+      <c r="M40" s="68"/>
+      <c r="N40" s="68"/>
+      <c r="O40" s="68"/>
+      <c r="P40" s="68"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="68"/>
+      <c r="S40" s="68"/>
     </row>
     <row r="41" spans="1:19" ht="14.5">
-      <c r="A41" s="57" t="s">
+      <c r="A41" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="56">
+      <c r="C41" s="55">
         <v>300</v>
       </c>
-      <c r="D41" s="58">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="56">
-        <v>0</v>
-      </c>
-      <c r="F41" s="56">
+      <c r="D41" s="55">
+        <v>0</v>
+      </c>
+      <c r="E41" s="55">
         <v>300</v>
       </c>
-      <c r="G41" s="54">
+      <c r="F41" s="152">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="53">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="74"/>
-      <c r="L41" s="74"/>
-      <c r="M41" s="74"/>
-      <c r="N41" s="74"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="74"/>
-      <c r="R41" s="74"/>
-      <c r="S41" s="74"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
+      <c r="O41" s="68"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="68"/>
     </row>
     <row r="42" spans="1:19" ht="14.5">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="56">
+      <c r="C42" s="55">
         <v>300</v>
       </c>
-      <c r="D42" s="58">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="56">
-        <v>0</v>
-      </c>
-      <c r="F42" s="56">
+      <c r="D42" s="55">
+        <v>0</v>
+      </c>
+      <c r="E42" s="55">
         <v>300</v>
       </c>
-      <c r="G42" s="54">
+      <c r="F42" s="152">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="53">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="74"/>
-      <c r="K42" s="74"/>
-      <c r="L42" s="74"/>
-      <c r="M42" s="74"/>
-      <c r="N42" s="74"/>
-      <c r="O42" s="74"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="74"/>
-      <c r="R42" s="74"/>
-      <c r="S42" s="74"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="68"/>
+      <c r="M42" s="68"/>
+      <c r="N42" s="68"/>
+      <c r="O42" s="68"/>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="68"/>
+      <c r="R42" s="68"/>
+      <c r="S42" s="68"/>
     </row>
     <row r="43" spans="1:19" ht="14.5">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="56">
+      <c r="C43" s="55">
         <v>400</v>
       </c>
-      <c r="D43" s="58">
-        <f t="shared" si="11"/>
-        <v>90.4</v>
-      </c>
-      <c r="E43" s="56">
+      <c r="D43" s="55">
         <v>361.6</v>
       </c>
-      <c r="F43" s="56">
+      <c r="E43" s="55">
         <v>400</v>
       </c>
-      <c r="G43" s="54">
+      <c r="F43" s="152">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="53">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="74"/>
-      <c r="K43" s="74"/>
-      <c r="L43" s="74"/>
-      <c r="M43" s="74"/>
-      <c r="N43" s="74"/>
-      <c r="O43" s="74"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="74"/>
-      <c r="R43" s="74"/>
-      <c r="S43" s="74"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="68"/>
+      <c r="M43" s="68"/>
+      <c r="N43" s="68"/>
+      <c r="O43" s="68"/>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="68"/>
+      <c r="S43" s="68"/>
     </row>
     <row r="44" spans="1:19" ht="14.5">
-      <c r="A44" s="57" t="s">
+      <c r="A44" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="56">
+      <c r="C44" s="55">
         <v>40800</v>
       </c>
-      <c r="D44" s="58">
-        <f t="shared" si="11"/>
-        <v>95.833333333333343</v>
-      </c>
-      <c r="E44" s="56">
+      <c r="D44" s="55">
         <v>39100</v>
       </c>
-      <c r="F44" s="56">
+      <c r="E44" s="55">
         <v>36000</v>
       </c>
-      <c r="G44" s="54">
+      <c r="F44" s="152">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="53">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H44" s="74"/>
-      <c r="I44" s="74"/>
-      <c r="J44" s="74"/>
-      <c r="K44" s="74"/>
-      <c r="L44" s="74"/>
-      <c r="M44" s="74"/>
-      <c r="N44" s="74"/>
-      <c r="O44" s="74"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="74"/>
-      <c r="R44" s="74"/>
-      <c r="S44" s="74"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
+      <c r="S44" s="68"/>
     </row>
     <row r="45" spans="1:19" ht="14.5">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="56">
+      <c r="C45" s="55">
         <v>1200</v>
       </c>
-      <c r="D45" s="58">
-        <f t="shared" si="11"/>
-        <v>123.29999999999998</v>
-      </c>
-      <c r="E45" s="56">
+      <c r="D45" s="55">
         <v>1479.6</v>
       </c>
-      <c r="F45" s="56">
+      <c r="E45" s="55">
         <v>1500</v>
       </c>
-      <c r="G45" s="54">
+      <c r="F45" s="152">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="53">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="74"/>
-      <c r="N45" s="74"/>
-      <c r="O45" s="74"/>
-      <c r="P45" s="74"/>
-      <c r="Q45" s="74"/>
-      <c r="R45" s="74"/>
-      <c r="S45" s="74"/>
+      <c r="H45" s="68"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="68"/>
+      <c r="O45" s="68"/>
+      <c r="P45" s="68"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="68"/>
+      <c r="S45" s="68"/>
     </row>
     <row r="46" spans="1:19" ht="14.5">
-      <c r="A46" s="55" t="s">
+      <c r="A46" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="56">
+      <c r="C46" s="55">
         <v>2000</v>
       </c>
-      <c r="D46" s="58">
-        <f t="shared" si="11"/>
-        <v>52.310999999999993</v>
-      </c>
-      <c r="E46" s="56">
+      <c r="D46" s="55">
         <v>1046.22</v>
       </c>
-      <c r="F46" s="56">
+      <c r="E46" s="55">
         <v>1500</v>
       </c>
-      <c r="G46" s="54">
+      <c r="F46" s="152">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="53">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H46" s="74"/>
-      <c r="I46" s="74"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="74"/>
-      <c r="L46" s="74"/>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="74"/>
-      <c r="P46" s="74"/>
-      <c r="Q46" s="74"/>
-      <c r="R46" s="74"/>
-      <c r="S46" s="74"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="68"/>
+      <c r="Q46" s="68"/>
+      <c r="R46" s="68"/>
+      <c r="S46" s="68"/>
     </row>
     <row r="47" spans="1:19" ht="14.5">
-      <c r="A47" s="55" t="s">
+      <c r="A47" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="56">
+      <c r="C47" s="55">
         <v>800</v>
       </c>
-      <c r="D47" s="58">
-        <f t="shared" si="11"/>
-        <v>45.037500000000001</v>
-      </c>
-      <c r="E47" s="56">
+      <c r="D47" s="55">
         <v>360.3</v>
       </c>
-      <c r="F47" s="56">
+      <c r="E47" s="55">
         <v>400</v>
       </c>
-      <c r="G47" s="54">
+      <c r="F47" s="152">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="53">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="H47" s="74"/>
-      <c r="I47" s="74"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="74"/>
-      <c r="L47" s="74"/>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="74"/>
-      <c r="Q47" s="74"/>
-      <c r="R47" s="74"/>
-      <c r="S47" s="74"/>
+      <c r="H47" s="68"/>
+      <c r="I47" s="68"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+      <c r="M47" s="68"/>
+      <c r="N47" s="68"/>
+      <c r="O47" s="68"/>
+      <c r="P47" s="68"/>
+      <c r="Q47" s="68"/>
+      <c r="R47" s="68"/>
+      <c r="S47" s="68"/>
     </row>
     <row r="48" spans="1:19" ht="14.5">
       <c r="A48" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="C48" s="56">
+      <c r="C48" s="55">
         <f>SUBTOTAL(9,C35:C47)</f>
         <v>54000</v>
       </c>
-      <c r="D48" s="58">
-        <f t="shared" si="11"/>
-        <v>94.413185185185185</v>
-      </c>
-      <c r="E48" s="56">
-        <f t="shared" ref="E48:S48" si="12">SUBTOTAL(9,E35:E47)</f>
+      <c r="D48" s="55">
+        <f t="shared" ref="D48:S48" si="13">SUBTOTAL(9,D35:D47)</f>
         <v>50983.12</v>
       </c>
-      <c r="F48" s="56">
+      <c r="E48" s="55">
+        <f t="shared" si="13"/>
+        <v>49100</v>
+      </c>
+      <c r="F48" s="152">
         <f t="shared" si="12"/>
-        <v>49100</v>
-      </c>
-      <c r="G48" s="56">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="56">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="I48" s="56">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="56">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="56">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="56">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="M48" s="56">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="56">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="56">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="56">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="56">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="56">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S48" s="56">
-        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P48" s="55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="55">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="14.5">
-      <c r="A49" s="144"/>
-      <c r="B49" s="129"/>
-      <c r="C49" s="129"/>
-      <c r="D49" s="129"/>
-      <c r="E49" s="129"/>
-      <c r="F49" s="129"/>
-      <c r="G49" s="129"/>
+      <c r="A49" s="140"/>
+      <c r="B49" s="123"/>
+      <c r="C49" s="123"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="123"/>
+      <c r="G49" s="123"/>
       <c r="H49" s="142"/>
-      <c r="I49" s="129"/>
-      <c r="J49" s="129"/>
-      <c r="K49" s="129"/>
-      <c r="L49" s="129"/>
-      <c r="M49" s="129"/>
-      <c r="N49" s="129"/>
-      <c r="O49" s="129"/>
-      <c r="P49" s="129"/>
-      <c r="Q49" s="129"/>
-      <c r="R49" s="129"/>
-      <c r="S49" s="129"/>
+      <c r="I49" s="123"/>
+      <c r="J49" s="123"/>
+      <c r="K49" s="123"/>
+      <c r="L49" s="123"/>
+      <c r="M49" s="123"/>
+      <c r="N49" s="123"/>
+      <c r="O49" s="123"/>
+      <c r="P49" s="123"/>
+      <c r="Q49" s="123"/>
+      <c r="R49" s="123"/>
+      <c r="S49" s="123"/>
     </row>
     <row r="50" spans="1:19" ht="14.5">
       <c r="A50" s="44" t="s">
@@ -5752,25 +5751,25 @@
         <v>76</v>
       </c>
       <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="47"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="74"/>
-      <c r="J50" s="74"/>
-      <c r="K50" s="74"/>
-      <c r="L50" s="74"/>
-      <c r="M50" s="74"/>
-      <c r="N50" s="74"/>
-      <c r="O50" s="74"/>
-      <c r="P50" s="74"/>
-      <c r="Q50" s="74"/>
-      <c r="R50" s="74"/>
-      <c r="S50" s="74"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="68"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="68"/>
+      <c r="O50" s="68"/>
+      <c r="P50" s="68"/>
+      <c r="Q50" s="68"/>
+      <c r="R50" s="68"/>
+      <c r="S50" s="68"/>
     </row>
     <row r="51" spans="1:19" ht="14.5">
-      <c r="A51" s="60" t="s">
+      <c r="A51" s="59" t="s">
         <v>77</v>
       </c>
       <c r="B51" s="45" t="s">
@@ -5779,35 +5778,35 @@
       <c r="C51" s="47">
         <v>1200</v>
       </c>
-      <c r="D51" s="48">
-        <f t="shared" ref="D51:D53" si="13">E51/C51*100</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="47">
-        <v>0</v>
-      </c>
-      <c r="F51" s="46">
+      <c r="D51" s="47">
+        <v>0</v>
+      </c>
+      <c r="E51" s="46">
         <v>1200</v>
       </c>
+      <c r="F51" s="149">
+        <f t="shared" ref="F51:F58" si="14">G51/E51*100</f>
+        <v>0</v>
+      </c>
       <c r="G51" s="47">
-        <f t="shared" ref="G51:G57" si="14">SUM(H51:S51)</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="74"/>
-      <c r="I51" s="74"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="74"/>
-      <c r="L51" s="74"/>
-      <c r="M51" s="74"/>
-      <c r="N51" s="74"/>
-      <c r="O51" s="74"/>
-      <c r="P51" s="74"/>
-      <c r="Q51" s="74"/>
-      <c r="R51" s="74"/>
-      <c r="S51" s="74"/>
+        <f t="shared" ref="G51:G57" si="15">SUM(H51:S51)</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="68"/>
+      <c r="N51" s="68"/>
+      <c r="O51" s="68"/>
+      <c r="P51" s="68"/>
+      <c r="Q51" s="68"/>
+      <c r="R51" s="68"/>
+      <c r="S51" s="68"/>
     </row>
     <row r="52" spans="1:19" ht="14.5">
-      <c r="A52" s="60" t="s">
+      <c r="A52" s="59" t="s">
         <v>79</v>
       </c>
       <c r="B52" s="45" t="s">
@@ -5816,35 +5815,35 @@
       <c r="C52" s="47">
         <v>200</v>
       </c>
-      <c r="D52" s="48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E52" s="47">
-        <v>0</v>
-      </c>
-      <c r="F52" s="46">
+      <c r="D52" s="47">
+        <v>0</v>
+      </c>
+      <c r="E52" s="46">
         <v>200</v>
       </c>
+      <c r="F52" s="149">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="G52" s="47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="74"/>
-      <c r="I52" s="74"/>
-      <c r="J52" s="74"/>
-      <c r="K52" s="74"/>
-      <c r="L52" s="74"/>
-      <c r="M52" s="74"/>
-      <c r="N52" s="74"/>
-      <c r="O52" s="74"/>
-      <c r="P52" s="74"/>
-      <c r="Q52" s="74"/>
-      <c r="R52" s="74"/>
-      <c r="S52" s="74"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="68"/>
+      <c r="M52" s="68"/>
+      <c r="N52" s="68"/>
+      <c r="O52" s="68"/>
+      <c r="P52" s="68"/>
+      <c r="Q52" s="68"/>
+      <c r="R52" s="68"/>
+      <c r="S52" s="68"/>
     </row>
     <row r="53" spans="1:19" ht="14.5">
-      <c r="A53" s="60" t="s">
+      <c r="A53" s="59" t="s">
         <v>81</v>
       </c>
       <c r="B53" s="45" t="s">
@@ -5853,35 +5852,35 @@
       <c r="C53" s="47">
         <v>100</v>
       </c>
-      <c r="D53" s="48">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E53" s="47">
-        <v>0</v>
-      </c>
-      <c r="F53" s="46">
+      <c r="D53" s="47">
+        <v>0</v>
+      </c>
+      <c r="E53" s="46">
         <v>200</v>
       </c>
+      <c r="F53" s="149">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="G53" s="47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="74"/>
-      <c r="I53" s="74"/>
-      <c r="J53" s="74"/>
-      <c r="K53" s="74"/>
-      <c r="L53" s="74"/>
-      <c r="M53" s="74"/>
-      <c r="N53" s="74"/>
-      <c r="O53" s="74"/>
-      <c r="P53" s="74"/>
-      <c r="Q53" s="74"/>
-      <c r="R53" s="74"/>
-      <c r="S53" s="74"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="68"/>
+      <c r="M53" s="68"/>
+      <c r="N53" s="68"/>
+      <c r="O53" s="68"/>
+      <c r="P53" s="68"/>
+      <c r="Q53" s="68"/>
+      <c r="R53" s="68"/>
+      <c r="S53" s="68"/>
     </row>
     <row r="54" spans="1:19" ht="14.5">
-      <c r="A54" s="60" t="s">
+      <c r="A54" s="59" t="s">
         <v>83</v>
       </c>
       <c r="B54" s="45" t="s">
@@ -5889,29 +5888,32 @@
       </c>
       <c r="C54" s="47"/>
       <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="46">
+      <c r="E54" s="46">
         <v>100</v>
       </c>
+      <c r="F54" s="149">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="G54" s="47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="74"/>
-      <c r="I54" s="74"/>
-      <c r="J54" s="74"/>
-      <c r="K54" s="74"/>
-      <c r="L54" s="74"/>
-      <c r="M54" s="74"/>
-      <c r="N54" s="74"/>
-      <c r="O54" s="74"/>
-      <c r="P54" s="74"/>
-      <c r="Q54" s="74"/>
-      <c r="R54" s="74"/>
-      <c r="S54" s="74"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="68"/>
+      <c r="M54" s="68"/>
+      <c r="N54" s="68"/>
+      <c r="O54" s="68"/>
+      <c r="P54" s="68"/>
+      <c r="Q54" s="68"/>
+      <c r="R54" s="68"/>
+      <c r="S54" s="68"/>
     </row>
     <row r="55" spans="1:19" ht="14.5">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="59" t="s">
         <v>85</v>
       </c>
       <c r="B55" s="45" t="s">
@@ -5920,35 +5922,35 @@
       <c r="C55" s="47">
         <v>300</v>
       </c>
-      <c r="D55" s="48">
-        <f t="shared" ref="D55:D58" si="15">E55/C55*100</f>
-        <v>24.423333333333332</v>
-      </c>
-      <c r="E55" s="47">
+      <c r="D55" s="47">
         <v>73.27</v>
       </c>
-      <c r="F55" s="46">
+      <c r="E55" s="46">
         <v>400</v>
       </c>
+      <c r="F55" s="149">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="G55" s="47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="74"/>
-      <c r="I55" s="74"/>
-      <c r="J55" s="74"/>
-      <c r="K55" s="74"/>
-      <c r="L55" s="74"/>
-      <c r="M55" s="74"/>
-      <c r="N55" s="74"/>
-      <c r="O55" s="74"/>
-      <c r="P55" s="74"/>
-      <c r="Q55" s="74"/>
-      <c r="R55" s="74"/>
-      <c r="S55" s="74"/>
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="68"/>
+      <c r="O55" s="68"/>
+      <c r="P55" s="68"/>
+      <c r="Q55" s="68"/>
+      <c r="R55" s="68"/>
+      <c r="S55" s="68"/>
     </row>
     <row r="56" spans="1:19" ht="14.5">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="59" t="s">
         <v>87</v>
       </c>
       <c r="B56" s="45" t="s">
@@ -5957,35 +5959,35 @@
       <c r="C56" s="47">
         <v>200</v>
       </c>
-      <c r="D56" s="48">
+      <c r="D56" s="47">
+        <v>0</v>
+      </c>
+      <c r="E56" s="46">
+        <v>100</v>
+      </c>
+      <c r="F56" s="149">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="47">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="E56" s="47">
-        <v>0</v>
-      </c>
-      <c r="F56" s="46">
-        <v>100</v>
-      </c>
-      <c r="G56" s="47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="74"/>
-      <c r="I56" s="74"/>
-      <c r="J56" s="74"/>
-      <c r="K56" s="74"/>
-      <c r="L56" s="74"/>
-      <c r="M56" s="74"/>
-      <c r="N56" s="74"/>
-      <c r="O56" s="74"/>
-      <c r="P56" s="74"/>
-      <c r="Q56" s="74"/>
-      <c r="R56" s="74"/>
-      <c r="S56" s="74"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="68"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="68"/>
+      <c r="Q56" s="68"/>
+      <c r="R56" s="68"/>
+      <c r="S56" s="68"/>
     </row>
     <row r="57" spans="1:19" ht="14.5">
-      <c r="A57" s="60" t="s">
+      <c r="A57" s="59" t="s">
         <v>89</v>
       </c>
       <c r="B57" s="45" t="s">
@@ -5994,35 +5996,35 @@
       <c r="C57" s="47">
         <v>100</v>
       </c>
-      <c r="D57" s="48">
+      <c r="D57" s="47">
+        <v>0</v>
+      </c>
+      <c r="E57" s="46">
+        <v>100</v>
+      </c>
+      <c r="F57" s="149">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="47">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="E57" s="47">
-        <v>0</v>
-      </c>
-      <c r="F57" s="46">
-        <v>100</v>
-      </c>
-      <c r="G57" s="47">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="74"/>
-      <c r="I57" s="74"/>
-      <c r="J57" s="74"/>
-      <c r="K57" s="74"/>
-      <c r="L57" s="74"/>
-      <c r="M57" s="74"/>
-      <c r="N57" s="74"/>
-      <c r="O57" s="74"/>
-      <c r="P57" s="74"/>
-      <c r="Q57" s="74"/>
-      <c r="R57" s="74"/>
-      <c r="S57" s="74"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="68"/>
+      <c r="Q57" s="68"/>
+      <c r="R57" s="68"/>
+      <c r="S57" s="68"/>
     </row>
     <row r="58" spans="1:19" ht="14.5">
-      <c r="A58" s="52" t="s">
+      <c r="A58" s="51" t="s">
         <v>45</v>
       </c>
       <c r="B58" s="45" t="s">
@@ -6032,18 +6034,18 @@
         <f>SUBTOTAL(9,C51:C57)</f>
         <v>2100</v>
       </c>
-      <c r="D58" s="48">
-        <f t="shared" si="15"/>
-        <v>3.4890476190476187</v>
+      <c r="D58" s="46">
+        <f t="shared" ref="D58:S58" si="16">SUBTOTAL(9,D51:D57)</f>
+        <v>73.27</v>
       </c>
       <c r="E58" s="46">
-        <f t="shared" ref="E58:S58" si="16">SUBTOTAL(9,E51:E57)</f>
-        <v>73.27</v>
-      </c>
-      <c r="F58" s="46">
         <f t="shared" si="16"/>
         <v>2300</v>
       </c>
+      <c r="F58" s="149">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="G58" s="46">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -6098,290 +6100,293 @@
       </c>
     </row>
     <row r="59" spans="1:19" ht="14.5">
-      <c r="A59" s="144"/>
-      <c r="B59" s="129"/>
-      <c r="C59" s="129"/>
-      <c r="D59" s="129"/>
-      <c r="E59" s="129"/>
-      <c r="F59" s="129"/>
-      <c r="G59" s="129"/>
+      <c r="A59" s="140"/>
+      <c r="B59" s="123"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="123"/>
+      <c r="E59" s="123"/>
+      <c r="F59" s="123"/>
+      <c r="G59" s="123"/>
       <c r="H59" s="142"/>
-      <c r="I59" s="129"/>
-      <c r="J59" s="129"/>
-      <c r="K59" s="129"/>
-      <c r="L59" s="129"/>
-      <c r="M59" s="129"/>
-      <c r="N59" s="129"/>
-      <c r="O59" s="129"/>
-      <c r="P59" s="129"/>
-      <c r="Q59" s="129"/>
-      <c r="R59" s="129"/>
-      <c r="S59" s="129"/>
+      <c r="I59" s="123"/>
+      <c r="J59" s="123"/>
+      <c r="K59" s="123"/>
+      <c r="L59" s="123"/>
+      <c r="M59" s="123"/>
+      <c r="N59" s="123"/>
+      <c r="O59" s="123"/>
+      <c r="P59" s="123"/>
+      <c r="Q59" s="123"/>
+      <c r="R59" s="123"/>
+      <c r="S59" s="123"/>
     </row>
     <row r="60" spans="1:19" ht="14.5">
-      <c r="A60" s="53" t="s">
+      <c r="A60" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="B60" s="55" t="s">
+      <c r="B60" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="C60" s="54"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="61"/>
-      <c r="H60" s="74"/>
-      <c r="I60" s="74"/>
-      <c r="J60" s="74"/>
-      <c r="K60" s="74"/>
-      <c r="L60" s="74"/>
-      <c r="M60" s="74"/>
-      <c r="N60" s="74"/>
-      <c r="O60" s="74"/>
-      <c r="P60" s="74"/>
-      <c r="Q60" s="74"/>
-      <c r="R60" s="74"/>
-      <c r="S60" s="74"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="68"/>
+      <c r="Q60" s="68"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="68"/>
     </row>
     <row r="61" spans="1:19" ht="14.5">
-      <c r="A61" s="57" t="s">
+      <c r="A61" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="55" t="s">
+      <c r="B61" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="C61" s="54">
+      <c r="C61" s="53">
         <v>700</v>
       </c>
-      <c r="D61" s="58">
-        <f t="shared" ref="D61:D63" si="17">E61/C61*100</f>
-        <v>71.428571428571431</v>
-      </c>
-      <c r="E61" s="56">
+      <c r="D61" s="55">
         <v>500</v>
       </c>
-      <c r="F61" s="56">
+      <c r="E61" s="55">
         <v>400</v>
       </c>
-      <c r="G61" s="54">
+      <c r="F61" s="152">
+        <f t="shared" ref="F61:F65" si="17">G61/E61*100</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="53">
         <f t="shared" ref="G61:G64" si="18">SUM(H61:S61)</f>
         <v>0</v>
       </c>
-      <c r="H61" s="74"/>
-      <c r="I61" s="74"/>
-      <c r="J61" s="74"/>
-      <c r="K61" s="74"/>
-      <c r="L61" s="74"/>
-      <c r="M61" s="74"/>
-      <c r="N61" s="74"/>
-      <c r="O61" s="74"/>
-      <c r="P61" s="74"/>
-      <c r="Q61" s="74"/>
-      <c r="R61" s="74"/>
-      <c r="S61" s="74"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="68"/>
+      <c r="O61" s="68"/>
+      <c r="P61" s="68"/>
+      <c r="Q61" s="68"/>
+      <c r="R61" s="68"/>
+      <c r="S61" s="68"/>
     </row>
     <row r="62" spans="1:19" ht="14.5">
-      <c r="A62" s="57" t="s">
+      <c r="A62" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="B62" s="55" t="s">
+      <c r="B62" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="54">
+      <c r="C62" s="53">
         <v>200</v>
       </c>
-      <c r="D62" s="58">
+      <c r="D62" s="55">
+        <v>0</v>
+      </c>
+      <c r="E62" s="55">
+        <v>200</v>
+      </c>
+      <c r="F62" s="152">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E62" s="56">
-        <v>0</v>
-      </c>
-      <c r="F62" s="56">
-        <v>200</v>
-      </c>
-      <c r="G62" s="54">
+      <c r="G62" s="53">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H62" s="74"/>
-      <c r="I62" s="74"/>
-      <c r="J62" s="74"/>
-      <c r="K62" s="74"/>
-      <c r="L62" s="74"/>
-      <c r="M62" s="74"/>
-      <c r="N62" s="74"/>
-      <c r="O62" s="74"/>
-      <c r="P62" s="74"/>
-      <c r="Q62" s="74"/>
-      <c r="R62" s="74"/>
-      <c r="S62" s="74"/>
+      <c r="H62" s="68"/>
+      <c r="I62" s="68"/>
+      <c r="J62" s="68"/>
+      <c r="K62" s="68"/>
+      <c r="L62" s="68"/>
+      <c r="M62" s="68"/>
+      <c r="N62" s="68"/>
+      <c r="O62" s="68"/>
+      <c r="P62" s="68"/>
+      <c r="Q62" s="68"/>
+      <c r="R62" s="68"/>
+      <c r="S62" s="68"/>
     </row>
     <row r="63" spans="1:19" ht="14.5">
-      <c r="A63" s="57" t="s">
+      <c r="A63" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="B63" s="55" t="s">
+      <c r="B63" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="C63" s="54">
+      <c r="C63" s="53">
         <v>450</v>
       </c>
-      <c r="D63" s="58">
+      <c r="D63" s="55">
+        <v>0</v>
+      </c>
+      <c r="E63" s="55">
+        <v>400</v>
+      </c>
+      <c r="F63" s="152">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="E63" s="56">
-        <v>0</v>
-      </c>
-      <c r="F63" s="56">
-        <v>400</v>
-      </c>
-      <c r="G63" s="54">
+      <c r="G63" s="53">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H63" s="74"/>
-      <c r="I63" s="74"/>
-      <c r="J63" s="74"/>
-      <c r="K63" s="74"/>
-      <c r="L63" s="74"/>
-      <c r="M63" s="74"/>
-      <c r="N63" s="74"/>
-      <c r="O63" s="74"/>
-      <c r="P63" s="74"/>
-      <c r="Q63" s="74"/>
-      <c r="R63" s="74"/>
-      <c r="S63" s="74"/>
+      <c r="H63" s="68"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="68"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="68"/>
+      <c r="O63" s="68"/>
+      <c r="P63" s="68"/>
+      <c r="Q63" s="68"/>
+      <c r="R63" s="68"/>
+      <c r="S63" s="68"/>
     </row>
     <row r="64" spans="1:19" ht="14.5">
-      <c r="A64" s="57" t="s">
+      <c r="A64" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="B64" s="55" t="s">
+      <c r="B64" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="C64" s="54"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="56">
-        <v>0</v>
-      </c>
-      <c r="F64" s="56">
+      <c r="C64" s="53"/>
+      <c r="D64" s="55">
+        <v>0</v>
+      </c>
+      <c r="E64" s="55">
         <v>1300</v>
       </c>
-      <c r="G64" s="54">
+      <c r="F64" s="152">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="53">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="H64" s="74"/>
-      <c r="I64" s="74"/>
-      <c r="J64" s="74"/>
-      <c r="K64" s="74"/>
-      <c r="L64" s="74"/>
-      <c r="M64" s="74"/>
-      <c r="N64" s="74"/>
-      <c r="O64" s="74"/>
-      <c r="P64" s="74"/>
-      <c r="Q64" s="74"/>
-      <c r="R64" s="74"/>
-      <c r="S64" s="74"/>
+      <c r="H64" s="68"/>
+      <c r="I64" s="68"/>
+      <c r="J64" s="68"/>
+      <c r="K64" s="68"/>
+      <c r="L64" s="68"/>
+      <c r="M64" s="68"/>
+      <c r="N64" s="68"/>
+      <c r="O64" s="68"/>
+      <c r="P64" s="68"/>
+      <c r="Q64" s="68"/>
+      <c r="R64" s="68"/>
+      <c r="S64" s="68"/>
     </row>
     <row r="65" spans="1:19" ht="14.5">
       <c r="A65" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B65" s="55" t="s">
+      <c r="B65" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="C65" s="56">
+      <c r="C65" s="55">
         <f>SUBTOTAL(9,C61:C64)</f>
         <v>1350</v>
       </c>
-      <c r="D65" s="58">
-        <f>E65/C65*100</f>
-        <v>37.037037037037038</v>
-      </c>
-      <c r="E65" s="56">
-        <f t="shared" ref="E65:S65" si="19">SUBTOTAL(9,E61:E64)</f>
+      <c r="D65" s="55">
+        <f t="shared" ref="D65:S65" si="19">SUBTOTAL(9,D61:D64)</f>
         <v>500</v>
       </c>
-      <c r="F65" s="56">
+      <c r="E65" s="55">
         <f t="shared" si="19"/>
         <v>2300</v>
       </c>
-      <c r="G65" s="56">
+      <c r="F65" s="152">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="H65" s="56">
+      <c r="H65" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I65" s="56">
+      <c r="I65" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J65" s="56">
+      <c r="J65" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="K65" s="56">
+      <c r="K65" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L65" s="56">
+      <c r="L65" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M65" s="56">
+      <c r="M65" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N65" s="56">
+      <c r="N65" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="O65" s="56">
+      <c r="O65" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="P65" s="56">
+      <c r="P65" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="Q65" s="56">
+      <c r="Q65" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="R65" s="56">
+      <c r="R65" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="S65" s="56">
+      <c r="S65" s="55">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="14.5">
-      <c r="A66" s="144"/>
-      <c r="B66" s="129"/>
-      <c r="C66" s="129"/>
-      <c r="D66" s="129"/>
-      <c r="E66" s="129"/>
-      <c r="F66" s="129"/>
-      <c r="G66" s="129"/>
+      <c r="A66" s="140"/>
+      <c r="B66" s="123"/>
+      <c r="C66" s="123"/>
+      <c r="D66" s="123"/>
+      <c r="E66" s="123"/>
+      <c r="F66" s="123"/>
+      <c r="G66" s="123"/>
       <c r="H66" s="142"/>
-      <c r="I66" s="129"/>
-      <c r="J66" s="129"/>
-      <c r="K66" s="129"/>
-      <c r="L66" s="129"/>
-      <c r="M66" s="129"/>
-      <c r="N66" s="129"/>
-      <c r="O66" s="129"/>
-      <c r="P66" s="129"/>
-      <c r="Q66" s="129"/>
-      <c r="R66" s="129"/>
-      <c r="S66" s="129"/>
+      <c r="I66" s="123"/>
+      <c r="J66" s="123"/>
+      <c r="K66" s="123"/>
+      <c r="L66" s="123"/>
+      <c r="M66" s="123"/>
+      <c r="N66" s="123"/>
+      <c r="O66" s="123"/>
+      <c r="P66" s="123"/>
+      <c r="Q66" s="123"/>
+      <c r="R66" s="123"/>
+      <c r="S66" s="123"/>
     </row>
     <row r="67" spans="1:19" ht="14.5">
       <c r="A67" s="44" t="s">
@@ -6391,25 +6396,25 @@
         <v>102</v>
       </c>
       <c r="C67" s="47"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="47"/>
       <c r="F67" s="47"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="74"/>
-      <c r="J67" s="74"/>
-      <c r="K67" s="74"/>
-      <c r="L67" s="74"/>
-      <c r="M67" s="74"/>
-      <c r="N67" s="74"/>
-      <c r="O67" s="74"/>
-      <c r="P67" s="74"/>
-      <c r="Q67" s="74"/>
-      <c r="R67" s="74"/>
-      <c r="S67" s="74"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="68"/>
+      <c r="I67" s="68"/>
+      <c r="J67" s="68"/>
+      <c r="K67" s="68"/>
+      <c r="L67" s="68"/>
+      <c r="M67" s="68"/>
+      <c r="N67" s="68"/>
+      <c r="O67" s="68"/>
+      <c r="P67" s="68"/>
+      <c r="Q67" s="68"/>
+      <c r="R67" s="68"/>
+      <c r="S67" s="68"/>
     </row>
     <row r="68" spans="1:19" ht="14.5">
-      <c r="A68" s="60" t="s">
+      <c r="A68" s="59" t="s">
         <v>103</v>
       </c>
       <c r="B68" s="45" t="s">
@@ -6418,33 +6423,33 @@
       <c r="C68" s="46">
         <v>200</v>
       </c>
-      <c r="D68" s="48">
-        <f t="shared" ref="D68:D72" si="20">E68/C68*100</f>
-        <v>0</v>
-      </c>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46">
+      <c r="D68" s="46"/>
+      <c r="E68" s="46">
         <v>200</v>
+      </c>
+      <c r="F68" s="149">
+        <f t="shared" ref="F68:F72" si="20">G68/E68*100</f>
+        <v>0</v>
       </c>
       <c r="G68" s="47">
         <f t="shared" ref="G68:G71" si="21">SUM(H68:S68)</f>
         <v>0</v>
       </c>
-      <c r="H68" s="74"/>
-      <c r="I68" s="74"/>
-      <c r="J68" s="74"/>
-      <c r="K68" s="74"/>
-      <c r="L68" s="74"/>
-      <c r="M68" s="74"/>
-      <c r="N68" s="74"/>
-      <c r="O68" s="74"/>
-      <c r="P68" s="74"/>
-      <c r="Q68" s="74"/>
-      <c r="R68" s="74"/>
-      <c r="S68" s="74"/>
+      <c r="H68" s="68"/>
+      <c r="I68" s="68"/>
+      <c r="J68" s="68"/>
+      <c r="K68" s="68"/>
+      <c r="L68" s="68"/>
+      <c r="M68" s="68"/>
+      <c r="N68" s="68"/>
+      <c r="O68" s="68"/>
+      <c r="P68" s="68"/>
+      <c r="Q68" s="68"/>
+      <c r="R68" s="68"/>
+      <c r="S68" s="68"/>
     </row>
     <row r="69" spans="1:19" ht="14.5">
-      <c r="A69" s="60" t="s">
+      <c r="A69" s="59" t="s">
         <v>105</v>
       </c>
       <c r="B69" s="45" t="s">
@@ -6453,33 +6458,33 @@
       <c r="C69" s="46">
         <v>300</v>
       </c>
-      <c r="D69" s="48">
+      <c r="D69" s="46"/>
+      <c r="E69" s="46">
+        <v>300</v>
+      </c>
+      <c r="F69" s="149">
         <f t="shared" si="20"/>
         <v>0</v>
-      </c>
-      <c r="E69" s="46"/>
-      <c r="F69" s="46">
-        <v>300</v>
       </c>
       <c r="G69" s="47">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H69" s="74"/>
-      <c r="I69" s="74"/>
-      <c r="J69" s="74"/>
-      <c r="K69" s="74"/>
-      <c r="L69" s="74"/>
-      <c r="M69" s="74"/>
-      <c r="N69" s="74"/>
-      <c r="O69" s="74"/>
-      <c r="P69" s="74"/>
-      <c r="Q69" s="74"/>
-      <c r="R69" s="74"/>
-      <c r="S69" s="74"/>
+      <c r="H69" s="68"/>
+      <c r="I69" s="68"/>
+      <c r="J69" s="68"/>
+      <c r="K69" s="68"/>
+      <c r="L69" s="68"/>
+      <c r="M69" s="68"/>
+      <c r="N69" s="68"/>
+      <c r="O69" s="68"/>
+      <c r="P69" s="68"/>
+      <c r="Q69" s="68"/>
+      <c r="R69" s="68"/>
+      <c r="S69" s="68"/>
     </row>
     <row r="70" spans="1:19" ht="14.5">
-      <c r="A70" s="60" t="s">
+      <c r="A70" s="59" t="s">
         <v>107</v>
       </c>
       <c r="B70" s="45" t="s">
@@ -6488,35 +6493,35 @@
       <c r="C70" s="46">
         <v>100</v>
       </c>
-      <c r="D70" s="48">
-        <f t="shared" si="20"/>
+      <c r="D70" s="46">
         <v>130</v>
       </c>
       <c r="E70" s="46">
         <v>130</v>
       </c>
-      <c r="F70" s="46">
-        <v>130</v>
+      <c r="F70" s="149">
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="G70" s="47">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H70" s="74"/>
-      <c r="I70" s="74"/>
-      <c r="J70" s="74"/>
-      <c r="K70" s="74"/>
-      <c r="L70" s="74"/>
-      <c r="M70" s="74"/>
-      <c r="N70" s="74"/>
-      <c r="O70" s="74"/>
-      <c r="P70" s="74"/>
-      <c r="Q70" s="74"/>
-      <c r="R70" s="74"/>
-      <c r="S70" s="74"/>
+      <c r="H70" s="68"/>
+      <c r="I70" s="68"/>
+      <c r="J70" s="68"/>
+      <c r="K70" s="68"/>
+      <c r="L70" s="68"/>
+      <c r="M70" s="68"/>
+      <c r="N70" s="68"/>
+      <c r="O70" s="68"/>
+      <c r="P70" s="68"/>
+      <c r="Q70" s="68"/>
+      <c r="R70" s="68"/>
+      <c r="S70" s="68"/>
     </row>
     <row r="71" spans="1:19" ht="14.5">
-      <c r="A71" s="60" t="s">
+      <c r="A71" s="59" t="s">
         <v>184</v>
       </c>
       <c r="B71" s="45" t="s">
@@ -6525,33 +6530,33 @@
       <c r="C71" s="47">
         <v>1000</v>
       </c>
-      <c r="D71" s="48">
+      <c r="D71" s="46"/>
+      <c r="E71" s="46">
+        <v>2000</v>
+      </c>
+      <c r="F71" s="149">
         <f t="shared" si="20"/>
         <v>0</v>
-      </c>
-      <c r="E71" s="46"/>
-      <c r="F71" s="46">
-        <v>2000</v>
       </c>
       <c r="G71" s="47">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H71" s="74"/>
-      <c r="I71" s="74"/>
-      <c r="J71" s="74"/>
-      <c r="K71" s="74"/>
-      <c r="L71" s="74"/>
-      <c r="M71" s="74"/>
-      <c r="N71" s="74"/>
-      <c r="O71" s="74"/>
-      <c r="P71" s="74"/>
-      <c r="Q71" s="74"/>
-      <c r="R71" s="74"/>
-      <c r="S71" s="74"/>
+      <c r="H71" s="68"/>
+      <c r="I71" s="68"/>
+      <c r="J71" s="68"/>
+      <c r="K71" s="68"/>
+      <c r="L71" s="68"/>
+      <c r="M71" s="68"/>
+      <c r="N71" s="68"/>
+      <c r="O71" s="68"/>
+      <c r="P71" s="68"/>
+      <c r="Q71" s="68"/>
+      <c r="R71" s="68"/>
+      <c r="S71" s="68"/>
     </row>
     <row r="72" spans="1:19" ht="14.5">
-      <c r="A72" s="52" t="s">
+      <c r="A72" s="51" t="s">
         <v>45</v>
       </c>
       <c r="B72" s="45" t="s">
@@ -6561,18 +6566,18 @@
         <f>SUBTOTAL(9,C68:C71)</f>
         <v>1600</v>
       </c>
-      <c r="D72" s="48">
-        <f t="shared" si="20"/>
-        <v>8.125</v>
+      <c r="D72" s="46">
+        <f t="shared" ref="D72:S72" si="22">SUBTOTAL(9,D68:D71)</f>
+        <v>130</v>
       </c>
       <c r="E72" s="46">
-        <f t="shared" ref="E72:S72" si="22">SUBTOTAL(9,E68:E71)</f>
-        <v>130</v>
-      </c>
-      <c r="F72" s="46">
         <f t="shared" si="22"/>
         <v>2630</v>
       </c>
+      <c r="F72" s="149">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
       <c r="G72" s="46">
         <f t="shared" si="22"/>
         <v>0</v>
@@ -6627,328 +6632,328 @@
       </c>
     </row>
     <row r="73" spans="1:19" ht="14.5">
-      <c r="A73" s="144"/>
-      <c r="B73" s="129"/>
-      <c r="C73" s="129"/>
-      <c r="D73" s="129"/>
-      <c r="E73" s="129"/>
-      <c r="F73" s="129"/>
-      <c r="G73" s="129"/>
+      <c r="A73" s="140"/>
+      <c r="B73" s="123"/>
+      <c r="C73" s="123"/>
+      <c r="D73" s="123"/>
+      <c r="E73" s="123"/>
+      <c r="F73" s="123"/>
+      <c r="G73" s="123"/>
       <c r="H73" s="142"/>
-      <c r="I73" s="129"/>
-      <c r="J73" s="129"/>
-      <c r="K73" s="129"/>
-      <c r="L73" s="129"/>
-      <c r="M73" s="129"/>
-      <c r="N73" s="129"/>
-      <c r="O73" s="129"/>
-      <c r="P73" s="129"/>
-      <c r="Q73" s="129"/>
-      <c r="R73" s="129"/>
-      <c r="S73" s="129"/>
+      <c r="I73" s="123"/>
+      <c r="J73" s="123"/>
+      <c r="K73" s="123"/>
+      <c r="L73" s="123"/>
+      <c r="M73" s="123"/>
+      <c r="N73" s="123"/>
+      <c r="O73" s="123"/>
+      <c r="P73" s="123"/>
+      <c r="Q73" s="123"/>
+      <c r="R73" s="123"/>
+      <c r="S73" s="123"/>
     </row>
     <row r="74" spans="1:19" ht="14.5">
-      <c r="A74" s="53" t="s">
+      <c r="A74" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="B74" s="55" t="s">
+      <c r="B74" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="74"/>
-      <c r="I74" s="74"/>
-      <c r="J74" s="74"/>
-      <c r="K74" s="74"/>
-      <c r="L74" s="74"/>
-      <c r="M74" s="74"/>
-      <c r="N74" s="74"/>
-      <c r="O74" s="74"/>
-      <c r="P74" s="74"/>
-      <c r="Q74" s="74"/>
-      <c r="R74" s="74"/>
-      <c r="S74" s="74"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="53"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="68"/>
+      <c r="I74" s="68"/>
+      <c r="J74" s="68"/>
+      <c r="K74" s="68"/>
+      <c r="L74" s="68"/>
+      <c r="M74" s="68"/>
+      <c r="N74" s="68"/>
+      <c r="O74" s="68"/>
+      <c r="P74" s="68"/>
+      <c r="Q74" s="68"/>
+      <c r="R74" s="68"/>
+      <c r="S74" s="68"/>
     </row>
     <row r="75" spans="1:19" ht="14.5">
-      <c r="A75" s="57" t="s">
+      <c r="A75" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="B75" s="55" t="s">
+      <c r="B75" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="C75" s="56">
+      <c r="C75" s="55">
         <v>500</v>
       </c>
-      <c r="D75" s="58">
-        <f t="shared" ref="D75:D80" si="23">E75/C75*100</f>
-        <v>22.6</v>
-      </c>
-      <c r="E75" s="54">
+      <c r="D75" s="53">
         <v>113</v>
       </c>
-      <c r="F75" s="54">
+      <c r="E75" s="53">
         <v>300</v>
       </c>
-      <c r="G75" s="54">
+      <c r="F75" s="152">
+        <f t="shared" ref="F75:F80" si="23">G75/E75*100</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="53">
         <f t="shared" ref="G75:G79" si="24">SUM(H75:S75)</f>
         <v>0</v>
       </c>
-      <c r="H75" s="74"/>
-      <c r="I75" s="74"/>
-      <c r="J75" s="74"/>
-      <c r="K75" s="74"/>
-      <c r="L75" s="74"/>
-      <c r="M75" s="74"/>
-      <c r="N75" s="74"/>
-      <c r="O75" s="74"/>
-      <c r="P75" s="74"/>
-      <c r="Q75" s="74"/>
-      <c r="R75" s="74"/>
-      <c r="S75" s="74"/>
+      <c r="H75" s="68"/>
+      <c r="I75" s="68"/>
+      <c r="J75" s="68"/>
+      <c r="K75" s="68"/>
+      <c r="L75" s="68"/>
+      <c r="M75" s="68"/>
+      <c r="N75" s="68"/>
+      <c r="O75" s="68"/>
+      <c r="P75" s="68"/>
+      <c r="Q75" s="68"/>
+      <c r="R75" s="68"/>
+      <c r="S75" s="68"/>
     </row>
     <row r="76" spans="1:19" ht="14.5">
-      <c r="A76" s="57" t="s">
+      <c r="A76" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="B76" s="55" t="s">
+      <c r="B76" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="C76" s="56">
+      <c r="C76" s="55">
         <v>100</v>
       </c>
-      <c r="D76" s="58">
+      <c r="D76" s="53">
+        <v>283</v>
+      </c>
+      <c r="E76" s="53">
+        <v>300</v>
+      </c>
+      <c r="F76" s="152">
         <f t="shared" si="23"/>
-        <v>283</v>
-      </c>
-      <c r="E76" s="54">
-        <v>283</v>
-      </c>
-      <c r="F76" s="54">
+        <v>0</v>
+      </c>
+      <c r="G76" s="53">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="69"/>
+      <c r="I76" s="69"/>
+      <c r="J76" s="68"/>
+      <c r="K76" s="68"/>
+      <c r="L76" s="68"/>
+      <c r="M76" s="68"/>
+      <c r="N76" s="68"/>
+      <c r="O76" s="68"/>
+      <c r="P76" s="68"/>
+      <c r="Q76" s="68"/>
+      <c r="R76" s="68"/>
+      <c r="S76" s="68"/>
+    </row>
+    <row r="77" spans="1:19" ht="14.5">
+      <c r="A77" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" s="55">
         <v>300</v>
       </c>
-      <c r="G76" s="54">
+      <c r="D77" s="53">
+        <v>305.41000000000003</v>
+      </c>
+      <c r="E77" s="53">
+        <v>300</v>
+      </c>
+      <c r="F77" s="152">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="53">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="H76" s="75"/>
-      <c r="I76" s="75"/>
-      <c r="J76" s="74"/>
-      <c r="K76" s="74"/>
-      <c r="L76" s="74"/>
-      <c r="M76" s="74"/>
-      <c r="N76" s="74"/>
-      <c r="O76" s="74"/>
-      <c r="P76" s="74"/>
-      <c r="Q76" s="74"/>
-      <c r="R76" s="74"/>
-      <c r="S76" s="74"/>
-    </row>
-    <row r="77" spans="1:19" ht="14.5">
-      <c r="A77" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="B77" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C77" s="56">
-        <v>300</v>
-      </c>
-      <c r="D77" s="58">
+      <c r="H77" s="69"/>
+      <c r="I77" s="69"/>
+      <c r="J77" s="68"/>
+      <c r="K77" s="68"/>
+      <c r="L77" s="68"/>
+      <c r="M77" s="68"/>
+      <c r="N77" s="68"/>
+      <c r="O77" s="68"/>
+      <c r="P77" s="68"/>
+      <c r="Q77" s="68"/>
+      <c r="R77" s="68"/>
+      <c r="S77" s="68"/>
+    </row>
+    <row r="78" spans="1:19" ht="14.5">
+      <c r="A78" s="56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="55">
+        <v>500</v>
+      </c>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53">
+        <v>500</v>
+      </c>
+      <c r="F78" s="152">
         <f t="shared" si="23"/>
-        <v>101.80333333333334</v>
-      </c>
-      <c r="E77" s="54">
-        <v>305.41000000000003</v>
-      </c>
-      <c r="F77" s="54">
-        <v>300</v>
-      </c>
-      <c r="G77" s="54">
+        <v>0</v>
+      </c>
+      <c r="G78" s="53">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="H77" s="75"/>
-      <c r="I77" s="75"/>
-      <c r="J77" s="74"/>
-      <c r="K77" s="74"/>
-      <c r="L77" s="74"/>
-      <c r="M77" s="74"/>
-      <c r="N77" s="74"/>
-      <c r="O77" s="74"/>
-      <c r="P77" s="74"/>
-      <c r="Q77" s="74"/>
-      <c r="R77" s="74"/>
-      <c r="S77" s="74"/>
-    </row>
-    <row r="78" spans="1:19" ht="14.5">
-      <c r="A78" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="B78" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="C78" s="56">
+      <c r="H78" s="69"/>
+      <c r="I78" s="69"/>
+      <c r="J78" s="68"/>
+      <c r="K78" s="68"/>
+      <c r="L78" s="68"/>
+      <c r="M78" s="68"/>
+      <c r="N78" s="68"/>
+      <c r="O78" s="68"/>
+      <c r="P78" s="68"/>
+      <c r="Q78" s="68"/>
+      <c r="R78" s="68"/>
+      <c r="S78" s="68"/>
+    </row>
+    <row r="79" spans="1:19" ht="14.5">
+      <c r="A79" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79" s="61">
         <v>500</v>
       </c>
-      <c r="D78" s="58">
+      <c r="D79" s="53"/>
+      <c r="E79" s="53">
+        <v>500</v>
+      </c>
+      <c r="F79" s="152">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54">
-        <v>500</v>
-      </c>
-      <c r="G78" s="54">
+      <c r="G79" s="53">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="H78" s="75"/>
-      <c r="I78" s="75"/>
-      <c r="J78" s="74"/>
-      <c r="K78" s="74"/>
-      <c r="L78" s="74"/>
-      <c r="M78" s="74"/>
-      <c r="N78" s="74"/>
-      <c r="O78" s="74"/>
-      <c r="P78" s="74"/>
-      <c r="Q78" s="74"/>
-      <c r="R78" s="74"/>
-      <c r="S78" s="74"/>
-    </row>
-    <row r="79" spans="1:19" ht="14.5">
-      <c r="A79" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="B79" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="C79" s="63">
-        <v>500</v>
-      </c>
-      <c r="D79" s="58">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="54"/>
-      <c r="F79" s="54">
-        <v>500</v>
-      </c>
-      <c r="G79" s="54">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="H79" s="75"/>
-      <c r="I79" s="75"/>
-      <c r="J79" s="74"/>
-      <c r="K79" s="74"/>
-      <c r="L79" s="74"/>
-      <c r="M79" s="74"/>
-      <c r="N79" s="74"/>
-      <c r="O79" s="74"/>
-      <c r="P79" s="74"/>
-      <c r="Q79" s="74"/>
-      <c r="R79" s="74"/>
-      <c r="S79" s="74"/>
+      <c r="H79" s="69"/>
+      <c r="I79" s="69"/>
+      <c r="J79" s="68"/>
+      <c r="K79" s="68"/>
+      <c r="L79" s="68"/>
+      <c r="M79" s="68"/>
+      <c r="N79" s="68"/>
+      <c r="O79" s="68"/>
+      <c r="P79" s="68"/>
+      <c r="Q79" s="68"/>
+      <c r="R79" s="68"/>
+      <c r="S79" s="68"/>
     </row>
     <row r="80" spans="1:19" ht="14.5">
       <c r="A80" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B80" s="55" t="s">
+      <c r="B80" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="C80" s="56">
+      <c r="C80" s="55">
         <f>SUBTOTAL(9,C75:C79)</f>
         <v>1900</v>
       </c>
-      <c r="D80" s="58">
-        <f t="shared" si="23"/>
-        <v>36.916315789473686</v>
-      </c>
-      <c r="E80" s="56">
-        <f t="shared" ref="E80:S80" si="25">SUBTOTAL(9,E75:E79)</f>
+      <c r="D80" s="55">
+        <f t="shared" ref="D80:S80" si="25">SUBTOTAL(9,D75:D79)</f>
         <v>701.41000000000008</v>
       </c>
-      <c r="F80" s="56">
+      <c r="E80" s="55">
         <f t="shared" si="25"/>
         <v>1900</v>
       </c>
-      <c r="G80" s="56">
+      <c r="F80" s="152">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="55">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="H80" s="56">
+      <c r="H80" s="55">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I80" s="56">
+      <c r="I80" s="55">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J80" s="56">
+      <c r="J80" s="55">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="K80" s="56">
+      <c r="K80" s="55">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="L80" s="56">
+      <c r="L80" s="55">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M80" s="56">
+      <c r="M80" s="55">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N80" s="56">
+      <c r="N80" s="55">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="O80" s="56">
+      <c r="O80" s="55">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="P80" s="56">
+      <c r="P80" s="55">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="Q80" s="56">
+      <c r="Q80" s="55">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="R80" s="56">
+      <c r="R80" s="55">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="S80" s="56">
+      <c r="S80" s="55">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="14.5">
-      <c r="A81" s="144"/>
-      <c r="B81" s="126"/>
-      <c r="C81" s="126"/>
-      <c r="D81" s="126"/>
-      <c r="E81" s="126"/>
-      <c r="F81" s="126"/>
-      <c r="G81" s="126"/>
-      <c r="H81" s="146"/>
-      <c r="I81" s="129"/>
-      <c r="J81" s="129"/>
-      <c r="K81" s="129"/>
-      <c r="L81" s="129"/>
-      <c r="M81" s="129"/>
-      <c r="N81" s="129"/>
-      <c r="O81" s="129"/>
-      <c r="P81" s="129"/>
-      <c r="Q81" s="129"/>
-      <c r="R81" s="129"/>
-      <c r="S81" s="129"/>
+      <c r="A81" s="140"/>
+      <c r="B81" s="120"/>
+      <c r="C81" s="120"/>
+      <c r="D81" s="120"/>
+      <c r="E81" s="120"/>
+      <c r="F81" s="120"/>
+      <c r="G81" s="120"/>
+      <c r="H81" s="143"/>
+      <c r="I81" s="123"/>
+      <c r="J81" s="123"/>
+      <c r="K81" s="123"/>
+      <c r="L81" s="123"/>
+      <c r="M81" s="123"/>
+      <c r="N81" s="123"/>
+      <c r="O81" s="123"/>
+      <c r="P81" s="123"/>
+      <c r="Q81" s="123"/>
+      <c r="R81" s="123"/>
+      <c r="S81" s="123"/>
     </row>
     <row r="82" spans="1:19" ht="14.5">
       <c r="A82" s="44" t="s">
@@ -6958,25 +6963,25 @@
         <v>123</v>
       </c>
       <c r="C82" s="47"/>
-      <c r="D82" s="64"/>
-      <c r="E82" s="46"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="47"/>
       <c r="F82" s="47"/>
       <c r="G82" s="47"/>
-      <c r="H82" s="75"/>
-      <c r="I82" s="75"/>
-      <c r="J82" s="74"/>
-      <c r="K82" s="74"/>
-      <c r="L82" s="74"/>
-      <c r="M82" s="74"/>
-      <c r="N82" s="74"/>
-      <c r="O82" s="74"/>
-      <c r="P82" s="74"/>
-      <c r="Q82" s="74"/>
-      <c r="R82" s="74"/>
-      <c r="S82" s="74"/>
+      <c r="H82" s="69"/>
+      <c r="I82" s="69"/>
+      <c r="J82" s="68"/>
+      <c r="K82" s="68"/>
+      <c r="L82" s="68"/>
+      <c r="M82" s="68"/>
+      <c r="N82" s="68"/>
+      <c r="O82" s="68"/>
+      <c r="P82" s="68"/>
+      <c r="Q82" s="68"/>
+      <c r="R82" s="68"/>
+      <c r="S82" s="68"/>
     </row>
     <row r="83" spans="1:19" ht="14.5">
-      <c r="A83" s="60" t="s">
+      <c r="A83" s="59" t="s">
         <v>124</v>
       </c>
       <c r="B83" s="45" t="s">
@@ -6985,35 +6990,35 @@
       <c r="C83" s="46">
         <v>1500</v>
       </c>
-      <c r="D83" s="48">
-        <f t="shared" ref="D83:D84" si="26">E83/C83*100</f>
-        <v>0</v>
-      </c>
-      <c r="E83" s="47">
-        <v>0</v>
-      </c>
-      <c r="F83" s="46">
+      <c r="D83" s="47">
+        <v>0</v>
+      </c>
+      <c r="E83" s="46">
         <v>1500</v>
+      </c>
+      <c r="F83" s="149">
+        <f t="shared" ref="F83:F84" si="26">G83/E83*100</f>
+        <v>0</v>
       </c>
       <c r="G83" s="47">
         <f t="shared" ref="G83:G93" si="27">SUM(H83:S83)</f>
         <v>0</v>
       </c>
-      <c r="H83" s="75"/>
-      <c r="I83" s="75"/>
-      <c r="J83" s="74"/>
-      <c r="K83" s="74"/>
-      <c r="L83" s="74"/>
-      <c r="M83" s="74"/>
-      <c r="N83" s="74"/>
-      <c r="O83" s="74"/>
-      <c r="P83" s="74"/>
-      <c r="Q83" s="74"/>
-      <c r="R83" s="74"/>
-      <c r="S83" s="74"/>
+      <c r="H83" s="69"/>
+      <c r="I83" s="69"/>
+      <c r="J83" s="68"/>
+      <c r="K83" s="68"/>
+      <c r="L83" s="68"/>
+      <c r="M83" s="68"/>
+      <c r="N83" s="68"/>
+      <c r="O83" s="68"/>
+      <c r="P83" s="68"/>
+      <c r="Q83" s="68"/>
+      <c r="R83" s="68"/>
+      <c r="S83" s="68"/>
     </row>
     <row r="84" spans="1:19" ht="14.5">
-      <c r="A84" s="60" t="s">
+      <c r="A84" s="59" t="s">
         <v>126</v>
       </c>
       <c r="B84" s="45" t="s">
@@ -7022,65 +7027,65 @@
       <c r="C84" s="46">
         <v>6400</v>
       </c>
-      <c r="D84" s="48">
+      <c r="D84" s="47">
+        <v>0</v>
+      </c>
+      <c r="E84" s="46">
+        <v>6400</v>
+      </c>
+      <c r="F84" s="149">
         <f t="shared" si="26"/>
         <v>0</v>
-      </c>
-      <c r="E84" s="47">
-        <v>0</v>
-      </c>
-      <c r="F84" s="46">
-        <v>6400</v>
       </c>
       <c r="G84" s="47">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="H84" s="75"/>
-      <c r="I84" s="75"/>
-      <c r="J84" s="74"/>
-      <c r="K84" s="74"/>
-      <c r="L84" s="74"/>
-      <c r="M84" s="74"/>
-      <c r="N84" s="74"/>
-      <c r="O84" s="74"/>
-      <c r="P84" s="74"/>
-      <c r="Q84" s="74"/>
-      <c r="R84" s="74"/>
-      <c r="S84" s="74"/>
+      <c r="H84" s="69"/>
+      <c r="I84" s="69"/>
+      <c r="J84" s="68"/>
+      <c r="K84" s="68"/>
+      <c r="L84" s="68"/>
+      <c r="M84" s="68"/>
+      <c r="N84" s="68"/>
+      <c r="O84" s="68"/>
+      <c r="P84" s="68"/>
+      <c r="Q84" s="68"/>
+      <c r="R84" s="68"/>
+      <c r="S84" s="68"/>
     </row>
     <row r="85" spans="1:19" ht="14.5">
-      <c r="A85" s="60" t="s">
+      <c r="A85" s="59" t="s">
         <v>128</v>
       </c>
       <c r="B85" s="45" t="s">
         <v>178</v>
       </c>
       <c r="C85" s="46"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47">
-        <v>0</v>
-      </c>
+      <c r="D85" s="47">
+        <v>0</v>
+      </c>
+      <c r="E85" s="46"/>
       <c r="F85" s="46"/>
       <c r="G85" s="47">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="H85" s="75"/>
-      <c r="I85" s="75"/>
-      <c r="J85" s="74"/>
-      <c r="K85" s="74"/>
-      <c r="L85" s="74"/>
-      <c r="M85" s="74"/>
-      <c r="N85" s="74"/>
-      <c r="O85" s="74"/>
-      <c r="P85" s="74"/>
-      <c r="Q85" s="74"/>
-      <c r="R85" s="74"/>
-      <c r="S85" s="74"/>
+      <c r="H85" s="69"/>
+      <c r="I85" s="69"/>
+      <c r="J85" s="68"/>
+      <c r="K85" s="68"/>
+      <c r="L85" s="68"/>
+      <c r="M85" s="68"/>
+      <c r="N85" s="68"/>
+      <c r="O85" s="68"/>
+      <c r="P85" s="68"/>
+      <c r="Q85" s="68"/>
+      <c r="R85" s="68"/>
+      <c r="S85" s="68"/>
     </row>
     <row r="86" spans="1:19" ht="14.5">
-      <c r="A86" s="60" t="s">
+      <c r="A86" s="59" t="s">
         <v>129</v>
       </c>
       <c r="B86" s="45" t="s">
@@ -7089,69 +7094,69 @@
       <c r="C86" s="46">
         <v>1500</v>
       </c>
-      <c r="D86" s="48">
-        <f t="shared" ref="D86:D94" si="28">E86/C86*100</f>
-        <v>68.968666666666664</v>
-      </c>
-      <c r="E86" s="47">
+      <c r="D86" s="47">
         <v>1034.53</v>
       </c>
-      <c r="F86" s="46">
+      <c r="E86" s="46">
         <v>7500</v>
+      </c>
+      <c r="F86" s="149">
+        <f t="shared" ref="F86:F94" si="28">G86/E86*100</f>
+        <v>0</v>
       </c>
       <c r="G86" s="47">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="H86" s="75"/>
-      <c r="I86" s="78"/>
-      <c r="J86" s="74"/>
-      <c r="K86" s="74"/>
-      <c r="L86" s="74"/>
-      <c r="M86" s="74"/>
-      <c r="N86" s="74"/>
-      <c r="O86" s="74"/>
-      <c r="P86" s="74"/>
-      <c r="Q86" s="74"/>
-      <c r="R86" s="74"/>
-      <c r="S86" s="74"/>
+      <c r="H86" s="69"/>
+      <c r="I86" s="72"/>
+      <c r="J86" s="68"/>
+      <c r="K86" s="68"/>
+      <c r="L86" s="68"/>
+      <c r="M86" s="68"/>
+      <c r="N86" s="68"/>
+      <c r="O86" s="68"/>
+      <c r="P86" s="68"/>
+      <c r="Q86" s="68"/>
+      <c r="R86" s="68"/>
+      <c r="S86" s="68"/>
     </row>
     <row r="87" spans="1:19" ht="14.5">
       <c r="A87" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="B87" s="60" t="s">
+      <c r="B87" s="59" t="s">
         <v>132</v>
       </c>
       <c r="C87" s="46">
         <v>1000</v>
       </c>
-      <c r="D87" s="48">
+      <c r="D87" s="47">
+        <v>0</v>
+      </c>
+      <c r="E87" s="46">
+        <v>1000</v>
+      </c>
+      <c r="F87" s="149">
         <f t="shared" si="28"/>
         <v>0</v>
-      </c>
-      <c r="E87" s="47">
-        <v>0</v>
-      </c>
-      <c r="F87" s="46">
-        <v>1000</v>
       </c>
       <c r="G87" s="47">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="H87" s="75"/>
-      <c r="I87" s="75"/>
-      <c r="J87" s="74"/>
-      <c r="K87" s="74"/>
-      <c r="L87" s="74"/>
-      <c r="M87" s="74"/>
-      <c r="N87" s="74"/>
-      <c r="O87" s="74"/>
-      <c r="P87" s="74"/>
-      <c r="Q87" s="74"/>
-      <c r="R87" s="74"/>
-      <c r="S87" s="74"/>
+      <c r="H87" s="69"/>
+      <c r="I87" s="69"/>
+      <c r="J87" s="68"/>
+      <c r="K87" s="68"/>
+      <c r="L87" s="68"/>
+      <c r="M87" s="68"/>
+      <c r="N87" s="68"/>
+      <c r="O87" s="68"/>
+      <c r="P87" s="68"/>
+      <c r="Q87" s="68"/>
+      <c r="R87" s="68"/>
+      <c r="S87" s="68"/>
     </row>
     <row r="88" spans="1:19" ht="14.5">
       <c r="A88" s="45" t="s">
@@ -7163,32 +7168,32 @@
       <c r="C88" s="46">
         <v>200</v>
       </c>
-      <c r="D88" s="48">
+      <c r="D88" s="47">
+        <v>0</v>
+      </c>
+      <c r="E88" s="46">
+        <v>200</v>
+      </c>
+      <c r="F88" s="149">
         <f t="shared" si="28"/>
         <v>0</v>
-      </c>
-      <c r="E88" s="47">
-        <v>0</v>
-      </c>
-      <c r="F88" s="46">
-        <v>200</v>
       </c>
       <c r="G88" s="47">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="H88" s="75"/>
-      <c r="I88" s="75"/>
-      <c r="J88" s="74"/>
-      <c r="K88" s="74"/>
-      <c r="L88" s="74"/>
-      <c r="M88" s="74"/>
-      <c r="N88" s="74"/>
-      <c r="O88" s="74"/>
-      <c r="P88" s="74"/>
-      <c r="Q88" s="74"/>
-      <c r="R88" s="74"/>
-      <c r="S88" s="74"/>
+      <c r="H88" s="69"/>
+      <c r="I88" s="69"/>
+      <c r="J88" s="68"/>
+      <c r="K88" s="68"/>
+      <c r="L88" s="68"/>
+      <c r="M88" s="68"/>
+      <c r="N88" s="68"/>
+      <c r="O88" s="68"/>
+      <c r="P88" s="68"/>
+      <c r="Q88" s="68"/>
+      <c r="R88" s="68"/>
+      <c r="S88" s="68"/>
     </row>
     <row r="89" spans="1:19" ht="14.5">
       <c r="A89" s="45" t="s">
@@ -7200,32 +7205,32 @@
       <c r="C89" s="46">
         <v>800</v>
       </c>
-      <c r="D89" s="48">
+      <c r="D89" s="47">
+        <v>0</v>
+      </c>
+      <c r="E89" s="46">
+        <v>800</v>
+      </c>
+      <c r="F89" s="149">
         <f t="shared" si="28"/>
         <v>0</v>
-      </c>
-      <c r="E89" s="47">
-        <v>0</v>
-      </c>
-      <c r="F89" s="46">
-        <v>800</v>
       </c>
       <c r="G89" s="47">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="H89" s="75"/>
-      <c r="I89" s="75"/>
-      <c r="J89" s="74"/>
-      <c r="K89" s="74"/>
-      <c r="L89" s="74"/>
-      <c r="M89" s="74"/>
-      <c r="N89" s="74"/>
-      <c r="O89" s="74"/>
-      <c r="P89" s="74"/>
-      <c r="Q89" s="74"/>
-      <c r="R89" s="74"/>
-      <c r="S89" s="74"/>
+      <c r="H89" s="69"/>
+      <c r="I89" s="69"/>
+      <c r="J89" s="68"/>
+      <c r="K89" s="68"/>
+      <c r="L89" s="68"/>
+      <c r="M89" s="68"/>
+      <c r="N89" s="68"/>
+      <c r="O89" s="68"/>
+      <c r="P89" s="68"/>
+      <c r="Q89" s="68"/>
+      <c r="R89" s="68"/>
+      <c r="S89" s="68"/>
     </row>
     <row r="90" spans="1:19" ht="14.5">
       <c r="A90" s="45" t="s">
@@ -7237,32 +7242,32 @@
       <c r="C90" s="46">
         <v>300</v>
       </c>
-      <c r="D90" s="48">
+      <c r="D90" s="47">
+        <v>0</v>
+      </c>
+      <c r="E90" s="46">
+        <v>300</v>
+      </c>
+      <c r="F90" s="149">
         <f t="shared" si="28"/>
         <v>0</v>
-      </c>
-      <c r="E90" s="47">
-        <v>0</v>
-      </c>
-      <c r="F90" s="46">
-        <v>300</v>
       </c>
       <c r="G90" s="47">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="H90" s="75"/>
-      <c r="I90" s="75"/>
-      <c r="J90" s="74"/>
-      <c r="K90" s="74"/>
-      <c r="L90" s="74"/>
-      <c r="M90" s="74"/>
-      <c r="N90" s="74"/>
-      <c r="O90" s="74"/>
-      <c r="P90" s="74"/>
-      <c r="Q90" s="74"/>
-      <c r="R90" s="74"/>
-      <c r="S90" s="74"/>
+      <c r="H90" s="69"/>
+      <c r="I90" s="69"/>
+      <c r="J90" s="68"/>
+      <c r="K90" s="68"/>
+      <c r="L90" s="68"/>
+      <c r="M90" s="68"/>
+      <c r="N90" s="68"/>
+      <c r="O90" s="68"/>
+      <c r="P90" s="68"/>
+      <c r="Q90" s="68"/>
+      <c r="R90" s="68"/>
+      <c r="S90" s="68"/>
     </row>
     <row r="91" spans="1:19" ht="14.5">
       <c r="A91" s="45" t="s">
@@ -7274,32 +7279,32 @@
       <c r="C91" s="46">
         <v>500</v>
       </c>
-      <c r="D91" s="48">
+      <c r="D91" s="47">
+        <v>27.08</v>
+      </c>
+      <c r="E91" s="46">
+        <v>500</v>
+      </c>
+      <c r="F91" s="149">
         <f t="shared" si="28"/>
-        <v>5.4160000000000004</v>
-      </c>
-      <c r="E91" s="47">
-        <v>27.08</v>
-      </c>
-      <c r="F91" s="46">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G91" s="47">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="H91" s="75"/>
-      <c r="I91" s="75"/>
-      <c r="J91" s="74"/>
-      <c r="K91" s="74"/>
-      <c r="L91" s="74"/>
-      <c r="M91" s="74"/>
-      <c r="N91" s="74"/>
-      <c r="O91" s="74"/>
-      <c r="P91" s="74"/>
-      <c r="Q91" s="74"/>
-      <c r="R91" s="74"/>
-      <c r="S91" s="74"/>
+      <c r="H91" s="69"/>
+      <c r="I91" s="69"/>
+      <c r="J91" s="68"/>
+      <c r="K91" s="68"/>
+      <c r="L91" s="68"/>
+      <c r="M91" s="68"/>
+      <c r="N91" s="68"/>
+      <c r="O91" s="68"/>
+      <c r="P91" s="68"/>
+      <c r="Q91" s="68"/>
+      <c r="R91" s="68"/>
+      <c r="S91" s="68"/>
     </row>
     <row r="92" spans="1:19" ht="14.5">
       <c r="A92" s="45" t="s">
@@ -7311,32 +7316,32 @@
       <c r="C92" s="46">
         <v>1200</v>
       </c>
-      <c r="D92" s="48">
+      <c r="D92" s="47">
+        <v>100</v>
+      </c>
+      <c r="E92" s="46">
+        <v>1200</v>
+      </c>
+      <c r="F92" s="149">
         <f t="shared" si="28"/>
-        <v>8.3333333333333321</v>
-      </c>
-      <c r="E92" s="47">
-        <v>100</v>
-      </c>
-      <c r="F92" s="46">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G92" s="47">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="H92" s="74"/>
-      <c r="I92" s="74"/>
-      <c r="J92" s="74"/>
-      <c r="K92" s="74"/>
-      <c r="L92" s="74"/>
-      <c r="M92" s="74"/>
-      <c r="N92" s="74"/>
-      <c r="O92" s="74"/>
-      <c r="P92" s="74"/>
-      <c r="Q92" s="74"/>
-      <c r="R92" s="74"/>
-      <c r="S92" s="74"/>
+      <c r="H92" s="68"/>
+      <c r="I92" s="68"/>
+      <c r="J92" s="68"/>
+      <c r="K92" s="68"/>
+      <c r="L92" s="68"/>
+      <c r="M92" s="68"/>
+      <c r="N92" s="68"/>
+      <c r="O92" s="68"/>
+      <c r="P92" s="68"/>
+      <c r="Q92" s="68"/>
+      <c r="R92" s="68"/>
+      <c r="S92" s="68"/>
     </row>
     <row r="93" spans="1:19" ht="14.5">
       <c r="A93" s="45" t="s">
@@ -7348,35 +7353,35 @@
       <c r="C93" s="46">
         <v>1200</v>
       </c>
-      <c r="D93" s="48">
+      <c r="D93" s="47">
+        <v>400</v>
+      </c>
+      <c r="E93" s="46">
+        <v>1200</v>
+      </c>
+      <c r="F93" s="149">
         <f t="shared" si="28"/>
-        <v>33.333333333333329</v>
-      </c>
-      <c r="E93" s="47">
-        <v>400</v>
-      </c>
-      <c r="F93" s="46">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="G93" s="47">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="H93" s="74"/>
-      <c r="I93" s="74"/>
-      <c r="J93" s="74"/>
-      <c r="K93" s="74"/>
-      <c r="L93" s="74"/>
-      <c r="M93" s="74"/>
-      <c r="N93" s="74"/>
-      <c r="O93" s="74"/>
-      <c r="P93" s="74"/>
-      <c r="Q93" s="74"/>
-      <c r="R93" s="74"/>
-      <c r="S93" s="74"/>
+      <c r="H93" s="68"/>
+      <c r="I93" s="68"/>
+      <c r="J93" s="68"/>
+      <c r="K93" s="68"/>
+      <c r="L93" s="68"/>
+      <c r="M93" s="68"/>
+      <c r="N93" s="68"/>
+      <c r="O93" s="68"/>
+      <c r="P93" s="68"/>
+      <c r="Q93" s="68"/>
+      <c r="R93" s="68"/>
+      <c r="S93" s="68"/>
     </row>
     <row r="94" spans="1:19" ht="14.5">
-      <c r="A94" s="52" t="s">
+      <c r="A94" s="51" t="s">
         <v>45</v>
       </c>
       <c r="B94" s="45" t="s">
@@ -7386,18 +7391,18 @@
         <f>SUBTOTAL(9,C83:C93)</f>
         <v>14600</v>
       </c>
-      <c r="D94" s="48">
-        <f t="shared" si="28"/>
-        <v>10.695958904109588</v>
+      <c r="D94" s="46">
+        <f t="shared" ref="D94:S94" si="29">SUBTOTAL(9,D83:D93)</f>
+        <v>1561.61</v>
       </c>
       <c r="E94" s="46">
-        <f t="shared" ref="E94:S94" si="29">SUBTOTAL(9,E83:E93)</f>
-        <v>1561.61</v>
-      </c>
-      <c r="F94" s="46">
         <f t="shared" si="29"/>
         <v>20600</v>
       </c>
+      <c r="F94" s="149">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
       <c r="G94" s="46">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -7452,332 +7457,332 @@
       </c>
     </row>
     <row r="95" spans="1:19" ht="14.5">
-      <c r="A95" s="144"/>
-      <c r="B95" s="126"/>
-      <c r="C95" s="126"/>
-      <c r="D95" s="126"/>
-      <c r="E95" s="126"/>
-      <c r="F95" s="126"/>
-      <c r="G95" s="126"/>
+      <c r="A95" s="140"/>
+      <c r="B95" s="120"/>
+      <c r="C95" s="120"/>
+      <c r="D95" s="120"/>
+      <c r="E95" s="120"/>
+      <c r="F95" s="120"/>
+      <c r="G95" s="120"/>
       <c r="H95" s="142"/>
-      <c r="I95" s="129"/>
-      <c r="J95" s="129"/>
-      <c r="K95" s="129"/>
-      <c r="L95" s="129"/>
-      <c r="M95" s="129"/>
-      <c r="N95" s="129"/>
-      <c r="O95" s="129"/>
-      <c r="P95" s="129"/>
-      <c r="Q95" s="129"/>
-      <c r="R95" s="129"/>
-      <c r="S95" s="129"/>
+      <c r="I95" s="123"/>
+      <c r="J95" s="123"/>
+      <c r="K95" s="123"/>
+      <c r="L95" s="123"/>
+      <c r="M95" s="123"/>
+      <c r="N95" s="123"/>
+      <c r="O95" s="123"/>
+      <c r="P95" s="123"/>
+      <c r="Q95" s="123"/>
+      <c r="R95" s="123"/>
+      <c r="S95" s="123"/>
     </row>
     <row r="96" spans="1:19" ht="14.5">
-      <c r="A96" s="53" t="s">
+      <c r="A96" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="B96" s="55" t="s">
+      <c r="B96" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="C96" s="54"/>
-      <c r="D96" s="62"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="54"/>
-      <c r="G96" s="54"/>
-      <c r="H96" s="74"/>
-      <c r="I96" s="74"/>
-      <c r="J96" s="74"/>
-      <c r="K96" s="74"/>
-      <c r="L96" s="74"/>
-      <c r="M96" s="74"/>
-      <c r="N96" s="74"/>
-      <c r="O96" s="74"/>
-      <c r="P96" s="74"/>
-      <c r="Q96" s="74"/>
-      <c r="R96" s="74"/>
-      <c r="S96" s="74"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="53"/>
+      <c r="H96" s="68"/>
+      <c r="I96" s="68"/>
+      <c r="J96" s="68"/>
+      <c r="K96" s="68"/>
+      <c r="L96" s="68"/>
+      <c r="M96" s="68"/>
+      <c r="N96" s="68"/>
+      <c r="O96" s="68"/>
+      <c r="P96" s="68"/>
+      <c r="Q96" s="68"/>
+      <c r="R96" s="68"/>
+      <c r="S96" s="68"/>
     </row>
     <row r="97" spans="1:19" ht="14.5">
-      <c r="A97" s="57" t="s">
+      <c r="A97" s="56" t="s">
         <v>145</v>
       </c>
-      <c r="B97" s="55" t="s">
+      <c r="B97" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="C97" s="56">
+      <c r="C97" s="55">
         <v>600</v>
       </c>
-      <c r="D97" s="58">
-        <f t="shared" ref="D97:D102" si="30">E97/C97*100</f>
-        <v>0</v>
-      </c>
-      <c r="E97" s="54">
-        <v>0</v>
-      </c>
-      <c r="F97" s="56">
+      <c r="D97" s="53">
+        <v>0</v>
+      </c>
+      <c r="E97" s="55">
         <v>600</v>
       </c>
-      <c r="G97" s="54">
+      <c r="F97" s="152">
+        <f t="shared" ref="F97:F102" si="30">G97/E97*100</f>
+        <v>0</v>
+      </c>
+      <c r="G97" s="53">
         <f t="shared" ref="G97:G101" si="31">SUM(H97:S97)</f>
         <v>0</v>
       </c>
-      <c r="H97" s="74"/>
-      <c r="I97" s="74"/>
-      <c r="J97" s="74"/>
-      <c r="K97" s="74"/>
-      <c r="L97" s="74"/>
-      <c r="M97" s="74"/>
-      <c r="N97" s="74"/>
-      <c r="O97" s="74"/>
-      <c r="P97" s="74"/>
-      <c r="Q97" s="74"/>
-      <c r="R97" s="74"/>
-      <c r="S97" s="74"/>
+      <c r="H97" s="68"/>
+      <c r="I97" s="68"/>
+      <c r="J97" s="68"/>
+      <c r="K97" s="68"/>
+      <c r="L97" s="68"/>
+      <c r="M97" s="68"/>
+      <c r="N97" s="68"/>
+      <c r="O97" s="68"/>
+      <c r="P97" s="68"/>
+      <c r="Q97" s="68"/>
+      <c r="R97" s="68"/>
+      <c r="S97" s="68"/>
     </row>
     <row r="98" spans="1:19" ht="14.5">
-      <c r="A98" s="57" t="s">
+      <c r="A98" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="B98" s="55" t="s">
+      <c r="B98" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="C98" s="56">
+      <c r="C98" s="55">
         <v>500</v>
       </c>
-      <c r="D98" s="58">
+      <c r="D98" s="53">
+        <v>0</v>
+      </c>
+      <c r="E98" s="55">
+        <v>500</v>
+      </c>
+      <c r="F98" s="152">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="E98" s="54">
-        <v>0</v>
-      </c>
-      <c r="F98" s="56">
-        <v>500</v>
-      </c>
-      <c r="G98" s="54">
+      <c r="G98" s="53">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="H98" s="74"/>
-      <c r="I98" s="74"/>
-      <c r="J98" s="74"/>
-      <c r="K98" s="74"/>
-      <c r="L98" s="74"/>
-      <c r="M98" s="74"/>
-      <c r="N98" s="74"/>
-      <c r="O98" s="74"/>
-      <c r="P98" s="74"/>
-      <c r="Q98" s="74"/>
-      <c r="R98" s="74"/>
-      <c r="S98" s="74"/>
+      <c r="H98" s="68"/>
+      <c r="I98" s="68"/>
+      <c r="J98" s="68"/>
+      <c r="K98" s="68"/>
+      <c r="L98" s="68"/>
+      <c r="M98" s="68"/>
+      <c r="N98" s="68"/>
+      <c r="O98" s="68"/>
+      <c r="P98" s="68"/>
+      <c r="Q98" s="68"/>
+      <c r="R98" s="68"/>
+      <c r="S98" s="68"/>
     </row>
     <row r="99" spans="1:19" ht="14.5">
-      <c r="A99" s="57" t="s">
+      <c r="A99" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="B99" s="55" t="s">
+      <c r="B99" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="C99" s="56">
+      <c r="C99" s="55">
         <v>2000</v>
       </c>
-      <c r="D99" s="58">
+      <c r="D99" s="53">
+        <v>0</v>
+      </c>
+      <c r="E99" s="55">
+        <v>5000</v>
+      </c>
+      <c r="F99" s="152">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="E99" s="54">
-        <v>0</v>
-      </c>
-      <c r="F99" s="56">
-        <v>5000</v>
-      </c>
-      <c r="G99" s="54">
+      <c r="G99" s="53">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="H99" s="74"/>
-      <c r="I99" s="74"/>
-      <c r="J99" s="74"/>
-      <c r="K99" s="74"/>
-      <c r="L99" s="74"/>
-      <c r="M99" s="74"/>
-      <c r="N99" s="74"/>
-      <c r="O99" s="74"/>
-      <c r="P99" s="74"/>
-      <c r="Q99" s="74"/>
-      <c r="R99" s="74"/>
-      <c r="S99" s="74"/>
+      <c r="H99" s="68"/>
+      <c r="I99" s="68"/>
+      <c r="J99" s="68"/>
+      <c r="K99" s="68"/>
+      <c r="L99" s="68"/>
+      <c r="M99" s="68"/>
+      <c r="N99" s="68"/>
+      <c r="O99" s="68"/>
+      <c r="P99" s="68"/>
+      <c r="Q99" s="68"/>
+      <c r="R99" s="68"/>
+      <c r="S99" s="68"/>
     </row>
     <row r="100" spans="1:19" ht="14.5">
-      <c r="A100" s="57" t="s">
+      <c r="A100" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="B100" s="55" t="s">
+      <c r="B100" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="C100" s="56">
+      <c r="C100" s="55">
         <v>200</v>
       </c>
-      <c r="D100" s="58">
+      <c r="D100" s="53">
+        <v>0</v>
+      </c>
+      <c r="E100" s="55">
+        <v>200</v>
+      </c>
+      <c r="F100" s="152">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="E100" s="54">
-        <v>0</v>
-      </c>
-      <c r="F100" s="56">
+      <c r="G100" s="53">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H100" s="68"/>
+      <c r="I100" s="68"/>
+      <c r="J100" s="68"/>
+      <c r="K100" s="68"/>
+      <c r="L100" s="68"/>
+      <c r="M100" s="68"/>
+      <c r="N100" s="68"/>
+      <c r="O100" s="68"/>
+      <c r="P100" s="68"/>
+      <c r="Q100" s="68"/>
+      <c r="R100" s="68"/>
+      <c r="S100" s="68"/>
+    </row>
+    <row r="101" spans="1:19" ht="14.5">
+      <c r="A101" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="C101" s="55">
         <v>200</v>
       </c>
-      <c r="G100" s="54">
+      <c r="D101" s="53">
+        <v>0</v>
+      </c>
+      <c r="E101" s="55">
+        <v>200</v>
+      </c>
+      <c r="F101" s="152">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="53">
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="H100" s="74"/>
-      <c r="I100" s="74"/>
-      <c r="J100" s="74"/>
-      <c r="K100" s="74"/>
-      <c r="L100" s="74"/>
-      <c r="M100" s="74"/>
-      <c r="N100" s="74"/>
-      <c r="O100" s="74"/>
-      <c r="P100" s="74"/>
-      <c r="Q100" s="74"/>
-      <c r="R100" s="74"/>
-      <c r="S100" s="74"/>
-    </row>
-    <row r="101" spans="1:19" ht="14.5">
-      <c r="A101" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="B101" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="C101" s="56">
-        <v>200</v>
-      </c>
-      <c r="D101" s="58">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="E101" s="54">
-        <v>0</v>
-      </c>
-      <c r="F101" s="56">
-        <v>200</v>
-      </c>
-      <c r="G101" s="54">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="H101" s="74"/>
-      <c r="I101" s="74"/>
-      <c r="J101" s="74"/>
-      <c r="K101" s="74"/>
-      <c r="L101" s="74"/>
-      <c r="M101" s="74"/>
-      <c r="N101" s="74"/>
-      <c r="O101" s="74"/>
-      <c r="P101" s="74"/>
-      <c r="Q101" s="74"/>
-      <c r="R101" s="74"/>
-      <c r="S101" s="74"/>
+      <c r="H101" s="68"/>
+      <c r="I101" s="68"/>
+      <c r="J101" s="68"/>
+      <c r="K101" s="68"/>
+      <c r="L101" s="68"/>
+      <c r="M101" s="68"/>
+      <c r="N101" s="68"/>
+      <c r="O101" s="68"/>
+      <c r="P101" s="68"/>
+      <c r="Q101" s="68"/>
+      <c r="R101" s="68"/>
+      <c r="S101" s="68"/>
     </row>
     <row r="102" spans="1:19" ht="14.5">
       <c r="A102" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B102" s="55" t="s">
+      <c r="B102" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="C102" s="56">
+      <c r="C102" s="55">
         <f>SUBTOTAL(9,C97:C101)</f>
         <v>3500</v>
       </c>
-      <c r="D102" s="58">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="E102" s="56">
-        <f t="shared" ref="E102:S102" si="32">SUBTOTAL(9,E97:E101)</f>
-        <v>0</v>
-      </c>
-      <c r="F102" s="56">
+      <c r="D102" s="55">
+        <f t="shared" ref="D102:S102" si="32">SUBTOTAL(9,D97:D101)</f>
+        <v>0</v>
+      </c>
+      <c r="E102" s="55">
         <f t="shared" si="32"/>
         <v>6500</v>
       </c>
-      <c r="G102" s="56">
+      <c r="F102" s="152">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="55">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="H102" s="56">
+      <c r="H102" s="55">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="I102" s="56">
+      <c r="I102" s="55">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="J102" s="56">
+      <c r="J102" s="55">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="K102" s="56">
+      <c r="K102" s="55">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="L102" s="56">
+      <c r="L102" s="55">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="M102" s="56">
+      <c r="M102" s="55">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="N102" s="56">
+      <c r="N102" s="55">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="O102" s="56">
+      <c r="O102" s="55">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="P102" s="56">
+      <c r="P102" s="55">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="Q102" s="56">
+      <c r="Q102" s="55">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="R102" s="56">
+      <c r="R102" s="55">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="S102" s="56">
+      <c r="S102" s="55">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="14.5">
-      <c r="A103" s="143"/>
-      <c r="B103" s="126"/>
-      <c r="C103" s="126"/>
-      <c r="D103" s="126"/>
-      <c r="E103" s="126"/>
-      <c r="F103" s="126"/>
-      <c r="G103" s="126"/>
+      <c r="A103" s="144"/>
+      <c r="B103" s="120"/>
+      <c r="C103" s="120"/>
+      <c r="D103" s="120"/>
+      <c r="E103" s="120"/>
+      <c r="F103" s="120"/>
+      <c r="G103" s="120"/>
       <c r="H103" s="142"/>
-      <c r="I103" s="129"/>
-      <c r="J103" s="129"/>
-      <c r="K103" s="129"/>
-      <c r="L103" s="129"/>
-      <c r="M103" s="129"/>
-      <c r="N103" s="129"/>
-      <c r="O103" s="129"/>
-      <c r="P103" s="129"/>
-      <c r="Q103" s="129"/>
-      <c r="R103" s="129"/>
-      <c r="S103" s="129"/>
+      <c r="I103" s="123"/>
+      <c r="J103" s="123"/>
+      <c r="K103" s="123"/>
+      <c r="L103" s="123"/>
+      <c r="M103" s="123"/>
+      <c r="N103" s="123"/>
+      <c r="O103" s="123"/>
+      <c r="P103" s="123"/>
+      <c r="Q103" s="123"/>
+      <c r="R103" s="123"/>
+      <c r="S103" s="123"/>
     </row>
     <row r="104" spans="1:19" ht="14.5">
       <c r="A104" s="44" t="s">
@@ -7787,25 +7792,25 @@
         <v>156</v>
       </c>
       <c r="C104" s="47"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="66"/>
+      <c r="D104" s="62"/>
+      <c r="E104" s="47"/>
       <c r="F104" s="47"/>
       <c r="G104" s="47"/>
-      <c r="H104" s="74"/>
-      <c r="I104" s="74"/>
-      <c r="J104" s="74"/>
-      <c r="K104" s="74"/>
-      <c r="L104" s="74"/>
-      <c r="M104" s="74"/>
-      <c r="N104" s="74"/>
-      <c r="O104" s="74"/>
-      <c r="P104" s="74"/>
-      <c r="Q104" s="74"/>
-      <c r="R104" s="74"/>
-      <c r="S104" s="74"/>
+      <c r="H104" s="68"/>
+      <c r="I104" s="68"/>
+      <c r="J104" s="68"/>
+      <c r="K104" s="68"/>
+      <c r="L104" s="68"/>
+      <c r="M104" s="68"/>
+      <c r="N104" s="68"/>
+      <c r="O104" s="68"/>
+      <c r="P104" s="68"/>
+      <c r="Q104" s="68"/>
+      <c r="R104" s="68"/>
+      <c r="S104" s="68"/>
     </row>
     <row r="105" spans="1:19" ht="14.5">
-      <c r="A105" s="60" t="s">
+      <c r="A105" s="59" t="s">
         <v>157</v>
       </c>
       <c r="B105" s="45" t="s">
@@ -7814,33 +7819,33 @@
       <c r="C105" s="47">
         <v>1000</v>
       </c>
-      <c r="D105" s="48">
-        <f t="shared" ref="D105:D106" si="33">E105/C105*100</f>
-        <v>0</v>
-      </c>
-      <c r="E105" s="47"/>
-      <c r="F105" s="47">
+      <c r="D105" s="47"/>
+      <c r="E105" s="47">
         <v>1000</v>
+      </c>
+      <c r="F105" s="149">
+        <f t="shared" ref="F105:F106" si="33">G105/E105*100</f>
+        <v>0</v>
       </c>
       <c r="G105" s="47">
         <f t="shared" ref="G105" si="34">SUM(H105:S105)</f>
         <v>0</v>
       </c>
-      <c r="H105" s="74"/>
-      <c r="I105" s="74"/>
-      <c r="J105" s="74"/>
-      <c r="K105" s="74"/>
-      <c r="L105" s="74"/>
-      <c r="M105" s="74"/>
-      <c r="N105" s="74"/>
-      <c r="O105" s="74"/>
-      <c r="P105" s="74"/>
-      <c r="Q105" s="74"/>
-      <c r="R105" s="74"/>
-      <c r="S105" s="74"/>
+      <c r="H105" s="68"/>
+      <c r="I105" s="68"/>
+      <c r="J105" s="68"/>
+      <c r="K105" s="68"/>
+      <c r="L105" s="68"/>
+      <c r="M105" s="68"/>
+      <c r="N105" s="68"/>
+      <c r="O105" s="68"/>
+      <c r="P105" s="68"/>
+      <c r="Q105" s="68"/>
+      <c r="R105" s="68"/>
+      <c r="S105" s="68"/>
     </row>
     <row r="106" spans="1:19" ht="14.5">
-      <c r="A106" s="52" t="s">
+      <c r="A106" s="51" t="s">
         <v>45</v>
       </c>
       <c r="B106" s="45" t="s">
@@ -7850,18 +7855,18 @@
         <f>SUBTOTAL(9,C105)</f>
         <v>1000</v>
       </c>
-      <c r="D106" s="48">
-        <f t="shared" si="33"/>
+      <c r="D106" s="46">
+        <f t="shared" ref="D106:S106" si="35">SUBTOTAL(9,D105)</f>
         <v>0</v>
       </c>
       <c r="E106" s="46">
-        <f t="shared" ref="E106:S106" si="35">SUBTOTAL(9,E105)</f>
-        <v>0</v>
-      </c>
-      <c r="F106" s="46">
         <f t="shared" si="35"/>
         <v>1000</v>
       </c>
+      <c r="F106" s="149">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
       <c r="G106" s="46">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -7916,303 +7921,303 @@
       </c>
     </row>
     <row r="107" spans="1:19" ht="14.5">
-      <c r="A107" s="144"/>
-      <c r="B107" s="126"/>
-      <c r="C107" s="126"/>
-      <c r="D107" s="126"/>
-      <c r="E107" s="126"/>
-      <c r="F107" s="126"/>
-      <c r="G107" s="126"/>
+      <c r="A107" s="140"/>
+      <c r="B107" s="120"/>
+      <c r="C107" s="120"/>
+      <c r="D107" s="120"/>
+      <c r="E107" s="120"/>
+      <c r="F107" s="120"/>
+      <c r="G107" s="120"/>
       <c r="H107" s="142"/>
-      <c r="I107" s="129"/>
-      <c r="J107" s="129"/>
-      <c r="K107" s="129"/>
-      <c r="L107" s="129"/>
-      <c r="M107" s="129"/>
-      <c r="N107" s="129"/>
-      <c r="O107" s="129"/>
-      <c r="P107" s="129"/>
-      <c r="Q107" s="129"/>
-      <c r="R107" s="129"/>
-      <c r="S107" s="129"/>
+      <c r="I107" s="123"/>
+      <c r="J107" s="123"/>
+      <c r="K107" s="123"/>
+      <c r="L107" s="123"/>
+      <c r="M107" s="123"/>
+      <c r="N107" s="123"/>
+      <c r="O107" s="123"/>
+      <c r="P107" s="123"/>
+      <c r="Q107" s="123"/>
+      <c r="R107" s="123"/>
+      <c r="S107" s="123"/>
     </row>
     <row r="108" spans="1:19" ht="14.5">
-      <c r="A108" s="53" t="s">
+      <c r="A108" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="B108" s="55" t="s">
+      <c r="B108" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="C108" s="54"/>
-      <c r="D108" s="62"/>
-      <c r="E108" s="54"/>
-      <c r="F108" s="54"/>
-      <c r="G108" s="58"/>
-      <c r="H108" s="74"/>
-      <c r="I108" s="74"/>
-      <c r="J108" s="74"/>
-      <c r="K108" s="74"/>
-      <c r="L108" s="74"/>
-      <c r="M108" s="74"/>
-      <c r="N108" s="74"/>
-      <c r="O108" s="74"/>
-      <c r="P108" s="74"/>
-      <c r="Q108" s="74"/>
-      <c r="R108" s="74"/>
-      <c r="S108" s="74"/>
+      <c r="C108" s="53"/>
+      <c r="D108" s="53"/>
+      <c r="E108" s="53"/>
+      <c r="F108" s="53"/>
+      <c r="G108" s="57"/>
+      <c r="H108" s="68"/>
+      <c r="I108" s="68"/>
+      <c r="J108" s="68"/>
+      <c r="K108" s="68"/>
+      <c r="L108" s="68"/>
+      <c r="M108" s="68"/>
+      <c r="N108" s="68"/>
+      <c r="O108" s="68"/>
+      <c r="P108" s="68"/>
+      <c r="Q108" s="68"/>
+      <c r="R108" s="68"/>
+      <c r="S108" s="68"/>
     </row>
     <row r="109" spans="1:19" ht="14.5">
-      <c r="A109" s="55" t="s">
+      <c r="A109" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="B109" s="55" t="s">
+      <c r="B109" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="C109" s="67">
+      <c r="C109" s="63">
         <v>1960.94</v>
       </c>
-      <c r="D109" s="58">
-        <f t="shared" ref="D109:D110" si="36">E109/C109*100</f>
-        <v>0</v>
-      </c>
-      <c r="E109" s="54"/>
-      <c r="F109" s="67">
+      <c r="D109" s="53"/>
+      <c r="E109" s="63">
         <v>3200</v>
       </c>
-      <c r="G109" s="54">
+      <c r="F109" s="152">
+        <f t="shared" ref="F109:F110" si="36">G109/E109*100</f>
+        <v>0</v>
+      </c>
+      <c r="G109" s="53">
         <f t="shared" ref="G109" si="37">SUM(H109:S109)</f>
         <v>0</v>
       </c>
-      <c r="H109" s="74"/>
-      <c r="I109" s="74"/>
-      <c r="J109" s="74"/>
-      <c r="K109" s="74"/>
-      <c r="L109" s="74"/>
-      <c r="M109" s="74"/>
-      <c r="N109" s="74"/>
-      <c r="O109" s="74"/>
-      <c r="P109" s="74"/>
-      <c r="Q109" s="74"/>
-      <c r="R109" s="74"/>
-      <c r="S109" s="74"/>
+      <c r="H109" s="68"/>
+      <c r="I109" s="68"/>
+      <c r="J109" s="68"/>
+      <c r="K109" s="68"/>
+      <c r="L109" s="68"/>
+      <c r="M109" s="68"/>
+      <c r="N109" s="68"/>
+      <c r="O109" s="68"/>
+      <c r="P109" s="68"/>
+      <c r="Q109" s="68"/>
+      <c r="R109" s="68"/>
+      <c r="S109" s="68"/>
     </row>
     <row r="110" spans="1:19" ht="14.5">
       <c r="A110" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B110" s="55" t="s">
+      <c r="B110" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="C110" s="56">
+      <c r="C110" s="55">
         <f>SUBTOTAL(9,C109)</f>
         <v>1960.94</v>
       </c>
-      <c r="D110" s="58">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="E110" s="56">
-        <f t="shared" ref="E110:S110" si="38">SUBTOTAL(9,E109)</f>
-        <v>0</v>
-      </c>
-      <c r="F110" s="56">
+      <c r="D110" s="55">
+        <f t="shared" ref="D110:S110" si="38">SUBTOTAL(9,D109)</f>
+        <v>0</v>
+      </c>
+      <c r="E110" s="55">
         <f t="shared" si="38"/>
         <v>3200</v>
       </c>
-      <c r="G110" s="56">
+      <c r="F110" s="152">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G110" s="55">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="H110" s="56">
+      <c r="H110" s="55">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="I110" s="56">
+      <c r="I110" s="55">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="J110" s="56">
+      <c r="J110" s="55">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="K110" s="56">
+      <c r="K110" s="55">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="L110" s="56">
+      <c r="L110" s="55">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="M110" s="56">
+      <c r="M110" s="55">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="N110" s="56">
+      <c r="N110" s="55">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="O110" s="56">
+      <c r="O110" s="55">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="P110" s="56">
+      <c r="P110" s="55">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="Q110" s="56">
+      <c r="Q110" s="55">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="R110" s="56">
+      <c r="R110" s="55">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="S110" s="56">
+      <c r="S110" s="55">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:19" ht="14.5">
-      <c r="A111" s="143"/>
-      <c r="B111" s="126"/>
-      <c r="C111" s="126"/>
-      <c r="D111" s="126"/>
-      <c r="E111" s="126"/>
-      <c r="F111" s="126"/>
-      <c r="G111" s="126"/>
-      <c r="H111" s="74"/>
-      <c r="I111" s="74"/>
-      <c r="J111" s="74"/>
-      <c r="K111" s="74"/>
-      <c r="L111" s="74"/>
-      <c r="M111" s="74"/>
-      <c r="N111" s="74"/>
-      <c r="O111" s="74"/>
-      <c r="P111" s="74"/>
-      <c r="Q111" s="74"/>
-      <c r="R111" s="74"/>
-      <c r="S111" s="74"/>
+      <c r="A111" s="144"/>
+      <c r="B111" s="120"/>
+      <c r="C111" s="120"/>
+      <c r="D111" s="120"/>
+      <c r="E111" s="120"/>
+      <c r="F111" s="120"/>
+      <c r="G111" s="120"/>
+      <c r="H111" s="68"/>
+      <c r="I111" s="68"/>
+      <c r="J111" s="68"/>
+      <c r="K111" s="68"/>
+      <c r="L111" s="68"/>
+      <c r="M111" s="68"/>
+      <c r="N111" s="68"/>
+      <c r="O111" s="68"/>
+      <c r="P111" s="68"/>
+      <c r="Q111" s="68"/>
+      <c r="R111" s="68"/>
+      <c r="S111" s="68"/>
     </row>
     <row r="112" spans="1:19" ht="14.5">
-      <c r="A112" s="68"/>
-      <c r="B112" s="68" t="s">
+      <c r="A112" s="64"/>
+      <c r="B112" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="C112" s="69">
+      <c r="C112" s="65">
         <f>SUBTOTAL(9,C9:C110)</f>
         <v>204890.94</v>
       </c>
-      <c r="D112" s="70">
-        <f>E112/C112*100</f>
-        <v>77.734706083148424</v>
-      </c>
-      <c r="E112" s="69">
-        <f t="shared" ref="E112:S112" si="39">SUBTOTAL(9,E9:E110)</f>
+      <c r="D112" s="65">
+        <f t="shared" ref="D112:S112" si="39">SUBTOTAL(9,D9:D110)</f>
         <v>159271.37</v>
       </c>
-      <c r="F112" s="69">
+      <c r="E112" s="65">
         <f t="shared" si="39"/>
         <v>198490</v>
       </c>
-      <c r="G112" s="69">
+      <c r="F112" s="151">
+        <f>G112/E112*100</f>
+        <v>0</v>
+      </c>
+      <c r="G112" s="65">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="H112" s="69">
+      <c r="H112" s="65">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="I112" s="69">
+      <c r="I112" s="65">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="J112" s="69">
+      <c r="J112" s="65">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="K112" s="69">
+      <c r="K112" s="65">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="L112" s="69">
+      <c r="L112" s="65">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="M112" s="69">
+      <c r="M112" s="65">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="N112" s="69">
+      <c r="N112" s="65">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="O112" s="69">
+      <c r="O112" s="65">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="P112" s="69">
+      <c r="P112" s="65">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="Q112" s="69">
+      <c r="Q112" s="65">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="R112" s="69">
+      <c r="R112" s="65">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="S112" s="69">
+      <c r="S112" s="65">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:19" ht="14.5">
-      <c r="A113" s="144"/>
-      <c r="B113" s="126"/>
-      <c r="C113" s="126"/>
-      <c r="D113" s="126"/>
-      <c r="E113" s="126"/>
-      <c r="F113" s="126"/>
-      <c r="G113" s="126"/>
+      <c r="A113" s="140"/>
+      <c r="B113" s="120"/>
+      <c r="C113" s="120"/>
+      <c r="D113" s="120"/>
+      <c r="E113" s="120"/>
+      <c r="F113" s="120"/>
+      <c r="G113" s="120"/>
       <c r="H113" s="142"/>
-      <c r="I113" s="129"/>
-      <c r="J113" s="129"/>
-      <c r="K113" s="129"/>
-      <c r="L113" s="129"/>
-      <c r="M113" s="129"/>
-      <c r="N113" s="129"/>
-      <c r="O113" s="129"/>
-      <c r="P113" s="129"/>
-      <c r="Q113" s="129"/>
-      <c r="R113" s="129"/>
-      <c r="S113" s="129"/>
+      <c r="I113" s="123"/>
+      <c r="J113" s="123"/>
+      <c r="K113" s="123"/>
+      <c r="L113" s="123"/>
+      <c r="M113" s="123"/>
+      <c r="N113" s="123"/>
+      <c r="O113" s="123"/>
+      <c r="P113" s="123"/>
+      <c r="Q113" s="123"/>
+      <c r="R113" s="123"/>
+      <c r="S113" s="123"/>
     </row>
     <row r="114" spans="1:19" ht="14.5">
-      <c r="A114" s="144" t="s">
+      <c r="A114" s="140" t="s">
         <v>163</v>
       </c>
-      <c r="B114" s="145"/>
-      <c r="C114" s="145"/>
-      <c r="D114" s="145"/>
-      <c r="E114" s="145"/>
-      <c r="F114" s="145"/>
-      <c r="G114" s="145"/>
-      <c r="H114" s="74"/>
-      <c r="I114" s="74"/>
-      <c r="J114" s="74"/>
-      <c r="K114" s="74"/>
-      <c r="L114" s="74"/>
-      <c r="M114" s="74"/>
-      <c r="N114" s="74"/>
-      <c r="O114" s="74"/>
-      <c r="P114" s="74"/>
-      <c r="Q114" s="74"/>
-      <c r="R114" s="74"/>
-      <c r="S114" s="74"/>
+      <c r="B114" s="141"/>
+      <c r="C114" s="141"/>
+      <c r="D114" s="141"/>
+      <c r="E114" s="141"/>
+      <c r="F114" s="141"/>
+      <c r="G114" s="141"/>
+      <c r="H114" s="68"/>
+      <c r="I114" s="68"/>
+      <c r="J114" s="68"/>
+      <c r="K114" s="68"/>
+      <c r="L114" s="68"/>
+      <c r="M114" s="68"/>
+      <c r="N114" s="68"/>
+      <c r="O114" s="68"/>
+      <c r="P114" s="68"/>
+      <c r="Q114" s="68"/>
+      <c r="R114" s="68"/>
+      <c r="S114" s="68"/>
     </row>
     <row r="115" spans="1:19" ht="14.5">
-      <c r="A115" s="60" t="s">
+      <c r="A115" s="59" t="s">
         <v>164</v>
       </c>
       <c r="B115" s="45" t="s">
@@ -8221,35 +8226,35 @@
       <c r="C115" s="47">
         <v>5000</v>
       </c>
-      <c r="D115" s="48">
-        <f t="shared" ref="D115:D117" si="40">E115/C115*100</f>
-        <v>107</v>
+      <c r="D115" s="46">
+        <v>5350</v>
       </c>
       <c r="E115" s="46">
-        <v>5350</v>
-      </c>
-      <c r="F115" s="46">
         <v>5000</v>
+      </c>
+      <c r="F115" s="149">
+        <f t="shared" ref="F115:F117" si="40">G115/E115*100</f>
+        <v>0</v>
       </c>
       <c r="G115" s="47">
         <f t="shared" ref="G115:G120" si="41">SUM(H115:S115)</f>
         <v>0</v>
       </c>
-      <c r="H115" s="74"/>
-      <c r="I115" s="74"/>
-      <c r="J115" s="74"/>
-      <c r="K115" s="74"/>
-      <c r="L115" s="74"/>
-      <c r="M115" s="74"/>
-      <c r="N115" s="74"/>
-      <c r="O115" s="74"/>
-      <c r="P115" s="74"/>
-      <c r="Q115" s="74"/>
-      <c r="R115" s="74"/>
-      <c r="S115" s="74"/>
+      <c r="H115" s="68"/>
+      <c r="I115" s="68"/>
+      <c r="J115" s="68"/>
+      <c r="K115" s="68"/>
+      <c r="L115" s="68"/>
+      <c r="M115" s="68"/>
+      <c r="N115" s="68"/>
+      <c r="O115" s="68"/>
+      <c r="P115" s="68"/>
+      <c r="Q115" s="68"/>
+      <c r="R115" s="68"/>
+      <c r="S115" s="68"/>
     </row>
     <row r="116" spans="1:19" ht="14.5">
-      <c r="A116" s="60" t="s">
+      <c r="A116" s="59" t="s">
         <v>166</v>
       </c>
       <c r="B116" s="45" t="s">
@@ -8258,35 +8263,35 @@
       <c r="C116" s="47">
         <v>3000</v>
       </c>
-      <c r="D116" s="48">
-        <f t="shared" si="40"/>
-        <v>100</v>
+      <c r="D116" s="46">
+        <v>3000</v>
       </c>
       <c r="E116" s="46">
         <v>3000</v>
       </c>
-      <c r="F116" s="46">
-        <v>3000</v>
+      <c r="F116" s="149">
+        <f t="shared" si="40"/>
+        <v>0</v>
       </c>
       <c r="G116" s="47">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="H116" s="74"/>
-      <c r="I116" s="74"/>
-      <c r="J116" s="74"/>
-      <c r="K116" s="74"/>
-      <c r="L116" s="74"/>
-      <c r="M116" s="74"/>
-      <c r="N116" s="74"/>
-      <c r="O116" s="74"/>
-      <c r="P116" s="74"/>
-      <c r="Q116" s="74"/>
-      <c r="R116" s="74"/>
-      <c r="S116" s="74"/>
+      <c r="H116" s="68"/>
+      <c r="I116" s="68"/>
+      <c r="J116" s="68"/>
+      <c r="K116" s="68"/>
+      <c r="L116" s="68"/>
+      <c r="M116" s="68"/>
+      <c r="N116" s="68"/>
+      <c r="O116" s="68"/>
+      <c r="P116" s="68"/>
+      <c r="Q116" s="68"/>
+      <c r="R116" s="68"/>
+      <c r="S116" s="68"/>
     </row>
     <row r="117" spans="1:19" ht="14.5">
-      <c r="A117" s="60" t="s">
+      <c r="A117" s="59" t="s">
         <v>168</v>
       </c>
       <c r="B117" s="45" t="s">
@@ -8295,32 +8300,32 @@
       <c r="C117" s="47">
         <v>4000</v>
       </c>
-      <c r="D117" s="48">
-        <f t="shared" si="40"/>
-        <v>100</v>
+      <c r="D117" s="46">
+        <v>4000</v>
       </c>
       <c r="E117" s="46">
         <v>4000</v>
       </c>
-      <c r="F117" s="46">
-        <v>4000</v>
+      <c r="F117" s="149">
+        <f t="shared" si="40"/>
+        <v>0</v>
       </c>
       <c r="G117" s="47">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="H117" s="74"/>
-      <c r="I117" s="74"/>
-      <c r="J117" s="74"/>
-      <c r="K117" s="74"/>
-      <c r="L117" s="74"/>
-      <c r="M117" s="74"/>
-      <c r="N117" s="74"/>
-      <c r="O117" s="74"/>
-      <c r="P117" s="74"/>
-      <c r="Q117" s="74"/>
-      <c r="R117" s="74"/>
-      <c r="S117" s="74"/>
+      <c r="H117" s="68"/>
+      <c r="I117" s="68"/>
+      <c r="J117" s="68"/>
+      <c r="K117" s="68"/>
+      <c r="L117" s="68"/>
+      <c r="M117" s="68"/>
+      <c r="N117" s="68"/>
+      <c r="O117" s="68"/>
+      <c r="P117" s="68"/>
+      <c r="Q117" s="68"/>
+      <c r="R117" s="68"/>
+      <c r="S117" s="68"/>
     </row>
     <row r="118" spans="1:19" ht="14.5">
       <c r="A118" s="45" t="s">
@@ -8332,30 +8337,30 @@
       <c r="C118" s="47">
         <v>0</v>
       </c>
-      <c r="D118" s="48"/>
-      <c r="E118" s="46">
-        <v>0</v>
-      </c>
+      <c r="D118" s="46">
+        <v>0</v>
+      </c>
+      <c r="E118" s="46"/>
       <c r="F118" s="46"/>
       <c r="G118" s="47">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="H118" s="74"/>
-      <c r="I118" s="74"/>
-      <c r="J118" s="74"/>
-      <c r="K118" s="74"/>
-      <c r="L118" s="74"/>
-      <c r="M118" s="74"/>
-      <c r="N118" s="74"/>
-      <c r="O118" s="74"/>
-      <c r="P118" s="74"/>
-      <c r="Q118" s="74"/>
-      <c r="R118" s="74"/>
-      <c r="S118" s="74"/>
+      <c r="H118" s="68"/>
+      <c r="I118" s="68"/>
+      <c r="J118" s="68"/>
+      <c r="K118" s="68"/>
+      <c r="L118" s="68"/>
+      <c r="M118" s="68"/>
+      <c r="N118" s="68"/>
+      <c r="O118" s="68"/>
+      <c r="P118" s="68"/>
+      <c r="Q118" s="68"/>
+      <c r="R118" s="68"/>
+      <c r="S118" s="68"/>
     </row>
     <row r="119" spans="1:19" ht="14.5">
-      <c r="A119" s="60" t="s">
+      <c r="A119" s="59" t="s">
         <v>172</v>
       </c>
       <c r="B119" s="45" t="s">
@@ -8364,62 +8369,65 @@
       <c r="C119" s="47">
         <v>0</v>
       </c>
-      <c r="D119" s="48"/>
-      <c r="E119" s="46">
-        <v>0</v>
-      </c>
+      <c r="D119" s="46">
+        <v>0</v>
+      </c>
+      <c r="E119" s="46"/>
       <c r="F119" s="46"/>
       <c r="G119" s="47">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="H119" s="74"/>
-      <c r="I119" s="74"/>
-      <c r="J119" s="74"/>
-      <c r="K119" s="74"/>
-      <c r="L119" s="74"/>
-      <c r="M119" s="74"/>
-      <c r="N119" s="74"/>
-      <c r="O119" s="74"/>
-      <c r="P119" s="74"/>
-      <c r="Q119" s="74"/>
-      <c r="R119" s="74"/>
-      <c r="S119" s="74"/>
+      <c r="H119" s="68"/>
+      <c r="I119" s="68"/>
+      <c r="J119" s="68"/>
+      <c r="K119" s="68"/>
+      <c r="L119" s="68"/>
+      <c r="M119" s="68"/>
+      <c r="N119" s="68"/>
+      <c r="O119" s="68"/>
+      <c r="P119" s="68"/>
+      <c r="Q119" s="68"/>
+      <c r="R119" s="68"/>
+      <c r="S119" s="68"/>
     </row>
     <row r="120" spans="1:19" ht="14.5">
-      <c r="A120" s="60" t="s">
+      <c r="A120" s="59" t="s">
         <v>182</v>
       </c>
       <c r="B120" s="45" t="s">
         <v>173</v>
       </c>
       <c r="C120" s="47"/>
-      <c r="D120" s="47"/>
+      <c r="D120" s="46">
+        <v>1688</v>
+      </c>
       <c r="E120" s="46">
-        <v>1688</v>
-      </c>
-      <c r="F120" s="46">
         <v>10000</v>
+      </c>
+      <c r="F120" s="149">
+        <f t="shared" ref="F120:F121" si="42">G120/E120*100</f>
+        <v>0</v>
       </c>
       <c r="G120" s="47">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="H120" s="74"/>
-      <c r="I120" s="74"/>
-      <c r="J120" s="74"/>
-      <c r="K120" s="74"/>
-      <c r="L120" s="74"/>
-      <c r="M120" s="74"/>
-      <c r="N120" s="74"/>
-      <c r="O120" s="74"/>
-      <c r="P120" s="74"/>
-      <c r="Q120" s="74"/>
-      <c r="R120" s="74"/>
-      <c r="S120" s="74"/>
+      <c r="H120" s="68"/>
+      <c r="I120" s="68"/>
+      <c r="J120" s="68"/>
+      <c r="K120" s="68"/>
+      <c r="L120" s="68"/>
+      <c r="M120" s="68"/>
+      <c r="N120" s="68"/>
+      <c r="O120" s="68"/>
+      <c r="P120" s="68"/>
+      <c r="Q120" s="68"/>
+      <c r="R120" s="68"/>
+      <c r="S120" s="68"/>
     </row>
     <row r="121" spans="1:19" ht="14.5">
-      <c r="A121" s="52" t="s">
+      <c r="A121" s="51" t="s">
         <v>45</v>
       </c>
       <c r="B121" s="45" t="s">
@@ -8429,17 +8437,17 @@
         <f>SUBTOTAL(9,C115:C120)</f>
         <v>12000</v>
       </c>
-      <c r="D121" s="48">
-        <f t="shared" ref="D121" si="42">E121/C121*100</f>
-        <v>116.98333333333333</v>
+      <c r="D121" s="46">
+        <f>SUBTOTAL(9,D115:D120)</f>
+        <v>14038</v>
       </c>
       <c r="E121" s="46">
         <f>SUBTOTAL(9,E115:E120)</f>
-        <v>14038</v>
-      </c>
-      <c r="F121" s="46">
-        <f>SUBTOTAL(9,F115:F120)</f>
         <v>22000</v>
+      </c>
+      <c r="F121" s="149">
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="G121" s="46">
         <f>SUBTOTAL(9,G115:G120)</f>
@@ -8495,192 +8503,192 @@
       </c>
     </row>
     <row r="122" spans="1:19" ht="14.5">
-      <c r="A122" s="143"/>
-      <c r="B122" s="126"/>
-      <c r="C122" s="126"/>
-      <c r="D122" s="126"/>
-      <c r="E122" s="126"/>
-      <c r="F122" s="126"/>
-      <c r="G122" s="126"/>
+      <c r="A122" s="144"/>
+      <c r="B122" s="120"/>
+      <c r="C122" s="120"/>
+      <c r="D122" s="120"/>
+      <c r="E122" s="120"/>
+      <c r="F122" s="120"/>
+      <c r="G122" s="120"/>
       <c r="H122" s="142"/>
-      <c r="I122" s="129"/>
-      <c r="J122" s="129"/>
-      <c r="K122" s="129"/>
-      <c r="L122" s="129"/>
-      <c r="M122" s="129"/>
-      <c r="N122" s="129"/>
-      <c r="O122" s="129"/>
-      <c r="P122" s="129"/>
-      <c r="Q122" s="129"/>
-      <c r="R122" s="129"/>
-      <c r="S122" s="129"/>
+      <c r="I122" s="123"/>
+      <c r="J122" s="123"/>
+      <c r="K122" s="123"/>
+      <c r="L122" s="123"/>
+      <c r="M122" s="123"/>
+      <c r="N122" s="123"/>
+      <c r="O122" s="123"/>
+      <c r="P122" s="123"/>
+      <c r="Q122" s="123"/>
+      <c r="R122" s="123"/>
+      <c r="S122" s="123"/>
     </row>
     <row r="123" spans="1:19" ht="14.5">
-      <c r="A123" s="68"/>
-      <c r="B123" s="68" t="s">
+      <c r="A123" s="64"/>
+      <c r="B123" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="C123" s="69">
+      <c r="C123" s="65">
         <f>SUBTOTAL(9,C115:C121)</f>
         <v>12000</v>
       </c>
-      <c r="D123" s="70">
-        <f t="shared" ref="D123" si="44">E123/C123*100</f>
-        <v>116.98333333333333</v>
-      </c>
-      <c r="E123" s="69">
+      <c r="D123" s="65">
+        <f>SUBTOTAL(9,D115:D121)</f>
+        <v>14038</v>
+      </c>
+      <c r="E123" s="65">
         <f>SUBTOTAL(9,E115:E121)</f>
-        <v>14038</v>
-      </c>
-      <c r="F123" s="69">
-        <f>SUBTOTAL(9,F115:F121)</f>
         <v>22000</v>
       </c>
-      <c r="G123" s="69">
+      <c r="F123" s="151">
+        <f>G123/E123*100</f>
+        <v>0</v>
+      </c>
+      <c r="G123" s="65">
         <f>SUBTOTAL(9,G115:G121)</f>
         <v>0</v>
       </c>
-      <c r="H123" s="69">
-        <f t="shared" ref="H123:S123" si="45">SUBTOTAL(9,H115:H121)</f>
-        <v>0</v>
-      </c>
-      <c r="I123" s="69">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J123" s="69">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="K123" s="69">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="L123" s="69">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="M123" s="69">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="N123" s="69">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="O123" s="69">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="P123" s="69">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="Q123" s="69">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="R123" s="69">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="S123" s="69">
-        <f t="shared" si="45"/>
+      <c r="H123" s="65">
+        <f t="shared" ref="H123:S123" si="44">SUBTOTAL(9,H115:H121)</f>
+        <v>0</v>
+      </c>
+      <c r="I123" s="65">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="65">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="K123" s="65">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L123" s="65">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="M123" s="65">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="N123" s="65">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O123" s="65">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="P123" s="65">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q123" s="65">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="R123" s="65">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="S123" s="65">
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:19" ht="14.5">
-      <c r="A124" s="144"/>
-      <c r="B124" s="126"/>
-      <c r="C124" s="126"/>
-      <c r="D124" s="126"/>
-      <c r="E124" s="126"/>
-      <c r="F124" s="126"/>
-      <c r="G124" s="126"/>
+      <c r="A124" s="140"/>
+      <c r="B124" s="120"/>
+      <c r="C124" s="120"/>
+      <c r="D124" s="120"/>
+      <c r="E124" s="120"/>
+      <c r="F124" s="120"/>
+      <c r="G124" s="120"/>
       <c r="H124" s="142"/>
-      <c r="I124" s="129"/>
-      <c r="J124" s="129"/>
-      <c r="K124" s="129"/>
-      <c r="L124" s="129"/>
-      <c r="M124" s="129"/>
-      <c r="N124" s="129"/>
-      <c r="O124" s="129"/>
-      <c r="P124" s="129"/>
-      <c r="Q124" s="129"/>
-      <c r="R124" s="129"/>
-      <c r="S124" s="129"/>
+      <c r="I124" s="123"/>
+      <c r="J124" s="123"/>
+      <c r="K124" s="123"/>
+      <c r="L124" s="123"/>
+      <c r="M124" s="123"/>
+      <c r="N124" s="123"/>
+      <c r="O124" s="123"/>
+      <c r="P124" s="123"/>
+      <c r="Q124" s="123"/>
+      <c r="R124" s="123"/>
+      <c r="S124" s="123"/>
     </row>
     <row r="125" spans="1:19" ht="14.5">
-      <c r="A125" s="71"/>
-      <c r="B125" s="71" t="s">
+      <c r="A125" s="66"/>
+      <c r="B125" s="66" t="s">
         <v>176</v>
       </c>
-      <c r="C125" s="72">
+      <c r="C125" s="67">
         <f>SUBTOTAL(9,C9:C123)</f>
         <v>216890.94</v>
       </c>
-      <c r="D125" s="73">
-        <f t="shared" ref="D125" si="46">E125/C125*100</f>
-        <v>79.9062284482699</v>
-      </c>
-      <c r="E125" s="72">
+      <c r="D125" s="67">
+        <f>SUBTOTAL(9,D9:D123)</f>
+        <v>173309.37</v>
+      </c>
+      <c r="E125" s="67">
         <f>SUBTOTAL(9,E9:E123)</f>
-        <v>173309.37</v>
-      </c>
-      <c r="F125" s="72">
-        <f>SUBTOTAL(9,F9:F123)</f>
         <v>220490</v>
       </c>
-      <c r="G125" s="72">
+      <c r="F125" s="150">
+        <f>G125/E125*100</f>
+        <v>0</v>
+      </c>
+      <c r="G125" s="67">
         <f>SUBTOTAL(9,G9:G123)</f>
         <v>0</v>
       </c>
-      <c r="H125" s="72">
-        <f t="shared" ref="H125:S125" si="47">SUBTOTAL(9,H9:H123)</f>
-        <v>0</v>
-      </c>
-      <c r="I125" s="72">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="J125" s="72">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="K125" s="72">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="L125" s="72">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="M125" s="72">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="N125" s="72">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="O125" s="72">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="P125" s="72">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="Q125" s="72">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="R125" s="72">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="S125" s="72">
-        <f t="shared" si="47"/>
+      <c r="H125" s="67">
+        <f t="shared" ref="H125:S125" si="45">SUBTOTAL(9,H9:H123)</f>
+        <v>0</v>
+      </c>
+      <c r="I125" s="67">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="67">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="K125" s="67">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="L125" s="67">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="M125" s="67">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="N125" s="67">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="O125" s="67">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="P125" s="67">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="Q125" s="67">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="R125" s="67">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="S125" s="67">
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -8689,7 +8697,6 @@
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
       <c r="F126" s="3" t="s">
         <v>251</v>
       </c>
@@ -8801,29 +8808,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H5:S5"/>
-    <mergeCell ref="H6:S6"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:S33"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="H49:S49"/>
-    <mergeCell ref="H59:S59"/>
-    <mergeCell ref="A66:G66"/>
-    <mergeCell ref="H66:S66"/>
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="H73:S73"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="H81:S81"/>
-    <mergeCell ref="A95:G95"/>
-    <mergeCell ref="H95:S95"/>
-    <mergeCell ref="A103:G103"/>
-    <mergeCell ref="H103:S103"/>
-    <mergeCell ref="A81:G81"/>
     <mergeCell ref="H107:S107"/>
     <mergeCell ref="A122:G122"/>
     <mergeCell ref="A124:G124"/>
@@ -8834,6 +8818,29 @@
     <mergeCell ref="A107:G107"/>
     <mergeCell ref="A111:G111"/>
     <mergeCell ref="A113:G113"/>
+    <mergeCell ref="H81:S81"/>
+    <mergeCell ref="A95:G95"/>
+    <mergeCell ref="H95:S95"/>
+    <mergeCell ref="A103:G103"/>
+    <mergeCell ref="H103:S103"/>
+    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="H59:S59"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="H66:S66"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="H73:S73"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="H5:S5"/>
+    <mergeCell ref="H6:S6"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:S33"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="H49:S49"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/Financial_Report_2021.xlsx
+++ b/src/main/resources/Financial_Report_2021.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\projects\church-app\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF6337E-FD0A-43B7-B9FF-F08CBB347C28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672E3612-7B80-41B1-832D-6854D5C37418}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="-110" windowWidth="18470" windowHeight="11020" xr2:uid="{7F8DEBD6-32E0-4BF8-87C4-D1C13E633F04}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="3" xr2:uid="{7F8DEBD6-32E0-4BF8-87C4-D1C13E633F04}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Offering" sheetId="2" r:id="rId2"/>
     <sheet name="Expenditure" sheetId="3" r:id="rId3"/>
+    <sheet name="Cashflow" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$K$33</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="259">
   <si>
     <t>Alpha Korean United Church</t>
   </si>
@@ -786,18 +787,84 @@
   </si>
   <si>
     <t>Total in system</t>
+  </si>
+  <si>
+    <t>Add:</t>
+  </si>
+  <si>
+    <t>Less:</t>
+  </si>
+  <si>
+    <t>Outstanding Cheques</t>
+  </si>
+  <si>
+    <t>Balance per Bank Statement</t>
+  </si>
+  <si>
+    <r>
+      <t>Surplus (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deficit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Net Surplus (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deficit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Cachflow Reconciliation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;[Red]#,##0.00"/>
     <numFmt numFmtId="166" formatCode="#,##0.000;[Red]#,##0.000"/>
     <numFmt numFmtId="167" formatCode="#,##0.0"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -963,7 +1030,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1057,6 +1124,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1068,7 +1153,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1326,6 +1411,39 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1427,6 +1545,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1439,49 +1570,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1801,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3665FC8-9630-434E-9040-903A45656577}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1822,71 +1914,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.5">
-      <c r="A1" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
+      <c r="A1" s="118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="118"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
     </row>
     <row r="2" spans="1:11" ht="18.5">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="118" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
     </row>
     <row r="3" spans="1:11" ht="18.5">
-      <c r="A3" s="108">
+      <c r="A3" s="121">
         <v>2021</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="126" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="116"/>
-      <c r="G4" s="100" t="s">
+      <c r="B4" s="127"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="129"/>
+      <c r="G4" s="113" t="s">
         <v>240</v>
       </c>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="102"/>
+      <c r="H4" s="114"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="115"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="117" t="s">
+      <c r="A5" s="130" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="118"/>
+      <c r="B5" s="131"/>
       <c r="C5" s="73" t="s">
         <v>1</v>
       </c>
@@ -1896,10 +1988,10 @@
       <c r="E5" s="74" t="s">
         <v>198</v>
       </c>
-      <c r="G5" s="103" t="s">
+      <c r="G5" s="116" t="s">
         <v>241</v>
       </c>
-      <c r="H5" s="104"/>
+      <c r="H5" s="117"/>
       <c r="I5" s="73" t="s">
         <v>1</v>
       </c>
@@ -1919,7 +2011,7 @@
         <f>Offering!$E$6</f>
         <v>105000</v>
       </c>
-      <c r="D6" s="145">
+      <c r="D6" s="99">
         <f>E6/C6*100</f>
         <v>0</v>
       </c>
@@ -1933,9 +2025,9 @@
       </c>
       <c r="I6" s="16">
         <f>Expenditure!$E$32</f>
-        <v>108960</v>
-      </c>
-      <c r="J6" s="145">
+        <v>113960</v>
+      </c>
+      <c r="J6" s="99">
         <f t="shared" ref="J6:J16" si="0">K6/I6*100</f>
         <v>0</v>
       </c>
@@ -1953,7 +2045,7 @@
         <f>Offering!$E$7</f>
         <v>3000</v>
       </c>
-      <c r="D7" s="145">
+      <c r="D7" s="99">
         <f t="shared" ref="D7:D20" si="1">E7/C7*100</f>
         <v>0</v>
       </c>
@@ -1969,7 +2061,7 @@
         <f>Expenditure!$E$48</f>
         <v>49100</v>
       </c>
-      <c r="J7" s="145">
+      <c r="J7" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1987,7 +2079,7 @@
         <f>Offering!$E$8</f>
         <v>200</v>
       </c>
-      <c r="D8" s="145">
+      <c r="D8" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2003,7 +2095,7 @@
         <f>Expenditure!$E$58</f>
         <v>2300</v>
       </c>
-      <c r="J8" s="145">
+      <c r="J8" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2021,7 +2113,7 @@
         <f>Offering!$E$9</f>
         <v>5000</v>
       </c>
-      <c r="D9" s="145">
+      <c r="D9" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2037,7 +2129,7 @@
         <f>Expenditure!$E$65</f>
         <v>2300</v>
       </c>
-      <c r="J9" s="145">
+      <c r="J9" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2055,7 +2147,7 @@
         <f>Offering!$E$10</f>
         <v>4500</v>
       </c>
-      <c r="D10" s="145">
+      <c r="D10" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2071,7 +2163,7 @@
         <f>Expenditure!$E$72</f>
         <v>2630</v>
       </c>
-      <c r="J10" s="145">
+      <c r="J10" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2089,7 +2181,7 @@
         <f>Offering!$E$11</f>
         <v>2500</v>
       </c>
-      <c r="D11" s="145">
+      <c r="D11" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2105,7 +2197,7 @@
         <f>Expenditure!$E$80</f>
         <v>1900</v>
       </c>
-      <c r="J11" s="145">
+      <c r="J11" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2123,7 +2215,7 @@
         <f>Offering!$E$12</f>
         <v>1500</v>
       </c>
-      <c r="D12" s="145">
+      <c r="D12" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2139,7 +2231,7 @@
         <f>Expenditure!$E$94</f>
         <v>20600</v>
       </c>
-      <c r="J12" s="145">
+      <c r="J12" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2157,7 +2249,7 @@
         <f>Offering!$E$13</f>
         <v>3500</v>
       </c>
-      <c r="D13" s="145">
+      <c r="D13" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2173,7 +2265,7 @@
         <f>Expenditure!$E$102</f>
         <v>6500</v>
       </c>
-      <c r="J13" s="145">
+      <c r="J13" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2191,7 +2283,7 @@
         <f>Offering!$E$14</f>
         <v>4000</v>
       </c>
-      <c r="D14" s="145">
+      <c r="D14" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2207,7 +2299,7 @@
         <f>Expenditure!$E$106</f>
         <v>1000</v>
       </c>
-      <c r="J14" s="145">
+      <c r="J14" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2225,7 +2317,7 @@
         <f>Offering!$E$15</f>
         <v>6000</v>
       </c>
-      <c r="D15" s="145">
+      <c r="D15" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2239,9 +2331,9 @@
       </c>
       <c r="I15" s="16">
         <f>Expenditure!$E$110</f>
-        <v>3200</v>
-      </c>
-      <c r="J15" s="145">
+        <v>3200.4</v>
+      </c>
+      <c r="J15" s="99">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2259,7 +2351,7 @@
         <f>Offering!$E$16</f>
         <v>300</v>
       </c>
-      <c r="D16" s="145">
+      <c r="D16" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2273,9 +2365,9 @@
       <c r="H16" s="17"/>
       <c r="I16" s="18">
         <f>SUBTOTAL(9,I6:I15)</f>
-        <v>198490</v>
-      </c>
-      <c r="J16" s="146">
+        <v>203490.4</v>
+      </c>
+      <c r="J16" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2293,7 +2385,7 @@
         <f>Offering!$E$17</f>
         <v>5000</v>
       </c>
-      <c r="D17" s="145">
+      <c r="D17" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2301,11 +2393,11 @@
         <f>Offering!$G$17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="122"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="124"/>
+      <c r="G17" s="135"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="136"/>
+      <c r="K17" s="137"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="75"/>
@@ -2316,7 +2408,7 @@
         <f>Offering!$E$18</f>
         <v>1000</v>
       </c>
-      <c r="D18" s="145">
+      <c r="D18" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2339,7 +2431,7 @@
         <f>Offering!$E$19</f>
         <v>6000</v>
       </c>
-      <c r="D19" s="145">
+      <c r="D19" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2362,7 +2454,7 @@
         <f>Offering!$E$20</f>
         <v>500</v>
       </c>
-      <c r="D20" s="145">
+      <c r="D20" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2385,7 +2477,7 @@
         <f>Offering!$E$21</f>
         <v>0</v>
       </c>
-      <c r="D21" s="145"/>
+      <c r="D21" s="99"/>
       <c r="E21" s="76">
         <f>Offering!$G$21</f>
         <v>0</v>
@@ -2394,15 +2486,15 @@
       <c r="K21" s="91"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="109" t="s">
+      <c r="A22" s="122" t="s">
         <v>225</v>
       </c>
-      <c r="B22" s="110"/>
+      <c r="B22" s="123"/>
       <c r="C22" s="19">
         <f t="shared" ref="C22:E22" si="2">SUBTOTAL(9,C6:C21)</f>
         <v>148000</v>
       </c>
-      <c r="D22" s="146">
+      <c r="D22" s="100">
         <f>E22/C22*100</f>
         <v>0</v>
       </c>
@@ -2414,11 +2506,11 @@
       <c r="K22" s="91"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="119"/>
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="121"/>
+      <c r="A23" s="132"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="134"/>
       <c r="G23" s="87" t="s">
         <v>243</v>
       </c>
@@ -2436,7 +2528,7 @@
         <f>Offering!$E$24</f>
         <v>8000</v>
       </c>
-      <c r="D24" s="153">
+      <c r="D24" s="107">
         <f t="shared" ref="D24:D27" si="3">E24/C24*100</f>
         <v>0</v>
       </c>
@@ -2452,7 +2544,7 @@
         <f>Expenditure!$E$115</f>
         <v>5000</v>
       </c>
-      <c r="J24" s="153">
+      <c r="J24" s="107">
         <f>K24/I24*100</f>
         <v>0</v>
       </c>
@@ -2470,7 +2562,7 @@
         <f>Offering!$E$25</f>
         <v>4000</v>
       </c>
-      <c r="D25" s="153">
+      <c r="D25" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2486,7 +2578,7 @@
         <f>Expenditure!$E$116</f>
         <v>3000</v>
       </c>
-      <c r="J25" s="153">
+      <c r="J25" s="107">
         <f>K25/I25*100</f>
         <v>0</v>
       </c>
@@ -2504,7 +2596,7 @@
         <f>Offering!$E$26</f>
         <v>0</v>
       </c>
-      <c r="D26" s="153"/>
+      <c r="D26" s="107"/>
       <c r="E26" s="79">
         <f>Offering!$G$26</f>
         <v>0</v>
@@ -2517,7 +2609,7 @@
         <f>Expenditure!$E$117</f>
         <v>4000</v>
       </c>
-      <c r="J26" s="153">
+      <c r="J26" s="107">
         <f>K26/I26*100</f>
         <v>0</v>
       </c>
@@ -2535,7 +2627,7 @@
         <f>Offering!$E$27</f>
         <v>3000</v>
       </c>
-      <c r="D27" s="153">
+      <c r="D27" s="107">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2551,22 +2643,22 @@
         <f>Expenditure!$E$118</f>
         <v>0</v>
       </c>
-      <c r="J27" s="153"/>
+      <c r="J27" s="107"/>
       <c r="K27" s="88">
         <f>Expenditure!$G$118</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="109" t="s">
+      <c r="A28" s="122" t="s">
         <v>228</v>
       </c>
-      <c r="B28" s="110"/>
+      <c r="B28" s="123"/>
       <c r="C28" s="19">
         <f>SUBTOTAL(9,C24:C27)</f>
         <v>15000</v>
       </c>
-      <c r="D28" s="146">
+      <c r="D28" s="100">
         <f>E28/C28*100</f>
         <v>0</v>
       </c>
@@ -2582,18 +2674,18 @@
         <f>Expenditure!$E$119</f>
         <v>0</v>
       </c>
-      <c r="J28" s="153"/>
+      <c r="J28" s="107"/>
       <c r="K28" s="88">
         <f>Expenditure!$G$119</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="119"/>
-      <c r="B29" s="120"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="121"/>
+      <c r="A29" s="132"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
       <c r="G29" s="92"/>
       <c r="H29" s="24" t="s">
         <v>227</v>
@@ -2602,7 +2694,7 @@
         <f>Expenditure!$E$120</f>
         <v>10000</v>
       </c>
-      <c r="J29" s="153">
+      <c r="J29" s="107">
         <f>K29/I29*100</f>
         <v>0</v>
       </c>
@@ -2620,7 +2712,7 @@
         <f>SUBTOTAL(9,C6:C28)</f>
         <v>163000</v>
       </c>
-      <c r="D30" s="146">
+      <c r="D30" s="100">
         <f>E30/C30*100</f>
         <v>0</v>
       </c>
@@ -2636,7 +2728,7 @@
         <f>SUBTOTAL(9,I24:I29)</f>
         <v>22000</v>
       </c>
-      <c r="J30" s="146">
+      <c r="J30" s="100">
         <f>K30/I30*100</f>
         <v>0</v>
       </c>
@@ -2652,7 +2744,7 @@
       </c>
       <c r="C31" s="14">
         <f>Offering!$E$31</f>
-        <v>57490</v>
+        <v>57490.400000000001</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="76"/>
@@ -2669,9 +2761,12 @@
       </c>
       <c r="C32" s="14">
         <f>Offering!$E$32</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="14"/>
+        <v>5000</v>
+      </c>
+      <c r="D32" s="14">
+        <f>E32/C32*100</f>
+        <v>0</v>
+      </c>
       <c r="E32" s="76">
         <f>Offering!$G$32</f>
         <v>0</v>
@@ -2683,15 +2778,15 @@
       <c r="K32" s="91"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="111" t="s">
+      <c r="A33" s="124" t="s">
         <v>232</v>
       </c>
-      <c r="B33" s="112"/>
+      <c r="B33" s="125"/>
       <c r="C33" s="94">
         <f>SUBTOTAL(9,C6:C32)</f>
-        <v>220490</v>
-      </c>
-      <c r="D33" s="154">
+        <v>225490.4</v>
+      </c>
+      <c r="D33" s="108">
         <f>E33/C33*100</f>
         <v>0</v>
       </c>
@@ -2699,15 +2794,15 @@
         <f>SUBTOTAL(9,E6:E32)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="125" t="s">
+      <c r="G33" s="138" t="s">
         <v>248</v>
       </c>
-      <c r="H33" s="126"/>
+      <c r="H33" s="139"/>
       <c r="I33" s="96">
         <f>SUBTOTAL(9,I6:I30)</f>
-        <v>220490</v>
-      </c>
-      <c r="J33" s="154">
+        <v>225490.4</v>
+      </c>
+      <c r="J33" s="108">
         <f t="shared" ref="J33" si="4">K33/I33*100</f>
         <v>0</v>
       </c>
@@ -2717,19 +2812,19 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="99" t="s">
+      <c r="A35" s="112" t="s">
         <v>250</v>
       </c>
-      <c r="B35" s="99"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="99"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="112"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
+      <c r="H35" s="112"/>
+      <c r="I35" s="112"/>
+      <c r="J35" s="112"/>
+      <c r="K35" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2759,7 +2854,7 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2772,15 +2867,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5">
-      <c r="A1" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
+      <c r="A1" s="142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="142"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -2795,15 +2890,15 @@
       <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="15.5">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="142" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -2818,15 +2913,15 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="15.5">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="145" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="132"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -2841,10 +2936,10 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="146" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="133"/>
+      <c r="B4" s="146"/>
       <c r="C4" s="29"/>
       <c r="D4" s="30"/>
       <c r="E4" s="31"/>
@@ -2864,10 +2959,10 @@
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="147" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="134"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="33" t="s">
         <v>209</v>
       </c>
@@ -2877,7 +2972,7 @@
       <c r="E5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="148" t="s">
+      <c r="F5" s="102" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="11" t="s">
@@ -2934,7 +3029,7 @@
       <c r="E6" s="14">
         <v>105000</v>
       </c>
-      <c r="F6" s="145">
+      <c r="F6" s="99">
         <f>G6/E6*100</f>
         <v>0</v>
       </c>
@@ -2969,7 +3064,7 @@
       <c r="E7" s="14">
         <v>3000</v>
       </c>
-      <c r="F7" s="145">
+      <c r="F7" s="99">
         <f>G7/E7*100</f>
         <v>0</v>
       </c>
@@ -3004,7 +3099,7 @@
       <c r="E8" s="14">
         <v>200</v>
       </c>
-      <c r="F8" s="145">
+      <c r="F8" s="99">
         <f t="shared" ref="F8:F20" si="1">G8/E8*100</f>
         <v>0</v>
       </c>
@@ -3039,7 +3134,7 @@
       <c r="E9" s="14">
         <v>5000</v>
       </c>
-      <c r="F9" s="145">
+      <c r="F9" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3074,7 +3169,7 @@
       <c r="E10" s="14">
         <v>4500</v>
       </c>
-      <c r="F10" s="145">
+      <c r="F10" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3109,7 +3204,7 @@
       <c r="E11" s="14">
         <v>2500</v>
       </c>
-      <c r="F11" s="145">
+      <c r="F11" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3144,7 +3239,7 @@
       <c r="E12" s="14">
         <v>1500</v>
       </c>
-      <c r="F12" s="145">
+      <c r="F12" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3179,7 +3274,7 @@
       <c r="E13" s="14">
         <v>3500</v>
       </c>
-      <c r="F13" s="145">
+      <c r="F13" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3214,7 +3309,7 @@
       <c r="E14" s="14">
         <v>4000</v>
       </c>
-      <c r="F14" s="145">
+      <c r="F14" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3249,7 +3344,7 @@
       <c r="E15" s="14">
         <v>6000</v>
       </c>
-      <c r="F15" s="145">
+      <c r="F15" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3284,7 +3379,7 @@
       <c r="E16" s="14">
         <v>300</v>
       </c>
-      <c r="F16" s="145">
+      <c r="F16" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3319,7 +3414,7 @@
       <c r="E17" s="14">
         <v>5000</v>
       </c>
-      <c r="F17" s="145">
+      <c r="F17" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3354,7 +3449,7 @@
       <c r="E18" s="14">
         <v>1000</v>
       </c>
-      <c r="F18" s="145">
+      <c r="F18" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3389,7 +3484,7 @@
       <c r="E19" s="14">
         <v>6000</v>
       </c>
-      <c r="F19" s="145">
+      <c r="F19" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3424,7 +3519,7 @@
       <c r="E20" s="14">
         <v>500</v>
       </c>
-      <c r="F20" s="145">
+      <c r="F20" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3476,10 +3571,10 @@
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="110" t="s">
+      <c r="A22" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="B22" s="110"/>
+      <c r="B22" s="123"/>
       <c r="C22" s="19">
         <f>SUBTOTAL(9,C6:C21)</f>
         <v>162850</v>
@@ -3492,7 +3587,7 @@
         <f t="shared" si="2"/>
         <v>148000</v>
       </c>
-      <c r="F22" s="146">
+      <c r="F22" s="100">
         <f>G22/E22*100</f>
         <v>0</v>
       </c>
@@ -3550,25 +3645,25 @@
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="135"/>
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="123"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="123"/>
-      <c r="M23" s="123"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="123"/>
+      <c r="A23" s="148"/>
+      <c r="B23" s="133"/>
+      <c r="C23" s="133"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="133"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="136"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="136"/>
+      <c r="Q23" s="136"/>
+      <c r="R23" s="136"/>
+      <c r="S23" s="136"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="24"/>
@@ -3584,7 +3679,7 @@
       <c r="E24" s="23">
         <v>8000</v>
       </c>
-      <c r="F24" s="145">
+      <c r="F24" s="99">
         <f>G24/E24*100</f>
         <v>0</v>
       </c>
@@ -3619,7 +3714,7 @@
       <c r="E25" s="23">
         <v>4000</v>
       </c>
-      <c r="F25" s="145">
+      <c r="F25" s="99">
         <f>G25/E25*100</f>
         <v>0</v>
       </c>
@@ -3682,7 +3777,7 @@
       <c r="E27" s="23">
         <v>3000</v>
       </c>
-      <c r="F27" s="145">
+      <c r="F27" s="99">
         <f>G27/E27*100</f>
         <v>0</v>
       </c>
@@ -3704,10 +3799,10 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="110" t="s">
+      <c r="A28" s="123" t="s">
         <v>228</v>
       </c>
-      <c r="B28" s="110"/>
+      <c r="B28" s="123"/>
       <c r="C28" s="19">
         <f>SUBTOTAL(9,C24:C27)</f>
         <v>15000</v>
@@ -3720,7 +3815,7 @@
         <f>SUBTOTAL(9,E24:E27)</f>
         <v>15000</v>
       </c>
-      <c r="F28" s="146">
+      <c r="F28" s="100">
         <f>G28/E28*100</f>
         <v>0</v>
       </c>
@@ -3778,25 +3873,25 @@
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="135"/>
-      <c r="B29" s="120"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="120"/>
-      <c r="E29" s="120"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="120"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="123"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="123"/>
+      <c r="A29" s="148"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="133"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="136"/>
+      <c r="Q29" s="136"/>
+      <c r="R29" s="136"/>
+      <c r="S29" s="136"/>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="27" t="s">
@@ -3815,7 +3910,7 @@
         <f>SUBTOTAL(9,E6:E28)</f>
         <v>163000</v>
       </c>
-      <c r="F30" s="146">
+      <c r="F30" s="100">
         <f>G30/E30*100</f>
         <v>0</v>
       </c>
@@ -3884,7 +3979,7 @@
         <v>9040.9500000000007</v>
       </c>
       <c r="E31" s="14">
-        <v>57490</v>
+        <v>57490.400000000001</v>
       </c>
       <c r="F31" s="14"/>
       <c r="G31" s="35"/>
@@ -3912,7 +4007,9 @@
       <c r="D32" s="14">
         <v>50000</v>
       </c>
-      <c r="E32" s="14"/>
+      <c r="E32" s="14">
+        <v>5000</v>
+      </c>
       <c r="F32" s="14"/>
       <c r="G32" s="35">
         <f>SUM(H32:S32)</f>
@@ -3932,10 +4029,10 @@
       <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="128" t="s">
+      <c r="A33" s="141" t="s">
         <v>232</v>
       </c>
-      <c r="B33" s="128"/>
+      <c r="B33" s="141"/>
       <c r="C33" s="37">
         <f>SUBTOTAL(9,C6:C32)</f>
         <v>216891</v>
@@ -3946,9 +4043,9 @@
       </c>
       <c r="E33" s="37">
         <f>SUBTOTAL(9,E6:E32)</f>
-        <v>220490</v>
-      </c>
-      <c r="F33" s="147">
+        <v>225490.4</v>
+      </c>
+      <c r="F33" s="101">
         <f>G33/E33*100</f>
         <v>0</v>
       </c>
@@ -4044,7 +4141,7 @@
   <dimension ref="A1:S157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -4058,15 +4155,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5">
-      <c r="A1" s="136" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="131"/>
+      <c r="A1" s="154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="144"/>
       <c r="H1" s="38"/>
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
@@ -4081,15 +4178,15 @@
       <c r="S1" s="38"/>
     </row>
     <row r="2" spans="1:19" ht="15.5">
-      <c r="A2" s="138">
+      <c r="A2" s="156">
         <v>2021</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="131"/>
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="144"/>
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
@@ -4104,15 +4201,15 @@
       <c r="S2" s="38"/>
     </row>
     <row r="3" spans="1:19" ht="15.5">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="157" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="131"/>
+      <c r="B3" s="157"/>
+      <c r="C3" s="157"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="144"/>
       <c r="H3" s="38"/>
       <c r="I3" s="38"/>
       <c r="J3" s="38"/>
@@ -4186,48 +4283,48 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.5">
-      <c r="A5" s="140"/>
-      <c r="B5" s="141"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="142"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="123"/>
-      <c r="M5" s="123"/>
-      <c r="N5" s="123"/>
-      <c r="O5" s="123"/>
-      <c r="P5" s="123"/>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="123"/>
-      <c r="S5" s="123"/>
+      <c r="A5" s="151"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="136"/>
+      <c r="P5" s="136"/>
+      <c r="Q5" s="136"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="136"/>
     </row>
     <row r="6" spans="1:19" ht="14.5">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="123"/>
-      <c r="P6" s="123"/>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="136"/>
+      <c r="K6" s="136"/>
+      <c r="L6" s="136"/>
+      <c r="M6" s="136"/>
+      <c r="N6" s="136"/>
+      <c r="O6" s="136"/>
+      <c r="P6" s="136"/>
+      <c r="Q6" s="136"/>
+      <c r="R6" s="136"/>
+      <c r="S6" s="136"/>
     </row>
     <row r="7" spans="1:19" ht="14.5">
       <c r="A7" s="44" t="s">
@@ -4293,7 +4390,7 @@
       <c r="E9" s="46">
         <v>45500</v>
       </c>
-      <c r="F9" s="149">
+      <c r="F9" s="103">
         <f>G9/E9*100</f>
         <v>0</v>
       </c>
@@ -4330,7 +4427,7 @@
       <c r="E10" s="46">
         <v>21600</v>
       </c>
-      <c r="F10" s="149">
+      <c r="F10" s="103">
         <f t="shared" ref="F10:F16" si="0">G10/E10*100</f>
         <v>0</v>
       </c>
@@ -4367,7 +4464,7 @@
       <c r="E11" s="46">
         <v>3925</v>
       </c>
-      <c r="F11" s="149">
+      <c r="F11" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4404,7 +4501,7 @@
       <c r="E12" s="46">
         <v>2800</v>
       </c>
-      <c r="F12" s="149">
+      <c r="F12" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4441,7 +4538,7 @@
       <c r="E13" s="46">
         <v>1500</v>
       </c>
-      <c r="F13" s="149">
+      <c r="F13" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4474,9 +4571,9 @@
       </c>
       <c r="D14" s="46"/>
       <c r="E14" s="46">
-        <v>4000</v>
-      </c>
-      <c r="F14" s="149">
+        <v>6000</v>
+      </c>
+      <c r="F14" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4509,9 +4606,9 @@
       </c>
       <c r="D15" s="46"/>
       <c r="E15" s="46">
-        <v>3000</v>
-      </c>
-      <c r="F15" s="149">
+        <v>6000</v>
+      </c>
+      <c r="F15" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4548,7 +4645,7 @@
       <c r="E16" s="46">
         <v>500</v>
       </c>
-      <c r="F16" s="149">
+      <c r="F16" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4608,7 +4705,7 @@
       <c r="E18" s="46">
         <v>5205</v>
       </c>
-      <c r="F18" s="149">
+      <c r="F18" s="103">
         <f t="shared" ref="F18:F20" si="2">G18/E18*100</f>
         <v>0</v>
       </c>
@@ -4645,7 +4742,7 @@
       <c r="E19" s="46">
         <v>250</v>
       </c>
-      <c r="F19" s="149">
+      <c r="F19" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4682,7 +4779,7 @@
       <c r="E20" s="46">
         <v>100</v>
       </c>
-      <c r="F20" s="149">
+      <c r="F20" s="103">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4742,7 +4839,7 @@
       <c r="E22" s="46">
         <v>9000</v>
       </c>
-      <c r="F22" s="149">
+      <c r="F22" s="103">
         <f t="shared" ref="F22:F24" si="4">G22/E22*100</f>
         <v>0</v>
       </c>
@@ -4777,7 +4874,7 @@
       <c r="E23" s="46">
         <v>350</v>
       </c>
-      <c r="F23" s="149">
+      <c r="F23" s="103">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4812,7 +4909,7 @@
       <c r="E24" s="46">
         <v>250</v>
       </c>
-      <c r="F24" s="149">
+      <c r="F24" s="103">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -4874,7 +4971,7 @@
       <c r="E26" s="46">
         <v>10000</v>
       </c>
-      <c r="F26" s="149">
+      <c r="F26" s="103">
         <f t="shared" ref="F26:F28" si="6">G26/E26*100</f>
         <v>0</v>
       </c>
@@ -4911,7 +5008,7 @@
       <c r="E27" s="46">
         <v>330</v>
       </c>
-      <c r="F27" s="149">
+      <c r="F27" s="103">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -4948,7 +5045,7 @@
       <c r="E28" s="46">
         <v>250</v>
       </c>
-      <c r="F28" s="149">
+      <c r="F28" s="103">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
@@ -5038,7 +5135,7 @@
       <c r="E31" s="46">
         <v>400</v>
       </c>
-      <c r="F31" s="149">
+      <c r="F31" s="103">
         <f t="shared" ref="F31:F32" si="8">G31/E31*100</f>
         <v>0</v>
       </c>
@@ -5076,9 +5173,9 @@
       </c>
       <c r="E32" s="46">
         <f>SUBTOTAL(9,E9:E31)</f>
-        <v>108960</v>
-      </c>
-      <c r="F32" s="149">
+        <v>113960</v>
+      </c>
+      <c r="F32" s="103">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -5136,25 +5233,25 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="14.5">
-      <c r="A33" s="140"/>
-      <c r="B33" s="120"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="120"/>
-      <c r="E33" s="120"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="120"/>
-      <c r="H33" s="143"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="123"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="123"/>
+      <c r="A33" s="151"/>
+      <c r="B33" s="133"/>
+      <c r="C33" s="133"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="133"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="133"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="136"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="136"/>
+      <c r="P33" s="136"/>
+      <c r="Q33" s="136"/>
+      <c r="R33" s="136"/>
+      <c r="S33" s="136"/>
     </row>
     <row r="34" spans="1:19" ht="14.5">
       <c r="A34" s="52" t="s">
@@ -5197,7 +5294,7 @@
       <c r="E35" s="55">
         <v>1200</v>
       </c>
-      <c r="F35" s="152">
+      <c r="F35" s="106">
         <f>G35/E35*100</f>
         <v>0</v>
       </c>
@@ -5234,7 +5331,7 @@
       <c r="E36" s="55">
         <v>1500</v>
       </c>
-      <c r="F36" s="152">
+      <c r="F36" s="106">
         <f t="shared" ref="F36:F37" si="11">G36/E36*100</f>
         <v>0</v>
       </c>
@@ -5271,7 +5368,7 @@
       <c r="E37" s="55">
         <v>1000</v>
       </c>
-      <c r="F37" s="152">
+      <c r="F37" s="106">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5366,7 +5463,7 @@
       <c r="E40" s="55">
         <v>5000</v>
       </c>
-      <c r="F40" s="152">
+      <c r="F40" s="106">
         <f t="shared" ref="F40:F48" si="12">G40/E40*100</f>
         <v>0</v>
       </c>
@@ -5403,7 +5500,7 @@
       <c r="E41" s="55">
         <v>300</v>
       </c>
-      <c r="F41" s="152">
+      <c r="F41" s="106">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -5440,7 +5537,7 @@
       <c r="E42" s="55">
         <v>300</v>
       </c>
-      <c r="F42" s="152">
+      <c r="F42" s="106">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -5477,7 +5574,7 @@
       <c r="E43" s="55">
         <v>400</v>
       </c>
-      <c r="F43" s="152">
+      <c r="F43" s="106">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -5514,7 +5611,7 @@
       <c r="E44" s="55">
         <v>36000</v>
       </c>
-      <c r="F44" s="152">
+      <c r="F44" s="106">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -5551,7 +5648,7 @@
       <c r="E45" s="55">
         <v>1500</v>
       </c>
-      <c r="F45" s="152">
+      <c r="F45" s="106">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -5588,7 +5685,7 @@
       <c r="E46" s="55">
         <v>1500</v>
       </c>
-      <c r="F46" s="152">
+      <c r="F46" s="106">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -5625,7 +5722,7 @@
       <c r="E47" s="55">
         <v>400</v>
       </c>
-      <c r="F47" s="152">
+      <c r="F47" s="106">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -5665,7 +5762,7 @@
         <f t="shared" si="13"/>
         <v>49100</v>
       </c>
-      <c r="F48" s="152">
+      <c r="F48" s="106">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -5723,25 +5820,25 @@
       </c>
     </row>
     <row r="49" spans="1:19" ht="14.5">
-      <c r="A49" s="140"/>
-      <c r="B49" s="123"/>
-      <c r="C49" s="123"/>
-      <c r="D49" s="123"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="123"/>
-      <c r="G49" s="123"/>
-      <c r="H49" s="142"/>
-      <c r="I49" s="123"/>
-      <c r="J49" s="123"/>
-      <c r="K49" s="123"/>
-      <c r="L49" s="123"/>
-      <c r="M49" s="123"/>
-      <c r="N49" s="123"/>
-      <c r="O49" s="123"/>
-      <c r="P49" s="123"/>
-      <c r="Q49" s="123"/>
-      <c r="R49" s="123"/>
-      <c r="S49" s="123"/>
+      <c r="A49" s="151"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="149"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="136"/>
+      <c r="K49" s="136"/>
+      <c r="L49" s="136"/>
+      <c r="M49" s="136"/>
+      <c r="N49" s="136"/>
+      <c r="O49" s="136"/>
+      <c r="P49" s="136"/>
+      <c r="Q49" s="136"/>
+      <c r="R49" s="136"/>
+      <c r="S49" s="136"/>
     </row>
     <row r="50" spans="1:19" ht="14.5">
       <c r="A50" s="44" t="s">
@@ -5784,7 +5881,7 @@
       <c r="E51" s="46">
         <v>1200</v>
       </c>
-      <c r="F51" s="149">
+      <c r="F51" s="103">
         <f t="shared" ref="F51:F58" si="14">G51/E51*100</f>
         <v>0</v>
       </c>
@@ -5821,7 +5918,7 @@
       <c r="E52" s="46">
         <v>200</v>
       </c>
-      <c r="F52" s="149">
+      <c r="F52" s="103">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -5858,7 +5955,7 @@
       <c r="E53" s="46">
         <v>200</v>
       </c>
-      <c r="F53" s="149">
+      <c r="F53" s="103">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -5891,7 +5988,7 @@
       <c r="E54" s="46">
         <v>100</v>
       </c>
-      <c r="F54" s="149">
+      <c r="F54" s="103">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -5928,7 +6025,7 @@
       <c r="E55" s="46">
         <v>400</v>
       </c>
-      <c r="F55" s="149">
+      <c r="F55" s="103">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -5965,7 +6062,7 @@
       <c r="E56" s="46">
         <v>100</v>
       </c>
-      <c r="F56" s="149">
+      <c r="F56" s="103">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -6002,7 +6099,7 @@
       <c r="E57" s="46">
         <v>100</v>
       </c>
-      <c r="F57" s="149">
+      <c r="F57" s="103">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -6042,7 +6139,7 @@
         <f t="shared" si="16"/>
         <v>2300</v>
       </c>
-      <c r="F58" s="149">
+      <c r="F58" s="103">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -6100,25 +6197,25 @@
       </c>
     </row>
     <row r="59" spans="1:19" ht="14.5">
-      <c r="A59" s="140"/>
-      <c r="B59" s="123"/>
-      <c r="C59" s="123"/>
-      <c r="D59" s="123"/>
-      <c r="E59" s="123"/>
-      <c r="F59" s="123"/>
-      <c r="G59" s="123"/>
-      <c r="H59" s="142"/>
-      <c r="I59" s="123"/>
-      <c r="J59" s="123"/>
-      <c r="K59" s="123"/>
-      <c r="L59" s="123"/>
-      <c r="M59" s="123"/>
-      <c r="N59" s="123"/>
-      <c r="O59" s="123"/>
-      <c r="P59" s="123"/>
-      <c r="Q59" s="123"/>
-      <c r="R59" s="123"/>
-      <c r="S59" s="123"/>
+      <c r="A59" s="151"/>
+      <c r="B59" s="136"/>
+      <c r="C59" s="136"/>
+      <c r="D59" s="136"/>
+      <c r="E59" s="136"/>
+      <c r="F59" s="136"/>
+      <c r="G59" s="136"/>
+      <c r="H59" s="149"/>
+      <c r="I59" s="136"/>
+      <c r="J59" s="136"/>
+      <c r="K59" s="136"/>
+      <c r="L59" s="136"/>
+      <c r="M59" s="136"/>
+      <c r="N59" s="136"/>
+      <c r="O59" s="136"/>
+      <c r="P59" s="136"/>
+      <c r="Q59" s="136"/>
+      <c r="R59" s="136"/>
+      <c r="S59" s="136"/>
     </row>
     <row r="60" spans="1:19" ht="14.5">
       <c r="A60" s="52" t="s">
@@ -6161,7 +6258,7 @@
       <c r="E61" s="55">
         <v>400</v>
       </c>
-      <c r="F61" s="152">
+      <c r="F61" s="106">
         <f t="shared" ref="F61:F65" si="17">G61/E61*100</f>
         <v>0</v>
       </c>
@@ -6198,7 +6295,7 @@
       <c r="E62" s="55">
         <v>200</v>
       </c>
-      <c r="F62" s="152">
+      <c r="F62" s="106">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -6235,7 +6332,7 @@
       <c r="E63" s="55">
         <v>400</v>
       </c>
-      <c r="F63" s="152">
+      <c r="F63" s="106">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -6270,7 +6367,7 @@
       <c r="E64" s="55">
         <v>1300</v>
       </c>
-      <c r="F64" s="152">
+      <c r="F64" s="106">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -6310,7 +6407,7 @@
         <f t="shared" si="19"/>
         <v>2300</v>
       </c>
-      <c r="F65" s="152">
+      <c r="F65" s="106">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
@@ -6368,25 +6465,25 @@
       </c>
     </row>
     <row r="66" spans="1:19" ht="14.5">
-      <c r="A66" s="140"/>
-      <c r="B66" s="123"/>
-      <c r="C66" s="123"/>
-      <c r="D66" s="123"/>
-      <c r="E66" s="123"/>
-      <c r="F66" s="123"/>
-      <c r="G66" s="123"/>
-      <c r="H66" s="142"/>
-      <c r="I66" s="123"/>
-      <c r="J66" s="123"/>
-      <c r="K66" s="123"/>
-      <c r="L66" s="123"/>
-      <c r="M66" s="123"/>
-      <c r="N66" s="123"/>
-      <c r="O66" s="123"/>
-      <c r="P66" s="123"/>
-      <c r="Q66" s="123"/>
-      <c r="R66" s="123"/>
-      <c r="S66" s="123"/>
+      <c r="A66" s="151"/>
+      <c r="B66" s="136"/>
+      <c r="C66" s="136"/>
+      <c r="D66" s="136"/>
+      <c r="E66" s="136"/>
+      <c r="F66" s="136"/>
+      <c r="G66" s="136"/>
+      <c r="H66" s="149"/>
+      <c r="I66" s="136"/>
+      <c r="J66" s="136"/>
+      <c r="K66" s="136"/>
+      <c r="L66" s="136"/>
+      <c r="M66" s="136"/>
+      <c r="N66" s="136"/>
+      <c r="O66" s="136"/>
+      <c r="P66" s="136"/>
+      <c r="Q66" s="136"/>
+      <c r="R66" s="136"/>
+      <c r="S66" s="136"/>
     </row>
     <row r="67" spans="1:19" ht="14.5">
       <c r="A67" s="44" t="s">
@@ -6427,7 +6524,7 @@
       <c r="E68" s="46">
         <v>200</v>
       </c>
-      <c r="F68" s="149">
+      <c r="F68" s="103">
         <f t="shared" ref="F68:F72" si="20">G68/E68*100</f>
         <v>0</v>
       </c>
@@ -6462,7 +6559,7 @@
       <c r="E69" s="46">
         <v>300</v>
       </c>
-      <c r="F69" s="149">
+      <c r="F69" s="103">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -6499,7 +6596,7 @@
       <c r="E70" s="46">
         <v>130</v>
       </c>
-      <c r="F70" s="149">
+      <c r="F70" s="103">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -6534,7 +6631,7 @@
       <c r="E71" s="46">
         <v>2000</v>
       </c>
-      <c r="F71" s="149">
+      <c r="F71" s="103">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -6574,7 +6671,7 @@
         <f t="shared" si="22"/>
         <v>2630</v>
       </c>
-      <c r="F72" s="149">
+      <c r="F72" s="103">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
@@ -6632,25 +6729,25 @@
       </c>
     </row>
     <row r="73" spans="1:19" ht="14.5">
-      <c r="A73" s="140"/>
-      <c r="B73" s="123"/>
-      <c r="C73" s="123"/>
-      <c r="D73" s="123"/>
-      <c r="E73" s="123"/>
-      <c r="F73" s="123"/>
-      <c r="G73" s="123"/>
-      <c r="H73" s="142"/>
-      <c r="I73" s="123"/>
-      <c r="J73" s="123"/>
-      <c r="K73" s="123"/>
-      <c r="L73" s="123"/>
-      <c r="M73" s="123"/>
-      <c r="N73" s="123"/>
-      <c r="O73" s="123"/>
-      <c r="P73" s="123"/>
-      <c r="Q73" s="123"/>
-      <c r="R73" s="123"/>
-      <c r="S73" s="123"/>
+      <c r="A73" s="151"/>
+      <c r="B73" s="136"/>
+      <c r="C73" s="136"/>
+      <c r="D73" s="136"/>
+      <c r="E73" s="136"/>
+      <c r="F73" s="136"/>
+      <c r="G73" s="136"/>
+      <c r="H73" s="149"/>
+      <c r="I73" s="136"/>
+      <c r="J73" s="136"/>
+      <c r="K73" s="136"/>
+      <c r="L73" s="136"/>
+      <c r="M73" s="136"/>
+      <c r="N73" s="136"/>
+      <c r="O73" s="136"/>
+      <c r="P73" s="136"/>
+      <c r="Q73" s="136"/>
+      <c r="R73" s="136"/>
+      <c r="S73" s="136"/>
     </row>
     <row r="74" spans="1:19" ht="14.5">
       <c r="A74" s="52" t="s">
@@ -6693,7 +6790,7 @@
       <c r="E75" s="53">
         <v>300</v>
       </c>
-      <c r="F75" s="152">
+      <c r="F75" s="106">
         <f t="shared" ref="F75:F80" si="23">G75/E75*100</f>
         <v>0</v>
       </c>
@@ -6730,7 +6827,7 @@
       <c r="E76" s="53">
         <v>300</v>
       </c>
-      <c r="F76" s="152">
+      <c r="F76" s="106">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6767,7 +6864,7 @@
       <c r="E77" s="53">
         <v>300</v>
       </c>
-      <c r="F77" s="152">
+      <c r="F77" s="106">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6802,7 +6899,7 @@
       <c r="E78" s="53">
         <v>500</v>
       </c>
-      <c r="F78" s="152">
+      <c r="F78" s="106">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6837,7 +6934,7 @@
       <c r="E79" s="53">
         <v>500</v>
       </c>
-      <c r="F79" s="152">
+      <c r="F79" s="106">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6877,7 +6974,7 @@
         <f t="shared" si="25"/>
         <v>1900</v>
       </c>
-      <c r="F80" s="152">
+      <c r="F80" s="106">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
@@ -6935,25 +7032,25 @@
       </c>
     </row>
     <row r="81" spans="1:19" ht="14.5">
-      <c r="A81" s="140"/>
-      <c r="B81" s="120"/>
-      <c r="C81" s="120"/>
-      <c r="D81" s="120"/>
-      <c r="E81" s="120"/>
-      <c r="F81" s="120"/>
-      <c r="G81" s="120"/>
-      <c r="H81" s="143"/>
-      <c r="I81" s="123"/>
-      <c r="J81" s="123"/>
-      <c r="K81" s="123"/>
-      <c r="L81" s="123"/>
-      <c r="M81" s="123"/>
-      <c r="N81" s="123"/>
-      <c r="O81" s="123"/>
-      <c r="P81" s="123"/>
-      <c r="Q81" s="123"/>
-      <c r="R81" s="123"/>
-      <c r="S81" s="123"/>
+      <c r="A81" s="151"/>
+      <c r="B81" s="133"/>
+      <c r="C81" s="133"/>
+      <c r="D81" s="133"/>
+      <c r="E81" s="133"/>
+      <c r="F81" s="133"/>
+      <c r="G81" s="133"/>
+      <c r="H81" s="153"/>
+      <c r="I81" s="136"/>
+      <c r="J81" s="136"/>
+      <c r="K81" s="136"/>
+      <c r="L81" s="136"/>
+      <c r="M81" s="136"/>
+      <c r="N81" s="136"/>
+      <c r="O81" s="136"/>
+      <c r="P81" s="136"/>
+      <c r="Q81" s="136"/>
+      <c r="R81" s="136"/>
+      <c r="S81" s="136"/>
     </row>
     <row r="82" spans="1:19" ht="14.5">
       <c r="A82" s="44" t="s">
@@ -6996,7 +7093,7 @@
       <c r="E83" s="46">
         <v>1500</v>
       </c>
-      <c r="F83" s="149">
+      <c r="F83" s="103">
         <f t="shared" ref="F83:F84" si="26">G83/E83*100</f>
         <v>0</v>
       </c>
@@ -7033,7 +7130,7 @@
       <c r="E84" s="46">
         <v>6400</v>
       </c>
-      <c r="F84" s="149">
+      <c r="F84" s="103">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
@@ -7100,7 +7197,7 @@
       <c r="E86" s="46">
         <v>7500</v>
       </c>
-      <c r="F86" s="149">
+      <c r="F86" s="103">
         <f t="shared" ref="F86:F94" si="28">G86/E86*100</f>
         <v>0</v>
       </c>
@@ -7137,7 +7234,7 @@
       <c r="E87" s="46">
         <v>1000</v>
       </c>
-      <c r="F87" s="149">
+      <c r="F87" s="103">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7174,7 +7271,7 @@
       <c r="E88" s="46">
         <v>200</v>
       </c>
-      <c r="F88" s="149">
+      <c r="F88" s="103">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7211,7 +7308,7 @@
       <c r="E89" s="46">
         <v>800</v>
       </c>
-      <c r="F89" s="149">
+      <c r="F89" s="103">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7248,7 +7345,7 @@
       <c r="E90" s="46">
         <v>300</v>
       </c>
-      <c r="F90" s="149">
+      <c r="F90" s="103">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7285,7 +7382,7 @@
       <c r="E91" s="46">
         <v>500</v>
       </c>
-      <c r="F91" s="149">
+      <c r="F91" s="103">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7322,7 +7419,7 @@
       <c r="E92" s="46">
         <v>1200</v>
       </c>
-      <c r="F92" s="149">
+      <c r="F92" s="103">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7359,7 +7456,7 @@
       <c r="E93" s="46">
         <v>1200</v>
       </c>
-      <c r="F93" s="149">
+      <c r="F93" s="103">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7399,7 +7496,7 @@
         <f t="shared" si="29"/>
         <v>20600</v>
       </c>
-      <c r="F94" s="149">
+      <c r="F94" s="103">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
@@ -7457,25 +7554,25 @@
       </c>
     </row>
     <row r="95" spans="1:19" ht="14.5">
-      <c r="A95" s="140"/>
-      <c r="B95" s="120"/>
-      <c r="C95" s="120"/>
-      <c r="D95" s="120"/>
-      <c r="E95" s="120"/>
-      <c r="F95" s="120"/>
-      <c r="G95" s="120"/>
-      <c r="H95" s="142"/>
-      <c r="I95" s="123"/>
-      <c r="J95" s="123"/>
-      <c r="K95" s="123"/>
-      <c r="L95" s="123"/>
-      <c r="M95" s="123"/>
-      <c r="N95" s="123"/>
-      <c r="O95" s="123"/>
-      <c r="P95" s="123"/>
-      <c r="Q95" s="123"/>
-      <c r="R95" s="123"/>
-      <c r="S95" s="123"/>
+      <c r="A95" s="151"/>
+      <c r="B95" s="133"/>
+      <c r="C95" s="133"/>
+      <c r="D95" s="133"/>
+      <c r="E95" s="133"/>
+      <c r="F95" s="133"/>
+      <c r="G95" s="133"/>
+      <c r="H95" s="149"/>
+      <c r="I95" s="136"/>
+      <c r="J95" s="136"/>
+      <c r="K95" s="136"/>
+      <c r="L95" s="136"/>
+      <c r="M95" s="136"/>
+      <c r="N95" s="136"/>
+      <c r="O95" s="136"/>
+      <c r="P95" s="136"/>
+      <c r="Q95" s="136"/>
+      <c r="R95" s="136"/>
+      <c r="S95" s="136"/>
     </row>
     <row r="96" spans="1:19" ht="14.5">
       <c r="A96" s="52" t="s">
@@ -7518,7 +7615,7 @@
       <c r="E97" s="55">
         <v>600</v>
       </c>
-      <c r="F97" s="152">
+      <c r="F97" s="106">
         <f t="shared" ref="F97:F102" si="30">G97/E97*100</f>
         <v>0</v>
       </c>
@@ -7555,7 +7652,7 @@
       <c r="E98" s="55">
         <v>500</v>
       </c>
-      <c r="F98" s="152">
+      <c r="F98" s="106">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
@@ -7592,7 +7689,7 @@
       <c r="E99" s="55">
         <v>5000</v>
       </c>
-      <c r="F99" s="152">
+      <c r="F99" s="106">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
@@ -7629,7 +7726,7 @@
       <c r="E100" s="55">
         <v>200</v>
       </c>
-      <c r="F100" s="152">
+      <c r="F100" s="106">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
@@ -7666,7 +7763,7 @@
       <c r="E101" s="55">
         <v>200</v>
       </c>
-      <c r="F101" s="152">
+      <c r="F101" s="106">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
@@ -7706,7 +7803,7 @@
         <f t="shared" si="32"/>
         <v>6500</v>
       </c>
-      <c r="F102" s="152">
+      <c r="F102" s="106">
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
@@ -7764,25 +7861,25 @@
       </c>
     </row>
     <row r="103" spans="1:19" ht="14.5">
-      <c r="A103" s="144"/>
-      <c r="B103" s="120"/>
-      <c r="C103" s="120"/>
-      <c r="D103" s="120"/>
-      <c r="E103" s="120"/>
-      <c r="F103" s="120"/>
-      <c r="G103" s="120"/>
-      <c r="H103" s="142"/>
-      <c r="I103" s="123"/>
-      <c r="J103" s="123"/>
-      <c r="K103" s="123"/>
-      <c r="L103" s="123"/>
-      <c r="M103" s="123"/>
-      <c r="N103" s="123"/>
-      <c r="O103" s="123"/>
-      <c r="P103" s="123"/>
-      <c r="Q103" s="123"/>
-      <c r="R103" s="123"/>
-      <c r="S103" s="123"/>
+      <c r="A103" s="150"/>
+      <c r="B103" s="133"/>
+      <c r="C103" s="133"/>
+      <c r="D103" s="133"/>
+      <c r="E103" s="133"/>
+      <c r="F103" s="133"/>
+      <c r="G103" s="133"/>
+      <c r="H103" s="149"/>
+      <c r="I103" s="136"/>
+      <c r="J103" s="136"/>
+      <c r="K103" s="136"/>
+      <c r="L103" s="136"/>
+      <c r="M103" s="136"/>
+      <c r="N103" s="136"/>
+      <c r="O103" s="136"/>
+      <c r="P103" s="136"/>
+      <c r="Q103" s="136"/>
+      <c r="R103" s="136"/>
+      <c r="S103" s="136"/>
     </row>
     <row r="104" spans="1:19" ht="14.5">
       <c r="A104" s="44" t="s">
@@ -7823,7 +7920,7 @@
       <c r="E105" s="47">
         <v>1000</v>
       </c>
-      <c r="F105" s="149">
+      <c r="F105" s="103">
         <f t="shared" ref="F105:F106" si="33">G105/E105*100</f>
         <v>0</v>
       </c>
@@ -7863,7 +7960,7 @@
         <f t="shared" si="35"/>
         <v>1000</v>
       </c>
-      <c r="F106" s="149">
+      <c r="F106" s="103">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
@@ -7921,25 +8018,25 @@
       </c>
     </row>
     <row r="107" spans="1:19" ht="14.5">
-      <c r="A107" s="140"/>
-      <c r="B107" s="120"/>
-      <c r="C107" s="120"/>
-      <c r="D107" s="120"/>
-      <c r="E107" s="120"/>
-      <c r="F107" s="120"/>
-      <c r="G107" s="120"/>
-      <c r="H107" s="142"/>
-      <c r="I107" s="123"/>
-      <c r="J107" s="123"/>
-      <c r="K107" s="123"/>
-      <c r="L107" s="123"/>
-      <c r="M107" s="123"/>
-      <c r="N107" s="123"/>
-      <c r="O107" s="123"/>
-      <c r="P107" s="123"/>
-      <c r="Q107" s="123"/>
-      <c r="R107" s="123"/>
-      <c r="S107" s="123"/>
+      <c r="A107" s="151"/>
+      <c r="B107" s="133"/>
+      <c r="C107" s="133"/>
+      <c r="D107" s="133"/>
+      <c r="E107" s="133"/>
+      <c r="F107" s="133"/>
+      <c r="G107" s="133"/>
+      <c r="H107" s="149"/>
+      <c r="I107" s="136"/>
+      <c r="J107" s="136"/>
+      <c r="K107" s="136"/>
+      <c r="L107" s="136"/>
+      <c r="M107" s="136"/>
+      <c r="N107" s="136"/>
+      <c r="O107" s="136"/>
+      <c r="P107" s="136"/>
+      <c r="Q107" s="136"/>
+      <c r="R107" s="136"/>
+      <c r="S107" s="136"/>
     </row>
     <row r="108" spans="1:19" ht="14.5">
       <c r="A108" s="52" t="s">
@@ -7978,9 +8075,9 @@
       </c>
       <c r="D109" s="53"/>
       <c r="E109" s="63">
-        <v>3200</v>
-      </c>
-      <c r="F109" s="152">
+        <v>3200.4</v>
+      </c>
+      <c r="F109" s="106">
         <f t="shared" ref="F109:F110" si="36">G109/E109*100</f>
         <v>0</v>
       </c>
@@ -8018,9 +8115,9 @@
       </c>
       <c r="E110" s="55">
         <f t="shared" si="38"/>
-        <v>3200</v>
-      </c>
-      <c r="F110" s="152">
+        <v>3200.4</v>
+      </c>
+      <c r="F110" s="106">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
@@ -8078,13 +8175,13 @@
       </c>
     </row>
     <row r="111" spans="1:19" ht="14.5">
-      <c r="A111" s="144"/>
-      <c r="B111" s="120"/>
-      <c r="C111" s="120"/>
-      <c r="D111" s="120"/>
-      <c r="E111" s="120"/>
-      <c r="F111" s="120"/>
-      <c r="G111" s="120"/>
+      <c r="A111" s="150"/>
+      <c r="B111" s="133"/>
+      <c r="C111" s="133"/>
+      <c r="D111" s="133"/>
+      <c r="E111" s="133"/>
+      <c r="F111" s="133"/>
+      <c r="G111" s="133"/>
       <c r="H111" s="68"/>
       <c r="I111" s="68"/>
       <c r="J111" s="68"/>
@@ -8113,9 +8210,9 @@
       </c>
       <c r="E112" s="65">
         <f t="shared" si="39"/>
-        <v>198490</v>
-      </c>
-      <c r="F112" s="151">
+        <v>203490.4</v>
+      </c>
+      <c r="F112" s="105">
         <f>G112/E112*100</f>
         <v>0</v>
       </c>
@@ -8173,36 +8270,36 @@
       </c>
     </row>
     <row r="113" spans="1:19" ht="14.5">
-      <c r="A113" s="140"/>
-      <c r="B113" s="120"/>
-      <c r="C113" s="120"/>
-      <c r="D113" s="120"/>
-      <c r="E113" s="120"/>
-      <c r="F113" s="120"/>
-      <c r="G113" s="120"/>
-      <c r="H113" s="142"/>
-      <c r="I113" s="123"/>
-      <c r="J113" s="123"/>
-      <c r="K113" s="123"/>
-      <c r="L113" s="123"/>
-      <c r="M113" s="123"/>
-      <c r="N113" s="123"/>
-      <c r="O113" s="123"/>
-      <c r="P113" s="123"/>
-      <c r="Q113" s="123"/>
-      <c r="R113" s="123"/>
-      <c r="S113" s="123"/>
+      <c r="A113" s="151"/>
+      <c r="B113" s="133"/>
+      <c r="C113" s="133"/>
+      <c r="D113" s="133"/>
+      <c r="E113" s="133"/>
+      <c r="F113" s="133"/>
+      <c r="G113" s="133"/>
+      <c r="H113" s="149"/>
+      <c r="I113" s="136"/>
+      <c r="J113" s="136"/>
+      <c r="K113" s="136"/>
+      <c r="L113" s="136"/>
+      <c r="M113" s="136"/>
+      <c r="N113" s="136"/>
+      <c r="O113" s="136"/>
+      <c r="P113" s="136"/>
+      <c r="Q113" s="136"/>
+      <c r="R113" s="136"/>
+      <c r="S113" s="136"/>
     </row>
     <row r="114" spans="1:19" ht="14.5">
-      <c r="A114" s="140" t="s">
+      <c r="A114" s="151" t="s">
         <v>163</v>
       </c>
-      <c r="B114" s="141"/>
-      <c r="C114" s="141"/>
-      <c r="D114" s="141"/>
-      <c r="E114" s="141"/>
-      <c r="F114" s="141"/>
-      <c r="G114" s="141"/>
+      <c r="B114" s="152"/>
+      <c r="C114" s="152"/>
+      <c r="D114" s="152"/>
+      <c r="E114" s="152"/>
+      <c r="F114" s="152"/>
+      <c r="G114" s="152"/>
       <c r="H114" s="68"/>
       <c r="I114" s="68"/>
       <c r="J114" s="68"/>
@@ -8232,7 +8329,7 @@
       <c r="E115" s="46">
         <v>5000</v>
       </c>
-      <c r="F115" s="149">
+      <c r="F115" s="103">
         <f t="shared" ref="F115:F117" si="40">G115/E115*100</f>
         <v>0</v>
       </c>
@@ -8269,7 +8366,7 @@
       <c r="E116" s="46">
         <v>3000</v>
       </c>
-      <c r="F116" s="149">
+      <c r="F116" s="103">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -8306,7 +8403,7 @@
       <c r="E117" s="46">
         <v>4000</v>
       </c>
-      <c r="F117" s="149">
+      <c r="F117" s="103">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
@@ -8405,7 +8502,7 @@
       <c r="E120" s="46">
         <v>10000</v>
       </c>
-      <c r="F120" s="149">
+      <c r="F120" s="103">
         <f t="shared" ref="F120:F121" si="42">G120/E120*100</f>
         <v>0</v>
       </c>
@@ -8445,7 +8542,7 @@
         <f>SUBTOTAL(9,E115:E120)</f>
         <v>22000</v>
       </c>
-      <c r="F121" s="149">
+      <c r="F121" s="103">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
@@ -8503,25 +8600,25 @@
       </c>
     </row>
     <row r="122" spans="1:19" ht="14.5">
-      <c r="A122" s="144"/>
-      <c r="B122" s="120"/>
-      <c r="C122" s="120"/>
-      <c r="D122" s="120"/>
-      <c r="E122" s="120"/>
-      <c r="F122" s="120"/>
-      <c r="G122" s="120"/>
-      <c r="H122" s="142"/>
-      <c r="I122" s="123"/>
-      <c r="J122" s="123"/>
-      <c r="K122" s="123"/>
-      <c r="L122" s="123"/>
-      <c r="M122" s="123"/>
-      <c r="N122" s="123"/>
-      <c r="O122" s="123"/>
-      <c r="P122" s="123"/>
-      <c r="Q122" s="123"/>
-      <c r="R122" s="123"/>
-      <c r="S122" s="123"/>
+      <c r="A122" s="150"/>
+      <c r="B122" s="133"/>
+      <c r="C122" s="133"/>
+      <c r="D122" s="133"/>
+      <c r="E122" s="133"/>
+      <c r="F122" s="133"/>
+      <c r="G122" s="133"/>
+      <c r="H122" s="149"/>
+      <c r="I122" s="136"/>
+      <c r="J122" s="136"/>
+      <c r="K122" s="136"/>
+      <c r="L122" s="136"/>
+      <c r="M122" s="136"/>
+      <c r="N122" s="136"/>
+      <c r="O122" s="136"/>
+      <c r="P122" s="136"/>
+      <c r="Q122" s="136"/>
+      <c r="R122" s="136"/>
+      <c r="S122" s="136"/>
     </row>
     <row r="123" spans="1:19" ht="14.5">
       <c r="A123" s="64"/>
@@ -8540,7 +8637,7 @@
         <f>SUBTOTAL(9,E115:E121)</f>
         <v>22000</v>
       </c>
-      <c r="F123" s="151">
+      <c r="F123" s="105">
         <f>G123/E123*100</f>
         <v>0</v>
       </c>
@@ -8598,25 +8695,25 @@
       </c>
     </row>
     <row r="124" spans="1:19" ht="14.5">
-      <c r="A124" s="140"/>
-      <c r="B124" s="120"/>
-      <c r="C124" s="120"/>
-      <c r="D124" s="120"/>
-      <c r="E124" s="120"/>
-      <c r="F124" s="120"/>
-      <c r="G124" s="120"/>
-      <c r="H124" s="142"/>
-      <c r="I124" s="123"/>
-      <c r="J124" s="123"/>
-      <c r="K124" s="123"/>
-      <c r="L124" s="123"/>
-      <c r="M124" s="123"/>
-      <c r="N124" s="123"/>
-      <c r="O124" s="123"/>
-      <c r="P124" s="123"/>
-      <c r="Q124" s="123"/>
-      <c r="R124" s="123"/>
-      <c r="S124" s="123"/>
+      <c r="A124" s="151"/>
+      <c r="B124" s="133"/>
+      <c r="C124" s="133"/>
+      <c r="D124" s="133"/>
+      <c r="E124" s="133"/>
+      <c r="F124" s="133"/>
+      <c r="G124" s="133"/>
+      <c r="H124" s="149"/>
+      <c r="I124" s="136"/>
+      <c r="J124" s="136"/>
+      <c r="K124" s="136"/>
+      <c r="L124" s="136"/>
+      <c r="M124" s="136"/>
+      <c r="N124" s="136"/>
+      <c r="O124" s="136"/>
+      <c r="P124" s="136"/>
+      <c r="Q124" s="136"/>
+      <c r="R124" s="136"/>
+      <c r="S124" s="136"/>
     </row>
     <row r="125" spans="1:19" ht="14.5">
       <c r="A125" s="66"/>
@@ -8633,9 +8730,9 @@
       </c>
       <c r="E125" s="67">
         <f>SUBTOTAL(9,E9:E123)</f>
-        <v>220490</v>
-      </c>
-      <c r="F125" s="150">
+        <v>225490.4</v>
+      </c>
+      <c r="F125" s="104">
         <f>G125/E125*100</f>
         <v>0</v>
       </c>
@@ -8808,6 +8905,29 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H5:S5"/>
+    <mergeCell ref="H6:S6"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:S33"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="H49:S49"/>
+    <mergeCell ref="H59:S59"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="H66:S66"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="H73:S73"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="H81:S81"/>
+    <mergeCell ref="A95:G95"/>
+    <mergeCell ref="H95:S95"/>
+    <mergeCell ref="A103:G103"/>
+    <mergeCell ref="H103:S103"/>
+    <mergeCell ref="A81:G81"/>
     <mergeCell ref="H107:S107"/>
     <mergeCell ref="A122:G122"/>
     <mergeCell ref="A124:G124"/>
@@ -8818,29 +8938,218 @@
     <mergeCell ref="A107:G107"/>
     <mergeCell ref="A111:G111"/>
     <mergeCell ref="A113:G113"/>
-    <mergeCell ref="H81:S81"/>
-    <mergeCell ref="A95:G95"/>
-    <mergeCell ref="H95:S95"/>
-    <mergeCell ref="A103:G103"/>
-    <mergeCell ref="H103:S103"/>
-    <mergeCell ref="A81:G81"/>
-    <mergeCell ref="H59:S59"/>
-    <mergeCell ref="A66:G66"/>
-    <mergeCell ref="H66:S66"/>
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="H73:S73"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="H5:S5"/>
-    <mergeCell ref="H6:S6"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:S33"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="H49:S49"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC06A08A-6CE1-40F5-B6A3-44424F0D131E}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="6.6328125" customWidth="1"/>
+    <col min="2" max="2" width="35.6328125" customWidth="1"/>
+    <col min="3" max="4" width="15.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.5">
+      <c r="A1" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+    </row>
+    <row r="2" spans="1:4" ht="18.5">
+      <c r="A2" s="158" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" t="str">
+        <f>Summary!A22</f>
+        <v>Contribution Total</v>
+      </c>
+      <c r="C4" s="109">
+        <f>Summary!E22</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="109"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="str">
+        <f>Summary!B24</f>
+        <v>Korean Language Grant</v>
+      </c>
+      <c r="C5" s="109">
+        <f>Summary!E24</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="109"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" t="str">
+        <f>Summary!B25</f>
+        <v>Refugee Programme</v>
+      </c>
+      <c r="C6" s="109">
+        <f>Summary!E25</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="109"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="str">
+        <f>Summary!B26</f>
+        <v>United Church Grant</v>
+      </c>
+      <c r="C7" s="109">
+        <f>Summary!E26</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="109"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="str">
+        <f>Summary!B27</f>
+        <v xml:space="preserve">Designated fund </v>
+      </c>
+      <c r="C8" s="109">
+        <f>Summary!E27</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="109"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" t="str">
+        <f>Summary!G33</f>
+        <v>Total Expenditure</v>
+      </c>
+      <c r="C10" s="110">
+        <f>Summary!K33</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="109"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109">
+        <f>SUM(C4:C8)-C10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B13" t="str">
+        <f>Summary!B32</f>
+        <v>Trustee Fund Transfers</v>
+      </c>
+      <c r="C13" s="109"/>
+      <c r="D13" s="111">
+        <f>Summary!E32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>257</v>
+      </c>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109">
+        <f>D11+D13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" t="str">
+        <f>Summary!B31</f>
+        <v>Beginning Balance</v>
+      </c>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109">
+        <f>Summary!C31</f>
+        <v>57490.400000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1">
+      <c r="B21" t="s">
+        <v>255</v>
+      </c>
+      <c r="C21" s="109"/>
+      <c r="D21" s="159">
+        <f>D14+D17+D18</f>
+        <v>57490.400000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/Financial_Report_2021.xlsx
+++ b/src/main/resources/Financial_Report_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\projects\church-app\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672E3612-7B80-41B1-832D-6854D5C37418}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D190E59-F1BF-4EF8-947A-0C83EE62C655}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="3" xr2:uid="{7F8DEBD6-32E0-4BF8-87C4-D1C13E633F04}"/>
+    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{7F8DEBD6-32E0-4BF8-87C4-D1C13E633F04}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -1444,6 +1444,7 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1573,7 +1574,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1893,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3665FC8-9630-434E-9040-903A45656577}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1914,71 +1914,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.5">
-      <c r="A1" s="118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
+      <c r="A1" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
     </row>
     <row r="2" spans="1:11" ht="18.5">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="119" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
     </row>
     <row r="3" spans="1:11" ht="18.5">
-      <c r="A3" s="121">
+      <c r="A3" s="122">
         <v>2021</v>
       </c>
-      <c r="B3" s="121"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="127" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="127"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="129"/>
-      <c r="G4" s="113" t="s">
+      <c r="B4" s="128"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="130"/>
+      <c r="G4" s="114" t="s">
         <v>240</v>
       </c>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="116"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="131" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="131"/>
+      <c r="B5" s="132"/>
       <c r="C5" s="73" t="s">
         <v>1</v>
       </c>
@@ -1988,10 +1988,10 @@
       <c r="E5" s="74" t="s">
         <v>198</v>
       </c>
-      <c r="G5" s="116" t="s">
+      <c r="G5" s="117" t="s">
         <v>241</v>
       </c>
-      <c r="H5" s="117"/>
+      <c r="H5" s="118"/>
       <c r="I5" s="73" t="s">
         <v>1</v>
       </c>
@@ -2393,11 +2393,11 @@
         <f>Offering!$G$17</f>
         <v>0</v>
       </c>
-      <c r="G17" s="135"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="136"/>
-      <c r="K17" s="137"/>
+      <c r="G17" s="136"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="138"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="75"/>
@@ -2486,10 +2486,10 @@
       <c r="K21" s="91"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="122" t="s">
+      <c r="A22" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="B22" s="123"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="19">
         <f t="shared" ref="C22:E22" si="2">SUBTOTAL(9,C6:C21)</f>
         <v>148000</v>
@@ -2506,11 +2506,11 @@
       <c r="K22" s="91"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="132"/>
-      <c r="B23" s="133"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="134"/>
+      <c r="A23" s="133"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="135"/>
       <c r="G23" s="87" t="s">
         <v>243</v>
       </c>
@@ -2650,10 +2650,10 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="122" t="s">
+      <c r="A28" s="123" t="s">
         <v>228</v>
       </c>
-      <c r="B28" s="123"/>
+      <c r="B28" s="124"/>
       <c r="C28" s="19">
         <f>SUBTOTAL(9,C24:C27)</f>
         <v>15000</v>
@@ -2681,11 +2681,11 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="132"/>
-      <c r="B29" s="133"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
+      <c r="A29" s="133"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="135"/>
       <c r="G29" s="92"/>
       <c r="H29" s="24" t="s">
         <v>227</v>
@@ -2778,10 +2778,10 @@
       <c r="K32" s="91"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="124" t="s">
+      <c r="A33" s="125" t="s">
         <v>232</v>
       </c>
-      <c r="B33" s="125"/>
+      <c r="B33" s="126"/>
       <c r="C33" s="94">
         <f>SUBTOTAL(9,C6:C32)</f>
         <v>225490.4</v>
@@ -2794,10 +2794,10 @@
         <f>SUBTOTAL(9,E6:E32)</f>
         <v>0</v>
       </c>
-      <c r="G33" s="138" t="s">
+      <c r="G33" s="139" t="s">
         <v>248</v>
       </c>
-      <c r="H33" s="139"/>
+      <c r="H33" s="140"/>
       <c r="I33" s="96">
         <f>SUBTOTAL(9,I6:I30)</f>
         <v>225490.4</v>
@@ -2812,19 +2812,19 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="112" t="s">
+      <c r="A35" s="113" t="s">
         <v>250</v>
       </c>
-      <c r="B35" s="112"/>
-      <c r="C35" s="112"/>
-      <c r="D35" s="112"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="112"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="112"/>
-      <c r="K35" s="112"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2854,7 +2854,7 @@
   <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2867,15 +2867,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5">
-      <c r="A1" s="142" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
+      <c r="A1" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="143"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -2890,15 +2890,15 @@
       <c r="S1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="15.5">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="143" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
@@ -2913,15 +2913,15 @@
       <c r="S2" s="8"/>
     </row>
     <row r="3" spans="1:19" ht="15.5">
-      <c r="A3" s="145" t="s">
+      <c r="A3" s="146" t="s">
         <v>236</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
@@ -2936,10 +2936,10 @@
       <c r="S3" s="8"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="147" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="146"/>
+      <c r="B4" s="147"/>
       <c r="C4" s="29"/>
       <c r="D4" s="30"/>
       <c r="E4" s="31"/>
@@ -2959,10 +2959,10 @@
       <c r="S4" s="8"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="148" t="s">
         <v>208</v>
       </c>
-      <c r="B5" s="147"/>
+      <c r="B5" s="148"/>
       <c r="C5" s="33" t="s">
         <v>209</v>
       </c>
@@ -3571,10 +3571,10 @@
       <c r="S21" s="8"/>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="123" t="s">
+      <c r="A22" s="124" t="s">
         <v>225</v>
       </c>
-      <c r="B22" s="123"/>
+      <c r="B22" s="124"/>
       <c r="C22" s="19">
         <f>SUBTOTAL(9,C6:C21)</f>
         <v>162850</v>
@@ -3645,25 +3645,25 @@
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="148"/>
-      <c r="B23" s="133"/>
-      <c r="C23" s="133"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="133"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="136"/>
-      <c r="O23" s="136"/>
-      <c r="P23" s="136"/>
-      <c r="Q23" s="136"/>
-      <c r="R23" s="136"/>
-      <c r="S23" s="136"/>
+      <c r="A23" s="149"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="137"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="137"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="137"/>
+      <c r="R23" s="137"/>
+      <c r="S23" s="137"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="24"/>
@@ -3799,10 +3799,10 @@
       <c r="S27" s="8"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="123" t="s">
+      <c r="A28" s="124" t="s">
         <v>228</v>
       </c>
-      <c r="B28" s="123"/>
+      <c r="B28" s="124"/>
       <c r="C28" s="19">
         <f>SUBTOTAL(9,C24:C27)</f>
         <v>15000</v>
@@ -3873,25 +3873,25 @@
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="148"/>
-      <c r="B29" s="133"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="136"/>
-      <c r="O29" s="136"/>
-      <c r="P29" s="136"/>
-      <c r="Q29" s="136"/>
-      <c r="R29" s="136"/>
-      <c r="S29" s="136"/>
+      <c r="A29" s="149"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="137"/>
+      <c r="N29" s="137"/>
+      <c r="O29" s="137"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="137"/>
+      <c r="R29" s="137"/>
+      <c r="S29" s="137"/>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="27" t="s">
@@ -4029,10 +4029,10 @@
       <c r="S32" s="8"/>
     </row>
     <row r="33" spans="1:19">
-      <c r="A33" s="141" t="s">
+      <c r="A33" s="142" t="s">
         <v>232</v>
       </c>
-      <c r="B33" s="141"/>
+      <c r="B33" s="142"/>
       <c r="C33" s="37">
         <f>SUBTOTAL(9,C6:C32)</f>
         <v>216891</v>
@@ -4141,7 +4141,7 @@
   <dimension ref="A1:S157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -4155,15 +4155,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5">
-      <c r="A1" s="154" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="144"/>
+      <c r="A1" s="155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="145"/>
       <c r="H1" s="38"/>
       <c r="I1" s="38"/>
       <c r="J1" s="38"/>
@@ -4178,15 +4178,15 @@
       <c r="S1" s="38"/>
     </row>
     <row r="2" spans="1:19" ht="15.5">
-      <c r="A2" s="156">
+      <c r="A2" s="157">
         <v>2021</v>
       </c>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="144"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="145"/>
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
       <c r="J2" s="38"/>
@@ -4201,15 +4201,15 @@
       <c r="S2" s="38"/>
     </row>
     <row r="3" spans="1:19" ht="15.5">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="158" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="157"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="155"/>
-      <c r="F3" s="155"/>
-      <c r="G3" s="144"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="145"/>
       <c r="H3" s="38"/>
       <c r="I3" s="38"/>
       <c r="J3" s="38"/>
@@ -4283,48 +4283,48 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.5">
-      <c r="A5" s="151"/>
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="136"/>
-      <c r="P5" s="136"/>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="136"/>
-      <c r="S5" s="136"/>
+      <c r="A5" s="152"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="137"/>
+      <c r="P5" s="137"/>
+      <c r="Q5" s="137"/>
+      <c r="R5" s="137"/>
+      <c r="S5" s="137"/>
     </row>
     <row r="6" spans="1:19" ht="14.5">
-      <c r="A6" s="151" t="s">
+      <c r="A6" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="136"/>
-      <c r="N6" s="136"/>
-      <c r="O6" s="136"/>
-      <c r="P6" s="136"/>
-      <c r="Q6" s="136"/>
-      <c r="R6" s="136"/>
-      <c r="S6" s="136"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="153"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="137"/>
+      <c r="O6" s="137"/>
+      <c r="P6" s="137"/>
+      <c r="Q6" s="137"/>
+      <c r="R6" s="137"/>
+      <c r="S6" s="137"/>
     </row>
     <row r="7" spans="1:19" ht="14.5">
       <c r="A7" s="44" t="s">
@@ -5233,25 +5233,25 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="14.5">
-      <c r="A33" s="151"/>
-      <c r="B33" s="133"/>
-      <c r="C33" s="133"/>
-      <c r="D33" s="133"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="133"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="136"/>
-      <c r="J33" s="136"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="136"/>
-      <c r="M33" s="136"/>
-      <c r="N33" s="136"/>
-      <c r="O33" s="136"/>
-      <c r="P33" s="136"/>
-      <c r="Q33" s="136"/>
-      <c r="R33" s="136"/>
-      <c r="S33" s="136"/>
+      <c r="A33" s="152"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="137"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="137"/>
+      <c r="L33" s="137"/>
+      <c r="M33" s="137"/>
+      <c r="N33" s="137"/>
+      <c r="O33" s="137"/>
+      <c r="P33" s="137"/>
+      <c r="Q33" s="137"/>
+      <c r="R33" s="137"/>
+      <c r="S33" s="137"/>
     </row>
     <row r="34" spans="1:19" ht="14.5">
       <c r="A34" s="52" t="s">
@@ -5820,25 +5820,25 @@
       </c>
     </row>
     <row r="49" spans="1:19" ht="14.5">
-      <c r="A49" s="151"/>
-      <c r="B49" s="136"/>
-      <c r="C49" s="136"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="149"/>
-      <c r="I49" s="136"/>
-      <c r="J49" s="136"/>
-      <c r="K49" s="136"/>
-      <c r="L49" s="136"/>
-      <c r="M49" s="136"/>
-      <c r="N49" s="136"/>
-      <c r="O49" s="136"/>
-      <c r="P49" s="136"/>
-      <c r="Q49" s="136"/>
-      <c r="R49" s="136"/>
-      <c r="S49" s="136"/>
+      <c r="A49" s="152"/>
+      <c r="B49" s="137"/>
+      <c r="C49" s="137"/>
+      <c r="D49" s="137"/>
+      <c r="E49" s="137"/>
+      <c r="F49" s="137"/>
+      <c r="G49" s="137"/>
+      <c r="H49" s="150"/>
+      <c r="I49" s="137"/>
+      <c r="J49" s="137"/>
+      <c r="K49" s="137"/>
+      <c r="L49" s="137"/>
+      <c r="M49" s="137"/>
+      <c r="N49" s="137"/>
+      <c r="O49" s="137"/>
+      <c r="P49" s="137"/>
+      <c r="Q49" s="137"/>
+      <c r="R49" s="137"/>
+      <c r="S49" s="137"/>
     </row>
     <row r="50" spans="1:19" ht="14.5">
       <c r="A50" s="44" t="s">
@@ -6197,25 +6197,25 @@
       </c>
     </row>
     <row r="59" spans="1:19" ht="14.5">
-      <c r="A59" s="151"/>
-      <c r="B59" s="136"/>
-      <c r="C59" s="136"/>
-      <c r="D59" s="136"/>
-      <c r="E59" s="136"/>
-      <c r="F59" s="136"/>
-      <c r="G59" s="136"/>
-      <c r="H59" s="149"/>
-      <c r="I59" s="136"/>
-      <c r="J59" s="136"/>
-      <c r="K59" s="136"/>
-      <c r="L59" s="136"/>
-      <c r="M59" s="136"/>
-      <c r="N59" s="136"/>
-      <c r="O59" s="136"/>
-      <c r="P59" s="136"/>
-      <c r="Q59" s="136"/>
-      <c r="R59" s="136"/>
-      <c r="S59" s="136"/>
+      <c r="A59" s="152"/>
+      <c r="B59" s="137"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="137"/>
+      <c r="F59" s="137"/>
+      <c r="G59" s="137"/>
+      <c r="H59" s="150"/>
+      <c r="I59" s="137"/>
+      <c r="J59" s="137"/>
+      <c r="K59" s="137"/>
+      <c r="L59" s="137"/>
+      <c r="M59" s="137"/>
+      <c r="N59" s="137"/>
+      <c r="O59" s="137"/>
+      <c r="P59" s="137"/>
+      <c r="Q59" s="137"/>
+      <c r="R59" s="137"/>
+      <c r="S59" s="137"/>
     </row>
     <row r="60" spans="1:19" ht="14.5">
       <c r="A60" s="52" t="s">
@@ -6465,25 +6465,25 @@
       </c>
     </row>
     <row r="66" spans="1:19" ht="14.5">
-      <c r="A66" s="151"/>
-      <c r="B66" s="136"/>
-      <c r="C66" s="136"/>
-      <c r="D66" s="136"/>
-      <c r="E66" s="136"/>
-      <c r="F66" s="136"/>
-      <c r="G66" s="136"/>
-      <c r="H66" s="149"/>
-      <c r="I66" s="136"/>
-      <c r="J66" s="136"/>
-      <c r="K66" s="136"/>
-      <c r="L66" s="136"/>
-      <c r="M66" s="136"/>
-      <c r="N66" s="136"/>
-      <c r="O66" s="136"/>
-      <c r="P66" s="136"/>
-      <c r="Q66" s="136"/>
-      <c r="R66" s="136"/>
-      <c r="S66" s="136"/>
+      <c r="A66" s="152"/>
+      <c r="B66" s="137"/>
+      <c r="C66" s="137"/>
+      <c r="D66" s="137"/>
+      <c r="E66" s="137"/>
+      <c r="F66" s="137"/>
+      <c r="G66" s="137"/>
+      <c r="H66" s="150"/>
+      <c r="I66" s="137"/>
+      <c r="J66" s="137"/>
+      <c r="K66" s="137"/>
+      <c r="L66" s="137"/>
+      <c r="M66" s="137"/>
+      <c r="N66" s="137"/>
+      <c r="O66" s="137"/>
+      <c r="P66" s="137"/>
+      <c r="Q66" s="137"/>
+      <c r="R66" s="137"/>
+      <c r="S66" s="137"/>
     </row>
     <row r="67" spans="1:19" ht="14.5">
       <c r="A67" s="44" t="s">
@@ -6729,25 +6729,25 @@
       </c>
     </row>
     <row r="73" spans="1:19" ht="14.5">
-      <c r="A73" s="151"/>
-      <c r="B73" s="136"/>
-      <c r="C73" s="136"/>
-      <c r="D73" s="136"/>
-      <c r="E73" s="136"/>
-      <c r="F73" s="136"/>
-      <c r="G73" s="136"/>
-      <c r="H73" s="149"/>
-      <c r="I73" s="136"/>
-      <c r="J73" s="136"/>
-      <c r="K73" s="136"/>
-      <c r="L73" s="136"/>
-      <c r="M73" s="136"/>
-      <c r="N73" s="136"/>
-      <c r="O73" s="136"/>
-      <c r="P73" s="136"/>
-      <c r="Q73" s="136"/>
-      <c r="R73" s="136"/>
-      <c r="S73" s="136"/>
+      <c r="A73" s="152"/>
+      <c r="B73" s="137"/>
+      <c r="C73" s="137"/>
+      <c r="D73" s="137"/>
+      <c r="E73" s="137"/>
+      <c r="F73" s="137"/>
+      <c r="G73" s="137"/>
+      <c r="H73" s="150"/>
+      <c r="I73" s="137"/>
+      <c r="J73" s="137"/>
+      <c r="K73" s="137"/>
+      <c r="L73" s="137"/>
+      <c r="M73" s="137"/>
+      <c r="N73" s="137"/>
+      <c r="O73" s="137"/>
+      <c r="P73" s="137"/>
+      <c r="Q73" s="137"/>
+      <c r="R73" s="137"/>
+      <c r="S73" s="137"/>
     </row>
     <row r="74" spans="1:19" ht="14.5">
       <c r="A74" s="52" t="s">
@@ -7032,25 +7032,25 @@
       </c>
     </row>
     <row r="81" spans="1:19" ht="14.5">
-      <c r="A81" s="151"/>
-      <c r="B81" s="133"/>
-      <c r="C81" s="133"/>
-      <c r="D81" s="133"/>
-      <c r="E81" s="133"/>
-      <c r="F81" s="133"/>
-      <c r="G81" s="133"/>
-      <c r="H81" s="153"/>
-      <c r="I81" s="136"/>
-      <c r="J81" s="136"/>
-      <c r="K81" s="136"/>
-      <c r="L81" s="136"/>
-      <c r="M81" s="136"/>
-      <c r="N81" s="136"/>
-      <c r="O81" s="136"/>
-      <c r="P81" s="136"/>
-      <c r="Q81" s="136"/>
-      <c r="R81" s="136"/>
-      <c r="S81" s="136"/>
+      <c r="A81" s="152"/>
+      <c r="B81" s="134"/>
+      <c r="C81" s="134"/>
+      <c r="D81" s="134"/>
+      <c r="E81" s="134"/>
+      <c r="F81" s="134"/>
+      <c r="G81" s="134"/>
+      <c r="H81" s="154"/>
+      <c r="I81" s="137"/>
+      <c r="J81" s="137"/>
+      <c r="K81" s="137"/>
+      <c r="L81" s="137"/>
+      <c r="M81" s="137"/>
+      <c r="N81" s="137"/>
+      <c r="O81" s="137"/>
+      <c r="P81" s="137"/>
+      <c r="Q81" s="137"/>
+      <c r="R81" s="137"/>
+      <c r="S81" s="137"/>
     </row>
     <row r="82" spans="1:19" ht="14.5">
       <c r="A82" s="44" t="s">
@@ -7554,25 +7554,25 @@
       </c>
     </row>
     <row r="95" spans="1:19" ht="14.5">
-      <c r="A95" s="151"/>
-      <c r="B95" s="133"/>
-      <c r="C95" s="133"/>
-      <c r="D95" s="133"/>
-      <c r="E95" s="133"/>
-      <c r="F95" s="133"/>
-      <c r="G95" s="133"/>
-      <c r="H95" s="149"/>
-      <c r="I95" s="136"/>
-      <c r="J95" s="136"/>
-      <c r="K95" s="136"/>
-      <c r="L95" s="136"/>
-      <c r="M95" s="136"/>
-      <c r="N95" s="136"/>
-      <c r="O95" s="136"/>
-      <c r="P95" s="136"/>
-      <c r="Q95" s="136"/>
-      <c r="R95" s="136"/>
-      <c r="S95" s="136"/>
+      <c r="A95" s="152"/>
+      <c r="B95" s="134"/>
+      <c r="C95" s="134"/>
+      <c r="D95" s="134"/>
+      <c r="E95" s="134"/>
+      <c r="F95" s="134"/>
+      <c r="G95" s="134"/>
+      <c r="H95" s="150"/>
+      <c r="I95" s="137"/>
+      <c r="J95" s="137"/>
+      <c r="K95" s="137"/>
+      <c r="L95" s="137"/>
+      <c r="M95" s="137"/>
+      <c r="N95" s="137"/>
+      <c r="O95" s="137"/>
+      <c r="P95" s="137"/>
+      <c r="Q95" s="137"/>
+      <c r="R95" s="137"/>
+      <c r="S95" s="137"/>
     </row>
     <row r="96" spans="1:19" ht="14.5">
       <c r="A96" s="52" t="s">
@@ -7861,25 +7861,25 @@
       </c>
     </row>
     <row r="103" spans="1:19" ht="14.5">
-      <c r="A103" s="150"/>
-      <c r="B103" s="133"/>
-      <c r="C103" s="133"/>
-      <c r="D103" s="133"/>
-      <c r="E103" s="133"/>
-      <c r="F103" s="133"/>
-      <c r="G103" s="133"/>
-      <c r="H103" s="149"/>
-      <c r="I103" s="136"/>
-      <c r="J103" s="136"/>
-      <c r="K103" s="136"/>
-      <c r="L103" s="136"/>
-      <c r="M103" s="136"/>
-      <c r="N103" s="136"/>
-      <c r="O103" s="136"/>
-      <c r="P103" s="136"/>
-      <c r="Q103" s="136"/>
-      <c r="R103" s="136"/>
-      <c r="S103" s="136"/>
+      <c r="A103" s="151"/>
+      <c r="B103" s="134"/>
+      <c r="C103" s="134"/>
+      <c r="D103" s="134"/>
+      <c r="E103" s="134"/>
+      <c r="F103" s="134"/>
+      <c r="G103" s="134"/>
+      <c r="H103" s="150"/>
+      <c r="I103" s="137"/>
+      <c r="J103" s="137"/>
+      <c r="K103" s="137"/>
+      <c r="L103" s="137"/>
+      <c r="M103" s="137"/>
+      <c r="N103" s="137"/>
+      <c r="O103" s="137"/>
+      <c r="P103" s="137"/>
+      <c r="Q103" s="137"/>
+      <c r="R103" s="137"/>
+      <c r="S103" s="137"/>
     </row>
     <row r="104" spans="1:19" ht="14.5">
       <c r="A104" s="44" t="s">
@@ -8018,25 +8018,25 @@
       </c>
     </row>
     <row r="107" spans="1:19" ht="14.5">
-      <c r="A107" s="151"/>
-      <c r="B107" s="133"/>
-      <c r="C107" s="133"/>
-      <c r="D107" s="133"/>
-      <c r="E107" s="133"/>
-      <c r="F107" s="133"/>
-      <c r="G107" s="133"/>
-      <c r="H107" s="149"/>
-      <c r="I107" s="136"/>
-      <c r="J107" s="136"/>
-      <c r="K107" s="136"/>
-      <c r="L107" s="136"/>
-      <c r="M107" s="136"/>
-      <c r="N107" s="136"/>
-      <c r="O107" s="136"/>
-      <c r="P107" s="136"/>
-      <c r="Q107" s="136"/>
-      <c r="R107" s="136"/>
-      <c r="S107" s="136"/>
+      <c r="A107" s="152"/>
+      <c r="B107" s="134"/>
+      <c r="C107" s="134"/>
+      <c r="D107" s="134"/>
+      <c r="E107" s="134"/>
+      <c r="F107" s="134"/>
+      <c r="G107" s="134"/>
+      <c r="H107" s="150"/>
+      <c r="I107" s="137"/>
+      <c r="J107" s="137"/>
+      <c r="K107" s="137"/>
+      <c r="L107" s="137"/>
+      <c r="M107" s="137"/>
+      <c r="N107" s="137"/>
+      <c r="O107" s="137"/>
+      <c r="P107" s="137"/>
+      <c r="Q107" s="137"/>
+      <c r="R107" s="137"/>
+      <c r="S107" s="137"/>
     </row>
     <row r="108" spans="1:19" ht="14.5">
       <c r="A108" s="52" t="s">
@@ -8175,13 +8175,13 @@
       </c>
     </row>
     <row r="111" spans="1:19" ht="14.5">
-      <c r="A111" s="150"/>
-      <c r="B111" s="133"/>
-      <c r="C111" s="133"/>
-      <c r="D111" s="133"/>
-      <c r="E111" s="133"/>
-      <c r="F111" s="133"/>
-      <c r="G111" s="133"/>
+      <c r="A111" s="151"/>
+      <c r="B111" s="134"/>
+      <c r="C111" s="134"/>
+      <c r="D111" s="134"/>
+      <c r="E111" s="134"/>
+      <c r="F111" s="134"/>
+      <c r="G111" s="134"/>
       <c r="H111" s="68"/>
       <c r="I111" s="68"/>
       <c r="J111" s="68"/>
@@ -8270,36 +8270,36 @@
       </c>
     </row>
     <row r="113" spans="1:19" ht="14.5">
-      <c r="A113" s="151"/>
-      <c r="B113" s="133"/>
-      <c r="C113" s="133"/>
-      <c r="D113" s="133"/>
-      <c r="E113" s="133"/>
-      <c r="F113" s="133"/>
-      <c r="G113" s="133"/>
-      <c r="H113" s="149"/>
-      <c r="I113" s="136"/>
-      <c r="J113" s="136"/>
-      <c r="K113" s="136"/>
-      <c r="L113" s="136"/>
-      <c r="M113" s="136"/>
-      <c r="N113" s="136"/>
-      <c r="O113" s="136"/>
-      <c r="P113" s="136"/>
-      <c r="Q113" s="136"/>
-      <c r="R113" s="136"/>
-      <c r="S113" s="136"/>
+      <c r="A113" s="152"/>
+      <c r="B113" s="134"/>
+      <c r="C113" s="134"/>
+      <c r="D113" s="134"/>
+      <c r="E113" s="134"/>
+      <c r="F113" s="134"/>
+      <c r="G113" s="134"/>
+      <c r="H113" s="150"/>
+      <c r="I113" s="137"/>
+      <c r="J113" s="137"/>
+      <c r="K113" s="137"/>
+      <c r="L113" s="137"/>
+      <c r="M113" s="137"/>
+      <c r="N113" s="137"/>
+      <c r="O113" s="137"/>
+      <c r="P113" s="137"/>
+      <c r="Q113" s="137"/>
+      <c r="R113" s="137"/>
+      <c r="S113" s="137"/>
     </row>
     <row r="114" spans="1:19" ht="14.5">
-      <c r="A114" s="151" t="s">
+      <c r="A114" s="152" t="s">
         <v>163</v>
       </c>
-      <c r="B114" s="152"/>
-      <c r="C114" s="152"/>
-      <c r="D114" s="152"/>
-      <c r="E114" s="152"/>
-      <c r="F114" s="152"/>
-      <c r="G114" s="152"/>
+      <c r="B114" s="153"/>
+      <c r="C114" s="153"/>
+      <c r="D114" s="153"/>
+      <c r="E114" s="153"/>
+      <c r="F114" s="153"/>
+      <c r="G114" s="153"/>
       <c r="H114" s="68"/>
       <c r="I114" s="68"/>
       <c r="J114" s="68"/>
@@ -8600,25 +8600,25 @@
       </c>
     </row>
     <row r="122" spans="1:19" ht="14.5">
-      <c r="A122" s="150"/>
-      <c r="B122" s="133"/>
-      <c r="C122" s="133"/>
-      <c r="D122" s="133"/>
-      <c r="E122" s="133"/>
-      <c r="F122" s="133"/>
-      <c r="G122" s="133"/>
-      <c r="H122" s="149"/>
-      <c r="I122" s="136"/>
-      <c r="J122" s="136"/>
-      <c r="K122" s="136"/>
-      <c r="L122" s="136"/>
-      <c r="M122" s="136"/>
-      <c r="N122" s="136"/>
-      <c r="O122" s="136"/>
-      <c r="P122" s="136"/>
-      <c r="Q122" s="136"/>
-      <c r="R122" s="136"/>
-      <c r="S122" s="136"/>
+      <c r="A122" s="151"/>
+      <c r="B122" s="134"/>
+      <c r="C122" s="134"/>
+      <c r="D122" s="134"/>
+      <c r="E122" s="134"/>
+      <c r="F122" s="134"/>
+      <c r="G122" s="134"/>
+      <c r="H122" s="150"/>
+      <c r="I122" s="137"/>
+      <c r="J122" s="137"/>
+      <c r="K122" s="137"/>
+      <c r="L122" s="137"/>
+      <c r="M122" s="137"/>
+      <c r="N122" s="137"/>
+      <c r="O122" s="137"/>
+      <c r="P122" s="137"/>
+      <c r="Q122" s="137"/>
+      <c r="R122" s="137"/>
+      <c r="S122" s="137"/>
     </row>
     <row r="123" spans="1:19" ht="14.5">
       <c r="A123" s="64"/>
@@ -8695,25 +8695,25 @@
       </c>
     </row>
     <row r="124" spans="1:19" ht="14.5">
-      <c r="A124" s="151"/>
-      <c r="B124" s="133"/>
-      <c r="C124" s="133"/>
-      <c r="D124" s="133"/>
-      <c r="E124" s="133"/>
-      <c r="F124" s="133"/>
-      <c r="G124" s="133"/>
-      <c r="H124" s="149"/>
-      <c r="I124" s="136"/>
-      <c r="J124" s="136"/>
-      <c r="K124" s="136"/>
-      <c r="L124" s="136"/>
-      <c r="M124" s="136"/>
-      <c r="N124" s="136"/>
-      <c r="O124" s="136"/>
-      <c r="P124" s="136"/>
-      <c r="Q124" s="136"/>
-      <c r="R124" s="136"/>
-      <c r="S124" s="136"/>
+      <c r="A124" s="152"/>
+      <c r="B124" s="134"/>
+      <c r="C124" s="134"/>
+      <c r="D124" s="134"/>
+      <c r="E124" s="134"/>
+      <c r="F124" s="134"/>
+      <c r="G124" s="134"/>
+      <c r="H124" s="150"/>
+      <c r="I124" s="137"/>
+      <c r="J124" s="137"/>
+      <c r="K124" s="137"/>
+      <c r="L124" s="137"/>
+      <c r="M124" s="137"/>
+      <c r="N124" s="137"/>
+      <c r="O124" s="137"/>
+      <c r="P124" s="137"/>
+      <c r="Q124" s="137"/>
+      <c r="R124" s="137"/>
+      <c r="S124" s="137"/>
     </row>
     <row r="125" spans="1:19" ht="14.5">
       <c r="A125" s="66"/>
@@ -8948,8 +8948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC06A08A-6CE1-40F5-B6A3-44424F0D131E}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -8960,81 +8960,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.5">
-      <c r="A1" s="158" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
+      <c r="A1" s="159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
     </row>
     <row r="2" spans="1:4" ht="18.5">
-      <c r="A2" s="158" t="s">
+      <c r="A2" s="159" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="158"/>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="136"/>
-      <c r="B3" s="136"/>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
+      <c r="A3" s="137"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>252</v>
       </c>
       <c r="B4" t="str">
-        <f>Summary!A22</f>
+        <f>Summary!$A$22</f>
         <v>Contribution Total</v>
       </c>
       <c r="C4" s="109">
-        <f>Summary!E22</f>
+        <f>Summary!$E$22</f>
         <v>0</v>
       </c>
       <c r="D4" s="109"/>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="str">
-        <f>Summary!B24</f>
+        <f>Summary!$B$24</f>
         <v>Korean Language Grant</v>
       </c>
       <c r="C5" s="109">
-        <f>Summary!E24</f>
+        <f>Summary!$E$24</f>
         <v>0</v>
       </c>
       <c r="D5" s="109"/>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="str">
-        <f>Summary!B25</f>
+        <f>Summary!$B$25</f>
         <v>Refugee Programme</v>
       </c>
       <c r="C6" s="109">
-        <f>Summary!E25</f>
+        <f>Summary!$E$25</f>
         <v>0</v>
       </c>
       <c r="D6" s="109"/>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="str">
-        <f>Summary!B26</f>
+        <f>Summary!$B$26</f>
         <v>United Church Grant</v>
       </c>
       <c r="C7" s="109">
-        <f>Summary!E26</f>
+        <f>Summary!$E$26</f>
         <v>0</v>
       </c>
       <c r="D7" s="109"/>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="str">
-        <f>Summary!B27</f>
+        <f>Summary!$B$27</f>
         <v xml:space="preserve">Designated fund </v>
       </c>
       <c r="C8" s="109">
-        <f>Summary!E27</f>
+        <f>Summary!$E$27</f>
         <v>0</v>
       </c>
       <c r="D8" s="109"/>
@@ -9048,11 +9048,11 @@
         <v>253</v>
       </c>
       <c r="B10" t="str">
-        <f>Summary!G33</f>
+        <f>Summary!$G$33</f>
         <v>Total Expenditure</v>
       </c>
       <c r="C10" s="110">
-        <f>Summary!K33</f>
+        <f>Summary!$K$33</f>
         <v>0</v>
       </c>
       <c r="D10" s="109"/>
@@ -9076,12 +9076,12 @@
         <v>252</v>
       </c>
       <c r="B13" t="str">
-        <f>Summary!B32</f>
+        <f>Summary!$B$32</f>
         <v>Trustee Fund Transfers</v>
       </c>
       <c r="C13" s="109"/>
       <c r="D13" s="111">
-        <f>Summary!E32</f>
+        <f>Summary!$E$32</f>
         <v>0</v>
       </c>
     </row>
@@ -9108,12 +9108,12 @@
         <v>252</v>
       </c>
       <c r="B17" t="str">
-        <f>Summary!B31</f>
+        <f>Summary!$B$31</f>
         <v>Beginning Balance</v>
       </c>
       <c r="C17" s="109"/>
       <c r="D17" s="109">
-        <f>Summary!C31</f>
+        <f>Summary!$C$31</f>
         <v>57490.400000000001</v>
       </c>
     </row>
@@ -9139,7 +9139,7 @@
         <v>255</v>
       </c>
       <c r="C21" s="109"/>
-      <c r="D21" s="159">
+      <c r="D21" s="112">
         <f>D14+D17+D18</f>
         <v>57490.400000000001</v>
       </c>

--- a/src/main/resources/Financial_Report_2021.xlsx
+++ b/src/main/resources/Financial_Report_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\projects\church-app\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D190E59-F1BF-4EF8-947A-0C83EE62C655}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719F71E8-6A63-435A-808B-1D2EA53E121D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{7F8DEBD6-32E0-4BF8-87C4-D1C13E633F04}"/>
+    <workbookView xWindow="840" yWindow="-110" windowWidth="18470" windowHeight="11020" activeTab="2" xr2:uid="{7F8DEBD6-32E0-4BF8-87C4-D1C13E633F04}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,13 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -205,9 +212,6 @@
   </si>
   <si>
     <t>01-5626-061</t>
-  </si>
-  <si>
-    <t>포토카피어 수리</t>
   </si>
   <si>
     <t>01-5631-061</t>
@@ -852,6 +856,9 @@
   </si>
   <si>
     <t>Cachflow Reconciliation</t>
+  </si>
+  <si>
+    <t>포토카피어 토너 및 수리</t>
   </si>
 </sst>
 </file>
@@ -1546,30 +1553,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1893,7 +1900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3665FC8-9630-434E-9040-903A45656577}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
@@ -1930,7 +1937,7 @@
     </row>
     <row r="2" spans="1:11" ht="18.5">
       <c r="A2" s="119" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B2" s="120"/>
       <c r="C2" s="120"/>
@@ -1960,14 +1967,14 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="127" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" s="128"/>
       <c r="C4" s="129"/>
       <c r="D4" s="129"/>
       <c r="E4" s="130"/>
       <c r="G4" s="114" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H4" s="115"/>
       <c r="I4" s="115"/>
@@ -1976,7 +1983,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="131" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="132"/>
       <c r="C5" s="73" t="s">
@@ -1986,10 +1993,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G5" s="117" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H5" s="118"/>
       <c r="I5" s="73" t="s">
@@ -1999,13 +2006,13 @@
         <v>5</v>
       </c>
       <c r="K5" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="75"/>
       <c r="B6" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="14">
         <f>Offering!$E$6</f>
@@ -2021,7 +2028,7 @@
       </c>
       <c r="G6" s="83"/>
       <c r="H6" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I6" s="16">
         <f>Expenditure!$E$32</f>
@@ -2039,7 +2046,7 @@
     <row r="7" spans="1:11">
       <c r="A7" s="75"/>
       <c r="B7" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="14">
         <f>Offering!$E$7</f>
@@ -2055,7 +2062,7 @@
       </c>
       <c r="G7" s="83"/>
       <c r="H7" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I7" s="16">
         <f>Expenditure!$E$48</f>
@@ -2073,7 +2080,7 @@
     <row r="8" spans="1:11">
       <c r="A8" s="75"/>
       <c r="B8" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C8" s="14">
         <f>Offering!$E$8</f>
@@ -2089,7 +2096,7 @@
       </c>
       <c r="G8" s="83"/>
       <c r="H8" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I8" s="16">
         <f>Expenditure!$E$58</f>
@@ -2107,7 +2114,7 @@
     <row r="9" spans="1:11">
       <c r="A9" s="75"/>
       <c r="B9" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C9" s="14">
         <f>Offering!$E$9</f>
@@ -2123,7 +2130,7 @@
       </c>
       <c r="G9" s="83"/>
       <c r="H9" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I9" s="16">
         <f>Expenditure!$E$65</f>
@@ -2141,7 +2148,7 @@
     <row r="10" spans="1:11">
       <c r="A10" s="75"/>
       <c r="B10" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C10" s="14">
         <f>Offering!$E$10</f>
@@ -2157,7 +2164,7 @@
       </c>
       <c r="G10" s="83"/>
       <c r="H10" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I10" s="16">
         <f>Expenditure!$E$72</f>
@@ -2175,7 +2182,7 @@
     <row r="11" spans="1:11">
       <c r="A11" s="75"/>
       <c r="B11" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" s="14">
         <f>Offering!$E$11</f>
@@ -2191,7 +2198,7 @@
       </c>
       <c r="G11" s="83"/>
       <c r="H11" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I11" s="16">
         <f>Expenditure!$E$80</f>
@@ -2209,7 +2216,7 @@
     <row r="12" spans="1:11">
       <c r="A12" s="75"/>
       <c r="B12" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C12" s="14">
         <f>Offering!$E$12</f>
@@ -2225,7 +2232,7 @@
       </c>
       <c r="G12" s="83"/>
       <c r="H12" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I12" s="16">
         <f>Expenditure!$E$94</f>
@@ -2243,7 +2250,7 @@
     <row r="13" spans="1:11">
       <c r="A13" s="75"/>
       <c r="B13" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" s="14">
         <f>Offering!$E$13</f>
@@ -2259,7 +2266,7 @@
       </c>
       <c r="G13" s="83"/>
       <c r="H13" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I13" s="16">
         <f>Expenditure!$E$102</f>
@@ -2277,7 +2284,7 @@
     <row r="14" spans="1:11">
       <c r="A14" s="75"/>
       <c r="B14" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C14" s="14">
         <f>Offering!$E$14</f>
@@ -2293,7 +2300,7 @@
       </c>
       <c r="G14" s="83"/>
       <c r="H14" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I14" s="16">
         <f>Expenditure!$E$106</f>
@@ -2311,7 +2318,7 @@
     <row r="15" spans="1:11">
       <c r="A15" s="75"/>
       <c r="B15" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C15" s="14">
         <f>Offering!$E$15</f>
@@ -2327,7 +2334,7 @@
       </c>
       <c r="G15" s="83"/>
       <c r="H15" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I15" s="16">
         <f>Expenditure!$E$110</f>
@@ -2345,7 +2352,7 @@
     <row r="16" spans="1:11">
       <c r="A16" s="75"/>
       <c r="B16" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C16" s="14">
         <f>Offering!$E$16</f>
@@ -2360,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="85" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="18">
@@ -2379,7 +2386,7 @@
     <row r="17" spans="1:11">
       <c r="A17" s="75"/>
       <c r="B17" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C17" s="14">
         <f>Offering!$E$17</f>
@@ -2402,7 +2409,7 @@
     <row r="18" spans="1:11">
       <c r="A18" s="75"/>
       <c r="B18" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C18" s="14">
         <f>Offering!$E$18</f>
@@ -2425,7 +2432,7 @@
     <row r="19" spans="1:11">
       <c r="A19" s="75"/>
       <c r="B19" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" s="14">
         <f>Offering!$E$19</f>
@@ -2448,7 +2455,7 @@
     <row r="20" spans="1:11">
       <c r="A20" s="75"/>
       <c r="B20" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C20" s="14">
         <f>Offering!$E$20</f>
@@ -2471,7 +2478,7 @@
     <row r="21" spans="1:11">
       <c r="A21" s="75"/>
       <c r="B21" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C21" s="14">
         <f>Offering!$E$21</f>
@@ -2487,7 +2494,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="123" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B22" s="124"/>
       <c r="C22" s="19">
@@ -2512,7 +2519,7 @@
       <c r="D23" s="134"/>
       <c r="E23" s="135"/>
       <c r="G23" s="87" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H23" s="21"/>
       <c r="I23" s="20"/>
@@ -2522,7 +2529,7 @@
     <row r="24" spans="1:11">
       <c r="A24" s="78"/>
       <c r="B24" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C24" s="23">
         <f>Offering!$E$24</f>
@@ -2538,7 +2545,7 @@
       </c>
       <c r="G24" s="92"/>
       <c r="H24" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I24" s="20">
         <f>Expenditure!$E$115</f>
@@ -2556,7 +2563,7 @@
     <row r="25" spans="1:11">
       <c r="A25" s="80"/>
       <c r="B25" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C25" s="23">
         <f>Offering!$E$25</f>
@@ -2572,7 +2579,7 @@
       </c>
       <c r="G25" s="92"/>
       <c r="H25" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I25" s="20">
         <f>Expenditure!$E$116</f>
@@ -2590,7 +2597,7 @@
     <row r="26" spans="1:11">
       <c r="A26" s="80"/>
       <c r="B26" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C26" s="23">
         <f>Offering!$E$26</f>
@@ -2603,7 +2610,7 @@
       </c>
       <c r="G26" s="92"/>
       <c r="H26" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I26" s="20">
         <f>Expenditure!$E$117</f>
@@ -2621,7 +2628,7 @@
     <row r="27" spans="1:11">
       <c r="A27" s="80"/>
       <c r="B27" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C27" s="23">
         <f>Offering!$E$27</f>
@@ -2637,7 +2644,7 @@
       </c>
       <c r="G27" s="92"/>
       <c r="H27" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I27" s="20">
         <f>Expenditure!$E$118</f>
@@ -2651,7 +2658,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="123" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B28" s="124"/>
       <c r="C28" s="19">
@@ -2668,7 +2675,7 @@
       </c>
       <c r="G28" s="92"/>
       <c r="H28" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I28" s="20">
         <f>Expenditure!$E$119</f>
@@ -2688,7 +2695,7 @@
       <c r="E29" s="135"/>
       <c r="G29" s="92"/>
       <c r="H29" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I29" s="20">
         <f>Expenditure!$E$120</f>
@@ -2705,7 +2712,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="19">
@@ -2721,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="93" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="18">
@@ -2740,7 +2747,7 @@
     <row r="31" spans="1:11">
       <c r="A31" s="82"/>
       <c r="B31" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C31" s="14">
         <f>Offering!$E$31</f>
@@ -2757,7 +2764,7 @@
     <row r="32" spans="1:11">
       <c r="A32" s="75"/>
       <c r="B32" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C32" s="14">
         <f>Offering!$E$32</f>
@@ -2779,7 +2786,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="125" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B33" s="126"/>
       <c r="C33" s="94">
@@ -2795,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="139" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H33" s="140"/>
       <c r="I33" s="96">
@@ -2813,7 +2820,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="113" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B35" s="113"/>
       <c r="C35" s="113"/>
@@ -2853,7 +2860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0CF550-27FC-43F1-88DC-1E797AD2F4C1}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
@@ -2891,7 +2898,7 @@
     </row>
     <row r="2" spans="1:19" ht="15.5">
       <c r="A2" s="143" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B2" s="145"/>
       <c r="C2" s="145"/>
@@ -2914,7 +2921,7 @@
     </row>
     <row r="3" spans="1:19" ht="15.5">
       <c r="A3" s="146" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B3" s="146"/>
       <c r="C3" s="144"/>
@@ -2937,7 +2944,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="147" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B4" s="147"/>
       <c r="C4" s="29"/>
@@ -2960,14 +2967,14 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="148" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B5" s="148"/>
       <c r="C5" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>1</v>
@@ -2976,49 +2983,49 @@
         <v>5</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H5" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="I5" s="28" t="s">
         <v>185</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="J5" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="J5" s="28" t="s">
+      <c r="K5" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="L5" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="L5" s="28" t="s">
+      <c r="M5" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="N5" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="N5" s="28" t="s">
+      <c r="O5" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="O5" s="28" t="s">
+      <c r="P5" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="P5" s="28" t="s">
+      <c r="Q5" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="Q5" s="28" t="s">
+      <c r="R5" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="R5" s="28" t="s">
+      <c r="S5" s="28" t="s">
         <v>195</v>
-      </c>
-      <c r="S5" s="28" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="12"/>
       <c r="B6" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C6" s="14">
         <v>110000</v>
@@ -3053,7 +3060,7 @@
     <row r="7" spans="1:19">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C7" s="14">
         <v>3000</v>
@@ -3088,7 +3095,7 @@
     <row r="8" spans="1:19">
       <c r="A8" s="12"/>
       <c r="B8" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C8" s="14">
         <v>500</v>
@@ -3123,7 +3130,7 @@
     <row r="9" spans="1:19">
       <c r="A9" s="12"/>
       <c r="B9" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C9" s="14">
         <v>5000</v>
@@ -3158,7 +3165,7 @@
     <row r="10" spans="1:19">
       <c r="A10" s="12"/>
       <c r="B10" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C10" s="14">
         <v>4500</v>
@@ -3193,7 +3200,7 @@
     <row r="11" spans="1:19">
       <c r="A11" s="12"/>
       <c r="B11" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" s="14">
         <v>4500</v>
@@ -3228,7 +3235,7 @@
     <row r="12" spans="1:19">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C12" s="14">
         <v>2500</v>
@@ -3263,7 +3270,7 @@
     <row r="13" spans="1:19">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" s="14">
         <v>4000</v>
@@ -3298,7 +3305,7 @@
     <row r="14" spans="1:19">
       <c r="A14" s="12"/>
       <c r="B14" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C14" s="14">
         <v>4500</v>
@@ -3333,7 +3340,7 @@
     <row r="15" spans="1:19">
       <c r="A15" s="12"/>
       <c r="B15" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C15" s="14">
         <v>7500</v>
@@ -3368,7 +3375,7 @@
     <row r="16" spans="1:19">
       <c r="A16" s="12"/>
       <c r="B16" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C16" s="14">
         <v>550</v>
@@ -3403,7 +3410,7 @@
     <row r="17" spans="1:19">
       <c r="A17" s="12"/>
       <c r="B17" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C17" s="14">
         <v>9000</v>
@@ -3438,7 +3445,7 @@
     <row r="18" spans="1:19">
       <c r="A18" s="12"/>
       <c r="B18" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C18" s="14">
         <v>2000</v>
@@ -3473,7 +3480,7 @@
     <row r="19" spans="1:19">
       <c r="A19" s="12"/>
       <c r="B19" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C19" s="14">
         <v>2000</v>
@@ -3508,7 +3515,7 @@
     <row r="20" spans="1:19">
       <c r="A20" s="12"/>
       <c r="B20" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C20" s="14">
         <v>800</v>
@@ -3543,7 +3550,7 @@
     <row r="21" spans="1:19">
       <c r="A21" s="12"/>
       <c r="B21" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C21" s="14">
         <v>2500</v>
@@ -3572,7 +3579,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="124" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B22" s="124"/>
       <c r="C22" s="19">
@@ -3668,7 +3675,7 @@
     <row r="24" spans="1:19">
       <c r="A24" s="24"/>
       <c r="B24" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C24" s="23">
         <v>8000</v>
@@ -3703,7 +3710,7 @@
     <row r="25" spans="1:19">
       <c r="A25" s="25"/>
       <c r="B25" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C25" s="23">
         <v>4000</v>
@@ -3738,7 +3745,7 @@
     <row r="26" spans="1:19">
       <c r="A26" s="25"/>
       <c r="B26" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C26" s="23"/>
       <c r="D26" s="23">
@@ -3766,7 +3773,7 @@
     <row r="27" spans="1:19">
       <c r="A27" s="25"/>
       <c r="B27" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C27" s="23">
         <v>3000</v>
@@ -3800,7 +3807,7 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="124" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B28" s="124"/>
       <c r="C28" s="19">
@@ -3895,7 +3902,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B30" s="27"/>
       <c r="C30" s="19">
@@ -3970,7 +3977,7 @@
     <row r="31" spans="1:19">
       <c r="A31" s="13"/>
       <c r="B31" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C31" s="14">
         <v>9041</v>
@@ -3999,7 +4006,7 @@
     <row r="32" spans="1:19">
       <c r="A32" s="12"/>
       <c r="B32" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C32" s="14">
         <v>30000</v>
@@ -4030,7 +4037,7 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="142" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B33" s="142"/>
       <c r="C33" s="37">
@@ -4104,7 +4111,7 @@
     </row>
     <row r="34" spans="1:19">
       <c r="F34" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -4140,8 +4147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D32CE1F-8507-4054-9548-AB4CA2F77C9C}">
   <dimension ref="A1:S157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -4155,14 +4162,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.5">
-      <c r="A1" s="155" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
+      <c r="A1" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
       <c r="G1" s="145"/>
       <c r="H1" s="38"/>
       <c r="I1" s="38"/>
@@ -4178,14 +4185,14 @@
       <c r="S1" s="38"/>
     </row>
     <row r="2" spans="1:19" ht="15.5">
-      <c r="A2" s="157">
+      <c r="A2" s="152">
         <v>2021</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
       <c r="G2" s="145"/>
       <c r="H2" s="38"/>
       <c r="I2" s="38"/>
@@ -4201,14 +4208,14 @@
       <c r="S2" s="38"/>
     </row>
     <row r="3" spans="1:19" ht="15.5">
-      <c r="A3" s="158" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
+      <c r="A3" s="153" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="153"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="150"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
       <c r="G3" s="145"/>
       <c r="H3" s="38"/>
       <c r="I3" s="38"/>
@@ -4234,7 +4241,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E4" s="42" t="s">
         <v>1</v>
@@ -4243,54 +4250,54 @@
         <v>5</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H4" s="30" t="s">
+        <v>184</v>
+      </c>
+      <c r="I4" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="J4" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="K4" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="L4" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="L4" s="30" t="s">
+      <c r="M4" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="N4" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="N4" s="30" t="s">
+      <c r="O4" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="O4" s="30" t="s">
+      <c r="P4" s="30" t="s">
         <v>192</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="Q4" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="R4" s="30" t="s">
         <v>194</v>
       </c>
-      <c r="R4" s="30" t="s">
+      <c r="S4" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="S4" s="30" t="s">
-        <v>196</v>
-      </c>
     </row>
     <row r="5" spans="1:19" ht="14.5">
-      <c r="A5" s="152"/>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="150"/>
+      <c r="A5" s="154"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="155"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="156"/>
       <c r="I5" s="137"/>
       <c r="J5" s="137"/>
       <c r="K5" s="137"/>
@@ -4304,16 +4311,16 @@
       <c r="S5" s="137"/>
     </row>
     <row r="6" spans="1:19" ht="14.5">
-      <c r="A6" s="152" t="s">
+      <c r="A6" s="154" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="153"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="150"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="155"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="156"/>
       <c r="I6" s="137"/>
       <c r="J6" s="137"/>
       <c r="K6" s="137"/>
@@ -5121,7 +5128,7 @@
     </row>
     <row r="31" spans="1:19" ht="14.5">
       <c r="A31" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B31" s="45" t="s">
         <v>44</v>
@@ -5233,14 +5240,14 @@
       </c>
     </row>
     <row r="33" spans="1:19" ht="14.5">
-      <c r="A33" s="152"/>
+      <c r="A33" s="154"/>
       <c r="B33" s="134"/>
       <c r="C33" s="134"/>
       <c r="D33" s="134"/>
       <c r="E33" s="134"/>
       <c r="F33" s="134"/>
       <c r="G33" s="134"/>
-      <c r="H33" s="154"/>
+      <c r="H33" s="157"/>
       <c r="I33" s="137"/>
       <c r="J33" s="137"/>
       <c r="K33" s="137"/>
@@ -5422,7 +5429,7 @@
         <v>57</v>
       </c>
       <c r="B39" s="54" t="s">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="C39" s="55">
         <v>400</v>
@@ -5449,10 +5456,10 @@
     </row>
     <row r="40" spans="1:19" ht="14.5">
       <c r="A40" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="54" t="s">
         <v>59</v>
-      </c>
-      <c r="B40" s="54" t="s">
-        <v>60</v>
       </c>
       <c r="C40" s="55">
         <v>5000</v>
@@ -5486,10 +5493,10 @@
     </row>
     <row r="41" spans="1:19" ht="14.5">
       <c r="A41" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="54" t="s">
         <v>61</v>
-      </c>
-      <c r="B41" s="54" t="s">
-        <v>62</v>
       </c>
       <c r="C41" s="55">
         <v>300</v>
@@ -5523,10 +5530,10 @@
     </row>
     <row r="42" spans="1:19" ht="14.5">
       <c r="A42" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="54" t="s">
         <v>63</v>
-      </c>
-      <c r="B42" s="54" t="s">
-        <v>64</v>
       </c>
       <c r="C42" s="55">
         <v>300</v>
@@ -5560,10 +5567,10 @@
     </row>
     <row r="43" spans="1:19" ht="14.5">
       <c r="A43" s="56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="54" t="s">
         <v>65</v>
-      </c>
-      <c r="B43" s="54" t="s">
-        <v>66</v>
       </c>
       <c r="C43" s="55">
         <v>400</v>
@@ -5597,10 +5604,10 @@
     </row>
     <row r="44" spans="1:19" ht="14.5">
       <c r="A44" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="54" t="s">
         <v>67</v>
-      </c>
-      <c r="B44" s="54" t="s">
-        <v>68</v>
       </c>
       <c r="C44" s="55">
         <v>40800</v>
@@ -5634,10 +5641,10 @@
     </row>
     <row r="45" spans="1:19" ht="14.5">
       <c r="A45" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="54" t="s">
         <v>69</v>
-      </c>
-      <c r="B45" s="54" t="s">
-        <v>70</v>
       </c>
       <c r="C45" s="55">
         <v>1200</v>
@@ -5671,10 +5678,10 @@
     </row>
     <row r="46" spans="1:19" ht="14.5">
       <c r="A46" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="54" t="s">
         <v>71</v>
-      </c>
-      <c r="B46" s="54" t="s">
-        <v>72</v>
       </c>
       <c r="C46" s="55">
         <v>2000</v>
@@ -5708,10 +5715,10 @@
     </row>
     <row r="47" spans="1:19" ht="14.5">
       <c r="A47" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="54" t="s">
         <v>73</v>
-      </c>
-      <c r="B47" s="54" t="s">
-        <v>74</v>
       </c>
       <c r="C47" s="55">
         <v>800</v>
@@ -5820,14 +5827,14 @@
       </c>
     </row>
     <row r="49" spans="1:19" ht="14.5">
-      <c r="A49" s="152"/>
+      <c r="A49" s="154"/>
       <c r="B49" s="137"/>
       <c r="C49" s="137"/>
       <c r="D49" s="137"/>
       <c r="E49" s="137"/>
       <c r="F49" s="137"/>
       <c r="G49" s="137"/>
-      <c r="H49" s="150"/>
+      <c r="H49" s="156"/>
       <c r="I49" s="137"/>
       <c r="J49" s="137"/>
       <c r="K49" s="137"/>
@@ -5842,10 +5849,10 @@
     </row>
     <row r="50" spans="1:19" ht="14.5">
       <c r="A50" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="B50" s="45" t="s">
         <v>75</v>
-      </c>
-      <c r="B50" s="45" t="s">
-        <v>76</v>
       </c>
       <c r="C50" s="47"/>
       <c r="D50" s="46"/>
@@ -5867,10 +5874,10 @@
     </row>
     <row r="51" spans="1:19" ht="14.5">
       <c r="A51" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="45" t="s">
         <v>77</v>
-      </c>
-      <c r="B51" s="45" t="s">
-        <v>78</v>
       </c>
       <c r="C51" s="47">
         <v>1200</v>
@@ -5904,10 +5911,10 @@
     </row>
     <row r="52" spans="1:19" ht="14.5">
       <c r="A52" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="45" t="s">
         <v>79</v>
-      </c>
-      <c r="B52" s="45" t="s">
-        <v>80</v>
       </c>
       <c r="C52" s="47">
         <v>200</v>
@@ -5941,10 +5948,10 @@
     </row>
     <row r="53" spans="1:19" ht="14.5">
       <c r="A53" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="45" t="s">
         <v>81</v>
-      </c>
-      <c r="B53" s="45" t="s">
-        <v>82</v>
       </c>
       <c r="C53" s="47">
         <v>100</v>
@@ -5978,10 +5985,10 @@
     </row>
     <row r="54" spans="1:19" ht="14.5">
       <c r="A54" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="45" t="s">
         <v>83</v>
-      </c>
-      <c r="B54" s="45" t="s">
-        <v>84</v>
       </c>
       <c r="C54" s="47"/>
       <c r="D54" s="47"/>
@@ -6011,10 +6018,10 @@
     </row>
     <row r="55" spans="1:19" ht="14.5">
       <c r="A55" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="45" t="s">
         <v>85</v>
-      </c>
-      <c r="B55" s="45" t="s">
-        <v>86</v>
       </c>
       <c r="C55" s="47">
         <v>300</v>
@@ -6048,10 +6055,10 @@
     </row>
     <row r="56" spans="1:19" ht="14.5">
       <c r="A56" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56" s="45" t="s">
         <v>87</v>
-      </c>
-      <c r="B56" s="45" t="s">
-        <v>88</v>
       </c>
       <c r="C56" s="47">
         <v>200</v>
@@ -6085,10 +6092,10 @@
     </row>
     <row r="57" spans="1:19" ht="14.5">
       <c r="A57" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="45" t="s">
         <v>89</v>
-      </c>
-      <c r="B57" s="45" t="s">
-        <v>90</v>
       </c>
       <c r="C57" s="47">
         <v>100</v>
@@ -6125,7 +6132,7 @@
         <v>45</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C58" s="46">
         <f>SUBTOTAL(9,C51:C57)</f>
@@ -6197,14 +6204,14 @@
       </c>
     </row>
     <row r="59" spans="1:19" ht="14.5">
-      <c r="A59" s="152"/>
+      <c r="A59" s="154"/>
       <c r="B59" s="137"/>
       <c r="C59" s="137"/>
       <c r="D59" s="137"/>
       <c r="E59" s="137"/>
       <c r="F59" s="137"/>
       <c r="G59" s="137"/>
-      <c r="H59" s="150"/>
+      <c r="H59" s="156"/>
       <c r="I59" s="137"/>
       <c r="J59" s="137"/>
       <c r="K59" s="137"/>
@@ -6219,10 +6226,10 @@
     </row>
     <row r="60" spans="1:19" ht="14.5">
       <c r="A60" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="54" t="s">
         <v>91</v>
-      </c>
-      <c r="B60" s="54" t="s">
-        <v>92</v>
       </c>
       <c r="C60" s="53"/>
       <c r="D60" s="55"/>
@@ -6244,10 +6251,10 @@
     </row>
     <row r="61" spans="1:19" ht="14.5">
       <c r="A61" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="54" t="s">
         <v>93</v>
-      </c>
-      <c r="B61" s="54" t="s">
-        <v>94</v>
       </c>
       <c r="C61" s="53">
         <v>700</v>
@@ -6281,10 +6288,10 @@
     </row>
     <row r="62" spans="1:19" ht="14.5">
       <c r="A62" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="B62" s="54" t="s">
         <v>95</v>
-      </c>
-      <c r="B62" s="54" t="s">
-        <v>96</v>
       </c>
       <c r="C62" s="53">
         <v>200</v>
@@ -6318,10 +6325,10 @@
     </row>
     <row r="63" spans="1:19" ht="14.5">
       <c r="A63" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="B63" s="54" t="s">
         <v>97</v>
-      </c>
-      <c r="B63" s="54" t="s">
-        <v>98</v>
       </c>
       <c r="C63" s="53">
         <v>450</v>
@@ -6355,10 +6362,10 @@
     </row>
     <row r="64" spans="1:19" ht="14.5">
       <c r="A64" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" s="54" t="s">
         <v>99</v>
-      </c>
-      <c r="B64" s="54" t="s">
-        <v>100</v>
       </c>
       <c r="C64" s="53"/>
       <c r="D64" s="55">
@@ -6393,7 +6400,7 @@
         <v>45</v>
       </c>
       <c r="B65" s="54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="55">
         <f>SUBTOTAL(9,C61:C64)</f>
@@ -6465,14 +6472,14 @@
       </c>
     </row>
     <row r="66" spans="1:19" ht="14.5">
-      <c r="A66" s="152"/>
+      <c r="A66" s="154"/>
       <c r="B66" s="137"/>
       <c r="C66" s="137"/>
       <c r="D66" s="137"/>
       <c r="E66" s="137"/>
       <c r="F66" s="137"/>
       <c r="G66" s="137"/>
-      <c r="H66" s="150"/>
+      <c r="H66" s="156"/>
       <c r="I66" s="137"/>
       <c r="J66" s="137"/>
       <c r="K66" s="137"/>
@@ -6487,10 +6494,10 @@
     </row>
     <row r="67" spans="1:19" ht="14.5">
       <c r="A67" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="B67" s="45" t="s">
         <v>101</v>
-      </c>
-      <c r="B67" s="45" t="s">
-        <v>102</v>
       </c>
       <c r="C67" s="47"/>
       <c r="D67" s="46"/>
@@ -6512,10 +6519,10 @@
     </row>
     <row r="68" spans="1:19" ht="14.5">
       <c r="A68" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="45" t="s">
         <v>103</v>
-      </c>
-      <c r="B68" s="45" t="s">
-        <v>104</v>
       </c>
       <c r="C68" s="46">
         <v>200</v>
@@ -6547,10 +6554,10 @@
     </row>
     <row r="69" spans="1:19" ht="14.5">
       <c r="A69" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" s="45" t="s">
         <v>105</v>
-      </c>
-      <c r="B69" s="45" t="s">
-        <v>106</v>
       </c>
       <c r="C69" s="46">
         <v>300</v>
@@ -6582,10 +6589,10 @@
     </row>
     <row r="70" spans="1:19" ht="14.5">
       <c r="A70" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" s="45" t="s">
         <v>107</v>
-      </c>
-      <c r="B70" s="45" t="s">
-        <v>108</v>
       </c>
       <c r="C70" s="46">
         <v>100</v>
@@ -6619,10 +6626,10 @@
     </row>
     <row r="71" spans="1:19" ht="14.5">
       <c r="A71" s="59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C71" s="47">
         <v>1000</v>
@@ -6657,7 +6664,7 @@
         <v>45</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C72" s="46">
         <f>SUBTOTAL(9,C68:C71)</f>
@@ -6729,14 +6736,14 @@
       </c>
     </row>
     <row r="73" spans="1:19" ht="14.5">
-      <c r="A73" s="152"/>
+      <c r="A73" s="154"/>
       <c r="B73" s="137"/>
       <c r="C73" s="137"/>
       <c r="D73" s="137"/>
       <c r="E73" s="137"/>
       <c r="F73" s="137"/>
       <c r="G73" s="137"/>
-      <c r="H73" s="150"/>
+      <c r="H73" s="156"/>
       <c r="I73" s="137"/>
       <c r="J73" s="137"/>
       <c r="K73" s="137"/>
@@ -6751,10 +6758,10 @@
     </row>
     <row r="74" spans="1:19" ht="14.5">
       <c r="A74" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="54" t="s">
         <v>110</v>
-      </c>
-      <c r="B74" s="54" t="s">
-        <v>111</v>
       </c>
       <c r="C74" s="53"/>
       <c r="D74" s="55"/>
@@ -6776,10 +6783,10 @@
     </row>
     <row r="75" spans="1:19" ht="14.5">
       <c r="A75" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B75" s="54" t="s">
         <v>112</v>
-      </c>
-      <c r="B75" s="54" t="s">
-        <v>113</v>
       </c>
       <c r="C75" s="55">
         <v>500</v>
@@ -6813,10 +6820,10 @@
     </row>
     <row r="76" spans="1:19" ht="14.5">
       <c r="A76" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" s="54" t="s">
         <v>114</v>
-      </c>
-      <c r="B76" s="54" t="s">
-        <v>115</v>
       </c>
       <c r="C76" s="55">
         <v>100</v>
@@ -6850,10 +6857,10 @@
     </row>
     <row r="77" spans="1:19" ht="14.5">
       <c r="A77" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" s="54" t="s">
         <v>116</v>
-      </c>
-      <c r="B77" s="54" t="s">
-        <v>117</v>
       </c>
       <c r="C77" s="55">
         <v>300</v>
@@ -6887,10 +6894,10 @@
     </row>
     <row r="78" spans="1:19" ht="14.5">
       <c r="A78" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" s="54" t="s">
         <v>118</v>
-      </c>
-      <c r="B78" s="54" t="s">
-        <v>119</v>
       </c>
       <c r="C78" s="55">
         <v>500</v>
@@ -6922,10 +6929,10 @@
     </row>
     <row r="79" spans="1:19" ht="14.5">
       <c r="A79" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" s="54" t="s">
         <v>120</v>
-      </c>
-      <c r="B79" s="54" t="s">
-        <v>121</v>
       </c>
       <c r="C79" s="61">
         <v>500</v>
@@ -6960,7 +6967,7 @@
         <v>45</v>
       </c>
       <c r="B80" s="54" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C80" s="55">
         <f>SUBTOTAL(9,C75:C79)</f>
@@ -7032,14 +7039,14 @@
       </c>
     </row>
     <row r="81" spans="1:19" ht="14.5">
-      <c r="A81" s="152"/>
+      <c r="A81" s="154"/>
       <c r="B81" s="134"/>
       <c r="C81" s="134"/>
       <c r="D81" s="134"/>
       <c r="E81" s="134"/>
       <c r="F81" s="134"/>
       <c r="G81" s="134"/>
-      <c r="H81" s="154"/>
+      <c r="H81" s="157"/>
       <c r="I81" s="137"/>
       <c r="J81" s="137"/>
       <c r="K81" s="137"/>
@@ -7054,10 +7061,10 @@
     </row>
     <row r="82" spans="1:19" ht="14.5">
       <c r="A82" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" s="45" t="s">
         <v>122</v>
-      </c>
-      <c r="B82" s="45" t="s">
-        <v>123</v>
       </c>
       <c r="C82" s="47"/>
       <c r="D82" s="46"/>
@@ -7079,10 +7086,10 @@
     </row>
     <row r="83" spans="1:19" ht="14.5">
       <c r="A83" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83" s="45" t="s">
         <v>124</v>
-      </c>
-      <c r="B83" s="45" t="s">
-        <v>125</v>
       </c>
       <c r="C83" s="46">
         <v>1500</v>
@@ -7116,10 +7123,10 @@
     </row>
     <row r="84" spans="1:19" ht="14.5">
       <c r="A84" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="B84" s="45" t="s">
         <v>126</v>
-      </c>
-      <c r="B84" s="45" t="s">
-        <v>127</v>
       </c>
       <c r="C84" s="46">
         <v>6400</v>
@@ -7153,10 +7160,10 @@
     </row>
     <row r="85" spans="1:19" ht="14.5">
       <c r="A85" s="59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B85" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C85" s="46"/>
       <c r="D85" s="47">
@@ -7183,10 +7190,10 @@
     </row>
     <row r="86" spans="1:19" ht="14.5">
       <c r="A86" s="59" t="s">
+        <v>128</v>
+      </c>
+      <c r="B86" s="45" t="s">
         <v>129</v>
-      </c>
-      <c r="B86" s="45" t="s">
-        <v>130</v>
       </c>
       <c r="C86" s="46">
         <v>1500</v>
@@ -7220,10 +7227,10 @@
     </row>
     <row r="87" spans="1:19" ht="14.5">
       <c r="A87" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" s="59" t="s">
         <v>131</v>
-      </c>
-      <c r="B87" s="59" t="s">
-        <v>132</v>
       </c>
       <c r="C87" s="46">
         <v>1000</v>
@@ -7257,10 +7264,10 @@
     </row>
     <row r="88" spans="1:19" ht="14.5">
       <c r="A88" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88" s="45" t="s">
         <v>133</v>
-      </c>
-      <c r="B88" s="45" t="s">
-        <v>134</v>
       </c>
       <c r="C88" s="46">
         <v>200</v>
@@ -7294,10 +7301,10 @@
     </row>
     <row r="89" spans="1:19" ht="14.5">
       <c r="A89" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89" s="45" t="s">
         <v>135</v>
-      </c>
-      <c r="B89" s="45" t="s">
-        <v>136</v>
       </c>
       <c r="C89" s="46">
         <v>800</v>
@@ -7331,10 +7338,10 @@
     </row>
     <row r="90" spans="1:19" ht="14.5">
       <c r="A90" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B90" s="45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C90" s="46">
         <v>300</v>
@@ -7368,10 +7375,10 @@
     </row>
     <row r="91" spans="1:19" ht="14.5">
       <c r="A91" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B91" s="45" t="s">
         <v>138</v>
-      </c>
-      <c r="B91" s="45" t="s">
-        <v>139</v>
       </c>
       <c r="C91" s="46">
         <v>500</v>
@@ -7405,10 +7412,10 @@
     </row>
     <row r="92" spans="1:19" ht="14.5">
       <c r="A92" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="B92" s="45" t="s">
         <v>140</v>
-      </c>
-      <c r="B92" s="45" t="s">
-        <v>141</v>
       </c>
       <c r="C92" s="46">
         <v>1200</v>
@@ -7442,10 +7449,10 @@
     </row>
     <row r="93" spans="1:19" ht="14.5">
       <c r="A93" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B93" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C93" s="46">
         <v>1200</v>
@@ -7482,7 +7489,7 @@
         <v>45</v>
       </c>
       <c r="B94" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C94" s="46">
         <f>SUBTOTAL(9,C83:C93)</f>
@@ -7554,14 +7561,14 @@
       </c>
     </row>
     <row r="95" spans="1:19" ht="14.5">
-      <c r="A95" s="152"/>
+      <c r="A95" s="154"/>
       <c r="B95" s="134"/>
       <c r="C95" s="134"/>
       <c r="D95" s="134"/>
       <c r="E95" s="134"/>
       <c r="F95" s="134"/>
       <c r="G95" s="134"/>
-      <c r="H95" s="150"/>
+      <c r="H95" s="156"/>
       <c r="I95" s="137"/>
       <c r="J95" s="137"/>
       <c r="K95" s="137"/>
@@ -7576,10 +7583,10 @@
     </row>
     <row r="96" spans="1:19" ht="14.5">
       <c r="A96" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="B96" s="54" t="s">
         <v>143</v>
-      </c>
-      <c r="B96" s="54" t="s">
-        <v>144</v>
       </c>
       <c r="C96" s="53"/>
       <c r="D96" s="55"/>
@@ -7601,10 +7608,10 @@
     </row>
     <row r="97" spans="1:19" ht="14.5">
       <c r="A97" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="B97" s="54" t="s">
         <v>145</v>
-      </c>
-      <c r="B97" s="54" t="s">
-        <v>146</v>
       </c>
       <c r="C97" s="55">
         <v>600</v>
@@ -7638,10 +7645,10 @@
     </row>
     <row r="98" spans="1:19" ht="14.5">
       <c r="A98" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="B98" s="54" t="s">
         <v>147</v>
-      </c>
-      <c r="B98" s="54" t="s">
-        <v>148</v>
       </c>
       <c r="C98" s="55">
         <v>500</v>
@@ -7675,10 +7682,10 @@
     </row>
     <row r="99" spans="1:19" ht="14.5">
       <c r="A99" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="B99" s="54" t="s">
         <v>149</v>
-      </c>
-      <c r="B99" s="54" t="s">
-        <v>150</v>
       </c>
       <c r="C99" s="55">
         <v>2000</v>
@@ -7712,10 +7719,10 @@
     </row>
     <row r="100" spans="1:19" ht="14.5">
       <c r="A100" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="B100" s="54" t="s">
         <v>151</v>
-      </c>
-      <c r="B100" s="54" t="s">
-        <v>152</v>
       </c>
       <c r="C100" s="55">
         <v>200</v>
@@ -7749,10 +7756,10 @@
     </row>
     <row r="101" spans="1:19" ht="14.5">
       <c r="A101" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B101" s="54" t="s">
         <v>153</v>
-      </c>
-      <c r="B101" s="54" t="s">
-        <v>154</v>
       </c>
       <c r="C101" s="55">
         <v>200</v>
@@ -7789,7 +7796,7 @@
         <v>45</v>
       </c>
       <c r="B102" s="54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C102" s="55">
         <f>SUBTOTAL(9,C97:C101)</f>
@@ -7861,14 +7868,14 @@
       </c>
     </row>
     <row r="103" spans="1:19" ht="14.5">
-      <c r="A103" s="151"/>
+      <c r="A103" s="158"/>
       <c r="B103" s="134"/>
       <c r="C103" s="134"/>
       <c r="D103" s="134"/>
       <c r="E103" s="134"/>
       <c r="F103" s="134"/>
       <c r="G103" s="134"/>
-      <c r="H103" s="150"/>
+      <c r="H103" s="156"/>
       <c r="I103" s="137"/>
       <c r="J103" s="137"/>
       <c r="K103" s="137"/>
@@ -7883,10 +7890,10 @@
     </row>
     <row r="104" spans="1:19" ht="14.5">
       <c r="A104" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="B104" s="45" t="s">
         <v>155</v>
-      </c>
-      <c r="B104" s="45" t="s">
-        <v>156</v>
       </c>
       <c r="C104" s="47"/>
       <c r="D104" s="62"/>
@@ -7908,10 +7915,10 @@
     </row>
     <row r="105" spans="1:19" ht="14.5">
       <c r="A105" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="B105" s="45" t="s">
         <v>157</v>
-      </c>
-      <c r="B105" s="45" t="s">
-        <v>158</v>
       </c>
       <c r="C105" s="47">
         <v>1000</v>
@@ -7946,7 +7953,7 @@
         <v>45</v>
       </c>
       <c r="B106" s="45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C106" s="46">
         <f>SUBTOTAL(9,C105)</f>
@@ -8018,14 +8025,14 @@
       </c>
     </row>
     <row r="107" spans="1:19" ht="14.5">
-      <c r="A107" s="152"/>
+      <c r="A107" s="154"/>
       <c r="B107" s="134"/>
       <c r="C107" s="134"/>
       <c r="D107" s="134"/>
       <c r="E107" s="134"/>
       <c r="F107" s="134"/>
       <c r="G107" s="134"/>
-      <c r="H107" s="150"/>
+      <c r="H107" s="156"/>
       <c r="I107" s="137"/>
       <c r="J107" s="137"/>
       <c r="K107" s="137"/>
@@ -8040,10 +8047,10 @@
     </row>
     <row r="108" spans="1:19" ht="14.5">
       <c r="A108" s="52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B108" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C108" s="53"/>
       <c r="D108" s="53"/>
@@ -8065,10 +8072,10 @@
     </row>
     <row r="109" spans="1:19" ht="14.5">
       <c r="A109" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B109" s="54" t="s">
         <v>160</v>
-      </c>
-      <c r="B109" s="54" t="s">
-        <v>161</v>
       </c>
       <c r="C109" s="63">
         <v>1960.94</v>
@@ -8103,7 +8110,7 @@
         <v>45</v>
       </c>
       <c r="B110" s="54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C110" s="55">
         <f>SUBTOTAL(9,C109)</f>
@@ -8175,7 +8182,7 @@
       </c>
     </row>
     <row r="111" spans="1:19" ht="14.5">
-      <c r="A111" s="151"/>
+      <c r="A111" s="158"/>
       <c r="B111" s="134"/>
       <c r="C111" s="134"/>
       <c r="D111" s="134"/>
@@ -8198,7 +8205,7 @@
     <row r="112" spans="1:19" ht="14.5">
       <c r="A112" s="64"/>
       <c r="B112" s="64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C112" s="65">
         <f>SUBTOTAL(9,C9:C110)</f>
@@ -8270,14 +8277,14 @@
       </c>
     </row>
     <row r="113" spans="1:19" ht="14.5">
-      <c r="A113" s="152"/>
+      <c r="A113" s="154"/>
       <c r="B113" s="134"/>
       <c r="C113" s="134"/>
       <c r="D113" s="134"/>
       <c r="E113" s="134"/>
       <c r="F113" s="134"/>
       <c r="G113" s="134"/>
-      <c r="H113" s="150"/>
+      <c r="H113" s="156"/>
       <c r="I113" s="137"/>
       <c r="J113" s="137"/>
       <c r="K113" s="137"/>
@@ -8291,15 +8298,15 @@
       <c r="S113" s="137"/>
     </row>
     <row r="114" spans="1:19" ht="14.5">
-      <c r="A114" s="152" t="s">
-        <v>163</v>
-      </c>
-      <c r="B114" s="153"/>
-      <c r="C114" s="153"/>
-      <c r="D114" s="153"/>
-      <c r="E114" s="153"/>
-      <c r="F114" s="153"/>
-      <c r="G114" s="153"/>
+      <c r="A114" s="154" t="s">
+        <v>162</v>
+      </c>
+      <c r="B114" s="155"/>
+      <c r="C114" s="155"/>
+      <c r="D114" s="155"/>
+      <c r="E114" s="155"/>
+      <c r="F114" s="155"/>
+      <c r="G114" s="155"/>
       <c r="H114" s="68"/>
       <c r="I114" s="68"/>
       <c r="J114" s="68"/>
@@ -8315,10 +8322,10 @@
     </row>
     <row r="115" spans="1:19" ht="14.5">
       <c r="A115" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="B115" s="45" t="s">
         <v>164</v>
-      </c>
-      <c r="B115" s="45" t="s">
-        <v>165</v>
       </c>
       <c r="C115" s="47">
         <v>5000</v>
@@ -8352,10 +8359,10 @@
     </row>
     <row r="116" spans="1:19" ht="14.5">
       <c r="A116" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="B116" s="45" t="s">
         <v>166</v>
-      </c>
-      <c r="B116" s="45" t="s">
-        <v>167</v>
       </c>
       <c r="C116" s="47">
         <v>3000</v>
@@ -8389,10 +8396,10 @@
     </row>
     <row r="117" spans="1:19" ht="14.5">
       <c r="A117" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="B117" s="45" t="s">
         <v>168</v>
-      </c>
-      <c r="B117" s="45" t="s">
-        <v>169</v>
       </c>
       <c r="C117" s="47">
         <v>4000</v>
@@ -8426,10 +8433,10 @@
     </row>
     <row r="118" spans="1:19" ht="14.5">
       <c r="A118" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B118" s="45" t="s">
         <v>170</v>
-      </c>
-      <c r="B118" s="45" t="s">
-        <v>171</v>
       </c>
       <c r="C118" s="47">
         <v>0</v>
@@ -8458,10 +8465,10 @@
     </row>
     <row r="119" spans="1:19" ht="14.5">
       <c r="A119" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B119" s="45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C119" s="47">
         <v>0</v>
@@ -8490,10 +8497,10 @@
     </row>
     <row r="120" spans="1:19" ht="14.5">
       <c r="A120" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B120" s="45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C120" s="47"/>
       <c r="D120" s="46">
@@ -8528,7 +8535,7 @@
         <v>45</v>
       </c>
       <c r="B121" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C121" s="46">
         <f>SUBTOTAL(9,C115:C120)</f>
@@ -8600,14 +8607,14 @@
       </c>
     </row>
     <row r="122" spans="1:19" ht="14.5">
-      <c r="A122" s="151"/>
+      <c r="A122" s="158"/>
       <c r="B122" s="134"/>
       <c r="C122" s="134"/>
       <c r="D122" s="134"/>
       <c r="E122" s="134"/>
       <c r="F122" s="134"/>
       <c r="G122" s="134"/>
-      <c r="H122" s="150"/>
+      <c r="H122" s="156"/>
       <c r="I122" s="137"/>
       <c r="J122" s="137"/>
       <c r="K122" s="137"/>
@@ -8623,7 +8630,7 @@
     <row r="123" spans="1:19" ht="14.5">
       <c r="A123" s="64"/>
       <c r="B123" s="64" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C123" s="65">
         <f>SUBTOTAL(9,C115:C121)</f>
@@ -8695,14 +8702,14 @@
       </c>
     </row>
     <row r="124" spans="1:19" ht="14.5">
-      <c r="A124" s="152"/>
+      <c r="A124" s="154"/>
       <c r="B124" s="134"/>
       <c r="C124" s="134"/>
       <c r="D124" s="134"/>
       <c r="E124" s="134"/>
       <c r="F124" s="134"/>
       <c r="G124" s="134"/>
-      <c r="H124" s="150"/>
+      <c r="H124" s="156"/>
       <c r="I124" s="137"/>
       <c r="J124" s="137"/>
       <c r="K124" s="137"/>
@@ -8718,7 +8725,7 @@
     <row r="125" spans="1:19" ht="14.5">
       <c r="A125" s="66"/>
       <c r="B125" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C125" s="67">
         <f>SUBTOTAL(9,C9:C123)</f>
@@ -8795,7 +8802,7 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="F126" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="127" spans="1:19">
@@ -8905,29 +8912,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H5:S5"/>
-    <mergeCell ref="H6:S6"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:S33"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="H49:S49"/>
-    <mergeCell ref="H59:S59"/>
-    <mergeCell ref="A66:G66"/>
-    <mergeCell ref="H66:S66"/>
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="H73:S73"/>
-    <mergeCell ref="A59:G59"/>
-    <mergeCell ref="H81:S81"/>
-    <mergeCell ref="A95:G95"/>
-    <mergeCell ref="H95:S95"/>
-    <mergeCell ref="A103:G103"/>
-    <mergeCell ref="H103:S103"/>
-    <mergeCell ref="A81:G81"/>
     <mergeCell ref="H107:S107"/>
     <mergeCell ref="A122:G122"/>
     <mergeCell ref="A124:G124"/>
@@ -8938,6 +8922,29 @@
     <mergeCell ref="A107:G107"/>
     <mergeCell ref="A111:G111"/>
     <mergeCell ref="A113:G113"/>
+    <mergeCell ref="H81:S81"/>
+    <mergeCell ref="A95:G95"/>
+    <mergeCell ref="H95:S95"/>
+    <mergeCell ref="A103:G103"/>
+    <mergeCell ref="H103:S103"/>
+    <mergeCell ref="A81:G81"/>
+    <mergeCell ref="H59:S59"/>
+    <mergeCell ref="A66:G66"/>
+    <mergeCell ref="H66:S66"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="H73:S73"/>
+    <mergeCell ref="A59:G59"/>
+    <mergeCell ref="H5:S5"/>
+    <mergeCell ref="H6:S6"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:S33"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="H49:S49"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8969,7 +8976,7 @@
     </row>
     <row r="2" spans="1:4" ht="18.5">
       <c r="A2" s="159" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B2" s="159"/>
       <c r="C2" s="159"/>
@@ -8983,7 +8990,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" t="str">
         <f>Summary!$A$22</f>
@@ -9045,7 +9052,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B10" t="str">
         <f>Summary!$G$33</f>
@@ -9059,7 +9066,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C11" s="109"/>
       <c r="D11" s="109">
@@ -9073,7 +9080,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B13" t="str">
         <f>Summary!$B$32</f>
@@ -9087,7 +9094,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C14" s="109"/>
       <c r="D14" s="109">
@@ -9105,7 +9112,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B17" t="str">
         <f>Summary!$B$31</f>
@@ -9119,7 +9126,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="B18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C18" s="109"/>
       <c r="D18" s="109">
@@ -9136,7 +9143,7 @@
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1">
       <c r="B21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C21" s="109"/>
       <c r="D21" s="112">
